--- a/builds/production/data/maindata.xlsx
+++ b/builds/production/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="timeline" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15735" uniqueCount="1671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15749" uniqueCount="1685">
   <si>
     <t>date</t>
   </si>
@@ -5034,6 +5034,48 @@
   </si>
   <si>
     <t>ANTERIOR INTERBODY FUSION L3-4 AND L4-5, INSERTION OF CAGE L3-4, L4- 5, INSERTION OF BMP FOR ANTERIOR INTERBODY FUSION L3-4 AND L4-5</t>
+  </si>
+  <si>
+    <t>Senate Report</t>
+  </si>
+  <si>
+    <t>The Senate Finance Committee &lt;a href='http://www.finance.senate.gov/newsroom/chairman/download/?id=e54db17c-a475-4948-bd81-69c8740c6aaf' target='_new'&gt;publishes a 2,315-page report&lt;/a&gt; accusing Medtronic of creating bias in early Infuse studies, which may have risked patient health and influenced government payments. The Senate report reveals Medtronic emails from 2004 trying to downplay signs of problems in Infuse cervical fusions, and more email from 2006 trying to tone down a study report that concluded Infuse had a “causal” relationship with complications. The report also highlights emails that showed Medtronic trying to keep control over how postsurgical complications would be studied during a pivotal clinical trial of Infuse cervical fusions: “This way if a patient has an [adverse event] like cervical swelling, we can honestly say that it is not possible to know that the cause is definitely Infuse, and therefore the study need not be stopped,” the Medtronic official wrote. (Source: page 2,137 of &lt;a href='https://www.documentcloud.org/documents/2420694-full-infuse-senate-finance-committee-report.html' target='_new'&gt;SFC report&lt;/a&gt;)</t>
+  </si>
+  <si>
+    <t>Study Data Rediscovered</t>
+  </si>
+  <si>
+    <t>Medtronic employees say they rediscover the unreported 2007 internal study data in company archives, including 118 cervical fusion cases.</t>
+  </si>
+  <si>
+    <t>Pivotal Study Results</t>
+  </si>
+  <si>
+    <t>Separate from the internal study, Medtronic finally reports the results of its pivotal study of cervical fusion with Infuse on clinicaltrials.gov. The data, neve published in a journal, show higher rates of dysphagia and death among Infuse patients.</t>
+  </si>
+  <si>
+    <t>FDA Informed</t>
+  </si>
+  <si>
+    <t>Medtronic officials inform the FDA’s William Huff about the internal study data. It is suggested that the events may be eligible to be submitted as a single public summary, rather than as more than 1,000 individual reports.</t>
+  </si>
+  <si>
+    <t>Summary Accepted</t>
+  </si>
+  <si>
+    <t>Medtronic submits a 77-page breakdown of the serious injuries documented in its 2007 internal study. The FDA keeps the table secret, and publishes a single adverse event report that mentions the event is from a larger study. The FDA redacts the injuries total until the Star Tribune successfully challenges it in 2015.</t>
+  </si>
+  <si>
+    <t>New Guidelines</t>
+  </si>
+  <si>
+    <t>The North American Spine Society &lt;a href='https://www.spine.org/Documents/PolicyPractice/CoverageRecommendations/rhBMP.pdf' target='_new'&gt;publishes new guidelines&lt;/a&gt; for when insurers should cover Infuse, based on a new analysis of available clinical data on Infuse. The guidelines say Infuse should not be used in routine cervical fusion patients.</t>
+  </si>
+  <si>
+    <t>Paid Article</t>
+  </si>
+  <si>
+    <t>A decade after Medtronic started its pivotal study of cervical fusion using Infuse and PEEK spacers, a journal article written by paid Medtronic consultants concludes that the study found the procedure was &lt;a href='https://www.researchgate.net/profile/Karen_Anderson10/publication/301736804_Heterotopic_ossification_following_single-level_anterior_cervical_discectomy_and_fusion_Results_from_the_prospective_multicenter_historically_controlled_trial_comparing_allograft_to_an_optimized_dose_/links/57684b0808ae8ec97a4243f7.pdf' target='_new'&gt;“safe and effective”&lt;/a&gt; way to do the procedure, according to “unpublished data.”</t>
   </si>
 </sst>
 </file>
@@ -5105,8 +5147,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -5129,9 +5173,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5461,11 +5507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="A1:E23"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="A1:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -5817,6 +5863,104 @@
         <v>48</v>
       </c>
     </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>41183</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>41306</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>41334</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>41456</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>41671</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>41974</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>42461</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1684</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5832,7 +5976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -76010,23 +76154,3281 @@
     </row>
   </sheetData>
   <mergeCells count="3324">
-    <mergeCell ref="W1156:W1157"/>
-    <mergeCell ref="X1156:X1157"/>
-    <mergeCell ref="Y1156:Y1157"/>
-    <mergeCell ref="Z1156:Z1157"/>
-    <mergeCell ref="Q1156:Q1157"/>
-    <mergeCell ref="R1156:R1157"/>
-    <mergeCell ref="S1156:S1157"/>
-    <mergeCell ref="T1156:T1157"/>
-    <mergeCell ref="U1156:U1157"/>
-    <mergeCell ref="V1156:V1157"/>
-    <mergeCell ref="K1156:K1157"/>
-    <mergeCell ref="L1156:L1157"/>
-    <mergeCell ref="M1156:M1157"/>
-    <mergeCell ref="N1156:N1157"/>
-    <mergeCell ref="O1156:O1157"/>
-    <mergeCell ref="P1156:P1157"/>
-    <mergeCell ref="Z1151:Z1153"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="Z50:Z51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:S51"/>
+    <mergeCell ref="T50:T51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="Z40:Z41"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="U40:U41"/>
+    <mergeCell ref="V40:V41"/>
+    <mergeCell ref="W40:W41"/>
+    <mergeCell ref="X40:X41"/>
+    <mergeCell ref="Y40:Y41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="U50:U51"/>
+    <mergeCell ref="V50:V51"/>
+    <mergeCell ref="W50:W51"/>
+    <mergeCell ref="X50:X51"/>
+    <mergeCell ref="Y50:Y51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="Q83:R83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="Z60:Z61"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="T60:T61"/>
+    <mergeCell ref="U60:U61"/>
+    <mergeCell ref="V60:V61"/>
+    <mergeCell ref="W60:W61"/>
+    <mergeCell ref="X60:X61"/>
+    <mergeCell ref="Y60:Y61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="X84:X85"/>
+    <mergeCell ref="Y84:Y85"/>
+    <mergeCell ref="Z84:Z85"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="S84:S85"/>
+    <mergeCell ref="T84:T85"/>
+    <mergeCell ref="U84:U85"/>
+    <mergeCell ref="V84:V85"/>
+    <mergeCell ref="W84:W85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="Z89:Z90"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="T89:T90"/>
+    <mergeCell ref="U89:U90"/>
+    <mergeCell ref="V89:V90"/>
+    <mergeCell ref="W89:W90"/>
+    <mergeCell ref="X89:X90"/>
+    <mergeCell ref="Y89:Y90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="S89:S90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="X92:X93"/>
+    <mergeCell ref="Y92:Y93"/>
+    <mergeCell ref="Z92:Z93"/>
+    <mergeCell ref="Q94:R94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="Q92:Q93"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="T92:T93"/>
+    <mergeCell ref="U92:U93"/>
+    <mergeCell ref="V92:V93"/>
+    <mergeCell ref="W92:W93"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="N92:N93"/>
+    <mergeCell ref="O92:O93"/>
+    <mergeCell ref="P92:P93"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="Z95:Z96"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="T95:T96"/>
+    <mergeCell ref="U95:U96"/>
+    <mergeCell ref="V95:V96"/>
+    <mergeCell ref="W95:W96"/>
+    <mergeCell ref="X95:X96"/>
+    <mergeCell ref="Y95:Y96"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="O95:O96"/>
+    <mergeCell ref="P95:P96"/>
+    <mergeCell ref="Q95:Q96"/>
+    <mergeCell ref="R95:R96"/>
+    <mergeCell ref="S95:S96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="U116:U117"/>
+    <mergeCell ref="V116:V117"/>
+    <mergeCell ref="W116:W117"/>
+    <mergeCell ref="X116:X117"/>
+    <mergeCell ref="Y116:Y117"/>
+    <mergeCell ref="Z116:Z117"/>
+    <mergeCell ref="N116:N117"/>
+    <mergeCell ref="O116:O117"/>
+    <mergeCell ref="P116:P117"/>
+    <mergeCell ref="Q116:R116"/>
+    <mergeCell ref="S116:S117"/>
+    <mergeCell ref="T116:T117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="M116:M117"/>
+    <mergeCell ref="Z119:Z120"/>
+    <mergeCell ref="R122:S122"/>
+    <mergeCell ref="R123:S123"/>
+    <mergeCell ref="R124:S124"/>
+    <mergeCell ref="R125:S125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="T119:T120"/>
+    <mergeCell ref="U119:U120"/>
+    <mergeCell ref="V119:V120"/>
+    <mergeCell ref="W119:W120"/>
+    <mergeCell ref="X119:X120"/>
+    <mergeCell ref="Y119:Y120"/>
+    <mergeCell ref="N119:N120"/>
+    <mergeCell ref="O119:O120"/>
+    <mergeCell ref="P119:P120"/>
+    <mergeCell ref="Q119:Q120"/>
+    <mergeCell ref="R119:R120"/>
+    <mergeCell ref="S119:S120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="Y126:Y128"/>
+    <mergeCell ref="Z126:Z128"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="S126:S128"/>
+    <mergeCell ref="T126:T128"/>
+    <mergeCell ref="U126:U128"/>
+    <mergeCell ref="V126:V128"/>
+    <mergeCell ref="W126:W128"/>
+    <mergeCell ref="X126:X128"/>
+    <mergeCell ref="M126:M128"/>
+    <mergeCell ref="N126:N128"/>
+    <mergeCell ref="O126:O128"/>
+    <mergeCell ref="P126:P128"/>
+    <mergeCell ref="Q126:Q128"/>
+    <mergeCell ref="R126:R128"/>
+    <mergeCell ref="G126:G128"/>
+    <mergeCell ref="H126:H128"/>
+    <mergeCell ref="I126:I128"/>
+    <mergeCell ref="J126:J128"/>
+    <mergeCell ref="K126:K128"/>
+    <mergeCell ref="L126:L128"/>
+    <mergeCell ref="Q139:R139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="W131:W132"/>
+    <mergeCell ref="X131:X132"/>
+    <mergeCell ref="Y131:Y132"/>
+    <mergeCell ref="Z131:Z132"/>
+    <mergeCell ref="R133:S133"/>
+    <mergeCell ref="Q137:R137"/>
+    <mergeCell ref="P131:P132"/>
+    <mergeCell ref="Q131:Q132"/>
+    <mergeCell ref="R131:S131"/>
+    <mergeCell ref="T131:T132"/>
+    <mergeCell ref="U131:U132"/>
+    <mergeCell ref="V131:V132"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="L131:L132"/>
+    <mergeCell ref="M131:M132"/>
+    <mergeCell ref="N131:N132"/>
+    <mergeCell ref="O131:O132"/>
+    <mergeCell ref="Z145:Z146"/>
+    <mergeCell ref="N145:N146"/>
+    <mergeCell ref="O145:O146"/>
+    <mergeCell ref="P145:P146"/>
+    <mergeCell ref="Q145:R145"/>
+    <mergeCell ref="S145:S146"/>
+    <mergeCell ref="T145:T146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="M145:M146"/>
+    <mergeCell ref="W140:W141"/>
+    <mergeCell ref="X140:X141"/>
+    <mergeCell ref="Y140:Y141"/>
+    <mergeCell ref="Z140:Z141"/>
+    <mergeCell ref="Q140:Q141"/>
+    <mergeCell ref="R140:R141"/>
+    <mergeCell ref="S140:S141"/>
+    <mergeCell ref="T140:T141"/>
+    <mergeCell ref="U140:U141"/>
+    <mergeCell ref="V140:V141"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="L140:L141"/>
+    <mergeCell ref="M140:M141"/>
+    <mergeCell ref="N140:N141"/>
+    <mergeCell ref="O140:O141"/>
+    <mergeCell ref="P140:P141"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="M155:M156"/>
+    <mergeCell ref="Q149:R149"/>
+    <mergeCell ref="T150:U150"/>
+    <mergeCell ref="S152:T152"/>
+    <mergeCell ref="Q154:R154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="U145:U146"/>
+    <mergeCell ref="V145:V146"/>
+    <mergeCell ref="W145:W146"/>
+    <mergeCell ref="X145:X146"/>
+    <mergeCell ref="Y145:Y146"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="S167:T167"/>
+    <mergeCell ref="Q169:R169"/>
+    <mergeCell ref="Q178:R178"/>
+    <mergeCell ref="Q180:R180"/>
+    <mergeCell ref="S182:T182"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="Z155:Z156"/>
+    <mergeCell ref="Q158:R158"/>
+    <mergeCell ref="Q159:R159"/>
+    <mergeCell ref="R160:S160"/>
+    <mergeCell ref="R163:S163"/>
+    <mergeCell ref="R165:S165"/>
+    <mergeCell ref="T155:T156"/>
+    <mergeCell ref="U155:U156"/>
+    <mergeCell ref="V155:V156"/>
+    <mergeCell ref="W155:W156"/>
+    <mergeCell ref="X155:X156"/>
+    <mergeCell ref="Y155:Y156"/>
+    <mergeCell ref="N155:N156"/>
+    <mergeCell ref="O155:O156"/>
+    <mergeCell ref="P155:P156"/>
+    <mergeCell ref="Q155:Q156"/>
+    <mergeCell ref="R155:R156"/>
+    <mergeCell ref="S155:S156"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="Y185:Y186"/>
+    <mergeCell ref="Z185:Z186"/>
+    <mergeCell ref="R187:S187"/>
+    <mergeCell ref="R188:S188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="S185:S186"/>
+    <mergeCell ref="T185:T186"/>
+    <mergeCell ref="U185:U186"/>
+    <mergeCell ref="V185:V186"/>
+    <mergeCell ref="W185:W186"/>
+    <mergeCell ref="X185:X186"/>
+    <mergeCell ref="M185:M186"/>
+    <mergeCell ref="N185:N186"/>
+    <mergeCell ref="O185:O186"/>
+    <mergeCell ref="P185:P186"/>
+    <mergeCell ref="Q185:Q186"/>
+    <mergeCell ref="R185:R186"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="H185:H186"/>
+    <mergeCell ref="I185:I186"/>
+    <mergeCell ref="J185:J186"/>
+    <mergeCell ref="K185:K186"/>
+    <mergeCell ref="L185:L186"/>
+    <mergeCell ref="K196:K197"/>
+    <mergeCell ref="L196:L197"/>
+    <mergeCell ref="Z189:Z190"/>
+    <mergeCell ref="Q191:R191"/>
+    <mergeCell ref="S192:T192"/>
+    <mergeCell ref="Q193:R193"/>
+    <mergeCell ref="Q194:R194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="T189:T190"/>
+    <mergeCell ref="U189:U190"/>
+    <mergeCell ref="V189:V190"/>
+    <mergeCell ref="W189:W190"/>
+    <mergeCell ref="X189:X190"/>
+    <mergeCell ref="Y189:Y190"/>
+    <mergeCell ref="N189:N190"/>
+    <mergeCell ref="O189:O190"/>
+    <mergeCell ref="P189:P190"/>
+    <mergeCell ref="Q189:Q190"/>
+    <mergeCell ref="R189:R190"/>
+    <mergeCell ref="S189:S190"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="I189:I190"/>
+    <mergeCell ref="J189:J190"/>
+    <mergeCell ref="K189:K190"/>
+    <mergeCell ref="L189:L190"/>
+    <mergeCell ref="M189:M190"/>
+    <mergeCell ref="Q204:R204"/>
+    <mergeCell ref="S205:T205"/>
+    <mergeCell ref="Q206:R206"/>
+    <mergeCell ref="Q207:R207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="G208:G209"/>
+    <mergeCell ref="Y196:Y197"/>
+    <mergeCell ref="Z196:Z197"/>
+    <mergeCell ref="R199:S199"/>
+    <mergeCell ref="R200:S200"/>
+    <mergeCell ref="Q201:R201"/>
+    <mergeCell ref="S203:T203"/>
+    <mergeCell ref="S196:S197"/>
+    <mergeCell ref="T196:T197"/>
+    <mergeCell ref="U196:U197"/>
+    <mergeCell ref="V196:V197"/>
+    <mergeCell ref="W196:W197"/>
+    <mergeCell ref="X196:X197"/>
+    <mergeCell ref="M196:M197"/>
+    <mergeCell ref="N196:N197"/>
+    <mergeCell ref="O196:O197"/>
+    <mergeCell ref="P196:P197"/>
+    <mergeCell ref="Q196:Q197"/>
+    <mergeCell ref="R196:R197"/>
+    <mergeCell ref="G196:G197"/>
+    <mergeCell ref="H196:H197"/>
+    <mergeCell ref="I196:I197"/>
+    <mergeCell ref="J196:J197"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="T208:U208"/>
+    <mergeCell ref="V208:V209"/>
+    <mergeCell ref="W208:W209"/>
+    <mergeCell ref="X208:X209"/>
+    <mergeCell ref="Y208:Y209"/>
+    <mergeCell ref="Z208:Z209"/>
+    <mergeCell ref="N208:N209"/>
+    <mergeCell ref="O208:O209"/>
+    <mergeCell ref="P208:P209"/>
+    <mergeCell ref="Q208:Q209"/>
+    <mergeCell ref="R208:R209"/>
+    <mergeCell ref="S208:S209"/>
+    <mergeCell ref="H208:H209"/>
+    <mergeCell ref="I208:I209"/>
+    <mergeCell ref="J208:J209"/>
+    <mergeCell ref="K208:K209"/>
+    <mergeCell ref="L208:L209"/>
+    <mergeCell ref="M208:M209"/>
+    <mergeCell ref="Z211:Z212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="I213:I214"/>
+    <mergeCell ref="J213:J214"/>
+    <mergeCell ref="T211:T212"/>
+    <mergeCell ref="U211:U212"/>
+    <mergeCell ref="V211:V212"/>
+    <mergeCell ref="W211:W212"/>
+    <mergeCell ref="X211:X212"/>
+    <mergeCell ref="Y211:Y212"/>
+    <mergeCell ref="N211:N212"/>
+    <mergeCell ref="O211:O212"/>
+    <mergeCell ref="P211:P212"/>
+    <mergeCell ref="Q211:Q212"/>
+    <mergeCell ref="R211:R212"/>
+    <mergeCell ref="S211:S212"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="I211:I212"/>
+    <mergeCell ref="J211:J212"/>
+    <mergeCell ref="K211:K212"/>
+    <mergeCell ref="L211:L212"/>
+    <mergeCell ref="M211:M212"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="F219:F220"/>
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="W213:W214"/>
+    <mergeCell ref="X213:X214"/>
+    <mergeCell ref="Y213:Y214"/>
+    <mergeCell ref="Z213:Z214"/>
+    <mergeCell ref="Q215:R215"/>
+    <mergeCell ref="R216:S216"/>
+    <mergeCell ref="Q213:Q214"/>
+    <mergeCell ref="R213:R214"/>
+    <mergeCell ref="S213:S214"/>
+    <mergeCell ref="T213:T214"/>
+    <mergeCell ref="U213:U214"/>
+    <mergeCell ref="V213:V214"/>
+    <mergeCell ref="K213:K214"/>
+    <mergeCell ref="L213:L214"/>
+    <mergeCell ref="M213:M214"/>
+    <mergeCell ref="N213:N214"/>
+    <mergeCell ref="O213:O214"/>
+    <mergeCell ref="P213:P214"/>
+    <mergeCell ref="Z219:Z220"/>
+    <mergeCell ref="Q221:R221"/>
+    <mergeCell ref="T223:U223"/>
+    <mergeCell ref="S225:T225"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="F227:F228"/>
+    <mergeCell ref="G227:G228"/>
+    <mergeCell ref="T219:T220"/>
+    <mergeCell ref="U219:U220"/>
+    <mergeCell ref="V219:V220"/>
+    <mergeCell ref="W219:W220"/>
+    <mergeCell ref="X219:X220"/>
+    <mergeCell ref="Y219:Y220"/>
+    <mergeCell ref="N219:N220"/>
+    <mergeCell ref="O219:O220"/>
+    <mergeCell ref="P219:P220"/>
+    <mergeCell ref="Q219:Q220"/>
+    <mergeCell ref="R219:R220"/>
+    <mergeCell ref="S219:S220"/>
+    <mergeCell ref="H219:H220"/>
+    <mergeCell ref="I219:I220"/>
+    <mergeCell ref="J219:J220"/>
+    <mergeCell ref="K219:K220"/>
+    <mergeCell ref="L219:L220"/>
+    <mergeCell ref="M219:M220"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="Z227:Z228"/>
+    <mergeCell ref="R230:S230"/>
+    <mergeCell ref="R231:S231"/>
+    <mergeCell ref="R237:S237"/>
+    <mergeCell ref="A239:A240"/>
+    <mergeCell ref="B239:B240"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="D239:D240"/>
+    <mergeCell ref="F239:F240"/>
+    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="T227:T228"/>
+    <mergeCell ref="U227:U228"/>
+    <mergeCell ref="V227:V228"/>
+    <mergeCell ref="W227:W228"/>
+    <mergeCell ref="X227:X228"/>
+    <mergeCell ref="Y227:Y228"/>
+    <mergeCell ref="N227:N228"/>
+    <mergeCell ref="O227:O228"/>
+    <mergeCell ref="P227:P228"/>
+    <mergeCell ref="Q227:Q228"/>
+    <mergeCell ref="R227:R228"/>
+    <mergeCell ref="S227:S228"/>
+    <mergeCell ref="H227:H228"/>
+    <mergeCell ref="I227:I228"/>
+    <mergeCell ref="J227:J228"/>
+    <mergeCell ref="K227:K228"/>
+    <mergeCell ref="L227:L228"/>
+    <mergeCell ref="M227:M228"/>
+    <mergeCell ref="Z239:Z240"/>
+    <mergeCell ref="Q241:R241"/>
+    <mergeCell ref="Q242:R242"/>
+    <mergeCell ref="A243:A244"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="G243:G244"/>
+    <mergeCell ref="H243:H244"/>
+    <mergeCell ref="T239:T240"/>
+    <mergeCell ref="U239:U240"/>
+    <mergeCell ref="V239:V240"/>
+    <mergeCell ref="W239:W240"/>
+    <mergeCell ref="X239:X240"/>
+    <mergeCell ref="Y239:Y240"/>
+    <mergeCell ref="N239:N240"/>
+    <mergeCell ref="O239:O240"/>
+    <mergeCell ref="P239:P240"/>
+    <mergeCell ref="Q239:Q240"/>
+    <mergeCell ref="R239:R240"/>
+    <mergeCell ref="S239:S240"/>
+    <mergeCell ref="H239:H240"/>
+    <mergeCell ref="I239:I240"/>
+    <mergeCell ref="J239:J240"/>
+    <mergeCell ref="K239:K240"/>
+    <mergeCell ref="L239:L240"/>
+    <mergeCell ref="M239:M240"/>
+    <mergeCell ref="U243:U244"/>
+    <mergeCell ref="V243:V244"/>
+    <mergeCell ref="W243:W244"/>
+    <mergeCell ref="X243:X244"/>
+    <mergeCell ref="Y243:Y244"/>
+    <mergeCell ref="Z243:Z244"/>
+    <mergeCell ref="O243:O244"/>
+    <mergeCell ref="P243:P244"/>
+    <mergeCell ref="Q243:Q244"/>
+    <mergeCell ref="R243:R244"/>
+    <mergeCell ref="S243:S244"/>
+    <mergeCell ref="T243:T244"/>
+    <mergeCell ref="I243:I244"/>
+    <mergeCell ref="J243:J244"/>
+    <mergeCell ref="K243:K244"/>
+    <mergeCell ref="L243:L244"/>
+    <mergeCell ref="M243:M244"/>
+    <mergeCell ref="N243:N244"/>
+    <mergeCell ref="P259:P260"/>
+    <mergeCell ref="Q259:Q260"/>
+    <mergeCell ref="R259:R260"/>
+    <mergeCell ref="G259:G260"/>
+    <mergeCell ref="H259:H260"/>
+    <mergeCell ref="I259:I260"/>
+    <mergeCell ref="J259:J260"/>
+    <mergeCell ref="K259:K260"/>
+    <mergeCell ref="L259:L260"/>
+    <mergeCell ref="R245:S245"/>
+    <mergeCell ref="Q249:R249"/>
+    <mergeCell ref="Q253:R253"/>
+    <mergeCell ref="R254:S254"/>
+    <mergeCell ref="R257:S257"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="F259:F260"/>
+    <mergeCell ref="Z263:Z264"/>
+    <mergeCell ref="O263:O264"/>
+    <mergeCell ref="P263:P264"/>
+    <mergeCell ref="Q263:Q264"/>
+    <mergeCell ref="R263:R264"/>
+    <mergeCell ref="S263:S264"/>
+    <mergeCell ref="T263:T264"/>
+    <mergeCell ref="I263:I264"/>
+    <mergeCell ref="J263:J264"/>
+    <mergeCell ref="K263:K264"/>
+    <mergeCell ref="L263:L264"/>
+    <mergeCell ref="M263:M264"/>
+    <mergeCell ref="N263:N264"/>
+    <mergeCell ref="Y259:Y260"/>
+    <mergeCell ref="Z259:Z260"/>
+    <mergeCell ref="S261:T261"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="F263:F264"/>
+    <mergeCell ref="G263:G264"/>
+    <mergeCell ref="H263:H264"/>
+    <mergeCell ref="S259:S260"/>
+    <mergeCell ref="T259:T260"/>
+    <mergeCell ref="U259:U260"/>
+    <mergeCell ref="V259:V260"/>
+    <mergeCell ref="W259:W260"/>
+    <mergeCell ref="X259:X260"/>
+    <mergeCell ref="M259:M260"/>
+    <mergeCell ref="N259:N260"/>
+    <mergeCell ref="O259:O260"/>
+    <mergeCell ref="K278:K279"/>
+    <mergeCell ref="L278:L279"/>
+    <mergeCell ref="S269:T269"/>
+    <mergeCell ref="Q270:R270"/>
+    <mergeCell ref="R271:S271"/>
+    <mergeCell ref="S272:T272"/>
+    <mergeCell ref="Q275:R275"/>
+    <mergeCell ref="A278:A279"/>
+    <mergeCell ref="B278:B279"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="D278:D279"/>
+    <mergeCell ref="F278:F279"/>
+    <mergeCell ref="U263:U264"/>
+    <mergeCell ref="V263:V264"/>
+    <mergeCell ref="W263:W264"/>
+    <mergeCell ref="X263:X264"/>
+    <mergeCell ref="Y263:Y264"/>
+    <mergeCell ref="Q287:R287"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="F289:F290"/>
+    <mergeCell ref="G289:G290"/>
+    <mergeCell ref="H289:H290"/>
+    <mergeCell ref="I289:I290"/>
+    <mergeCell ref="J289:J290"/>
+    <mergeCell ref="Y278:Y279"/>
+    <mergeCell ref="Z278:Z279"/>
+    <mergeCell ref="Q281:R281"/>
+    <mergeCell ref="Q283:R283"/>
+    <mergeCell ref="R284:S284"/>
+    <mergeCell ref="Q286:R286"/>
+    <mergeCell ref="S278:S279"/>
+    <mergeCell ref="T278:T279"/>
+    <mergeCell ref="U278:U279"/>
+    <mergeCell ref="V278:V279"/>
+    <mergeCell ref="W278:W279"/>
+    <mergeCell ref="X278:X279"/>
+    <mergeCell ref="M278:M279"/>
+    <mergeCell ref="N278:N279"/>
+    <mergeCell ref="O278:O279"/>
+    <mergeCell ref="P278:P279"/>
+    <mergeCell ref="Q278:Q279"/>
+    <mergeCell ref="R278:R279"/>
+    <mergeCell ref="G278:G279"/>
+    <mergeCell ref="H278:H279"/>
+    <mergeCell ref="I278:I279"/>
+    <mergeCell ref="J278:J279"/>
+    <mergeCell ref="W289:W290"/>
+    <mergeCell ref="X289:X290"/>
+    <mergeCell ref="Y289:Y290"/>
+    <mergeCell ref="Z289:Z290"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="F298:F299"/>
+    <mergeCell ref="G298:G299"/>
+    <mergeCell ref="Q289:Q290"/>
+    <mergeCell ref="R289:R290"/>
+    <mergeCell ref="S289:S290"/>
+    <mergeCell ref="T289:T290"/>
+    <mergeCell ref="U289:U290"/>
+    <mergeCell ref="V289:V290"/>
+    <mergeCell ref="K289:K290"/>
+    <mergeCell ref="L289:L290"/>
+    <mergeCell ref="M289:M290"/>
+    <mergeCell ref="N289:N290"/>
+    <mergeCell ref="O289:O290"/>
+    <mergeCell ref="P289:P290"/>
+    <mergeCell ref="Z298:Z299"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="F304:F305"/>
+    <mergeCell ref="G304:G305"/>
+    <mergeCell ref="H304:H305"/>
+    <mergeCell ref="I304:I305"/>
+    <mergeCell ref="J304:J305"/>
+    <mergeCell ref="T298:T299"/>
+    <mergeCell ref="U298:U299"/>
+    <mergeCell ref="V298:V299"/>
+    <mergeCell ref="W298:W299"/>
+    <mergeCell ref="X298:X299"/>
+    <mergeCell ref="Y298:Y299"/>
+    <mergeCell ref="N298:N299"/>
+    <mergeCell ref="O298:O299"/>
+    <mergeCell ref="P298:P299"/>
+    <mergeCell ref="Q298:Q299"/>
+    <mergeCell ref="R298:R299"/>
+    <mergeCell ref="S298:S299"/>
+    <mergeCell ref="H298:H299"/>
+    <mergeCell ref="I298:I299"/>
+    <mergeCell ref="J298:J299"/>
+    <mergeCell ref="K298:K299"/>
+    <mergeCell ref="L298:L299"/>
+    <mergeCell ref="M298:M299"/>
+    <mergeCell ref="X304:X305"/>
+    <mergeCell ref="Y304:Y305"/>
+    <mergeCell ref="Z304:Z305"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="F307:F308"/>
+    <mergeCell ref="G307:G308"/>
+    <mergeCell ref="H307:H308"/>
+    <mergeCell ref="Q304:Q305"/>
+    <mergeCell ref="R304:S304"/>
+    <mergeCell ref="T304:T305"/>
+    <mergeCell ref="U304:U305"/>
+    <mergeCell ref="V304:V305"/>
+    <mergeCell ref="W304:W305"/>
+    <mergeCell ref="K304:K305"/>
+    <mergeCell ref="L304:L305"/>
+    <mergeCell ref="M304:M305"/>
+    <mergeCell ref="N304:N305"/>
+    <mergeCell ref="O304:O305"/>
+    <mergeCell ref="P304:P305"/>
+    <mergeCell ref="F312:F313"/>
+    <mergeCell ref="G312:G313"/>
+    <mergeCell ref="U307:U308"/>
+    <mergeCell ref="V307:V308"/>
+    <mergeCell ref="W307:W308"/>
+    <mergeCell ref="X307:X308"/>
+    <mergeCell ref="Y307:Y308"/>
+    <mergeCell ref="Z307:Z308"/>
+    <mergeCell ref="O307:O308"/>
+    <mergeCell ref="P307:P308"/>
+    <mergeCell ref="Q307:Q308"/>
+    <mergeCell ref="R307:R308"/>
+    <mergeCell ref="S307:S308"/>
+    <mergeCell ref="T307:T308"/>
+    <mergeCell ref="I307:I308"/>
+    <mergeCell ref="J307:J308"/>
+    <mergeCell ref="K307:K308"/>
+    <mergeCell ref="L307:L308"/>
+    <mergeCell ref="M307:M308"/>
+    <mergeCell ref="N307:N308"/>
+    <mergeCell ref="Z312:Z313"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="F316:F317"/>
+    <mergeCell ref="G316:G317"/>
+    <mergeCell ref="H316:H317"/>
+    <mergeCell ref="I316:I317"/>
+    <mergeCell ref="J316:J317"/>
+    <mergeCell ref="T312:T313"/>
+    <mergeCell ref="U312:U313"/>
+    <mergeCell ref="V312:V313"/>
+    <mergeCell ref="W312:W313"/>
+    <mergeCell ref="X312:X313"/>
+    <mergeCell ref="Y312:Y313"/>
+    <mergeCell ref="N312:N313"/>
+    <mergeCell ref="O312:O313"/>
+    <mergeCell ref="P312:P313"/>
+    <mergeCell ref="Q312:Q313"/>
+    <mergeCell ref="R312:R313"/>
+    <mergeCell ref="S312:S313"/>
+    <mergeCell ref="H312:H313"/>
+    <mergeCell ref="I312:I313"/>
+    <mergeCell ref="J312:J313"/>
+    <mergeCell ref="K312:K313"/>
+    <mergeCell ref="L312:L313"/>
+    <mergeCell ref="M312:M313"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="D312:D313"/>
+    <mergeCell ref="W316:W317"/>
+    <mergeCell ref="X316:X317"/>
+    <mergeCell ref="Y316:Y317"/>
+    <mergeCell ref="Z316:Z317"/>
+    <mergeCell ref="A318:A319"/>
+    <mergeCell ref="B318:B319"/>
+    <mergeCell ref="C318:C319"/>
+    <mergeCell ref="D318:D319"/>
+    <mergeCell ref="F318:F319"/>
+    <mergeCell ref="G318:G319"/>
+    <mergeCell ref="Q316:Q317"/>
+    <mergeCell ref="R316:R317"/>
+    <mergeCell ref="S316:S317"/>
+    <mergeCell ref="T316:T317"/>
+    <mergeCell ref="U316:U317"/>
+    <mergeCell ref="V316:V317"/>
+    <mergeCell ref="K316:K317"/>
+    <mergeCell ref="L316:L317"/>
+    <mergeCell ref="M316:M317"/>
+    <mergeCell ref="N316:N317"/>
+    <mergeCell ref="O316:O317"/>
+    <mergeCell ref="P316:P317"/>
+    <mergeCell ref="Z318:Z319"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="C322:C323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="F322:F323"/>
+    <mergeCell ref="G322:G323"/>
+    <mergeCell ref="H322:H323"/>
+    <mergeCell ref="I322:I323"/>
+    <mergeCell ref="J322:J323"/>
+    <mergeCell ref="T318:T319"/>
+    <mergeCell ref="U318:U319"/>
+    <mergeCell ref="V318:V319"/>
+    <mergeCell ref="W318:W319"/>
+    <mergeCell ref="X318:X319"/>
+    <mergeCell ref="Y318:Y319"/>
+    <mergeCell ref="N318:N319"/>
+    <mergeCell ref="O318:O319"/>
+    <mergeCell ref="P318:P319"/>
+    <mergeCell ref="Q318:Q319"/>
+    <mergeCell ref="R318:R319"/>
+    <mergeCell ref="S318:S319"/>
+    <mergeCell ref="H318:H319"/>
+    <mergeCell ref="I318:I319"/>
+    <mergeCell ref="J318:J319"/>
+    <mergeCell ref="K318:K319"/>
+    <mergeCell ref="L318:L319"/>
+    <mergeCell ref="M318:M319"/>
+    <mergeCell ref="F332:F334"/>
+    <mergeCell ref="G332:G334"/>
+    <mergeCell ref="W322:W323"/>
+    <mergeCell ref="X322:X323"/>
+    <mergeCell ref="Y322:Y323"/>
+    <mergeCell ref="Z322:Z323"/>
+    <mergeCell ref="Q324:R324"/>
+    <mergeCell ref="R325:S325"/>
+    <mergeCell ref="Q322:Q323"/>
+    <mergeCell ref="R322:R323"/>
+    <mergeCell ref="S322:S323"/>
+    <mergeCell ref="T322:T323"/>
+    <mergeCell ref="U322:U323"/>
+    <mergeCell ref="V322:V323"/>
+    <mergeCell ref="K322:K323"/>
+    <mergeCell ref="L322:L323"/>
+    <mergeCell ref="M322:M323"/>
+    <mergeCell ref="N322:N323"/>
+    <mergeCell ref="O322:O323"/>
+    <mergeCell ref="P322:P323"/>
+    <mergeCell ref="R342:S342"/>
+    <mergeCell ref="Q343:R343"/>
+    <mergeCell ref="Q344:R344"/>
+    <mergeCell ref="R347:S347"/>
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="C348:C349"/>
+    <mergeCell ref="D348:D349"/>
+    <mergeCell ref="F348:F349"/>
+    <mergeCell ref="G348:G349"/>
+    <mergeCell ref="U332:U334"/>
+    <mergeCell ref="V332:V334"/>
+    <mergeCell ref="W332:W334"/>
+    <mergeCell ref="X332:X334"/>
+    <mergeCell ref="Y332:Y334"/>
+    <mergeCell ref="Z332:Z334"/>
+    <mergeCell ref="N332:N334"/>
+    <mergeCell ref="O332:O334"/>
+    <mergeCell ref="P332:P334"/>
+    <mergeCell ref="Q332:Q334"/>
+    <mergeCell ref="R332:S332"/>
+    <mergeCell ref="T332:T334"/>
+    <mergeCell ref="H332:H334"/>
+    <mergeCell ref="I332:I334"/>
+    <mergeCell ref="J332:J334"/>
+    <mergeCell ref="K332:K334"/>
+    <mergeCell ref="L332:L334"/>
+    <mergeCell ref="M332:M334"/>
+    <mergeCell ref="A332:A334"/>
+    <mergeCell ref="B332:B334"/>
+    <mergeCell ref="C332:C334"/>
+    <mergeCell ref="D332:D334"/>
+    <mergeCell ref="L359:L360"/>
+    <mergeCell ref="M359:M360"/>
+    <mergeCell ref="Z348:Z349"/>
+    <mergeCell ref="Q350:R350"/>
+    <mergeCell ref="R351:S351"/>
+    <mergeCell ref="Q355:R355"/>
+    <mergeCell ref="A359:A360"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="D359:D360"/>
+    <mergeCell ref="F359:F360"/>
+    <mergeCell ref="G359:G360"/>
+    <mergeCell ref="T348:T349"/>
+    <mergeCell ref="U348:U349"/>
+    <mergeCell ref="V348:V349"/>
+    <mergeCell ref="W348:W349"/>
+    <mergeCell ref="X348:X349"/>
+    <mergeCell ref="Y348:Y349"/>
+    <mergeCell ref="N348:N349"/>
+    <mergeCell ref="O348:O349"/>
+    <mergeCell ref="P348:P349"/>
+    <mergeCell ref="Q348:Q349"/>
+    <mergeCell ref="R348:R349"/>
+    <mergeCell ref="S348:S349"/>
+    <mergeCell ref="H348:H349"/>
+    <mergeCell ref="I348:I349"/>
+    <mergeCell ref="J348:J349"/>
+    <mergeCell ref="K348:K349"/>
+    <mergeCell ref="L348:L349"/>
+    <mergeCell ref="M348:M349"/>
+    <mergeCell ref="Q371:R371"/>
+    <mergeCell ref="R373:S373"/>
+    <mergeCell ref="A376:A378"/>
+    <mergeCell ref="B376:B378"/>
+    <mergeCell ref="C376:C378"/>
+    <mergeCell ref="D376:D378"/>
+    <mergeCell ref="F376:F378"/>
+    <mergeCell ref="G376:G378"/>
+    <mergeCell ref="H376:H378"/>
+    <mergeCell ref="I376:I378"/>
+    <mergeCell ref="Z359:Z360"/>
+    <mergeCell ref="T361:U361"/>
+    <mergeCell ref="T364:U364"/>
+    <mergeCell ref="Q366:R366"/>
+    <mergeCell ref="S367:T367"/>
+    <mergeCell ref="Q368:R368"/>
+    <mergeCell ref="T359:T360"/>
+    <mergeCell ref="U359:U360"/>
+    <mergeCell ref="V359:V360"/>
+    <mergeCell ref="W359:W360"/>
+    <mergeCell ref="X359:X360"/>
+    <mergeCell ref="Y359:Y360"/>
+    <mergeCell ref="N359:N360"/>
+    <mergeCell ref="O359:O360"/>
+    <mergeCell ref="P359:P360"/>
+    <mergeCell ref="Q359:Q360"/>
+    <mergeCell ref="R359:R360"/>
+    <mergeCell ref="S359:S360"/>
+    <mergeCell ref="H359:H360"/>
+    <mergeCell ref="I359:I360"/>
+    <mergeCell ref="J359:J360"/>
+    <mergeCell ref="K359:K360"/>
+    <mergeCell ref="R381:S381"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="C382:C383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="F382:F383"/>
+    <mergeCell ref="G382:G383"/>
+    <mergeCell ref="H382:H383"/>
+    <mergeCell ref="I382:I383"/>
+    <mergeCell ref="J382:J383"/>
+    <mergeCell ref="V376:V378"/>
+    <mergeCell ref="W376:W378"/>
+    <mergeCell ref="X376:X378"/>
+    <mergeCell ref="Y376:Y378"/>
+    <mergeCell ref="Z376:Z378"/>
+    <mergeCell ref="S379:T379"/>
+    <mergeCell ref="P376:P378"/>
+    <mergeCell ref="Q376:Q378"/>
+    <mergeCell ref="R376:R378"/>
+    <mergeCell ref="S376:S378"/>
+    <mergeCell ref="T376:T378"/>
+    <mergeCell ref="U376:U378"/>
+    <mergeCell ref="J376:J378"/>
+    <mergeCell ref="K376:K378"/>
+    <mergeCell ref="L376:L378"/>
+    <mergeCell ref="M376:M378"/>
+    <mergeCell ref="N376:N378"/>
+    <mergeCell ref="O376:O378"/>
+    <mergeCell ref="A389:A390"/>
+    <mergeCell ref="B389:B390"/>
+    <mergeCell ref="C389:C390"/>
+    <mergeCell ref="D389:D390"/>
+    <mergeCell ref="F389:F390"/>
+    <mergeCell ref="G389:G390"/>
+    <mergeCell ref="W382:W383"/>
+    <mergeCell ref="X382:X383"/>
+    <mergeCell ref="Y382:Y383"/>
+    <mergeCell ref="Z382:Z383"/>
+    <mergeCell ref="R384:S384"/>
+    <mergeCell ref="R388:S388"/>
+    <mergeCell ref="Q382:Q383"/>
+    <mergeCell ref="R382:R383"/>
+    <mergeCell ref="S382:S383"/>
+    <mergeCell ref="T382:T383"/>
+    <mergeCell ref="U382:U383"/>
+    <mergeCell ref="V382:V383"/>
+    <mergeCell ref="K382:K383"/>
+    <mergeCell ref="L382:L383"/>
+    <mergeCell ref="M382:M383"/>
+    <mergeCell ref="N382:N383"/>
+    <mergeCell ref="O382:O383"/>
+    <mergeCell ref="P382:P383"/>
+    <mergeCell ref="F415:F416"/>
+    <mergeCell ref="G415:G416"/>
+    <mergeCell ref="Z389:Z390"/>
+    <mergeCell ref="Q395:R395"/>
+    <mergeCell ref="R399:S399"/>
+    <mergeCell ref="R402:S402"/>
+    <mergeCell ref="R410:S410"/>
+    <mergeCell ref="Q411:R411"/>
+    <mergeCell ref="T389:T390"/>
+    <mergeCell ref="U389:U390"/>
+    <mergeCell ref="V389:V390"/>
+    <mergeCell ref="W389:W390"/>
+    <mergeCell ref="X389:X390"/>
+    <mergeCell ref="Y389:Y390"/>
+    <mergeCell ref="N389:N390"/>
+    <mergeCell ref="O389:O390"/>
+    <mergeCell ref="P389:P390"/>
+    <mergeCell ref="Q389:Q390"/>
+    <mergeCell ref="R389:R390"/>
+    <mergeCell ref="S389:S390"/>
+    <mergeCell ref="H389:H390"/>
+    <mergeCell ref="I389:I390"/>
+    <mergeCell ref="J389:J390"/>
+    <mergeCell ref="K389:K390"/>
+    <mergeCell ref="L389:L390"/>
+    <mergeCell ref="M389:M390"/>
+    <mergeCell ref="Z415:Z416"/>
+    <mergeCell ref="A417:A418"/>
+    <mergeCell ref="B417:B418"/>
+    <mergeCell ref="C417:C418"/>
+    <mergeCell ref="D417:D418"/>
+    <mergeCell ref="F417:F418"/>
+    <mergeCell ref="G417:G418"/>
+    <mergeCell ref="H417:H418"/>
+    <mergeCell ref="I417:I418"/>
+    <mergeCell ref="J417:J418"/>
+    <mergeCell ref="T415:T416"/>
+    <mergeCell ref="U415:U416"/>
+    <mergeCell ref="V415:V416"/>
+    <mergeCell ref="W415:W416"/>
+    <mergeCell ref="X415:X416"/>
+    <mergeCell ref="Y415:Y416"/>
+    <mergeCell ref="N415:N416"/>
+    <mergeCell ref="O415:O416"/>
+    <mergeCell ref="P415:P416"/>
+    <mergeCell ref="Q415:Q416"/>
+    <mergeCell ref="R415:R416"/>
+    <mergeCell ref="S415:S416"/>
+    <mergeCell ref="H415:H416"/>
+    <mergeCell ref="I415:I416"/>
+    <mergeCell ref="J415:J416"/>
+    <mergeCell ref="K415:K416"/>
+    <mergeCell ref="L415:L416"/>
+    <mergeCell ref="M415:M416"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="C415:C416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="Q428:R428"/>
+    <mergeCell ref="Q430:R430"/>
+    <mergeCell ref="R431:S431"/>
+    <mergeCell ref="S434:T434"/>
+    <mergeCell ref="A437:A438"/>
+    <mergeCell ref="B437:B438"/>
+    <mergeCell ref="C437:C438"/>
+    <mergeCell ref="D437:D438"/>
+    <mergeCell ref="F437:F438"/>
+    <mergeCell ref="G437:G438"/>
+    <mergeCell ref="X417:X418"/>
+    <mergeCell ref="Y417:Y418"/>
+    <mergeCell ref="Z417:Z418"/>
+    <mergeCell ref="Q420:R420"/>
+    <mergeCell ref="Q422:R422"/>
+    <mergeCell ref="Q424:R424"/>
+    <mergeCell ref="Q417:Q418"/>
+    <mergeCell ref="R417:S417"/>
+    <mergeCell ref="T417:T418"/>
+    <mergeCell ref="U417:U418"/>
+    <mergeCell ref="V417:V418"/>
+    <mergeCell ref="W417:W418"/>
+    <mergeCell ref="K417:K418"/>
+    <mergeCell ref="L417:L418"/>
+    <mergeCell ref="M417:M418"/>
+    <mergeCell ref="N417:N418"/>
+    <mergeCell ref="O417:O418"/>
+    <mergeCell ref="P417:P418"/>
+    <mergeCell ref="R439:S439"/>
+    <mergeCell ref="A440:A441"/>
+    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="C440:C441"/>
+    <mergeCell ref="D440:D441"/>
+    <mergeCell ref="F440:F441"/>
+    <mergeCell ref="G440:G441"/>
+    <mergeCell ref="H440:H441"/>
+    <mergeCell ref="I440:I441"/>
+    <mergeCell ref="J440:J441"/>
+    <mergeCell ref="U437:U438"/>
+    <mergeCell ref="V437:V438"/>
+    <mergeCell ref="W437:W438"/>
+    <mergeCell ref="X437:X438"/>
+    <mergeCell ref="Y437:Y438"/>
+    <mergeCell ref="Z437:Z438"/>
+    <mergeCell ref="N437:N438"/>
+    <mergeCell ref="O437:O438"/>
+    <mergeCell ref="P437:P438"/>
+    <mergeCell ref="Q437:R437"/>
+    <mergeCell ref="S437:S438"/>
+    <mergeCell ref="T437:T438"/>
+    <mergeCell ref="H437:H438"/>
+    <mergeCell ref="I437:I438"/>
+    <mergeCell ref="J437:J438"/>
+    <mergeCell ref="K437:K438"/>
+    <mergeCell ref="L437:L438"/>
+    <mergeCell ref="M437:M438"/>
+    <mergeCell ref="Q447:R447"/>
+    <mergeCell ref="Q450:R450"/>
+    <mergeCell ref="A458:A459"/>
+    <mergeCell ref="B458:B459"/>
+    <mergeCell ref="C458:C459"/>
+    <mergeCell ref="D458:D459"/>
+    <mergeCell ref="F458:F459"/>
+    <mergeCell ref="G458:G459"/>
+    <mergeCell ref="H458:H459"/>
+    <mergeCell ref="I458:I459"/>
+    <mergeCell ref="W440:W441"/>
+    <mergeCell ref="X440:X441"/>
+    <mergeCell ref="Y440:Y441"/>
+    <mergeCell ref="Z440:Z441"/>
+    <mergeCell ref="R444:S444"/>
+    <mergeCell ref="R446:S446"/>
+    <mergeCell ref="Q440:Q441"/>
+    <mergeCell ref="R440:R441"/>
+    <mergeCell ref="S440:S441"/>
+    <mergeCell ref="T440:T441"/>
+    <mergeCell ref="U440:U441"/>
+    <mergeCell ref="V440:V441"/>
+    <mergeCell ref="K440:K441"/>
+    <mergeCell ref="L440:L441"/>
+    <mergeCell ref="M440:M441"/>
+    <mergeCell ref="N440:N441"/>
+    <mergeCell ref="O440:O441"/>
+    <mergeCell ref="P440:P441"/>
+    <mergeCell ref="K460:K461"/>
+    <mergeCell ref="L460:L461"/>
+    <mergeCell ref="V458:V459"/>
+    <mergeCell ref="W458:W459"/>
+    <mergeCell ref="X458:X459"/>
+    <mergeCell ref="Y458:Y459"/>
+    <mergeCell ref="Z458:Z459"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="C460:C461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="F460:F461"/>
+    <mergeCell ref="P458:P459"/>
+    <mergeCell ref="Q458:Q459"/>
+    <mergeCell ref="R458:R459"/>
+    <mergeCell ref="S458:S459"/>
+    <mergeCell ref="T458:T459"/>
+    <mergeCell ref="U458:U459"/>
+    <mergeCell ref="J458:J459"/>
+    <mergeCell ref="K458:K459"/>
+    <mergeCell ref="L458:L459"/>
+    <mergeCell ref="M458:M459"/>
+    <mergeCell ref="N458:N459"/>
+    <mergeCell ref="O458:O459"/>
+    <mergeCell ref="R466:S466"/>
+    <mergeCell ref="Q468:R468"/>
+    <mergeCell ref="Q472:R472"/>
+    <mergeCell ref="R473:S473"/>
+    <mergeCell ref="A476:A478"/>
+    <mergeCell ref="B476:B478"/>
+    <mergeCell ref="C476:C478"/>
+    <mergeCell ref="D476:D478"/>
+    <mergeCell ref="F476:F478"/>
+    <mergeCell ref="G476:G478"/>
+    <mergeCell ref="Y460:Y461"/>
+    <mergeCell ref="Z460:Z461"/>
+    <mergeCell ref="S462:T462"/>
+    <mergeCell ref="R463:S463"/>
+    <mergeCell ref="Q464:R464"/>
+    <mergeCell ref="R465:S465"/>
+    <mergeCell ref="S460:S461"/>
+    <mergeCell ref="T460:T461"/>
+    <mergeCell ref="U460:U461"/>
+    <mergeCell ref="V460:V461"/>
+    <mergeCell ref="W460:W461"/>
+    <mergeCell ref="X460:X461"/>
+    <mergeCell ref="M460:M461"/>
+    <mergeCell ref="N460:N461"/>
+    <mergeCell ref="O460:O461"/>
+    <mergeCell ref="P460:P461"/>
+    <mergeCell ref="Q460:Q461"/>
+    <mergeCell ref="R460:R461"/>
+    <mergeCell ref="G460:G461"/>
+    <mergeCell ref="H460:H461"/>
+    <mergeCell ref="I460:I461"/>
+    <mergeCell ref="J460:J461"/>
+    <mergeCell ref="Z476:Z478"/>
+    <mergeCell ref="Q479:R479"/>
+    <mergeCell ref="Q483:R483"/>
+    <mergeCell ref="Q485:R485"/>
+    <mergeCell ref="S486:T486"/>
+    <mergeCell ref="A488:A489"/>
+    <mergeCell ref="B488:B489"/>
+    <mergeCell ref="C488:C489"/>
+    <mergeCell ref="D488:D489"/>
+    <mergeCell ref="F488:F489"/>
+    <mergeCell ref="T476:T478"/>
+    <mergeCell ref="U476:U478"/>
+    <mergeCell ref="V476:V478"/>
+    <mergeCell ref="W476:W478"/>
+    <mergeCell ref="X476:X478"/>
+    <mergeCell ref="Y476:Y478"/>
+    <mergeCell ref="N476:N478"/>
+    <mergeCell ref="O476:O478"/>
+    <mergeCell ref="P476:P478"/>
+    <mergeCell ref="Q476:Q478"/>
+    <mergeCell ref="R476:R478"/>
+    <mergeCell ref="S476:S478"/>
+    <mergeCell ref="H476:H478"/>
+    <mergeCell ref="I476:I478"/>
+    <mergeCell ref="J476:J478"/>
+    <mergeCell ref="K476:K478"/>
+    <mergeCell ref="L476:L478"/>
+    <mergeCell ref="M476:M478"/>
+    <mergeCell ref="Y488:Y489"/>
+    <mergeCell ref="Z488:Z489"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="C490:C491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="F490:F491"/>
+    <mergeCell ref="G490:G491"/>
+    <mergeCell ref="H490:H491"/>
+    <mergeCell ref="I490:I491"/>
+    <mergeCell ref="S488:S489"/>
+    <mergeCell ref="T488:T489"/>
+    <mergeCell ref="U488:U489"/>
+    <mergeCell ref="V488:V489"/>
+    <mergeCell ref="W488:W489"/>
+    <mergeCell ref="X488:X489"/>
+    <mergeCell ref="M488:M489"/>
+    <mergeCell ref="N488:N489"/>
+    <mergeCell ref="O488:O489"/>
+    <mergeCell ref="P488:P489"/>
+    <mergeCell ref="Q488:Q489"/>
+    <mergeCell ref="R488:R489"/>
+    <mergeCell ref="G488:G489"/>
+    <mergeCell ref="H488:H489"/>
+    <mergeCell ref="I488:I489"/>
+    <mergeCell ref="J488:J489"/>
+    <mergeCell ref="K488:K489"/>
+    <mergeCell ref="L488:L489"/>
+    <mergeCell ref="Q497:R497"/>
+    <mergeCell ref="R498:S498"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="C499:C500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="F499:F500"/>
+    <mergeCell ref="G499:G500"/>
+    <mergeCell ref="H499:H500"/>
+    <mergeCell ref="I499:I500"/>
+    <mergeCell ref="V490:V491"/>
+    <mergeCell ref="W490:W491"/>
+    <mergeCell ref="X490:X491"/>
+    <mergeCell ref="Y490:Y491"/>
+    <mergeCell ref="Z490:Z491"/>
+    <mergeCell ref="S492:T492"/>
+    <mergeCell ref="P490:P491"/>
+    <mergeCell ref="Q490:Q491"/>
+    <mergeCell ref="R490:R491"/>
+    <mergeCell ref="S490:S491"/>
+    <mergeCell ref="T490:T491"/>
+    <mergeCell ref="U490:U491"/>
+    <mergeCell ref="J490:J491"/>
+    <mergeCell ref="K490:K491"/>
+    <mergeCell ref="L490:L491"/>
+    <mergeCell ref="M490:M491"/>
+    <mergeCell ref="N490:N491"/>
+    <mergeCell ref="O490:O491"/>
+    <mergeCell ref="F503:F504"/>
+    <mergeCell ref="G503:G504"/>
+    <mergeCell ref="W499:W500"/>
+    <mergeCell ref="X499:X500"/>
+    <mergeCell ref="Y499:Y500"/>
+    <mergeCell ref="Z499:Z500"/>
+    <mergeCell ref="R501:S501"/>
+    <mergeCell ref="Q502:R502"/>
+    <mergeCell ref="P499:P500"/>
+    <mergeCell ref="Q499:Q500"/>
+    <mergeCell ref="R499:S499"/>
+    <mergeCell ref="T499:T500"/>
+    <mergeCell ref="U499:U500"/>
+    <mergeCell ref="V499:V500"/>
+    <mergeCell ref="J499:J500"/>
+    <mergeCell ref="K499:K500"/>
+    <mergeCell ref="L499:L500"/>
+    <mergeCell ref="M499:M500"/>
+    <mergeCell ref="N499:N500"/>
+    <mergeCell ref="O499:O500"/>
+    <mergeCell ref="R509:S509"/>
+    <mergeCell ref="Q515:R515"/>
+    <mergeCell ref="Q516:R516"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="C520:C521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="F520:F521"/>
+    <mergeCell ref="G520:G521"/>
+    <mergeCell ref="H520:H521"/>
+    <mergeCell ref="U503:U504"/>
+    <mergeCell ref="V503:V504"/>
+    <mergeCell ref="W503:W504"/>
+    <mergeCell ref="X503:X504"/>
+    <mergeCell ref="Y503:Y504"/>
+    <mergeCell ref="Z503:Z504"/>
+    <mergeCell ref="N503:N504"/>
+    <mergeCell ref="O503:O504"/>
+    <mergeCell ref="P503:P504"/>
+    <mergeCell ref="Q503:R503"/>
+    <mergeCell ref="S503:S504"/>
+    <mergeCell ref="T503:T504"/>
+    <mergeCell ref="H503:H504"/>
+    <mergeCell ref="I503:I504"/>
+    <mergeCell ref="J503:J504"/>
+    <mergeCell ref="K503:K504"/>
+    <mergeCell ref="L503:L504"/>
+    <mergeCell ref="M503:M504"/>
+    <mergeCell ref="A503:A504"/>
+    <mergeCell ref="B503:B504"/>
+    <mergeCell ref="C503:C504"/>
+    <mergeCell ref="D503:D504"/>
+    <mergeCell ref="A522:A524"/>
+    <mergeCell ref="B522:B524"/>
+    <mergeCell ref="C522:C524"/>
+    <mergeCell ref="D522:D524"/>
+    <mergeCell ref="F522:F524"/>
+    <mergeCell ref="G522:G524"/>
+    <mergeCell ref="U520:U521"/>
+    <mergeCell ref="V520:V521"/>
+    <mergeCell ref="W520:W521"/>
+    <mergeCell ref="X520:X521"/>
+    <mergeCell ref="Y520:Y521"/>
+    <mergeCell ref="Z520:Z521"/>
+    <mergeCell ref="O520:O521"/>
+    <mergeCell ref="P520:P521"/>
+    <mergeCell ref="Q520:Q521"/>
+    <mergeCell ref="R520:R521"/>
+    <mergeCell ref="S520:S521"/>
+    <mergeCell ref="T520:T521"/>
+    <mergeCell ref="I520:I521"/>
+    <mergeCell ref="J520:J521"/>
+    <mergeCell ref="K520:K521"/>
+    <mergeCell ref="L520:L521"/>
+    <mergeCell ref="M520:M521"/>
+    <mergeCell ref="N520:N521"/>
+    <mergeCell ref="F525:F526"/>
+    <mergeCell ref="G525:G526"/>
+    <mergeCell ref="U522:U524"/>
+    <mergeCell ref="V522:V524"/>
+    <mergeCell ref="W522:W524"/>
+    <mergeCell ref="X522:X524"/>
+    <mergeCell ref="Y522:Y524"/>
+    <mergeCell ref="Z522:Z524"/>
+    <mergeCell ref="N522:N524"/>
+    <mergeCell ref="O522:O524"/>
+    <mergeCell ref="P522:P524"/>
+    <mergeCell ref="Q522:Q524"/>
+    <mergeCell ref="R522:S522"/>
+    <mergeCell ref="T522:T524"/>
+    <mergeCell ref="H522:H524"/>
+    <mergeCell ref="I522:I524"/>
+    <mergeCell ref="J522:J524"/>
+    <mergeCell ref="K522:K524"/>
+    <mergeCell ref="L522:L524"/>
+    <mergeCell ref="M522:M524"/>
+    <mergeCell ref="Z525:Z526"/>
+    <mergeCell ref="R527:S527"/>
+    <mergeCell ref="A528:A529"/>
+    <mergeCell ref="B528:B529"/>
+    <mergeCell ref="C528:C529"/>
+    <mergeCell ref="D528:D529"/>
+    <mergeCell ref="F528:F529"/>
+    <mergeCell ref="G528:G529"/>
+    <mergeCell ref="H528:H529"/>
+    <mergeCell ref="I528:I529"/>
+    <mergeCell ref="T525:T526"/>
+    <mergeCell ref="U525:U526"/>
+    <mergeCell ref="V525:V526"/>
+    <mergeCell ref="W525:W526"/>
+    <mergeCell ref="X525:X526"/>
+    <mergeCell ref="Y525:Y526"/>
+    <mergeCell ref="N525:N526"/>
+    <mergeCell ref="O525:O526"/>
+    <mergeCell ref="P525:P526"/>
+    <mergeCell ref="Q525:Q526"/>
+    <mergeCell ref="R525:R526"/>
+    <mergeCell ref="S525:S526"/>
+    <mergeCell ref="H525:H526"/>
+    <mergeCell ref="I525:I526"/>
+    <mergeCell ref="J525:J526"/>
+    <mergeCell ref="K525:K526"/>
+    <mergeCell ref="L525:L526"/>
+    <mergeCell ref="M525:M526"/>
+    <mergeCell ref="A525:A526"/>
+    <mergeCell ref="B525:B526"/>
+    <mergeCell ref="C525:C526"/>
+    <mergeCell ref="D525:D526"/>
+    <mergeCell ref="F532:F533"/>
+    <mergeCell ref="G532:G533"/>
+    <mergeCell ref="V528:V529"/>
+    <mergeCell ref="W528:W529"/>
+    <mergeCell ref="X528:X529"/>
+    <mergeCell ref="Y528:Y529"/>
+    <mergeCell ref="Z528:Z529"/>
+    <mergeCell ref="Q531:R531"/>
+    <mergeCell ref="P528:P529"/>
+    <mergeCell ref="Q528:Q529"/>
+    <mergeCell ref="R528:R529"/>
+    <mergeCell ref="S528:S529"/>
+    <mergeCell ref="T528:T529"/>
+    <mergeCell ref="U528:U529"/>
+    <mergeCell ref="J528:J529"/>
+    <mergeCell ref="K528:K529"/>
+    <mergeCell ref="L528:L529"/>
+    <mergeCell ref="M528:M529"/>
+    <mergeCell ref="N528:N529"/>
+    <mergeCell ref="O528:O529"/>
+    <mergeCell ref="Z532:Z533"/>
+    <mergeCell ref="R534:S534"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="C535:C536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="F535:F536"/>
+    <mergeCell ref="G535:G536"/>
+    <mergeCell ref="H535:H536"/>
+    <mergeCell ref="I535:I536"/>
+    <mergeCell ref="T532:T533"/>
+    <mergeCell ref="U532:U533"/>
+    <mergeCell ref="V532:V533"/>
+    <mergeCell ref="W532:W533"/>
+    <mergeCell ref="X532:X533"/>
+    <mergeCell ref="Y532:Y533"/>
+    <mergeCell ref="N532:N533"/>
+    <mergeCell ref="O532:O533"/>
+    <mergeCell ref="P532:P533"/>
+    <mergeCell ref="Q532:Q533"/>
+    <mergeCell ref="R532:R533"/>
+    <mergeCell ref="S532:S533"/>
+    <mergeCell ref="H532:H533"/>
+    <mergeCell ref="I532:I533"/>
+    <mergeCell ref="J532:J533"/>
+    <mergeCell ref="K532:K533"/>
+    <mergeCell ref="L532:L533"/>
+    <mergeCell ref="M532:M533"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="C532:C533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="A548:A549"/>
+    <mergeCell ref="B548:B549"/>
+    <mergeCell ref="C548:C549"/>
+    <mergeCell ref="D548:D549"/>
+    <mergeCell ref="F548:F549"/>
+    <mergeCell ref="G548:G549"/>
+    <mergeCell ref="Q538:R538"/>
+    <mergeCell ref="Q539:R539"/>
+    <mergeCell ref="Q540:R540"/>
+    <mergeCell ref="R542:S542"/>
+    <mergeCell ref="R544:S544"/>
+    <mergeCell ref="Q547:R547"/>
+    <mergeCell ref="V535:V536"/>
+    <mergeCell ref="W535:W536"/>
+    <mergeCell ref="X535:X536"/>
+    <mergeCell ref="Y535:Y536"/>
+    <mergeCell ref="Z535:Z536"/>
+    <mergeCell ref="S537:T537"/>
+    <mergeCell ref="P535:P536"/>
+    <mergeCell ref="Q535:Q536"/>
+    <mergeCell ref="R535:R536"/>
+    <mergeCell ref="S535:S536"/>
+    <mergeCell ref="T535:T536"/>
+    <mergeCell ref="U535:U536"/>
+    <mergeCell ref="J535:J536"/>
+    <mergeCell ref="K535:K536"/>
+    <mergeCell ref="L535:L536"/>
+    <mergeCell ref="M535:M536"/>
+    <mergeCell ref="N535:N536"/>
+    <mergeCell ref="O535:O536"/>
+    <mergeCell ref="F550:F551"/>
+    <mergeCell ref="G550:G551"/>
+    <mergeCell ref="U548:U549"/>
+    <mergeCell ref="V548:V549"/>
+    <mergeCell ref="W548:W549"/>
+    <mergeCell ref="X548:X549"/>
+    <mergeCell ref="Y548:Y549"/>
+    <mergeCell ref="Z548:Z549"/>
+    <mergeCell ref="N548:N549"/>
+    <mergeCell ref="O548:O549"/>
+    <mergeCell ref="P548:P549"/>
+    <mergeCell ref="Q548:Q549"/>
+    <mergeCell ref="R548:S548"/>
+    <mergeCell ref="T548:T549"/>
+    <mergeCell ref="H548:H549"/>
+    <mergeCell ref="I548:I549"/>
+    <mergeCell ref="J548:J549"/>
+    <mergeCell ref="K548:K549"/>
+    <mergeCell ref="L548:L549"/>
+    <mergeCell ref="M548:M549"/>
+    <mergeCell ref="Z550:Z551"/>
+    <mergeCell ref="S552:T552"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="C553:C554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="F553:F554"/>
+    <mergeCell ref="G553:G554"/>
+    <mergeCell ref="H553:H554"/>
+    <mergeCell ref="I553:I554"/>
+    <mergeCell ref="T550:T551"/>
+    <mergeCell ref="U550:U551"/>
+    <mergeCell ref="V550:V551"/>
+    <mergeCell ref="W550:W551"/>
+    <mergeCell ref="X550:X551"/>
+    <mergeCell ref="Y550:Y551"/>
+    <mergeCell ref="N550:N551"/>
+    <mergeCell ref="O550:O551"/>
+    <mergeCell ref="P550:P551"/>
+    <mergeCell ref="Q550:Q551"/>
+    <mergeCell ref="R550:R551"/>
+    <mergeCell ref="S550:S551"/>
+    <mergeCell ref="H550:H551"/>
+    <mergeCell ref="I550:I551"/>
+    <mergeCell ref="J550:J551"/>
+    <mergeCell ref="K550:K551"/>
+    <mergeCell ref="L550:L551"/>
+    <mergeCell ref="M550:M551"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="C550:C551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="K558:K559"/>
+    <mergeCell ref="L558:L559"/>
+    <mergeCell ref="V553:V554"/>
+    <mergeCell ref="W553:W554"/>
+    <mergeCell ref="X553:X554"/>
+    <mergeCell ref="Y553:Y554"/>
+    <mergeCell ref="Z553:Z554"/>
+    <mergeCell ref="A558:A559"/>
+    <mergeCell ref="B558:B559"/>
+    <mergeCell ref="C558:C559"/>
+    <mergeCell ref="D558:D559"/>
+    <mergeCell ref="F558:F559"/>
+    <mergeCell ref="P553:P554"/>
+    <mergeCell ref="Q553:Q554"/>
+    <mergeCell ref="R553:R554"/>
+    <mergeCell ref="S553:S554"/>
+    <mergeCell ref="T553:T554"/>
+    <mergeCell ref="U553:U554"/>
+    <mergeCell ref="J553:J554"/>
+    <mergeCell ref="K553:K554"/>
+    <mergeCell ref="L553:L554"/>
+    <mergeCell ref="M553:M554"/>
+    <mergeCell ref="N553:N554"/>
+    <mergeCell ref="O553:O554"/>
+    <mergeCell ref="R569:S569"/>
+    <mergeCell ref="R571:S571"/>
+    <mergeCell ref="Q574:R574"/>
+    <mergeCell ref="R576:S576"/>
+    <mergeCell ref="A577:A578"/>
+    <mergeCell ref="B577:B578"/>
+    <mergeCell ref="C577:C578"/>
+    <mergeCell ref="D577:D578"/>
+    <mergeCell ref="F577:F578"/>
+    <mergeCell ref="G577:G578"/>
+    <mergeCell ref="Z558:Z559"/>
+    <mergeCell ref="R560:S560"/>
+    <mergeCell ref="T561:U561"/>
+    <mergeCell ref="R562:S562"/>
+    <mergeCell ref="S563:T563"/>
+    <mergeCell ref="Q566:R566"/>
+    <mergeCell ref="T558:T559"/>
+    <mergeCell ref="U558:U559"/>
+    <mergeCell ref="V558:V559"/>
+    <mergeCell ref="W558:W559"/>
+    <mergeCell ref="X558:X559"/>
+    <mergeCell ref="Y558:Y559"/>
+    <mergeCell ref="M558:M559"/>
+    <mergeCell ref="N558:N559"/>
+    <mergeCell ref="O558:O559"/>
+    <mergeCell ref="P558:P559"/>
+    <mergeCell ref="Q558:R558"/>
+    <mergeCell ref="S558:S559"/>
+    <mergeCell ref="G558:G559"/>
+    <mergeCell ref="H558:H559"/>
+    <mergeCell ref="I558:I559"/>
+    <mergeCell ref="J558:J559"/>
+    <mergeCell ref="Z577:Z578"/>
+    <mergeCell ref="R582:S582"/>
+    <mergeCell ref="S584:T584"/>
+    <mergeCell ref="A585:A586"/>
+    <mergeCell ref="B585:B586"/>
+    <mergeCell ref="C585:C586"/>
+    <mergeCell ref="D585:D586"/>
+    <mergeCell ref="F585:F586"/>
+    <mergeCell ref="G585:G586"/>
+    <mergeCell ref="H585:H586"/>
+    <mergeCell ref="T577:T578"/>
+    <mergeCell ref="U577:U578"/>
+    <mergeCell ref="V577:V578"/>
+    <mergeCell ref="W577:W578"/>
+    <mergeCell ref="X577:X578"/>
+    <mergeCell ref="Y577:Y578"/>
+    <mergeCell ref="N577:N578"/>
+    <mergeCell ref="O577:O578"/>
+    <mergeCell ref="P577:P578"/>
+    <mergeCell ref="Q577:Q578"/>
+    <mergeCell ref="R577:R578"/>
+    <mergeCell ref="S577:S578"/>
+    <mergeCell ref="H577:H578"/>
+    <mergeCell ref="I577:I578"/>
+    <mergeCell ref="J577:J578"/>
+    <mergeCell ref="K577:K578"/>
+    <mergeCell ref="L577:L578"/>
+    <mergeCell ref="M577:M578"/>
+    <mergeCell ref="F588:F589"/>
+    <mergeCell ref="G588:G589"/>
+    <mergeCell ref="U585:U586"/>
+    <mergeCell ref="V585:V586"/>
+    <mergeCell ref="W585:W586"/>
+    <mergeCell ref="X585:X586"/>
+    <mergeCell ref="Y585:Y586"/>
+    <mergeCell ref="Z585:Z586"/>
+    <mergeCell ref="O585:O586"/>
+    <mergeCell ref="P585:P586"/>
+    <mergeCell ref="Q585:Q586"/>
+    <mergeCell ref="R585:R586"/>
+    <mergeCell ref="S585:S586"/>
+    <mergeCell ref="T585:T586"/>
+    <mergeCell ref="I585:I586"/>
+    <mergeCell ref="J585:J586"/>
+    <mergeCell ref="K585:K586"/>
+    <mergeCell ref="L585:L586"/>
+    <mergeCell ref="M585:M586"/>
+    <mergeCell ref="N585:N586"/>
+    <mergeCell ref="Z588:Z589"/>
+    <mergeCell ref="A593:A594"/>
+    <mergeCell ref="B593:B594"/>
+    <mergeCell ref="C593:C594"/>
+    <mergeCell ref="D593:D594"/>
+    <mergeCell ref="F593:F594"/>
+    <mergeCell ref="G593:G594"/>
+    <mergeCell ref="H593:H594"/>
+    <mergeCell ref="I593:I594"/>
+    <mergeCell ref="J593:J594"/>
+    <mergeCell ref="T588:T589"/>
+    <mergeCell ref="U588:U589"/>
+    <mergeCell ref="V588:V589"/>
+    <mergeCell ref="W588:W589"/>
+    <mergeCell ref="X588:X589"/>
+    <mergeCell ref="Y588:Y589"/>
+    <mergeCell ref="N588:N589"/>
+    <mergeCell ref="O588:O589"/>
+    <mergeCell ref="P588:P589"/>
+    <mergeCell ref="Q588:Q589"/>
+    <mergeCell ref="R588:R589"/>
+    <mergeCell ref="S588:S589"/>
+    <mergeCell ref="H588:H589"/>
+    <mergeCell ref="I588:I589"/>
+    <mergeCell ref="J588:J589"/>
+    <mergeCell ref="K588:K589"/>
+    <mergeCell ref="L588:L589"/>
+    <mergeCell ref="M588:M589"/>
+    <mergeCell ref="A588:A589"/>
+    <mergeCell ref="B588:B589"/>
+    <mergeCell ref="C588:C589"/>
+    <mergeCell ref="D588:D589"/>
+    <mergeCell ref="W593:W594"/>
+    <mergeCell ref="X593:X594"/>
+    <mergeCell ref="Y593:Y594"/>
+    <mergeCell ref="Z593:Z594"/>
+    <mergeCell ref="R595:S595"/>
+    <mergeCell ref="Q597:R597"/>
+    <mergeCell ref="Q593:Q594"/>
+    <mergeCell ref="R593:R594"/>
+    <mergeCell ref="S593:S594"/>
+    <mergeCell ref="T593:T594"/>
+    <mergeCell ref="U593:U594"/>
+    <mergeCell ref="V593:V594"/>
+    <mergeCell ref="K593:K594"/>
+    <mergeCell ref="L593:L594"/>
+    <mergeCell ref="M593:M594"/>
+    <mergeCell ref="N593:N594"/>
+    <mergeCell ref="O593:O594"/>
+    <mergeCell ref="P593:P594"/>
+    <mergeCell ref="O598:O599"/>
+    <mergeCell ref="P598:P599"/>
+    <mergeCell ref="Q598:Q599"/>
+    <mergeCell ref="R598:R599"/>
+    <mergeCell ref="S598:S599"/>
+    <mergeCell ref="H598:H599"/>
+    <mergeCell ref="I598:I599"/>
+    <mergeCell ref="J598:J599"/>
+    <mergeCell ref="K598:K599"/>
+    <mergeCell ref="L598:L599"/>
+    <mergeCell ref="M598:M599"/>
+    <mergeCell ref="A598:A599"/>
+    <mergeCell ref="B598:B599"/>
+    <mergeCell ref="C598:C599"/>
+    <mergeCell ref="D598:D599"/>
+    <mergeCell ref="F598:F599"/>
+    <mergeCell ref="G598:G599"/>
+    <mergeCell ref="Z603:Z605"/>
+    <mergeCell ref="T606:U606"/>
+    <mergeCell ref="R607:S607"/>
+    <mergeCell ref="Q603:Q605"/>
+    <mergeCell ref="R603:R605"/>
+    <mergeCell ref="S603:S605"/>
+    <mergeCell ref="T603:T605"/>
+    <mergeCell ref="U603:U605"/>
+    <mergeCell ref="V603:V605"/>
+    <mergeCell ref="K603:K605"/>
+    <mergeCell ref="L603:L605"/>
+    <mergeCell ref="M603:M605"/>
+    <mergeCell ref="N603:N605"/>
+    <mergeCell ref="O603:O605"/>
+    <mergeCell ref="P603:P605"/>
+    <mergeCell ref="Z598:Z599"/>
+    <mergeCell ref="A603:A605"/>
+    <mergeCell ref="B603:B605"/>
+    <mergeCell ref="C603:C605"/>
+    <mergeCell ref="D603:D605"/>
+    <mergeCell ref="F603:F605"/>
+    <mergeCell ref="G603:G605"/>
+    <mergeCell ref="H603:H605"/>
+    <mergeCell ref="I603:I605"/>
+    <mergeCell ref="J603:J605"/>
+    <mergeCell ref="T598:T599"/>
+    <mergeCell ref="U598:U599"/>
+    <mergeCell ref="V598:V599"/>
+    <mergeCell ref="W598:W599"/>
+    <mergeCell ref="X598:X599"/>
+    <mergeCell ref="Y598:Y599"/>
+    <mergeCell ref="N598:N599"/>
+    <mergeCell ref="S624:T624"/>
+    <mergeCell ref="R625:S625"/>
+    <mergeCell ref="A628:A629"/>
+    <mergeCell ref="B628:B629"/>
+    <mergeCell ref="C628:C629"/>
+    <mergeCell ref="D628:D629"/>
+    <mergeCell ref="F628:F629"/>
+    <mergeCell ref="G628:G629"/>
+    <mergeCell ref="H628:H629"/>
+    <mergeCell ref="I628:I629"/>
+    <mergeCell ref="Q610:R610"/>
+    <mergeCell ref="X612:Y612"/>
+    <mergeCell ref="R614:S614"/>
+    <mergeCell ref="Q615:R615"/>
+    <mergeCell ref="R620:S620"/>
+    <mergeCell ref="T621:U621"/>
+    <mergeCell ref="W603:W605"/>
+    <mergeCell ref="X603:X605"/>
+    <mergeCell ref="Y603:Y605"/>
+    <mergeCell ref="Q635:R635"/>
+    <mergeCell ref="A636:A637"/>
+    <mergeCell ref="B636:B637"/>
+    <mergeCell ref="C636:C637"/>
+    <mergeCell ref="D636:D637"/>
+    <mergeCell ref="F636:F637"/>
+    <mergeCell ref="G636:G637"/>
+    <mergeCell ref="H636:H637"/>
+    <mergeCell ref="I636:I637"/>
+    <mergeCell ref="J636:J637"/>
+    <mergeCell ref="W628:W629"/>
+    <mergeCell ref="X628:X629"/>
+    <mergeCell ref="Y628:Y629"/>
+    <mergeCell ref="Z628:Z629"/>
+    <mergeCell ref="R632:S632"/>
+    <mergeCell ref="Q633:R633"/>
+    <mergeCell ref="P628:P629"/>
+    <mergeCell ref="Q628:Q629"/>
+    <mergeCell ref="R628:R629"/>
+    <mergeCell ref="S628:T628"/>
+    <mergeCell ref="U628:U629"/>
+    <mergeCell ref="V628:V629"/>
+    <mergeCell ref="J628:J629"/>
+    <mergeCell ref="K628:K629"/>
+    <mergeCell ref="L628:L629"/>
+    <mergeCell ref="M628:M629"/>
+    <mergeCell ref="N628:N629"/>
+    <mergeCell ref="O628:O629"/>
+    <mergeCell ref="W636:W637"/>
+    <mergeCell ref="X636:X637"/>
+    <mergeCell ref="Y636:Y637"/>
+    <mergeCell ref="Z636:Z637"/>
+    <mergeCell ref="A638:A639"/>
+    <mergeCell ref="B638:B639"/>
+    <mergeCell ref="C638:C639"/>
+    <mergeCell ref="D638:D639"/>
+    <mergeCell ref="F638:F639"/>
+    <mergeCell ref="G638:G639"/>
+    <mergeCell ref="Q636:Q637"/>
+    <mergeCell ref="R636:R637"/>
+    <mergeCell ref="S636:S637"/>
+    <mergeCell ref="T636:T637"/>
+    <mergeCell ref="U636:U637"/>
+    <mergeCell ref="V636:V637"/>
+    <mergeCell ref="K636:K637"/>
+    <mergeCell ref="L636:L637"/>
+    <mergeCell ref="M636:M637"/>
+    <mergeCell ref="N636:N637"/>
+    <mergeCell ref="O636:O637"/>
+    <mergeCell ref="P636:P637"/>
+    <mergeCell ref="Z638:Z639"/>
+    <mergeCell ref="S643:T643"/>
+    <mergeCell ref="R644:S644"/>
+    <mergeCell ref="Q645:R645"/>
+    <mergeCell ref="Q648:R648"/>
+    <mergeCell ref="A653:A654"/>
+    <mergeCell ref="B653:B654"/>
+    <mergeCell ref="C653:C654"/>
+    <mergeCell ref="D653:D654"/>
+    <mergeCell ref="F653:F654"/>
+    <mergeCell ref="T638:T639"/>
+    <mergeCell ref="U638:U639"/>
+    <mergeCell ref="V638:V639"/>
+    <mergeCell ref="W638:W639"/>
+    <mergeCell ref="X638:X639"/>
+    <mergeCell ref="Y638:Y639"/>
+    <mergeCell ref="N638:N639"/>
+    <mergeCell ref="O638:O639"/>
+    <mergeCell ref="P638:P639"/>
+    <mergeCell ref="Q638:Q639"/>
+    <mergeCell ref="R638:R639"/>
+    <mergeCell ref="S638:S639"/>
+    <mergeCell ref="H638:H639"/>
+    <mergeCell ref="I638:I639"/>
+    <mergeCell ref="J638:J639"/>
+    <mergeCell ref="K638:K639"/>
+    <mergeCell ref="L638:L639"/>
+    <mergeCell ref="M638:M639"/>
+    <mergeCell ref="Y653:Y654"/>
+    <mergeCell ref="Z653:Z654"/>
+    <mergeCell ref="T655:U655"/>
+    <mergeCell ref="A656:A657"/>
+    <mergeCell ref="B656:B657"/>
+    <mergeCell ref="C656:C657"/>
+    <mergeCell ref="D656:D657"/>
+    <mergeCell ref="F656:F657"/>
+    <mergeCell ref="G656:G657"/>
+    <mergeCell ref="H656:H657"/>
+    <mergeCell ref="S653:S654"/>
+    <mergeCell ref="T653:T654"/>
+    <mergeCell ref="U653:U654"/>
+    <mergeCell ref="V653:V654"/>
+    <mergeCell ref="W653:W654"/>
+    <mergeCell ref="X653:X654"/>
+    <mergeCell ref="M653:M654"/>
+    <mergeCell ref="N653:N654"/>
+    <mergeCell ref="O653:O654"/>
+    <mergeCell ref="P653:P654"/>
+    <mergeCell ref="Q653:Q654"/>
+    <mergeCell ref="R653:R654"/>
+    <mergeCell ref="G653:G654"/>
+    <mergeCell ref="H653:H654"/>
+    <mergeCell ref="I653:I654"/>
+    <mergeCell ref="J653:J654"/>
+    <mergeCell ref="K653:K654"/>
+    <mergeCell ref="L653:L654"/>
+    <mergeCell ref="F659:F661"/>
+    <mergeCell ref="G659:G661"/>
+    <mergeCell ref="U656:U657"/>
+    <mergeCell ref="V656:V657"/>
+    <mergeCell ref="W656:W657"/>
+    <mergeCell ref="X656:X657"/>
+    <mergeCell ref="Y656:Y657"/>
+    <mergeCell ref="Z656:Z657"/>
+    <mergeCell ref="O656:O657"/>
+    <mergeCell ref="P656:P657"/>
+    <mergeCell ref="Q656:Q657"/>
+    <mergeCell ref="R656:R657"/>
+    <mergeCell ref="S656:S657"/>
+    <mergeCell ref="T656:T657"/>
+    <mergeCell ref="I656:I657"/>
+    <mergeCell ref="J656:J657"/>
+    <mergeCell ref="K656:K657"/>
+    <mergeCell ref="L656:L657"/>
+    <mergeCell ref="M656:M657"/>
+    <mergeCell ref="N656:N657"/>
+    <mergeCell ref="S664:T664"/>
+    <mergeCell ref="A665:A666"/>
+    <mergeCell ref="B665:B666"/>
+    <mergeCell ref="C665:C666"/>
+    <mergeCell ref="D665:D666"/>
+    <mergeCell ref="F665:F666"/>
+    <mergeCell ref="G665:G666"/>
+    <mergeCell ref="H665:H666"/>
+    <mergeCell ref="I665:I666"/>
+    <mergeCell ref="J665:J666"/>
+    <mergeCell ref="U659:U661"/>
+    <mergeCell ref="V659:V661"/>
+    <mergeCell ref="W659:W661"/>
+    <mergeCell ref="X659:X661"/>
+    <mergeCell ref="Y659:Y661"/>
+    <mergeCell ref="Z659:Z661"/>
+    <mergeCell ref="N659:N661"/>
+    <mergeCell ref="O659:O661"/>
+    <mergeCell ref="P659:P661"/>
+    <mergeCell ref="Q659:R659"/>
+    <mergeCell ref="S659:S661"/>
+    <mergeCell ref="T659:T661"/>
+    <mergeCell ref="H659:H661"/>
+    <mergeCell ref="I659:I661"/>
+    <mergeCell ref="J659:J661"/>
+    <mergeCell ref="K659:K661"/>
+    <mergeCell ref="L659:L661"/>
+    <mergeCell ref="M659:M661"/>
+    <mergeCell ref="A659:A661"/>
+    <mergeCell ref="B659:B661"/>
+    <mergeCell ref="C659:C661"/>
+    <mergeCell ref="D659:D661"/>
+    <mergeCell ref="X665:X666"/>
+    <mergeCell ref="Y665:Y666"/>
+    <mergeCell ref="Z665:Z666"/>
+    <mergeCell ref="R669:S669"/>
+    <mergeCell ref="Q670:R670"/>
+    <mergeCell ref="A672:A674"/>
+    <mergeCell ref="B672:B674"/>
+    <mergeCell ref="C672:C674"/>
+    <mergeCell ref="D672:D674"/>
+    <mergeCell ref="F672:F674"/>
+    <mergeCell ref="Q665:R665"/>
+    <mergeCell ref="S665:S666"/>
+    <mergeCell ref="T665:T666"/>
+    <mergeCell ref="U665:U666"/>
+    <mergeCell ref="V665:V666"/>
+    <mergeCell ref="W665:W666"/>
+    <mergeCell ref="K665:K666"/>
+    <mergeCell ref="L665:L666"/>
+    <mergeCell ref="M665:M666"/>
+    <mergeCell ref="N665:N666"/>
+    <mergeCell ref="O665:O666"/>
+    <mergeCell ref="P665:P666"/>
+    <mergeCell ref="Y672:Y674"/>
+    <mergeCell ref="Z672:Z674"/>
+    <mergeCell ref="Q675:R675"/>
+    <mergeCell ref="Q676:R676"/>
+    <mergeCell ref="X677:Y677"/>
+    <mergeCell ref="A678:A679"/>
+    <mergeCell ref="B678:B679"/>
+    <mergeCell ref="C678:C679"/>
+    <mergeCell ref="D678:D679"/>
+    <mergeCell ref="F678:F679"/>
+    <mergeCell ref="S672:S674"/>
+    <mergeCell ref="T672:T674"/>
+    <mergeCell ref="U672:U674"/>
+    <mergeCell ref="V672:V674"/>
+    <mergeCell ref="W672:W674"/>
+    <mergeCell ref="X672:X674"/>
+    <mergeCell ref="M672:M674"/>
+    <mergeCell ref="N672:N674"/>
+    <mergeCell ref="O672:O674"/>
+    <mergeCell ref="P672:P674"/>
+    <mergeCell ref="Q672:Q674"/>
+    <mergeCell ref="R672:R674"/>
+    <mergeCell ref="G672:G674"/>
+    <mergeCell ref="H672:H674"/>
+    <mergeCell ref="I672:I674"/>
+    <mergeCell ref="J672:J674"/>
+    <mergeCell ref="K672:K674"/>
+    <mergeCell ref="L672:L674"/>
+    <mergeCell ref="Y678:Y679"/>
+    <mergeCell ref="Z678:Z679"/>
+    <mergeCell ref="A681:A682"/>
+    <mergeCell ref="B681:B682"/>
+    <mergeCell ref="C681:C682"/>
+    <mergeCell ref="D681:D682"/>
+    <mergeCell ref="F681:F682"/>
+    <mergeCell ref="G681:G682"/>
+    <mergeCell ref="H681:H682"/>
+    <mergeCell ref="I681:I682"/>
+    <mergeCell ref="S678:S679"/>
+    <mergeCell ref="T678:T679"/>
+    <mergeCell ref="U678:U679"/>
+    <mergeCell ref="V678:V679"/>
+    <mergeCell ref="W678:W679"/>
+    <mergeCell ref="X678:X679"/>
+    <mergeCell ref="M678:M679"/>
+    <mergeCell ref="N678:N679"/>
+    <mergeCell ref="O678:O679"/>
+    <mergeCell ref="P678:P679"/>
+    <mergeCell ref="Q678:Q679"/>
+    <mergeCell ref="R678:R679"/>
+    <mergeCell ref="G678:G679"/>
+    <mergeCell ref="H678:H679"/>
+    <mergeCell ref="I678:I679"/>
+    <mergeCell ref="J678:J679"/>
+    <mergeCell ref="K678:K679"/>
+    <mergeCell ref="L678:L679"/>
+    <mergeCell ref="W681:W682"/>
+    <mergeCell ref="X681:X682"/>
+    <mergeCell ref="Y681:Y682"/>
+    <mergeCell ref="Z681:Z682"/>
+    <mergeCell ref="Q683:R683"/>
+    <mergeCell ref="A687:A688"/>
+    <mergeCell ref="B687:B688"/>
+    <mergeCell ref="C687:C688"/>
+    <mergeCell ref="D687:D688"/>
+    <mergeCell ref="F687:F688"/>
+    <mergeCell ref="P681:P682"/>
+    <mergeCell ref="Q681:R681"/>
+    <mergeCell ref="S681:S682"/>
+    <mergeCell ref="T681:T682"/>
+    <mergeCell ref="U681:U682"/>
+    <mergeCell ref="V681:V682"/>
+    <mergeCell ref="J681:J682"/>
+    <mergeCell ref="K681:K682"/>
+    <mergeCell ref="L681:L682"/>
+    <mergeCell ref="M681:M682"/>
+    <mergeCell ref="N681:N682"/>
+    <mergeCell ref="O681:O682"/>
+    <mergeCell ref="Z687:Z688"/>
+    <mergeCell ref="Q692:R692"/>
+    <mergeCell ref="Q693:R693"/>
+    <mergeCell ref="Q694:R694"/>
+    <mergeCell ref="R697:S697"/>
+    <mergeCell ref="S687:S688"/>
+    <mergeCell ref="T687:T688"/>
+    <mergeCell ref="U687:U688"/>
+    <mergeCell ref="V687:V688"/>
+    <mergeCell ref="W687:W688"/>
+    <mergeCell ref="X687:X688"/>
+    <mergeCell ref="M687:M688"/>
+    <mergeCell ref="N687:N688"/>
+    <mergeCell ref="O687:O688"/>
+    <mergeCell ref="P687:P688"/>
+    <mergeCell ref="Q687:Q688"/>
+    <mergeCell ref="R687:R688"/>
+    <mergeCell ref="T709:U709"/>
+    <mergeCell ref="R714:S714"/>
+    <mergeCell ref="R717:S717"/>
+    <mergeCell ref="Q721:R721"/>
+    <mergeCell ref="R722:S722"/>
+    <mergeCell ref="A726:A727"/>
+    <mergeCell ref="B726:B727"/>
+    <mergeCell ref="C726:C727"/>
+    <mergeCell ref="D726:D727"/>
+    <mergeCell ref="F726:F727"/>
+    <mergeCell ref="R699:S699"/>
+    <mergeCell ref="Q700:R700"/>
+    <mergeCell ref="S703:T703"/>
+    <mergeCell ref="R705:S705"/>
+    <mergeCell ref="Q706:R706"/>
+    <mergeCell ref="S708:T708"/>
+    <mergeCell ref="Y687:Y688"/>
+    <mergeCell ref="G687:G688"/>
+    <mergeCell ref="H687:H688"/>
+    <mergeCell ref="I687:I688"/>
+    <mergeCell ref="J687:J688"/>
+    <mergeCell ref="K687:K688"/>
+    <mergeCell ref="L687:L688"/>
+    <mergeCell ref="Z726:Z727"/>
+    <mergeCell ref="A728:A729"/>
+    <mergeCell ref="B728:B729"/>
+    <mergeCell ref="C728:C729"/>
+    <mergeCell ref="D728:D729"/>
+    <mergeCell ref="F728:F729"/>
+    <mergeCell ref="G728:G729"/>
+    <mergeCell ref="H728:H729"/>
+    <mergeCell ref="I728:I729"/>
+    <mergeCell ref="J728:J729"/>
+    <mergeCell ref="T726:T727"/>
+    <mergeCell ref="U726:U727"/>
+    <mergeCell ref="V726:V727"/>
+    <mergeCell ref="W726:W727"/>
+    <mergeCell ref="X726:X727"/>
+    <mergeCell ref="Y726:Y727"/>
+    <mergeCell ref="M726:M727"/>
+    <mergeCell ref="N726:N727"/>
+    <mergeCell ref="O726:O727"/>
+    <mergeCell ref="P726:P727"/>
+    <mergeCell ref="Q726:Q727"/>
+    <mergeCell ref="R726:S726"/>
+    <mergeCell ref="G726:G727"/>
+    <mergeCell ref="H726:H727"/>
+    <mergeCell ref="I726:I727"/>
+    <mergeCell ref="J726:J727"/>
+    <mergeCell ref="K726:K727"/>
+    <mergeCell ref="L726:L727"/>
+    <mergeCell ref="W728:W729"/>
+    <mergeCell ref="X728:X729"/>
+    <mergeCell ref="Y728:Y729"/>
+    <mergeCell ref="Z728:Z729"/>
+    <mergeCell ref="R731:S731"/>
+    <mergeCell ref="A734:A736"/>
+    <mergeCell ref="B734:B736"/>
+    <mergeCell ref="C734:C736"/>
+    <mergeCell ref="D734:D736"/>
+    <mergeCell ref="F734:F736"/>
+    <mergeCell ref="Q728:Q729"/>
+    <mergeCell ref="R728:R729"/>
+    <mergeCell ref="S728:S729"/>
+    <mergeCell ref="T728:T729"/>
+    <mergeCell ref="U728:U729"/>
+    <mergeCell ref="V728:V729"/>
+    <mergeCell ref="K728:K729"/>
+    <mergeCell ref="L728:L729"/>
+    <mergeCell ref="M728:M729"/>
+    <mergeCell ref="N728:N729"/>
+    <mergeCell ref="O728:O729"/>
+    <mergeCell ref="P728:P729"/>
+    <mergeCell ref="Z734:Z736"/>
+    <mergeCell ref="Q740:R740"/>
+    <mergeCell ref="W741:X741"/>
+    <mergeCell ref="A742:A743"/>
+    <mergeCell ref="B742:B743"/>
+    <mergeCell ref="C742:C743"/>
+    <mergeCell ref="D742:D743"/>
+    <mergeCell ref="F742:F743"/>
+    <mergeCell ref="G742:G743"/>
+    <mergeCell ref="H742:H743"/>
+    <mergeCell ref="T734:T736"/>
+    <mergeCell ref="U734:U736"/>
+    <mergeCell ref="V734:V736"/>
+    <mergeCell ref="W734:W736"/>
+    <mergeCell ref="X734:X736"/>
+    <mergeCell ref="Y734:Y736"/>
+    <mergeCell ref="M734:M736"/>
+    <mergeCell ref="N734:N736"/>
+    <mergeCell ref="O734:O736"/>
+    <mergeCell ref="P734:P736"/>
+    <mergeCell ref="Q734:Q736"/>
+    <mergeCell ref="R734:S734"/>
+    <mergeCell ref="G734:G736"/>
+    <mergeCell ref="H734:H736"/>
+    <mergeCell ref="I734:I736"/>
+    <mergeCell ref="J734:J736"/>
+    <mergeCell ref="K734:K736"/>
+    <mergeCell ref="L734:L736"/>
+    <mergeCell ref="S746:T746"/>
+    <mergeCell ref="A747:A748"/>
+    <mergeCell ref="B747:B748"/>
+    <mergeCell ref="C747:C748"/>
+    <mergeCell ref="D747:D748"/>
+    <mergeCell ref="F747:F748"/>
+    <mergeCell ref="G747:G748"/>
+    <mergeCell ref="H747:H748"/>
+    <mergeCell ref="I747:I748"/>
+    <mergeCell ref="J747:J748"/>
+    <mergeCell ref="V742:V743"/>
+    <mergeCell ref="W742:W743"/>
+    <mergeCell ref="X742:X743"/>
+    <mergeCell ref="Y742:Y743"/>
+    <mergeCell ref="Z742:Z743"/>
+    <mergeCell ref="R744:S744"/>
+    <mergeCell ref="O742:O743"/>
+    <mergeCell ref="P742:P743"/>
+    <mergeCell ref="Q742:Q743"/>
+    <mergeCell ref="R742:S742"/>
+    <mergeCell ref="T742:T743"/>
+    <mergeCell ref="U742:U743"/>
+    <mergeCell ref="I742:I743"/>
+    <mergeCell ref="J742:J743"/>
+    <mergeCell ref="K742:K743"/>
+    <mergeCell ref="L742:L743"/>
+    <mergeCell ref="M742:M743"/>
+    <mergeCell ref="N742:N743"/>
+    <mergeCell ref="L750:L751"/>
+    <mergeCell ref="M750:M751"/>
+    <mergeCell ref="W747:W748"/>
+    <mergeCell ref="X747:X748"/>
+    <mergeCell ref="Y747:Y748"/>
+    <mergeCell ref="Z747:Z748"/>
+    <mergeCell ref="A750:A751"/>
+    <mergeCell ref="B750:B751"/>
+    <mergeCell ref="C750:C751"/>
+    <mergeCell ref="D750:D751"/>
+    <mergeCell ref="F750:F751"/>
+    <mergeCell ref="G750:G751"/>
+    <mergeCell ref="Q747:Q748"/>
+    <mergeCell ref="R747:R748"/>
+    <mergeCell ref="S747:S748"/>
+    <mergeCell ref="T747:T748"/>
+    <mergeCell ref="U747:U748"/>
+    <mergeCell ref="V747:V748"/>
+    <mergeCell ref="K747:K748"/>
+    <mergeCell ref="L747:L748"/>
+    <mergeCell ref="M747:M748"/>
+    <mergeCell ref="N747:N748"/>
+    <mergeCell ref="O747:O748"/>
+    <mergeCell ref="P747:P748"/>
+    <mergeCell ref="Q762:R762"/>
+    <mergeCell ref="T766:U766"/>
+    <mergeCell ref="A767:A768"/>
+    <mergeCell ref="B767:B768"/>
+    <mergeCell ref="C767:C768"/>
+    <mergeCell ref="D767:D768"/>
+    <mergeCell ref="F767:F768"/>
+    <mergeCell ref="G767:G768"/>
+    <mergeCell ref="H767:H768"/>
+    <mergeCell ref="I767:I768"/>
+    <mergeCell ref="Z750:Z751"/>
+    <mergeCell ref="Q755:R755"/>
+    <mergeCell ref="R757:S757"/>
+    <mergeCell ref="R758:S758"/>
+    <mergeCell ref="R760:S760"/>
+    <mergeCell ref="Q761:R761"/>
+    <mergeCell ref="T750:T751"/>
+    <mergeCell ref="U750:U751"/>
+    <mergeCell ref="V750:V751"/>
+    <mergeCell ref="W750:W751"/>
+    <mergeCell ref="X750:X751"/>
+    <mergeCell ref="Y750:Y751"/>
+    <mergeCell ref="N750:N751"/>
+    <mergeCell ref="O750:O751"/>
+    <mergeCell ref="P750:P751"/>
+    <mergeCell ref="Q750:Q751"/>
+    <mergeCell ref="R750:R751"/>
+    <mergeCell ref="S750:S751"/>
+    <mergeCell ref="H750:H751"/>
+    <mergeCell ref="I750:I751"/>
+    <mergeCell ref="J750:J751"/>
+    <mergeCell ref="K750:K751"/>
+    <mergeCell ref="F776:F777"/>
+    <mergeCell ref="G776:G777"/>
+    <mergeCell ref="W767:W768"/>
+    <mergeCell ref="X767:X768"/>
+    <mergeCell ref="Y767:Y768"/>
+    <mergeCell ref="Z767:Z768"/>
+    <mergeCell ref="Q769:R769"/>
+    <mergeCell ref="Q772:R772"/>
+    <mergeCell ref="P767:P768"/>
+    <mergeCell ref="Q767:Q768"/>
+    <mergeCell ref="R767:R768"/>
+    <mergeCell ref="S767:S768"/>
+    <mergeCell ref="T767:U767"/>
+    <mergeCell ref="V767:V768"/>
+    <mergeCell ref="J767:J768"/>
+    <mergeCell ref="K767:K768"/>
+    <mergeCell ref="L767:L768"/>
+    <mergeCell ref="M767:M768"/>
+    <mergeCell ref="N767:N768"/>
+    <mergeCell ref="O767:O768"/>
+    <mergeCell ref="Z776:Z777"/>
+    <mergeCell ref="A779:A780"/>
+    <mergeCell ref="B779:B780"/>
+    <mergeCell ref="C779:C780"/>
+    <mergeCell ref="D779:D780"/>
+    <mergeCell ref="F779:F780"/>
+    <mergeCell ref="G779:G780"/>
+    <mergeCell ref="H779:H780"/>
+    <mergeCell ref="I779:I780"/>
+    <mergeCell ref="J779:J780"/>
+    <mergeCell ref="T776:T777"/>
+    <mergeCell ref="U776:U777"/>
+    <mergeCell ref="V776:V777"/>
+    <mergeCell ref="W776:W777"/>
+    <mergeCell ref="X776:X777"/>
+    <mergeCell ref="Y776:Y777"/>
+    <mergeCell ref="N776:N777"/>
+    <mergeCell ref="O776:O777"/>
+    <mergeCell ref="P776:P777"/>
+    <mergeCell ref="Q776:Q777"/>
+    <mergeCell ref="R776:R777"/>
+    <mergeCell ref="S776:S777"/>
+    <mergeCell ref="H776:H777"/>
+    <mergeCell ref="I776:I777"/>
+    <mergeCell ref="J776:J777"/>
+    <mergeCell ref="K776:K777"/>
+    <mergeCell ref="L776:L777"/>
+    <mergeCell ref="M776:M777"/>
+    <mergeCell ref="A776:A777"/>
+    <mergeCell ref="B776:B777"/>
+    <mergeCell ref="C776:C777"/>
+    <mergeCell ref="D776:D777"/>
+    <mergeCell ref="X779:X780"/>
+    <mergeCell ref="Y779:Y780"/>
+    <mergeCell ref="Z779:Z780"/>
+    <mergeCell ref="A785:A786"/>
+    <mergeCell ref="B785:B786"/>
+    <mergeCell ref="C785:C786"/>
+    <mergeCell ref="D785:D786"/>
+    <mergeCell ref="F785:F786"/>
+    <mergeCell ref="G785:G786"/>
+    <mergeCell ref="H785:H786"/>
+    <mergeCell ref="Q779:R779"/>
+    <mergeCell ref="S779:S780"/>
+    <mergeCell ref="T779:T780"/>
+    <mergeCell ref="U779:U780"/>
+    <mergeCell ref="V779:V780"/>
+    <mergeCell ref="W779:W780"/>
+    <mergeCell ref="K779:K780"/>
+    <mergeCell ref="L779:L780"/>
+    <mergeCell ref="M779:M780"/>
+    <mergeCell ref="N779:N780"/>
+    <mergeCell ref="O779:O780"/>
+    <mergeCell ref="P779:P780"/>
+    <mergeCell ref="F788:F789"/>
+    <mergeCell ref="G788:G789"/>
+    <mergeCell ref="U785:U786"/>
+    <mergeCell ref="V785:V786"/>
+    <mergeCell ref="W785:W786"/>
+    <mergeCell ref="X785:X786"/>
+    <mergeCell ref="Y785:Y786"/>
+    <mergeCell ref="Z785:Z786"/>
+    <mergeCell ref="O785:O786"/>
+    <mergeCell ref="P785:P786"/>
+    <mergeCell ref="Q785:Q786"/>
+    <mergeCell ref="R785:R786"/>
+    <mergeCell ref="S785:S786"/>
+    <mergeCell ref="T785:T786"/>
+    <mergeCell ref="I785:I786"/>
+    <mergeCell ref="J785:J786"/>
+    <mergeCell ref="K785:K786"/>
+    <mergeCell ref="L785:L786"/>
+    <mergeCell ref="M785:M786"/>
+    <mergeCell ref="N785:N786"/>
+    <mergeCell ref="R792:S792"/>
+    <mergeCell ref="A794:A795"/>
+    <mergeCell ref="B794:B795"/>
+    <mergeCell ref="C794:C795"/>
+    <mergeCell ref="D794:D795"/>
+    <mergeCell ref="F794:F795"/>
+    <mergeCell ref="G794:G795"/>
+    <mergeCell ref="H794:H795"/>
+    <mergeCell ref="I794:I795"/>
+    <mergeCell ref="J794:J795"/>
+    <mergeCell ref="U788:U789"/>
+    <mergeCell ref="V788:V789"/>
+    <mergeCell ref="W788:W789"/>
+    <mergeCell ref="X788:X789"/>
+    <mergeCell ref="Y788:Y789"/>
+    <mergeCell ref="Z788:Z789"/>
+    <mergeCell ref="N788:N789"/>
+    <mergeCell ref="O788:O789"/>
+    <mergeCell ref="P788:P789"/>
+    <mergeCell ref="Q788:Q789"/>
+    <mergeCell ref="R788:S788"/>
+    <mergeCell ref="T788:T789"/>
+    <mergeCell ref="H788:H789"/>
+    <mergeCell ref="I788:I789"/>
+    <mergeCell ref="J788:J789"/>
+    <mergeCell ref="K788:K789"/>
+    <mergeCell ref="L788:L789"/>
+    <mergeCell ref="M788:M789"/>
+    <mergeCell ref="A788:A789"/>
+    <mergeCell ref="B788:B789"/>
+    <mergeCell ref="C788:C789"/>
+    <mergeCell ref="D788:D789"/>
+    <mergeCell ref="X794:X795"/>
+    <mergeCell ref="Y794:Y795"/>
+    <mergeCell ref="Z794:Z795"/>
+    <mergeCell ref="A796:A797"/>
+    <mergeCell ref="B796:B797"/>
+    <mergeCell ref="C796:C797"/>
+    <mergeCell ref="D796:D797"/>
+    <mergeCell ref="F796:F797"/>
+    <mergeCell ref="G796:G797"/>
+    <mergeCell ref="H796:H797"/>
+    <mergeCell ref="Q794:Q795"/>
+    <mergeCell ref="R794:S794"/>
+    <mergeCell ref="T794:T795"/>
+    <mergeCell ref="U794:U795"/>
+    <mergeCell ref="V794:V795"/>
+    <mergeCell ref="W794:W795"/>
+    <mergeCell ref="K794:K795"/>
+    <mergeCell ref="L794:L795"/>
+    <mergeCell ref="M794:M795"/>
+    <mergeCell ref="N794:N795"/>
+    <mergeCell ref="O794:O795"/>
+    <mergeCell ref="P794:P795"/>
+    <mergeCell ref="K821:K823"/>
+    <mergeCell ref="L821:L823"/>
+    <mergeCell ref="Q800:R800"/>
+    <mergeCell ref="Q803:R803"/>
+    <mergeCell ref="S805:T805"/>
+    <mergeCell ref="R807:S807"/>
+    <mergeCell ref="S818:T818"/>
+    <mergeCell ref="A821:A823"/>
+    <mergeCell ref="B821:B823"/>
+    <mergeCell ref="C821:C823"/>
+    <mergeCell ref="D821:D823"/>
+    <mergeCell ref="F821:F823"/>
+    <mergeCell ref="V796:V797"/>
+    <mergeCell ref="W796:W797"/>
+    <mergeCell ref="X796:X797"/>
+    <mergeCell ref="Y796:Y797"/>
+    <mergeCell ref="Z796:Z797"/>
+    <mergeCell ref="S798:T798"/>
+    <mergeCell ref="O796:O797"/>
+    <mergeCell ref="P796:P797"/>
+    <mergeCell ref="Q796:Q797"/>
+    <mergeCell ref="R796:S796"/>
+    <mergeCell ref="T796:T797"/>
+    <mergeCell ref="U796:U797"/>
+    <mergeCell ref="I796:I797"/>
+    <mergeCell ref="J796:J797"/>
+    <mergeCell ref="K796:K797"/>
+    <mergeCell ref="L796:L797"/>
+    <mergeCell ref="M796:M797"/>
+    <mergeCell ref="N796:N797"/>
+    <mergeCell ref="R835:S835"/>
+    <mergeCell ref="A843:A844"/>
+    <mergeCell ref="B843:B844"/>
+    <mergeCell ref="C843:C844"/>
+    <mergeCell ref="D843:D844"/>
+    <mergeCell ref="F843:F844"/>
+    <mergeCell ref="G843:G844"/>
+    <mergeCell ref="H843:H844"/>
+    <mergeCell ref="I843:I844"/>
+    <mergeCell ref="J843:J844"/>
+    <mergeCell ref="Z821:Z823"/>
+    <mergeCell ref="Q825:R825"/>
+    <mergeCell ref="Q826:R826"/>
+    <mergeCell ref="R830:S830"/>
+    <mergeCell ref="Q832:R832"/>
+    <mergeCell ref="R833:S833"/>
+    <mergeCell ref="S821:T821"/>
+    <mergeCell ref="U821:U823"/>
+    <mergeCell ref="V821:V823"/>
+    <mergeCell ref="W821:W823"/>
+    <mergeCell ref="X821:X823"/>
+    <mergeCell ref="Y821:Y823"/>
+    <mergeCell ref="M821:M823"/>
+    <mergeCell ref="N821:N823"/>
+    <mergeCell ref="O821:O823"/>
+    <mergeCell ref="P821:P823"/>
+    <mergeCell ref="Q821:Q823"/>
+    <mergeCell ref="R821:R823"/>
+    <mergeCell ref="G821:G823"/>
+    <mergeCell ref="H821:H823"/>
+    <mergeCell ref="I821:I823"/>
+    <mergeCell ref="J821:J823"/>
+    <mergeCell ref="R850:R851"/>
+    <mergeCell ref="S850:S851"/>
+    <mergeCell ref="H850:H851"/>
+    <mergeCell ref="I850:I851"/>
+    <mergeCell ref="J850:J851"/>
+    <mergeCell ref="K850:K851"/>
+    <mergeCell ref="L850:L851"/>
+    <mergeCell ref="M850:M851"/>
+    <mergeCell ref="X843:X844"/>
+    <mergeCell ref="Y843:Y844"/>
+    <mergeCell ref="Z843:Z844"/>
+    <mergeCell ref="Q845:R845"/>
+    <mergeCell ref="A850:A851"/>
+    <mergeCell ref="B850:B851"/>
+    <mergeCell ref="C850:C851"/>
+    <mergeCell ref="D850:D851"/>
+    <mergeCell ref="F850:F851"/>
+    <mergeCell ref="G850:G851"/>
+    <mergeCell ref="Q843:Q844"/>
+    <mergeCell ref="R843:R844"/>
+    <mergeCell ref="S843:S844"/>
+    <mergeCell ref="T843:U843"/>
+    <mergeCell ref="V843:V844"/>
+    <mergeCell ref="W843:W844"/>
+    <mergeCell ref="K843:K844"/>
+    <mergeCell ref="L843:L844"/>
+    <mergeCell ref="M843:M844"/>
+    <mergeCell ref="N843:N844"/>
+    <mergeCell ref="O843:O844"/>
+    <mergeCell ref="P843:P844"/>
+    <mergeCell ref="R883:S883"/>
+    <mergeCell ref="R884:S884"/>
+    <mergeCell ref="R886:S886"/>
+    <mergeCell ref="A887:A889"/>
+    <mergeCell ref="B887:B889"/>
+    <mergeCell ref="C887:C889"/>
+    <mergeCell ref="D887:D889"/>
+    <mergeCell ref="F887:F889"/>
+    <mergeCell ref="G887:G889"/>
+    <mergeCell ref="H887:H889"/>
+    <mergeCell ref="Q871:R871"/>
+    <mergeCell ref="Q873:R873"/>
+    <mergeCell ref="R875:S875"/>
+    <mergeCell ref="Q876:R876"/>
+    <mergeCell ref="T877:U877"/>
+    <mergeCell ref="S881:T881"/>
+    <mergeCell ref="Z850:Z851"/>
+    <mergeCell ref="Q852:R852"/>
+    <mergeCell ref="R853:S853"/>
+    <mergeCell ref="Q866:R866"/>
+    <mergeCell ref="Q869:R869"/>
+    <mergeCell ref="Q870:R870"/>
+    <mergeCell ref="T850:T851"/>
+    <mergeCell ref="U850:U851"/>
+    <mergeCell ref="V850:V851"/>
+    <mergeCell ref="W850:W851"/>
+    <mergeCell ref="X850:X851"/>
+    <mergeCell ref="Y850:Y851"/>
+    <mergeCell ref="N850:N851"/>
+    <mergeCell ref="O850:O851"/>
+    <mergeCell ref="P850:P851"/>
+    <mergeCell ref="Q850:Q851"/>
+    <mergeCell ref="R893:S893"/>
+    <mergeCell ref="Q894:R894"/>
+    <mergeCell ref="Q898:R898"/>
+    <mergeCell ref="R901:S901"/>
+    <mergeCell ref="R903:S903"/>
+    <mergeCell ref="A904:A905"/>
+    <mergeCell ref="B904:B905"/>
+    <mergeCell ref="C904:C905"/>
+    <mergeCell ref="D904:D905"/>
+    <mergeCell ref="F904:F905"/>
+    <mergeCell ref="U887:U889"/>
+    <mergeCell ref="V887:V889"/>
+    <mergeCell ref="W887:W889"/>
+    <mergeCell ref="X887:X889"/>
+    <mergeCell ref="Y887:Y889"/>
+    <mergeCell ref="Z887:Z889"/>
+    <mergeCell ref="O887:O889"/>
+    <mergeCell ref="P887:P889"/>
+    <mergeCell ref="Q887:Q889"/>
+    <mergeCell ref="R887:R889"/>
+    <mergeCell ref="S887:S889"/>
+    <mergeCell ref="T887:T889"/>
+    <mergeCell ref="I887:I889"/>
+    <mergeCell ref="J887:J889"/>
+    <mergeCell ref="K887:K889"/>
+    <mergeCell ref="L887:L889"/>
+    <mergeCell ref="M887:M889"/>
+    <mergeCell ref="N887:N889"/>
+    <mergeCell ref="Z904:Z905"/>
+    <mergeCell ref="A906:A907"/>
+    <mergeCell ref="B906:B907"/>
+    <mergeCell ref="C906:C907"/>
+    <mergeCell ref="D906:D907"/>
+    <mergeCell ref="F906:F907"/>
+    <mergeCell ref="G906:G907"/>
+    <mergeCell ref="H906:H907"/>
+    <mergeCell ref="I906:I907"/>
+    <mergeCell ref="J906:J907"/>
+    <mergeCell ref="T904:T905"/>
+    <mergeCell ref="U904:U905"/>
+    <mergeCell ref="V904:V905"/>
+    <mergeCell ref="W904:W905"/>
+    <mergeCell ref="X904:X905"/>
+    <mergeCell ref="Y904:Y905"/>
+    <mergeCell ref="M904:M905"/>
+    <mergeCell ref="N904:N905"/>
+    <mergeCell ref="O904:O905"/>
+    <mergeCell ref="P904:P905"/>
+    <mergeCell ref="Q904:Q905"/>
+    <mergeCell ref="R904:S904"/>
+    <mergeCell ref="G904:G905"/>
+    <mergeCell ref="H904:H905"/>
+    <mergeCell ref="I904:I905"/>
+    <mergeCell ref="J904:J905"/>
+    <mergeCell ref="K904:K905"/>
+    <mergeCell ref="L904:L905"/>
+    <mergeCell ref="S915:T915"/>
+    <mergeCell ref="Q917:R917"/>
+    <mergeCell ref="A919:A920"/>
+    <mergeCell ref="B919:B920"/>
+    <mergeCell ref="C919:C920"/>
+    <mergeCell ref="D919:D920"/>
+    <mergeCell ref="F919:F920"/>
+    <mergeCell ref="G919:G920"/>
+    <mergeCell ref="H919:H920"/>
+    <mergeCell ref="I919:I920"/>
+    <mergeCell ref="W906:W907"/>
+    <mergeCell ref="X906:X907"/>
+    <mergeCell ref="Y906:Y907"/>
+    <mergeCell ref="Z906:Z907"/>
+    <mergeCell ref="U911:V911"/>
+    <mergeCell ref="R912:S912"/>
+    <mergeCell ref="Q906:Q907"/>
+    <mergeCell ref="R906:R907"/>
+    <mergeCell ref="S906:S907"/>
+    <mergeCell ref="T906:T907"/>
+    <mergeCell ref="U906:U907"/>
+    <mergeCell ref="V906:V907"/>
+    <mergeCell ref="K906:K907"/>
+    <mergeCell ref="L906:L907"/>
+    <mergeCell ref="M906:M907"/>
+    <mergeCell ref="N906:N907"/>
+    <mergeCell ref="O906:O907"/>
+    <mergeCell ref="P906:P907"/>
+    <mergeCell ref="V919:V920"/>
+    <mergeCell ref="W919:W920"/>
+    <mergeCell ref="X919:X920"/>
+    <mergeCell ref="Y919:Y920"/>
+    <mergeCell ref="Z919:Z920"/>
+    <mergeCell ref="Q922:R922"/>
+    <mergeCell ref="P919:P920"/>
+    <mergeCell ref="Q919:Q920"/>
+    <mergeCell ref="R919:R920"/>
+    <mergeCell ref="S919:S920"/>
+    <mergeCell ref="T919:T920"/>
+    <mergeCell ref="U919:U920"/>
+    <mergeCell ref="J919:J920"/>
+    <mergeCell ref="K919:K920"/>
+    <mergeCell ref="L919:L920"/>
+    <mergeCell ref="M919:M920"/>
+    <mergeCell ref="N919:N920"/>
+    <mergeCell ref="O919:O920"/>
+    <mergeCell ref="Q951:R951"/>
+    <mergeCell ref="A953:A954"/>
+    <mergeCell ref="B953:B954"/>
+    <mergeCell ref="C953:C954"/>
+    <mergeCell ref="D953:D954"/>
+    <mergeCell ref="F953:F954"/>
+    <mergeCell ref="G953:G954"/>
+    <mergeCell ref="H953:H954"/>
+    <mergeCell ref="I953:I954"/>
+    <mergeCell ref="J953:J954"/>
+    <mergeCell ref="S937:T937"/>
+    <mergeCell ref="R939:S939"/>
+    <mergeCell ref="Q945:R945"/>
+    <mergeCell ref="Q946:R946"/>
+    <mergeCell ref="Q948:R948"/>
+    <mergeCell ref="T950:U950"/>
+    <mergeCell ref="R924:S924"/>
+    <mergeCell ref="S927:T927"/>
+    <mergeCell ref="Q928:R928"/>
+    <mergeCell ref="S930:T930"/>
+    <mergeCell ref="R935:S935"/>
+    <mergeCell ref="R936:S936"/>
+    <mergeCell ref="W953:W954"/>
+    <mergeCell ref="X953:X954"/>
+    <mergeCell ref="Y953:Y954"/>
+    <mergeCell ref="Z953:Z954"/>
+    <mergeCell ref="A955:A956"/>
+    <mergeCell ref="B955:B956"/>
+    <mergeCell ref="C955:C956"/>
+    <mergeCell ref="D955:D956"/>
+    <mergeCell ref="F955:F956"/>
+    <mergeCell ref="G955:G956"/>
+    <mergeCell ref="Q953:Q954"/>
+    <mergeCell ref="R953:R954"/>
+    <mergeCell ref="S953:S954"/>
+    <mergeCell ref="T953:T954"/>
+    <mergeCell ref="U953:U954"/>
+    <mergeCell ref="V953:V954"/>
+    <mergeCell ref="K953:K954"/>
+    <mergeCell ref="L953:L954"/>
+    <mergeCell ref="M953:M954"/>
+    <mergeCell ref="N953:N954"/>
+    <mergeCell ref="O953:O954"/>
+    <mergeCell ref="P953:P954"/>
+    <mergeCell ref="R957:S957"/>
+    <mergeCell ref="S959:T959"/>
+    <mergeCell ref="Q960:R960"/>
+    <mergeCell ref="R961:S961"/>
+    <mergeCell ref="A963:A964"/>
+    <mergeCell ref="B963:B964"/>
+    <mergeCell ref="C963:C964"/>
+    <mergeCell ref="D963:D964"/>
+    <mergeCell ref="F963:F964"/>
+    <mergeCell ref="G963:G964"/>
+    <mergeCell ref="U955:U956"/>
+    <mergeCell ref="V955:V956"/>
+    <mergeCell ref="W955:W956"/>
+    <mergeCell ref="X955:X956"/>
+    <mergeCell ref="Y955:Y956"/>
+    <mergeCell ref="Z955:Z956"/>
+    <mergeCell ref="N955:N956"/>
+    <mergeCell ref="O955:O956"/>
+    <mergeCell ref="P955:P956"/>
+    <mergeCell ref="Q955:Q956"/>
+    <mergeCell ref="R955:S955"/>
+    <mergeCell ref="T955:T956"/>
+    <mergeCell ref="H955:H956"/>
+    <mergeCell ref="I955:I956"/>
+    <mergeCell ref="J955:J956"/>
+    <mergeCell ref="K955:K956"/>
+    <mergeCell ref="L955:L956"/>
+    <mergeCell ref="M955:M956"/>
+    <mergeCell ref="Z963:Z964"/>
+    <mergeCell ref="A965:A966"/>
+    <mergeCell ref="B965:B966"/>
+    <mergeCell ref="C965:C966"/>
+    <mergeCell ref="D965:D966"/>
+    <mergeCell ref="F965:F966"/>
+    <mergeCell ref="G965:G966"/>
+    <mergeCell ref="H965:H966"/>
+    <mergeCell ref="I965:I966"/>
+    <mergeCell ref="J965:J966"/>
+    <mergeCell ref="T963:T964"/>
+    <mergeCell ref="U963:U964"/>
+    <mergeCell ref="V963:V964"/>
+    <mergeCell ref="W963:W964"/>
+    <mergeCell ref="X963:X964"/>
+    <mergeCell ref="Y963:Y964"/>
+    <mergeCell ref="N963:N964"/>
+    <mergeCell ref="O963:O964"/>
+    <mergeCell ref="P963:P964"/>
+    <mergeCell ref="Q963:Q964"/>
+    <mergeCell ref="R963:R964"/>
+    <mergeCell ref="S963:S964"/>
+    <mergeCell ref="H963:H964"/>
+    <mergeCell ref="I963:I964"/>
+    <mergeCell ref="J963:J964"/>
+    <mergeCell ref="K963:K964"/>
+    <mergeCell ref="L963:L964"/>
+    <mergeCell ref="M963:M964"/>
+    <mergeCell ref="L968:L969"/>
+    <mergeCell ref="M968:M969"/>
+    <mergeCell ref="W965:W966"/>
+    <mergeCell ref="X965:X966"/>
+    <mergeCell ref="Y965:Y966"/>
+    <mergeCell ref="Z965:Z966"/>
+    <mergeCell ref="A968:A969"/>
+    <mergeCell ref="B968:B969"/>
+    <mergeCell ref="C968:C969"/>
+    <mergeCell ref="D968:D969"/>
+    <mergeCell ref="F968:F969"/>
+    <mergeCell ref="G968:G969"/>
+    <mergeCell ref="Q965:Q966"/>
+    <mergeCell ref="R965:R966"/>
+    <mergeCell ref="S965:S966"/>
+    <mergeCell ref="T965:T966"/>
+    <mergeCell ref="U965:U966"/>
+    <mergeCell ref="V965:V966"/>
+    <mergeCell ref="K965:K966"/>
+    <mergeCell ref="L965:L966"/>
+    <mergeCell ref="M965:M966"/>
+    <mergeCell ref="N965:N966"/>
+    <mergeCell ref="O965:O966"/>
+    <mergeCell ref="P965:P966"/>
+    <mergeCell ref="R981:S981"/>
+    <mergeCell ref="Q982:R982"/>
+    <mergeCell ref="Q983:R983"/>
+    <mergeCell ref="A991:A992"/>
+    <mergeCell ref="B991:B992"/>
+    <mergeCell ref="C991:C992"/>
+    <mergeCell ref="D991:D992"/>
+    <mergeCell ref="F991:F992"/>
+    <mergeCell ref="G991:G992"/>
+    <mergeCell ref="H991:H992"/>
+    <mergeCell ref="Z968:Z969"/>
+    <mergeCell ref="S970:T970"/>
+    <mergeCell ref="S971:T971"/>
+    <mergeCell ref="R973:S973"/>
+    <mergeCell ref="R977:S977"/>
+    <mergeCell ref="Q980:R980"/>
+    <mergeCell ref="T968:T969"/>
+    <mergeCell ref="U968:U969"/>
+    <mergeCell ref="V968:V969"/>
+    <mergeCell ref="W968:W969"/>
+    <mergeCell ref="X968:X969"/>
+    <mergeCell ref="Y968:Y969"/>
+    <mergeCell ref="N968:N969"/>
+    <mergeCell ref="O968:O969"/>
+    <mergeCell ref="P968:P969"/>
+    <mergeCell ref="Q968:Q969"/>
+    <mergeCell ref="R968:R969"/>
+    <mergeCell ref="S968:S969"/>
+    <mergeCell ref="H968:H969"/>
+    <mergeCell ref="I968:I969"/>
+    <mergeCell ref="J968:J969"/>
+    <mergeCell ref="K968:K969"/>
+    <mergeCell ref="F993:F994"/>
+    <mergeCell ref="G993:G994"/>
+    <mergeCell ref="U991:U992"/>
+    <mergeCell ref="V991:V992"/>
+    <mergeCell ref="W991:W992"/>
+    <mergeCell ref="X991:X992"/>
+    <mergeCell ref="Y991:Y992"/>
+    <mergeCell ref="Z991:Z992"/>
+    <mergeCell ref="O991:O992"/>
+    <mergeCell ref="P991:P992"/>
+    <mergeCell ref="Q991:Q992"/>
+    <mergeCell ref="R991:R992"/>
+    <mergeCell ref="S991:S992"/>
+    <mergeCell ref="T991:T992"/>
+    <mergeCell ref="I991:I992"/>
+    <mergeCell ref="J991:J992"/>
+    <mergeCell ref="K991:K992"/>
+    <mergeCell ref="L991:L992"/>
+    <mergeCell ref="M991:M992"/>
+    <mergeCell ref="N991:N992"/>
+    <mergeCell ref="R997:S997"/>
+    <mergeCell ref="R999:S999"/>
+    <mergeCell ref="Q1001:R1001"/>
+    <mergeCell ref="A1005:A1006"/>
+    <mergeCell ref="B1005:B1006"/>
+    <mergeCell ref="C1005:C1006"/>
+    <mergeCell ref="D1005:D1006"/>
+    <mergeCell ref="F1005:F1006"/>
+    <mergeCell ref="G1005:G1006"/>
+    <mergeCell ref="H1005:H1006"/>
+    <mergeCell ref="T993:U993"/>
+    <mergeCell ref="V993:V994"/>
+    <mergeCell ref="W993:W994"/>
+    <mergeCell ref="X993:X994"/>
+    <mergeCell ref="Y993:Y994"/>
+    <mergeCell ref="Z993:Z994"/>
+    <mergeCell ref="N993:N994"/>
+    <mergeCell ref="O993:O994"/>
+    <mergeCell ref="P993:P994"/>
+    <mergeCell ref="Q993:Q994"/>
+    <mergeCell ref="R993:R994"/>
+    <mergeCell ref="S993:S994"/>
+    <mergeCell ref="H993:H994"/>
+    <mergeCell ref="I993:I994"/>
+    <mergeCell ref="J993:J994"/>
+    <mergeCell ref="K993:K994"/>
+    <mergeCell ref="L993:L994"/>
+    <mergeCell ref="M993:M994"/>
+    <mergeCell ref="A993:A994"/>
+    <mergeCell ref="B993:B994"/>
+    <mergeCell ref="C993:C994"/>
+    <mergeCell ref="D993:D994"/>
+    <mergeCell ref="R1014:S1014"/>
+    <mergeCell ref="A1015:A1016"/>
+    <mergeCell ref="B1015:B1016"/>
+    <mergeCell ref="C1015:C1016"/>
+    <mergeCell ref="D1015:D1016"/>
+    <mergeCell ref="F1015:F1016"/>
+    <mergeCell ref="G1015:G1016"/>
+    <mergeCell ref="H1015:H1016"/>
+    <mergeCell ref="I1015:I1016"/>
+    <mergeCell ref="J1015:J1016"/>
+    <mergeCell ref="V1005:V1006"/>
+    <mergeCell ref="W1005:W1006"/>
+    <mergeCell ref="X1005:X1006"/>
+    <mergeCell ref="Y1005:Y1006"/>
+    <mergeCell ref="Z1005:Z1006"/>
+    <mergeCell ref="S1008:T1008"/>
+    <mergeCell ref="O1005:O1006"/>
+    <mergeCell ref="P1005:P1006"/>
+    <mergeCell ref="Q1005:Q1006"/>
+    <mergeCell ref="R1005:S1005"/>
+    <mergeCell ref="T1005:T1006"/>
+    <mergeCell ref="U1005:U1006"/>
+    <mergeCell ref="I1005:I1006"/>
+    <mergeCell ref="J1005:J1006"/>
+    <mergeCell ref="K1005:K1006"/>
+    <mergeCell ref="L1005:L1006"/>
+    <mergeCell ref="M1005:M1006"/>
+    <mergeCell ref="N1005:N1006"/>
+    <mergeCell ref="F1037:F1038"/>
+    <mergeCell ref="G1037:G1038"/>
+    <mergeCell ref="R1019:S1019"/>
+    <mergeCell ref="R1023:S1023"/>
+    <mergeCell ref="R1024:S1024"/>
+    <mergeCell ref="Q1026:R1026"/>
+    <mergeCell ref="Q1027:R1027"/>
+    <mergeCell ref="Q1030:R1030"/>
+    <mergeCell ref="W1015:W1016"/>
+    <mergeCell ref="X1015:X1016"/>
+    <mergeCell ref="Y1015:Y1016"/>
+    <mergeCell ref="Z1015:Z1016"/>
+    <mergeCell ref="Q1017:R1017"/>
+    <mergeCell ref="Y1018:Z1018"/>
+    <mergeCell ref="Q1015:Q1016"/>
+    <mergeCell ref="R1015:R1016"/>
+    <mergeCell ref="S1015:S1016"/>
+    <mergeCell ref="T1015:T1016"/>
+    <mergeCell ref="U1015:U1016"/>
+    <mergeCell ref="V1015:V1016"/>
+    <mergeCell ref="K1015:K1016"/>
+    <mergeCell ref="L1015:L1016"/>
+    <mergeCell ref="M1015:M1016"/>
+    <mergeCell ref="N1015:N1016"/>
+    <mergeCell ref="O1015:O1016"/>
+    <mergeCell ref="P1015:P1016"/>
+    <mergeCell ref="Z1037:Z1038"/>
+    <mergeCell ref="Q1040:R1040"/>
+    <mergeCell ref="A1041:A1042"/>
+    <mergeCell ref="B1041:B1042"/>
+    <mergeCell ref="C1041:C1042"/>
+    <mergeCell ref="D1041:D1042"/>
+    <mergeCell ref="F1041:F1042"/>
+    <mergeCell ref="G1041:G1042"/>
+    <mergeCell ref="H1041:H1042"/>
+    <mergeCell ref="I1041:I1042"/>
+    <mergeCell ref="T1037:T1038"/>
+    <mergeCell ref="U1037:U1038"/>
+    <mergeCell ref="V1037:V1038"/>
+    <mergeCell ref="W1037:W1038"/>
+    <mergeCell ref="X1037:X1038"/>
+    <mergeCell ref="Y1037:Y1038"/>
+    <mergeCell ref="N1037:N1038"/>
+    <mergeCell ref="O1037:O1038"/>
+    <mergeCell ref="P1037:P1038"/>
+    <mergeCell ref="Q1037:Q1038"/>
+    <mergeCell ref="R1037:R1038"/>
+    <mergeCell ref="S1037:S1038"/>
+    <mergeCell ref="H1037:H1038"/>
+    <mergeCell ref="I1037:I1038"/>
+    <mergeCell ref="J1037:J1038"/>
+    <mergeCell ref="K1037:K1038"/>
+    <mergeCell ref="L1037:L1038"/>
+    <mergeCell ref="M1037:M1038"/>
+    <mergeCell ref="A1037:A1038"/>
+    <mergeCell ref="B1037:B1038"/>
+    <mergeCell ref="C1037:C1038"/>
+    <mergeCell ref="D1037:D1038"/>
+    <mergeCell ref="K1045:K1046"/>
+    <mergeCell ref="L1045:L1046"/>
+    <mergeCell ref="V1041:V1042"/>
+    <mergeCell ref="W1041:W1042"/>
+    <mergeCell ref="X1041:X1042"/>
+    <mergeCell ref="Y1041:Y1042"/>
+    <mergeCell ref="Z1041:Z1042"/>
+    <mergeCell ref="A1045:A1046"/>
+    <mergeCell ref="B1045:B1046"/>
+    <mergeCell ref="C1045:C1046"/>
+    <mergeCell ref="D1045:D1046"/>
+    <mergeCell ref="F1045:F1046"/>
+    <mergeCell ref="P1041:P1042"/>
+    <mergeCell ref="Q1041:Q1042"/>
+    <mergeCell ref="R1041:R1042"/>
+    <mergeCell ref="S1041:S1042"/>
+    <mergeCell ref="T1041:T1042"/>
+    <mergeCell ref="U1041:U1042"/>
+    <mergeCell ref="J1041:J1042"/>
+    <mergeCell ref="K1041:K1042"/>
+    <mergeCell ref="L1041:L1042"/>
+    <mergeCell ref="M1041:M1042"/>
+    <mergeCell ref="N1041:N1042"/>
+    <mergeCell ref="O1041:O1042"/>
+    <mergeCell ref="J1048:J1049"/>
+    <mergeCell ref="K1048:K1049"/>
+    <mergeCell ref="L1048:L1049"/>
+    <mergeCell ref="M1048:M1049"/>
+    <mergeCell ref="N1048:N1049"/>
+    <mergeCell ref="O1048:O1049"/>
+    <mergeCell ref="Y1045:Y1046"/>
+    <mergeCell ref="Z1045:Z1046"/>
+    <mergeCell ref="A1048:A1049"/>
+    <mergeCell ref="B1048:B1049"/>
+    <mergeCell ref="C1048:C1049"/>
+    <mergeCell ref="D1048:D1049"/>
+    <mergeCell ref="F1048:F1049"/>
+    <mergeCell ref="G1048:G1049"/>
+    <mergeCell ref="H1048:H1049"/>
+    <mergeCell ref="I1048:I1049"/>
+    <mergeCell ref="S1045:S1046"/>
+    <mergeCell ref="T1045:T1046"/>
+    <mergeCell ref="U1045:U1046"/>
+    <mergeCell ref="V1045:V1046"/>
+    <mergeCell ref="W1045:W1046"/>
+    <mergeCell ref="X1045:X1046"/>
+    <mergeCell ref="M1045:M1046"/>
+    <mergeCell ref="N1045:N1046"/>
+    <mergeCell ref="O1045:O1046"/>
+    <mergeCell ref="P1045:P1046"/>
+    <mergeCell ref="Q1045:Q1046"/>
+    <mergeCell ref="R1045:R1046"/>
+    <mergeCell ref="G1045:G1046"/>
+    <mergeCell ref="H1045:H1046"/>
+    <mergeCell ref="I1045:I1046"/>
+    <mergeCell ref="J1045:J1046"/>
+    <mergeCell ref="Q1052:R1052"/>
+    <mergeCell ref="R1053:S1053"/>
+    <mergeCell ref="R1055:S1055"/>
+    <mergeCell ref="R1056:S1056"/>
+    <mergeCell ref="R1059:S1059"/>
+    <mergeCell ref="R1060:S1060"/>
+    <mergeCell ref="V1048:V1049"/>
+    <mergeCell ref="W1048:W1049"/>
+    <mergeCell ref="X1048:X1049"/>
+    <mergeCell ref="Y1048:Y1049"/>
+    <mergeCell ref="Z1048:Z1049"/>
+    <mergeCell ref="S1050:T1050"/>
+    <mergeCell ref="P1048:P1049"/>
+    <mergeCell ref="Q1048:Q1049"/>
+    <mergeCell ref="R1048:R1049"/>
+    <mergeCell ref="S1048:S1049"/>
+    <mergeCell ref="T1048:T1049"/>
+    <mergeCell ref="U1048:U1049"/>
+    <mergeCell ref="A1063:A1064"/>
+    <mergeCell ref="B1063:B1064"/>
+    <mergeCell ref="C1063:C1064"/>
+    <mergeCell ref="D1063:D1064"/>
+    <mergeCell ref="F1063:F1064"/>
+    <mergeCell ref="G1063:G1064"/>
+    <mergeCell ref="U1061:U1062"/>
+    <mergeCell ref="V1061:V1062"/>
+    <mergeCell ref="W1061:W1062"/>
+    <mergeCell ref="X1061:X1062"/>
+    <mergeCell ref="Y1061:Y1062"/>
+    <mergeCell ref="Z1061:Z1062"/>
+    <mergeCell ref="N1061:N1062"/>
+    <mergeCell ref="O1061:O1062"/>
+    <mergeCell ref="P1061:P1062"/>
+    <mergeCell ref="Q1061:Q1062"/>
+    <mergeCell ref="R1061:R1062"/>
+    <mergeCell ref="S1061:T1061"/>
+    <mergeCell ref="H1061:H1062"/>
+    <mergeCell ref="I1061:I1062"/>
+    <mergeCell ref="J1061:J1062"/>
+    <mergeCell ref="K1061:K1062"/>
+    <mergeCell ref="L1061:L1062"/>
+    <mergeCell ref="M1061:M1062"/>
+    <mergeCell ref="A1061:A1062"/>
+    <mergeCell ref="B1061:B1062"/>
+    <mergeCell ref="C1061:C1062"/>
+    <mergeCell ref="D1061:D1062"/>
+    <mergeCell ref="F1061:F1062"/>
+    <mergeCell ref="G1061:G1062"/>
+    <mergeCell ref="C1069:C1070"/>
+    <mergeCell ref="D1069:D1070"/>
+    <mergeCell ref="F1069:F1070"/>
+    <mergeCell ref="G1069:G1070"/>
+    <mergeCell ref="U1063:U1064"/>
+    <mergeCell ref="V1063:V1064"/>
+    <mergeCell ref="W1063:W1064"/>
+    <mergeCell ref="X1063:X1064"/>
+    <mergeCell ref="Y1063:Y1064"/>
+    <mergeCell ref="Z1063:Z1064"/>
+    <mergeCell ref="N1063:N1064"/>
+    <mergeCell ref="O1063:O1064"/>
+    <mergeCell ref="P1063:P1064"/>
+    <mergeCell ref="Q1063:R1063"/>
+    <mergeCell ref="S1063:S1064"/>
+    <mergeCell ref="T1063:T1064"/>
+    <mergeCell ref="H1063:H1064"/>
+    <mergeCell ref="I1063:I1064"/>
+    <mergeCell ref="J1063:J1064"/>
+    <mergeCell ref="K1063:K1064"/>
+    <mergeCell ref="L1063:L1064"/>
+    <mergeCell ref="M1063:M1064"/>
+    <mergeCell ref="K1082:K1083"/>
+    <mergeCell ref="L1082:L1083"/>
+    <mergeCell ref="Z1069:Z1070"/>
+    <mergeCell ref="R1078:S1078"/>
+    <mergeCell ref="Q1079:R1079"/>
+    <mergeCell ref="S1080:T1080"/>
+    <mergeCell ref="Q1081:R1081"/>
+    <mergeCell ref="A1082:A1083"/>
+    <mergeCell ref="B1082:B1083"/>
+    <mergeCell ref="C1082:C1083"/>
+    <mergeCell ref="D1082:D1083"/>
+    <mergeCell ref="F1082:F1083"/>
+    <mergeCell ref="T1069:T1070"/>
+    <mergeCell ref="U1069:U1070"/>
+    <mergeCell ref="V1069:V1070"/>
+    <mergeCell ref="W1069:W1070"/>
+    <mergeCell ref="X1069:X1070"/>
+    <mergeCell ref="Y1069:Y1070"/>
+    <mergeCell ref="N1069:N1070"/>
+    <mergeCell ref="O1069:O1070"/>
+    <mergeCell ref="P1069:P1070"/>
+    <mergeCell ref="Q1069:Q1070"/>
+    <mergeCell ref="R1069:R1070"/>
+    <mergeCell ref="S1069:S1070"/>
+    <mergeCell ref="H1069:H1070"/>
+    <mergeCell ref="I1069:I1070"/>
+    <mergeCell ref="J1069:J1070"/>
+    <mergeCell ref="K1069:K1070"/>
+    <mergeCell ref="L1069:L1070"/>
+    <mergeCell ref="M1069:M1070"/>
+    <mergeCell ref="A1069:A1070"/>
+    <mergeCell ref="B1069:B1070"/>
+    <mergeCell ref="Q1091:R1091"/>
+    <mergeCell ref="R1097:S1097"/>
+    <mergeCell ref="A1100:A1101"/>
+    <mergeCell ref="B1100:B1101"/>
+    <mergeCell ref="C1100:C1101"/>
+    <mergeCell ref="D1100:D1101"/>
+    <mergeCell ref="F1100:F1101"/>
+    <mergeCell ref="G1100:G1101"/>
+    <mergeCell ref="H1100:H1101"/>
+    <mergeCell ref="I1100:I1101"/>
+    <mergeCell ref="Y1082:Y1083"/>
+    <mergeCell ref="Z1082:Z1083"/>
+    <mergeCell ref="R1084:S1084"/>
+    <mergeCell ref="S1087:T1087"/>
+    <mergeCell ref="S1089:T1089"/>
+    <mergeCell ref="R1090:S1090"/>
+    <mergeCell ref="S1082:S1083"/>
+    <mergeCell ref="T1082:T1083"/>
+    <mergeCell ref="U1082:U1083"/>
+    <mergeCell ref="V1082:V1083"/>
+    <mergeCell ref="W1082:W1083"/>
+    <mergeCell ref="X1082:X1083"/>
+    <mergeCell ref="M1082:M1083"/>
+    <mergeCell ref="N1082:N1083"/>
+    <mergeCell ref="O1082:O1083"/>
+    <mergeCell ref="P1082:P1083"/>
+    <mergeCell ref="Q1082:Q1083"/>
+    <mergeCell ref="R1082:R1083"/>
+    <mergeCell ref="G1082:G1083"/>
+    <mergeCell ref="H1082:H1083"/>
+    <mergeCell ref="I1082:I1083"/>
+    <mergeCell ref="J1082:J1083"/>
+    <mergeCell ref="X1100:X1101"/>
+    <mergeCell ref="Y1100:Y1101"/>
+    <mergeCell ref="Z1100:Z1101"/>
+    <mergeCell ref="Q1102:R1102"/>
+    <mergeCell ref="R1103:S1103"/>
+    <mergeCell ref="P1100:P1101"/>
+    <mergeCell ref="Q1100:Q1101"/>
+    <mergeCell ref="R1100:S1100"/>
+    <mergeCell ref="T1100:T1101"/>
+    <mergeCell ref="U1100:U1101"/>
+    <mergeCell ref="V1100:V1101"/>
+    <mergeCell ref="J1100:J1101"/>
+    <mergeCell ref="K1100:K1101"/>
+    <mergeCell ref="L1100:L1101"/>
+    <mergeCell ref="M1100:M1101"/>
+    <mergeCell ref="N1100:N1101"/>
+    <mergeCell ref="O1100:O1101"/>
+    <mergeCell ref="R1126:S1126"/>
+    <mergeCell ref="R1128:S1128"/>
+    <mergeCell ref="U1131:V1131"/>
+    <mergeCell ref="A1132:A1133"/>
+    <mergeCell ref="B1132:B1133"/>
+    <mergeCell ref="C1132:C1133"/>
+    <mergeCell ref="D1132:D1133"/>
+    <mergeCell ref="F1132:F1133"/>
+    <mergeCell ref="G1132:G1133"/>
+    <mergeCell ref="H1132:H1133"/>
+    <mergeCell ref="Q1104:R1104"/>
+    <mergeCell ref="Q1107:R1107"/>
+    <mergeCell ref="V1115:W1115"/>
+    <mergeCell ref="Q1116:R1116"/>
+    <mergeCell ref="Q1123:R1123"/>
+    <mergeCell ref="Q1125:R1125"/>
+    <mergeCell ref="W1100:W1101"/>
+    <mergeCell ref="G1151:G1153"/>
+    <mergeCell ref="U1132:U1133"/>
+    <mergeCell ref="V1132:V1133"/>
+    <mergeCell ref="W1132:W1133"/>
+    <mergeCell ref="X1132:X1133"/>
+    <mergeCell ref="Y1132:Y1133"/>
+    <mergeCell ref="Z1132:Z1133"/>
+    <mergeCell ref="O1132:O1133"/>
+    <mergeCell ref="P1132:P1133"/>
+    <mergeCell ref="Q1132:Q1133"/>
+    <mergeCell ref="R1132:R1133"/>
+    <mergeCell ref="S1132:S1133"/>
+    <mergeCell ref="T1132:T1133"/>
+    <mergeCell ref="I1132:I1133"/>
+    <mergeCell ref="J1132:J1133"/>
+    <mergeCell ref="K1132:K1133"/>
+    <mergeCell ref="L1132:L1133"/>
+    <mergeCell ref="M1132:M1133"/>
+    <mergeCell ref="N1132:N1133"/>
     <mergeCell ref="A1156:A1157"/>
     <mergeCell ref="B1156:B1157"/>
     <mergeCell ref="C1156:C1157"/>
@@ -76059,3281 +79461,23 @@
     <mergeCell ref="C1151:C1153"/>
     <mergeCell ref="D1151:D1153"/>
     <mergeCell ref="F1151:F1153"/>
-    <mergeCell ref="G1151:G1153"/>
-    <mergeCell ref="U1132:U1133"/>
-    <mergeCell ref="V1132:V1133"/>
-    <mergeCell ref="W1132:W1133"/>
-    <mergeCell ref="X1132:X1133"/>
-    <mergeCell ref="Y1132:Y1133"/>
-    <mergeCell ref="Z1132:Z1133"/>
-    <mergeCell ref="O1132:O1133"/>
-    <mergeCell ref="P1132:P1133"/>
-    <mergeCell ref="Q1132:Q1133"/>
-    <mergeCell ref="R1132:R1133"/>
-    <mergeCell ref="S1132:S1133"/>
-    <mergeCell ref="T1132:T1133"/>
-    <mergeCell ref="I1132:I1133"/>
-    <mergeCell ref="J1132:J1133"/>
-    <mergeCell ref="K1132:K1133"/>
-    <mergeCell ref="L1132:L1133"/>
-    <mergeCell ref="M1132:M1133"/>
-    <mergeCell ref="N1132:N1133"/>
-    <mergeCell ref="R1126:S1126"/>
-    <mergeCell ref="R1128:S1128"/>
-    <mergeCell ref="U1131:V1131"/>
-    <mergeCell ref="A1132:A1133"/>
-    <mergeCell ref="B1132:B1133"/>
-    <mergeCell ref="C1132:C1133"/>
-    <mergeCell ref="D1132:D1133"/>
-    <mergeCell ref="F1132:F1133"/>
-    <mergeCell ref="G1132:G1133"/>
-    <mergeCell ref="H1132:H1133"/>
-    <mergeCell ref="Q1104:R1104"/>
-    <mergeCell ref="Q1107:R1107"/>
-    <mergeCell ref="V1115:W1115"/>
-    <mergeCell ref="Q1116:R1116"/>
-    <mergeCell ref="Q1123:R1123"/>
-    <mergeCell ref="Q1125:R1125"/>
-    <mergeCell ref="W1100:W1101"/>
-    <mergeCell ref="X1100:X1101"/>
-    <mergeCell ref="Y1100:Y1101"/>
-    <mergeCell ref="Z1100:Z1101"/>
-    <mergeCell ref="Q1102:R1102"/>
-    <mergeCell ref="R1103:S1103"/>
-    <mergeCell ref="P1100:P1101"/>
-    <mergeCell ref="Q1100:Q1101"/>
-    <mergeCell ref="R1100:S1100"/>
-    <mergeCell ref="T1100:T1101"/>
-    <mergeCell ref="U1100:U1101"/>
-    <mergeCell ref="V1100:V1101"/>
-    <mergeCell ref="J1100:J1101"/>
-    <mergeCell ref="K1100:K1101"/>
-    <mergeCell ref="L1100:L1101"/>
-    <mergeCell ref="M1100:M1101"/>
-    <mergeCell ref="N1100:N1101"/>
-    <mergeCell ref="O1100:O1101"/>
-    <mergeCell ref="Q1091:R1091"/>
-    <mergeCell ref="R1097:S1097"/>
-    <mergeCell ref="A1100:A1101"/>
-    <mergeCell ref="B1100:B1101"/>
-    <mergeCell ref="C1100:C1101"/>
-    <mergeCell ref="D1100:D1101"/>
-    <mergeCell ref="F1100:F1101"/>
-    <mergeCell ref="G1100:G1101"/>
-    <mergeCell ref="H1100:H1101"/>
-    <mergeCell ref="I1100:I1101"/>
-    <mergeCell ref="Y1082:Y1083"/>
-    <mergeCell ref="Z1082:Z1083"/>
-    <mergeCell ref="R1084:S1084"/>
-    <mergeCell ref="S1087:T1087"/>
-    <mergeCell ref="S1089:T1089"/>
-    <mergeCell ref="R1090:S1090"/>
-    <mergeCell ref="S1082:S1083"/>
-    <mergeCell ref="T1082:T1083"/>
-    <mergeCell ref="U1082:U1083"/>
-    <mergeCell ref="V1082:V1083"/>
-    <mergeCell ref="W1082:W1083"/>
-    <mergeCell ref="X1082:X1083"/>
-    <mergeCell ref="M1082:M1083"/>
-    <mergeCell ref="N1082:N1083"/>
-    <mergeCell ref="O1082:O1083"/>
-    <mergeCell ref="P1082:P1083"/>
-    <mergeCell ref="Q1082:Q1083"/>
-    <mergeCell ref="R1082:R1083"/>
-    <mergeCell ref="G1082:G1083"/>
-    <mergeCell ref="H1082:H1083"/>
-    <mergeCell ref="I1082:I1083"/>
-    <mergeCell ref="J1082:J1083"/>
-    <mergeCell ref="K1082:K1083"/>
-    <mergeCell ref="L1082:L1083"/>
-    <mergeCell ref="Z1069:Z1070"/>
-    <mergeCell ref="R1078:S1078"/>
-    <mergeCell ref="Q1079:R1079"/>
-    <mergeCell ref="S1080:T1080"/>
-    <mergeCell ref="Q1081:R1081"/>
-    <mergeCell ref="A1082:A1083"/>
-    <mergeCell ref="B1082:B1083"/>
-    <mergeCell ref="C1082:C1083"/>
-    <mergeCell ref="D1082:D1083"/>
-    <mergeCell ref="F1082:F1083"/>
-    <mergeCell ref="T1069:T1070"/>
-    <mergeCell ref="U1069:U1070"/>
-    <mergeCell ref="V1069:V1070"/>
-    <mergeCell ref="W1069:W1070"/>
-    <mergeCell ref="X1069:X1070"/>
-    <mergeCell ref="Y1069:Y1070"/>
-    <mergeCell ref="N1069:N1070"/>
-    <mergeCell ref="O1069:O1070"/>
-    <mergeCell ref="P1069:P1070"/>
-    <mergeCell ref="Q1069:Q1070"/>
-    <mergeCell ref="R1069:R1070"/>
-    <mergeCell ref="S1069:S1070"/>
-    <mergeCell ref="H1069:H1070"/>
-    <mergeCell ref="I1069:I1070"/>
-    <mergeCell ref="J1069:J1070"/>
-    <mergeCell ref="K1069:K1070"/>
-    <mergeCell ref="L1069:L1070"/>
-    <mergeCell ref="M1069:M1070"/>
-    <mergeCell ref="A1069:A1070"/>
-    <mergeCell ref="B1069:B1070"/>
-    <mergeCell ref="C1069:C1070"/>
-    <mergeCell ref="D1069:D1070"/>
-    <mergeCell ref="F1069:F1070"/>
-    <mergeCell ref="G1069:G1070"/>
-    <mergeCell ref="U1063:U1064"/>
-    <mergeCell ref="V1063:V1064"/>
-    <mergeCell ref="W1063:W1064"/>
-    <mergeCell ref="X1063:X1064"/>
-    <mergeCell ref="Y1063:Y1064"/>
-    <mergeCell ref="Z1063:Z1064"/>
-    <mergeCell ref="N1063:N1064"/>
-    <mergeCell ref="O1063:O1064"/>
-    <mergeCell ref="P1063:P1064"/>
-    <mergeCell ref="Q1063:R1063"/>
-    <mergeCell ref="S1063:S1064"/>
-    <mergeCell ref="T1063:T1064"/>
-    <mergeCell ref="H1063:H1064"/>
-    <mergeCell ref="I1063:I1064"/>
-    <mergeCell ref="J1063:J1064"/>
-    <mergeCell ref="K1063:K1064"/>
-    <mergeCell ref="L1063:L1064"/>
-    <mergeCell ref="M1063:M1064"/>
-    <mergeCell ref="A1063:A1064"/>
-    <mergeCell ref="B1063:B1064"/>
-    <mergeCell ref="C1063:C1064"/>
-    <mergeCell ref="D1063:D1064"/>
-    <mergeCell ref="F1063:F1064"/>
-    <mergeCell ref="G1063:G1064"/>
-    <mergeCell ref="U1061:U1062"/>
-    <mergeCell ref="V1061:V1062"/>
-    <mergeCell ref="W1061:W1062"/>
-    <mergeCell ref="X1061:X1062"/>
-    <mergeCell ref="Y1061:Y1062"/>
-    <mergeCell ref="Z1061:Z1062"/>
-    <mergeCell ref="N1061:N1062"/>
-    <mergeCell ref="O1061:O1062"/>
-    <mergeCell ref="P1061:P1062"/>
-    <mergeCell ref="Q1061:Q1062"/>
-    <mergeCell ref="R1061:R1062"/>
-    <mergeCell ref="S1061:T1061"/>
-    <mergeCell ref="H1061:H1062"/>
-    <mergeCell ref="I1061:I1062"/>
-    <mergeCell ref="J1061:J1062"/>
-    <mergeCell ref="K1061:K1062"/>
-    <mergeCell ref="L1061:L1062"/>
-    <mergeCell ref="M1061:M1062"/>
-    <mergeCell ref="A1061:A1062"/>
-    <mergeCell ref="B1061:B1062"/>
-    <mergeCell ref="C1061:C1062"/>
-    <mergeCell ref="D1061:D1062"/>
-    <mergeCell ref="F1061:F1062"/>
-    <mergeCell ref="G1061:G1062"/>
-    <mergeCell ref="Q1052:R1052"/>
-    <mergeCell ref="R1053:S1053"/>
-    <mergeCell ref="R1055:S1055"/>
-    <mergeCell ref="R1056:S1056"/>
-    <mergeCell ref="R1059:S1059"/>
-    <mergeCell ref="R1060:S1060"/>
-    <mergeCell ref="V1048:V1049"/>
-    <mergeCell ref="W1048:W1049"/>
-    <mergeCell ref="X1048:X1049"/>
-    <mergeCell ref="Y1048:Y1049"/>
-    <mergeCell ref="Z1048:Z1049"/>
-    <mergeCell ref="S1050:T1050"/>
-    <mergeCell ref="P1048:P1049"/>
-    <mergeCell ref="Q1048:Q1049"/>
-    <mergeCell ref="R1048:R1049"/>
-    <mergeCell ref="S1048:S1049"/>
-    <mergeCell ref="T1048:T1049"/>
-    <mergeCell ref="U1048:U1049"/>
-    <mergeCell ref="J1048:J1049"/>
-    <mergeCell ref="K1048:K1049"/>
-    <mergeCell ref="L1048:L1049"/>
-    <mergeCell ref="M1048:M1049"/>
-    <mergeCell ref="N1048:N1049"/>
-    <mergeCell ref="O1048:O1049"/>
-    <mergeCell ref="Y1045:Y1046"/>
-    <mergeCell ref="Z1045:Z1046"/>
-    <mergeCell ref="A1048:A1049"/>
-    <mergeCell ref="B1048:B1049"/>
-    <mergeCell ref="C1048:C1049"/>
-    <mergeCell ref="D1048:D1049"/>
-    <mergeCell ref="F1048:F1049"/>
-    <mergeCell ref="G1048:G1049"/>
-    <mergeCell ref="H1048:H1049"/>
-    <mergeCell ref="I1048:I1049"/>
-    <mergeCell ref="S1045:S1046"/>
-    <mergeCell ref="T1045:T1046"/>
-    <mergeCell ref="U1045:U1046"/>
-    <mergeCell ref="V1045:V1046"/>
-    <mergeCell ref="W1045:W1046"/>
-    <mergeCell ref="X1045:X1046"/>
-    <mergeCell ref="M1045:M1046"/>
-    <mergeCell ref="N1045:N1046"/>
-    <mergeCell ref="O1045:O1046"/>
-    <mergeCell ref="P1045:P1046"/>
-    <mergeCell ref="Q1045:Q1046"/>
-    <mergeCell ref="R1045:R1046"/>
-    <mergeCell ref="G1045:G1046"/>
-    <mergeCell ref="H1045:H1046"/>
-    <mergeCell ref="I1045:I1046"/>
-    <mergeCell ref="J1045:J1046"/>
-    <mergeCell ref="K1045:K1046"/>
-    <mergeCell ref="L1045:L1046"/>
-    <mergeCell ref="V1041:V1042"/>
-    <mergeCell ref="W1041:W1042"/>
-    <mergeCell ref="X1041:X1042"/>
-    <mergeCell ref="Y1041:Y1042"/>
-    <mergeCell ref="Z1041:Z1042"/>
-    <mergeCell ref="A1045:A1046"/>
-    <mergeCell ref="B1045:B1046"/>
-    <mergeCell ref="C1045:C1046"/>
-    <mergeCell ref="D1045:D1046"/>
-    <mergeCell ref="F1045:F1046"/>
-    <mergeCell ref="P1041:P1042"/>
-    <mergeCell ref="Q1041:Q1042"/>
-    <mergeCell ref="R1041:R1042"/>
-    <mergeCell ref="S1041:S1042"/>
-    <mergeCell ref="T1041:T1042"/>
-    <mergeCell ref="U1041:U1042"/>
-    <mergeCell ref="J1041:J1042"/>
-    <mergeCell ref="K1041:K1042"/>
-    <mergeCell ref="L1041:L1042"/>
-    <mergeCell ref="M1041:M1042"/>
-    <mergeCell ref="N1041:N1042"/>
-    <mergeCell ref="O1041:O1042"/>
-    <mergeCell ref="Z1037:Z1038"/>
-    <mergeCell ref="Q1040:R1040"/>
-    <mergeCell ref="A1041:A1042"/>
-    <mergeCell ref="B1041:B1042"/>
-    <mergeCell ref="C1041:C1042"/>
-    <mergeCell ref="D1041:D1042"/>
-    <mergeCell ref="F1041:F1042"/>
-    <mergeCell ref="G1041:G1042"/>
-    <mergeCell ref="H1041:H1042"/>
-    <mergeCell ref="I1041:I1042"/>
-    <mergeCell ref="T1037:T1038"/>
-    <mergeCell ref="U1037:U1038"/>
-    <mergeCell ref="V1037:V1038"/>
-    <mergeCell ref="W1037:W1038"/>
-    <mergeCell ref="X1037:X1038"/>
-    <mergeCell ref="Y1037:Y1038"/>
-    <mergeCell ref="N1037:N1038"/>
-    <mergeCell ref="O1037:O1038"/>
-    <mergeCell ref="P1037:P1038"/>
-    <mergeCell ref="Q1037:Q1038"/>
-    <mergeCell ref="R1037:R1038"/>
-    <mergeCell ref="S1037:S1038"/>
-    <mergeCell ref="H1037:H1038"/>
-    <mergeCell ref="I1037:I1038"/>
-    <mergeCell ref="J1037:J1038"/>
-    <mergeCell ref="K1037:K1038"/>
-    <mergeCell ref="L1037:L1038"/>
-    <mergeCell ref="M1037:M1038"/>
-    <mergeCell ref="A1037:A1038"/>
-    <mergeCell ref="B1037:B1038"/>
-    <mergeCell ref="C1037:C1038"/>
-    <mergeCell ref="D1037:D1038"/>
-    <mergeCell ref="F1037:F1038"/>
-    <mergeCell ref="G1037:G1038"/>
-    <mergeCell ref="R1019:S1019"/>
-    <mergeCell ref="R1023:S1023"/>
-    <mergeCell ref="R1024:S1024"/>
-    <mergeCell ref="Q1026:R1026"/>
-    <mergeCell ref="Q1027:R1027"/>
-    <mergeCell ref="Q1030:R1030"/>
-    <mergeCell ref="W1015:W1016"/>
-    <mergeCell ref="X1015:X1016"/>
-    <mergeCell ref="Y1015:Y1016"/>
-    <mergeCell ref="Z1015:Z1016"/>
-    <mergeCell ref="Q1017:R1017"/>
-    <mergeCell ref="Y1018:Z1018"/>
-    <mergeCell ref="Q1015:Q1016"/>
-    <mergeCell ref="R1015:R1016"/>
-    <mergeCell ref="S1015:S1016"/>
-    <mergeCell ref="T1015:T1016"/>
-    <mergeCell ref="U1015:U1016"/>
-    <mergeCell ref="V1015:V1016"/>
-    <mergeCell ref="K1015:K1016"/>
-    <mergeCell ref="L1015:L1016"/>
-    <mergeCell ref="M1015:M1016"/>
-    <mergeCell ref="N1015:N1016"/>
-    <mergeCell ref="O1015:O1016"/>
-    <mergeCell ref="P1015:P1016"/>
-    <mergeCell ref="R1014:S1014"/>
-    <mergeCell ref="A1015:A1016"/>
-    <mergeCell ref="B1015:B1016"/>
-    <mergeCell ref="C1015:C1016"/>
-    <mergeCell ref="D1015:D1016"/>
-    <mergeCell ref="F1015:F1016"/>
-    <mergeCell ref="G1015:G1016"/>
-    <mergeCell ref="H1015:H1016"/>
-    <mergeCell ref="I1015:I1016"/>
-    <mergeCell ref="J1015:J1016"/>
-    <mergeCell ref="V1005:V1006"/>
-    <mergeCell ref="W1005:W1006"/>
-    <mergeCell ref="X1005:X1006"/>
-    <mergeCell ref="Y1005:Y1006"/>
-    <mergeCell ref="Z1005:Z1006"/>
-    <mergeCell ref="S1008:T1008"/>
-    <mergeCell ref="O1005:O1006"/>
-    <mergeCell ref="P1005:P1006"/>
-    <mergeCell ref="Q1005:Q1006"/>
-    <mergeCell ref="R1005:S1005"/>
-    <mergeCell ref="T1005:T1006"/>
-    <mergeCell ref="U1005:U1006"/>
-    <mergeCell ref="I1005:I1006"/>
-    <mergeCell ref="J1005:J1006"/>
-    <mergeCell ref="K1005:K1006"/>
-    <mergeCell ref="L1005:L1006"/>
-    <mergeCell ref="M1005:M1006"/>
-    <mergeCell ref="N1005:N1006"/>
-    <mergeCell ref="R997:S997"/>
-    <mergeCell ref="R999:S999"/>
-    <mergeCell ref="Q1001:R1001"/>
-    <mergeCell ref="A1005:A1006"/>
-    <mergeCell ref="B1005:B1006"/>
-    <mergeCell ref="C1005:C1006"/>
-    <mergeCell ref="D1005:D1006"/>
-    <mergeCell ref="F1005:F1006"/>
-    <mergeCell ref="G1005:G1006"/>
-    <mergeCell ref="H1005:H1006"/>
-    <mergeCell ref="T993:U993"/>
-    <mergeCell ref="V993:V994"/>
-    <mergeCell ref="W993:W994"/>
-    <mergeCell ref="X993:X994"/>
-    <mergeCell ref="Y993:Y994"/>
-    <mergeCell ref="Z993:Z994"/>
-    <mergeCell ref="N993:N994"/>
-    <mergeCell ref="O993:O994"/>
-    <mergeCell ref="P993:P994"/>
-    <mergeCell ref="Q993:Q994"/>
-    <mergeCell ref="R993:R994"/>
-    <mergeCell ref="S993:S994"/>
-    <mergeCell ref="H993:H994"/>
-    <mergeCell ref="I993:I994"/>
-    <mergeCell ref="J993:J994"/>
-    <mergeCell ref="K993:K994"/>
-    <mergeCell ref="L993:L994"/>
-    <mergeCell ref="M993:M994"/>
-    <mergeCell ref="A993:A994"/>
-    <mergeCell ref="B993:B994"/>
-    <mergeCell ref="C993:C994"/>
-    <mergeCell ref="D993:D994"/>
-    <mergeCell ref="F993:F994"/>
-    <mergeCell ref="G993:G994"/>
-    <mergeCell ref="U991:U992"/>
-    <mergeCell ref="V991:V992"/>
-    <mergeCell ref="W991:W992"/>
-    <mergeCell ref="X991:X992"/>
-    <mergeCell ref="Y991:Y992"/>
-    <mergeCell ref="Z991:Z992"/>
-    <mergeCell ref="O991:O992"/>
-    <mergeCell ref="P991:P992"/>
-    <mergeCell ref="Q991:Q992"/>
-    <mergeCell ref="R991:R992"/>
-    <mergeCell ref="S991:S992"/>
-    <mergeCell ref="T991:T992"/>
-    <mergeCell ref="I991:I992"/>
-    <mergeCell ref="J991:J992"/>
-    <mergeCell ref="K991:K992"/>
-    <mergeCell ref="L991:L992"/>
-    <mergeCell ref="M991:M992"/>
-    <mergeCell ref="N991:N992"/>
-    <mergeCell ref="R981:S981"/>
-    <mergeCell ref="Q982:R982"/>
-    <mergeCell ref="Q983:R983"/>
-    <mergeCell ref="A991:A992"/>
-    <mergeCell ref="B991:B992"/>
-    <mergeCell ref="C991:C992"/>
-    <mergeCell ref="D991:D992"/>
-    <mergeCell ref="F991:F992"/>
-    <mergeCell ref="G991:G992"/>
-    <mergeCell ref="H991:H992"/>
-    <mergeCell ref="Z968:Z969"/>
-    <mergeCell ref="S970:T970"/>
-    <mergeCell ref="S971:T971"/>
-    <mergeCell ref="R973:S973"/>
-    <mergeCell ref="R977:S977"/>
-    <mergeCell ref="Q980:R980"/>
-    <mergeCell ref="T968:T969"/>
-    <mergeCell ref="U968:U969"/>
-    <mergeCell ref="V968:V969"/>
-    <mergeCell ref="W968:W969"/>
-    <mergeCell ref="X968:X969"/>
-    <mergeCell ref="Y968:Y969"/>
-    <mergeCell ref="N968:N969"/>
-    <mergeCell ref="O968:O969"/>
-    <mergeCell ref="P968:P969"/>
-    <mergeCell ref="Q968:Q969"/>
-    <mergeCell ref="R968:R969"/>
-    <mergeCell ref="S968:S969"/>
-    <mergeCell ref="H968:H969"/>
-    <mergeCell ref="I968:I969"/>
-    <mergeCell ref="J968:J969"/>
-    <mergeCell ref="K968:K969"/>
-    <mergeCell ref="L968:L969"/>
-    <mergeCell ref="M968:M969"/>
-    <mergeCell ref="W965:W966"/>
-    <mergeCell ref="X965:X966"/>
-    <mergeCell ref="Y965:Y966"/>
-    <mergeCell ref="Z965:Z966"/>
-    <mergeCell ref="A968:A969"/>
-    <mergeCell ref="B968:B969"/>
-    <mergeCell ref="C968:C969"/>
-    <mergeCell ref="D968:D969"/>
-    <mergeCell ref="F968:F969"/>
-    <mergeCell ref="G968:G969"/>
-    <mergeCell ref="Q965:Q966"/>
-    <mergeCell ref="R965:R966"/>
-    <mergeCell ref="S965:S966"/>
-    <mergeCell ref="T965:T966"/>
-    <mergeCell ref="U965:U966"/>
-    <mergeCell ref="V965:V966"/>
-    <mergeCell ref="K965:K966"/>
-    <mergeCell ref="L965:L966"/>
-    <mergeCell ref="M965:M966"/>
-    <mergeCell ref="N965:N966"/>
-    <mergeCell ref="O965:O966"/>
-    <mergeCell ref="P965:P966"/>
-    <mergeCell ref="Z963:Z964"/>
-    <mergeCell ref="A965:A966"/>
-    <mergeCell ref="B965:B966"/>
-    <mergeCell ref="C965:C966"/>
-    <mergeCell ref="D965:D966"/>
-    <mergeCell ref="F965:F966"/>
-    <mergeCell ref="G965:G966"/>
-    <mergeCell ref="H965:H966"/>
-    <mergeCell ref="I965:I966"/>
-    <mergeCell ref="J965:J966"/>
-    <mergeCell ref="T963:T964"/>
-    <mergeCell ref="U963:U964"/>
-    <mergeCell ref="V963:V964"/>
-    <mergeCell ref="W963:W964"/>
-    <mergeCell ref="X963:X964"/>
-    <mergeCell ref="Y963:Y964"/>
-    <mergeCell ref="N963:N964"/>
-    <mergeCell ref="O963:O964"/>
-    <mergeCell ref="P963:P964"/>
-    <mergeCell ref="Q963:Q964"/>
-    <mergeCell ref="R963:R964"/>
-    <mergeCell ref="S963:S964"/>
-    <mergeCell ref="H963:H964"/>
-    <mergeCell ref="I963:I964"/>
-    <mergeCell ref="J963:J964"/>
-    <mergeCell ref="K963:K964"/>
-    <mergeCell ref="L963:L964"/>
-    <mergeCell ref="M963:M964"/>
-    <mergeCell ref="R957:S957"/>
-    <mergeCell ref="S959:T959"/>
-    <mergeCell ref="Q960:R960"/>
-    <mergeCell ref="R961:S961"/>
-    <mergeCell ref="A963:A964"/>
-    <mergeCell ref="B963:B964"/>
-    <mergeCell ref="C963:C964"/>
-    <mergeCell ref="D963:D964"/>
-    <mergeCell ref="F963:F964"/>
-    <mergeCell ref="G963:G964"/>
-    <mergeCell ref="U955:U956"/>
-    <mergeCell ref="V955:V956"/>
-    <mergeCell ref="W955:W956"/>
-    <mergeCell ref="X955:X956"/>
-    <mergeCell ref="Y955:Y956"/>
-    <mergeCell ref="Z955:Z956"/>
-    <mergeCell ref="N955:N956"/>
-    <mergeCell ref="O955:O956"/>
-    <mergeCell ref="P955:P956"/>
-    <mergeCell ref="Q955:Q956"/>
-    <mergeCell ref="R955:S955"/>
-    <mergeCell ref="T955:T956"/>
-    <mergeCell ref="H955:H956"/>
-    <mergeCell ref="I955:I956"/>
-    <mergeCell ref="J955:J956"/>
-    <mergeCell ref="K955:K956"/>
-    <mergeCell ref="L955:L956"/>
-    <mergeCell ref="M955:M956"/>
-    <mergeCell ref="W953:W954"/>
-    <mergeCell ref="X953:X954"/>
-    <mergeCell ref="Y953:Y954"/>
-    <mergeCell ref="Z953:Z954"/>
-    <mergeCell ref="A955:A956"/>
-    <mergeCell ref="B955:B956"/>
-    <mergeCell ref="C955:C956"/>
-    <mergeCell ref="D955:D956"/>
-    <mergeCell ref="F955:F956"/>
-    <mergeCell ref="G955:G956"/>
-    <mergeCell ref="Q953:Q954"/>
-    <mergeCell ref="R953:R954"/>
-    <mergeCell ref="S953:S954"/>
-    <mergeCell ref="T953:T954"/>
-    <mergeCell ref="U953:U954"/>
-    <mergeCell ref="V953:V954"/>
-    <mergeCell ref="K953:K954"/>
-    <mergeCell ref="L953:L954"/>
-    <mergeCell ref="M953:M954"/>
-    <mergeCell ref="N953:N954"/>
-    <mergeCell ref="O953:O954"/>
-    <mergeCell ref="P953:P954"/>
-    <mergeCell ref="Q951:R951"/>
-    <mergeCell ref="A953:A954"/>
-    <mergeCell ref="B953:B954"/>
-    <mergeCell ref="C953:C954"/>
-    <mergeCell ref="D953:D954"/>
-    <mergeCell ref="F953:F954"/>
-    <mergeCell ref="G953:G954"/>
-    <mergeCell ref="H953:H954"/>
-    <mergeCell ref="I953:I954"/>
-    <mergeCell ref="J953:J954"/>
-    <mergeCell ref="S937:T937"/>
-    <mergeCell ref="R939:S939"/>
-    <mergeCell ref="Q945:R945"/>
-    <mergeCell ref="Q946:R946"/>
-    <mergeCell ref="Q948:R948"/>
-    <mergeCell ref="T950:U950"/>
-    <mergeCell ref="R924:S924"/>
-    <mergeCell ref="S927:T927"/>
-    <mergeCell ref="Q928:R928"/>
-    <mergeCell ref="S930:T930"/>
-    <mergeCell ref="R935:S935"/>
-    <mergeCell ref="R936:S936"/>
-    <mergeCell ref="V919:V920"/>
-    <mergeCell ref="W919:W920"/>
-    <mergeCell ref="X919:X920"/>
-    <mergeCell ref="Y919:Y920"/>
-    <mergeCell ref="Z919:Z920"/>
-    <mergeCell ref="Q922:R922"/>
-    <mergeCell ref="P919:P920"/>
-    <mergeCell ref="Q919:Q920"/>
-    <mergeCell ref="R919:R920"/>
-    <mergeCell ref="S919:S920"/>
-    <mergeCell ref="T919:T920"/>
-    <mergeCell ref="U919:U920"/>
-    <mergeCell ref="J919:J920"/>
-    <mergeCell ref="K919:K920"/>
-    <mergeCell ref="L919:L920"/>
-    <mergeCell ref="M919:M920"/>
-    <mergeCell ref="N919:N920"/>
-    <mergeCell ref="O919:O920"/>
-    <mergeCell ref="S915:T915"/>
-    <mergeCell ref="Q917:R917"/>
-    <mergeCell ref="A919:A920"/>
-    <mergeCell ref="B919:B920"/>
-    <mergeCell ref="C919:C920"/>
-    <mergeCell ref="D919:D920"/>
-    <mergeCell ref="F919:F920"/>
-    <mergeCell ref="G919:G920"/>
-    <mergeCell ref="H919:H920"/>
-    <mergeCell ref="I919:I920"/>
-    <mergeCell ref="W906:W907"/>
-    <mergeCell ref="X906:X907"/>
-    <mergeCell ref="Y906:Y907"/>
-    <mergeCell ref="Z906:Z907"/>
-    <mergeCell ref="U911:V911"/>
-    <mergeCell ref="R912:S912"/>
-    <mergeCell ref="Q906:Q907"/>
-    <mergeCell ref="R906:R907"/>
-    <mergeCell ref="S906:S907"/>
-    <mergeCell ref="T906:T907"/>
-    <mergeCell ref="U906:U907"/>
-    <mergeCell ref="V906:V907"/>
-    <mergeCell ref="K906:K907"/>
-    <mergeCell ref="L906:L907"/>
-    <mergeCell ref="M906:M907"/>
-    <mergeCell ref="N906:N907"/>
-    <mergeCell ref="O906:O907"/>
-    <mergeCell ref="P906:P907"/>
-    <mergeCell ref="Z904:Z905"/>
-    <mergeCell ref="A906:A907"/>
-    <mergeCell ref="B906:B907"/>
-    <mergeCell ref="C906:C907"/>
-    <mergeCell ref="D906:D907"/>
-    <mergeCell ref="F906:F907"/>
-    <mergeCell ref="G906:G907"/>
-    <mergeCell ref="H906:H907"/>
-    <mergeCell ref="I906:I907"/>
-    <mergeCell ref="J906:J907"/>
-    <mergeCell ref="T904:T905"/>
-    <mergeCell ref="U904:U905"/>
-    <mergeCell ref="V904:V905"/>
-    <mergeCell ref="W904:W905"/>
-    <mergeCell ref="X904:X905"/>
-    <mergeCell ref="Y904:Y905"/>
-    <mergeCell ref="M904:M905"/>
-    <mergeCell ref="N904:N905"/>
-    <mergeCell ref="O904:O905"/>
-    <mergeCell ref="P904:P905"/>
-    <mergeCell ref="Q904:Q905"/>
-    <mergeCell ref="R904:S904"/>
-    <mergeCell ref="G904:G905"/>
-    <mergeCell ref="H904:H905"/>
-    <mergeCell ref="I904:I905"/>
-    <mergeCell ref="J904:J905"/>
-    <mergeCell ref="K904:K905"/>
-    <mergeCell ref="L904:L905"/>
-    <mergeCell ref="R893:S893"/>
-    <mergeCell ref="Q894:R894"/>
-    <mergeCell ref="Q898:R898"/>
-    <mergeCell ref="R901:S901"/>
-    <mergeCell ref="R903:S903"/>
-    <mergeCell ref="A904:A905"/>
-    <mergeCell ref="B904:B905"/>
-    <mergeCell ref="C904:C905"/>
-    <mergeCell ref="D904:D905"/>
-    <mergeCell ref="F904:F905"/>
-    <mergeCell ref="U887:U889"/>
-    <mergeCell ref="V887:V889"/>
-    <mergeCell ref="W887:W889"/>
-    <mergeCell ref="X887:X889"/>
-    <mergeCell ref="Y887:Y889"/>
-    <mergeCell ref="Z887:Z889"/>
-    <mergeCell ref="O887:O889"/>
-    <mergeCell ref="P887:P889"/>
-    <mergeCell ref="Q887:Q889"/>
-    <mergeCell ref="R887:R889"/>
-    <mergeCell ref="S887:S889"/>
-    <mergeCell ref="T887:T889"/>
-    <mergeCell ref="I887:I889"/>
-    <mergeCell ref="J887:J889"/>
-    <mergeCell ref="K887:K889"/>
-    <mergeCell ref="L887:L889"/>
-    <mergeCell ref="M887:M889"/>
-    <mergeCell ref="N887:N889"/>
-    <mergeCell ref="R883:S883"/>
-    <mergeCell ref="R884:S884"/>
-    <mergeCell ref="R886:S886"/>
-    <mergeCell ref="A887:A889"/>
-    <mergeCell ref="B887:B889"/>
-    <mergeCell ref="C887:C889"/>
-    <mergeCell ref="D887:D889"/>
-    <mergeCell ref="F887:F889"/>
-    <mergeCell ref="G887:G889"/>
-    <mergeCell ref="H887:H889"/>
-    <mergeCell ref="Q871:R871"/>
-    <mergeCell ref="Q873:R873"/>
-    <mergeCell ref="R875:S875"/>
-    <mergeCell ref="Q876:R876"/>
-    <mergeCell ref="T877:U877"/>
-    <mergeCell ref="S881:T881"/>
-    <mergeCell ref="Z850:Z851"/>
-    <mergeCell ref="Q852:R852"/>
-    <mergeCell ref="R853:S853"/>
-    <mergeCell ref="Q866:R866"/>
-    <mergeCell ref="Q869:R869"/>
-    <mergeCell ref="Q870:R870"/>
-    <mergeCell ref="T850:T851"/>
-    <mergeCell ref="U850:U851"/>
-    <mergeCell ref="V850:V851"/>
-    <mergeCell ref="W850:W851"/>
-    <mergeCell ref="X850:X851"/>
-    <mergeCell ref="Y850:Y851"/>
-    <mergeCell ref="N850:N851"/>
-    <mergeCell ref="O850:O851"/>
-    <mergeCell ref="P850:P851"/>
-    <mergeCell ref="Q850:Q851"/>
-    <mergeCell ref="R850:R851"/>
-    <mergeCell ref="S850:S851"/>
-    <mergeCell ref="H850:H851"/>
-    <mergeCell ref="I850:I851"/>
-    <mergeCell ref="J850:J851"/>
-    <mergeCell ref="K850:K851"/>
-    <mergeCell ref="L850:L851"/>
-    <mergeCell ref="M850:M851"/>
-    <mergeCell ref="X843:X844"/>
-    <mergeCell ref="Y843:Y844"/>
-    <mergeCell ref="Z843:Z844"/>
-    <mergeCell ref="Q845:R845"/>
-    <mergeCell ref="A850:A851"/>
-    <mergeCell ref="B850:B851"/>
-    <mergeCell ref="C850:C851"/>
-    <mergeCell ref="D850:D851"/>
-    <mergeCell ref="F850:F851"/>
-    <mergeCell ref="G850:G851"/>
-    <mergeCell ref="Q843:Q844"/>
-    <mergeCell ref="R843:R844"/>
-    <mergeCell ref="S843:S844"/>
-    <mergeCell ref="T843:U843"/>
-    <mergeCell ref="V843:V844"/>
-    <mergeCell ref="W843:W844"/>
-    <mergeCell ref="K843:K844"/>
-    <mergeCell ref="L843:L844"/>
-    <mergeCell ref="M843:M844"/>
-    <mergeCell ref="N843:N844"/>
-    <mergeCell ref="O843:O844"/>
-    <mergeCell ref="P843:P844"/>
-    <mergeCell ref="R835:S835"/>
-    <mergeCell ref="A843:A844"/>
-    <mergeCell ref="B843:B844"/>
-    <mergeCell ref="C843:C844"/>
-    <mergeCell ref="D843:D844"/>
-    <mergeCell ref="F843:F844"/>
-    <mergeCell ref="G843:G844"/>
-    <mergeCell ref="H843:H844"/>
-    <mergeCell ref="I843:I844"/>
-    <mergeCell ref="J843:J844"/>
-    <mergeCell ref="Z821:Z823"/>
-    <mergeCell ref="Q825:R825"/>
-    <mergeCell ref="Q826:R826"/>
-    <mergeCell ref="R830:S830"/>
-    <mergeCell ref="Q832:R832"/>
-    <mergeCell ref="R833:S833"/>
-    <mergeCell ref="S821:T821"/>
-    <mergeCell ref="U821:U823"/>
-    <mergeCell ref="V821:V823"/>
-    <mergeCell ref="W821:W823"/>
-    <mergeCell ref="X821:X823"/>
-    <mergeCell ref="Y821:Y823"/>
-    <mergeCell ref="M821:M823"/>
-    <mergeCell ref="N821:N823"/>
-    <mergeCell ref="O821:O823"/>
-    <mergeCell ref="P821:P823"/>
-    <mergeCell ref="Q821:Q823"/>
-    <mergeCell ref="R821:R823"/>
-    <mergeCell ref="G821:G823"/>
-    <mergeCell ref="H821:H823"/>
-    <mergeCell ref="I821:I823"/>
-    <mergeCell ref="J821:J823"/>
-    <mergeCell ref="K821:K823"/>
-    <mergeCell ref="L821:L823"/>
-    <mergeCell ref="Q800:R800"/>
-    <mergeCell ref="Q803:R803"/>
-    <mergeCell ref="S805:T805"/>
-    <mergeCell ref="R807:S807"/>
-    <mergeCell ref="S818:T818"/>
-    <mergeCell ref="A821:A823"/>
-    <mergeCell ref="B821:B823"/>
-    <mergeCell ref="C821:C823"/>
-    <mergeCell ref="D821:D823"/>
-    <mergeCell ref="F821:F823"/>
-    <mergeCell ref="V796:V797"/>
-    <mergeCell ref="W796:W797"/>
-    <mergeCell ref="X796:X797"/>
-    <mergeCell ref="Y796:Y797"/>
-    <mergeCell ref="Z796:Z797"/>
-    <mergeCell ref="S798:T798"/>
-    <mergeCell ref="O796:O797"/>
-    <mergeCell ref="P796:P797"/>
-    <mergeCell ref="Q796:Q797"/>
-    <mergeCell ref="R796:S796"/>
-    <mergeCell ref="T796:T797"/>
-    <mergeCell ref="U796:U797"/>
-    <mergeCell ref="I796:I797"/>
-    <mergeCell ref="J796:J797"/>
-    <mergeCell ref="K796:K797"/>
-    <mergeCell ref="L796:L797"/>
-    <mergeCell ref="M796:M797"/>
-    <mergeCell ref="N796:N797"/>
-    <mergeCell ref="X794:X795"/>
-    <mergeCell ref="Y794:Y795"/>
-    <mergeCell ref="Z794:Z795"/>
-    <mergeCell ref="A796:A797"/>
-    <mergeCell ref="B796:B797"/>
-    <mergeCell ref="C796:C797"/>
-    <mergeCell ref="D796:D797"/>
-    <mergeCell ref="F796:F797"/>
-    <mergeCell ref="G796:G797"/>
-    <mergeCell ref="H796:H797"/>
-    <mergeCell ref="Q794:Q795"/>
-    <mergeCell ref="R794:S794"/>
-    <mergeCell ref="T794:T795"/>
-    <mergeCell ref="U794:U795"/>
-    <mergeCell ref="V794:V795"/>
-    <mergeCell ref="W794:W795"/>
-    <mergeCell ref="K794:K795"/>
-    <mergeCell ref="L794:L795"/>
-    <mergeCell ref="M794:M795"/>
-    <mergeCell ref="N794:N795"/>
-    <mergeCell ref="O794:O795"/>
-    <mergeCell ref="P794:P795"/>
-    <mergeCell ref="R792:S792"/>
-    <mergeCell ref="A794:A795"/>
-    <mergeCell ref="B794:B795"/>
-    <mergeCell ref="C794:C795"/>
-    <mergeCell ref="D794:D795"/>
-    <mergeCell ref="F794:F795"/>
-    <mergeCell ref="G794:G795"/>
-    <mergeCell ref="H794:H795"/>
-    <mergeCell ref="I794:I795"/>
-    <mergeCell ref="J794:J795"/>
-    <mergeCell ref="U788:U789"/>
-    <mergeCell ref="V788:V789"/>
-    <mergeCell ref="W788:W789"/>
-    <mergeCell ref="X788:X789"/>
-    <mergeCell ref="Y788:Y789"/>
-    <mergeCell ref="Z788:Z789"/>
-    <mergeCell ref="N788:N789"/>
-    <mergeCell ref="O788:O789"/>
-    <mergeCell ref="P788:P789"/>
-    <mergeCell ref="Q788:Q789"/>
-    <mergeCell ref="R788:S788"/>
-    <mergeCell ref="T788:T789"/>
-    <mergeCell ref="H788:H789"/>
-    <mergeCell ref="I788:I789"/>
-    <mergeCell ref="J788:J789"/>
-    <mergeCell ref="K788:K789"/>
-    <mergeCell ref="L788:L789"/>
-    <mergeCell ref="M788:M789"/>
-    <mergeCell ref="A788:A789"/>
-    <mergeCell ref="B788:B789"/>
-    <mergeCell ref="C788:C789"/>
-    <mergeCell ref="D788:D789"/>
-    <mergeCell ref="F788:F789"/>
-    <mergeCell ref="G788:G789"/>
-    <mergeCell ref="U785:U786"/>
-    <mergeCell ref="V785:V786"/>
-    <mergeCell ref="W785:W786"/>
-    <mergeCell ref="X785:X786"/>
-    <mergeCell ref="Y785:Y786"/>
-    <mergeCell ref="Z785:Z786"/>
-    <mergeCell ref="O785:O786"/>
-    <mergeCell ref="P785:P786"/>
-    <mergeCell ref="Q785:Q786"/>
-    <mergeCell ref="R785:R786"/>
-    <mergeCell ref="S785:S786"/>
-    <mergeCell ref="T785:T786"/>
-    <mergeCell ref="I785:I786"/>
-    <mergeCell ref="J785:J786"/>
-    <mergeCell ref="K785:K786"/>
-    <mergeCell ref="L785:L786"/>
-    <mergeCell ref="M785:M786"/>
-    <mergeCell ref="N785:N786"/>
-    <mergeCell ref="X779:X780"/>
-    <mergeCell ref="Y779:Y780"/>
-    <mergeCell ref="Z779:Z780"/>
-    <mergeCell ref="A785:A786"/>
-    <mergeCell ref="B785:B786"/>
-    <mergeCell ref="C785:C786"/>
-    <mergeCell ref="D785:D786"/>
-    <mergeCell ref="F785:F786"/>
-    <mergeCell ref="G785:G786"/>
-    <mergeCell ref="H785:H786"/>
-    <mergeCell ref="Q779:R779"/>
-    <mergeCell ref="S779:S780"/>
-    <mergeCell ref="T779:T780"/>
-    <mergeCell ref="U779:U780"/>
-    <mergeCell ref="V779:V780"/>
-    <mergeCell ref="W779:W780"/>
-    <mergeCell ref="K779:K780"/>
-    <mergeCell ref="L779:L780"/>
-    <mergeCell ref="M779:M780"/>
-    <mergeCell ref="N779:N780"/>
-    <mergeCell ref="O779:O780"/>
-    <mergeCell ref="P779:P780"/>
-    <mergeCell ref="Z776:Z777"/>
-    <mergeCell ref="A779:A780"/>
-    <mergeCell ref="B779:B780"/>
-    <mergeCell ref="C779:C780"/>
-    <mergeCell ref="D779:D780"/>
-    <mergeCell ref="F779:F780"/>
-    <mergeCell ref="G779:G780"/>
-    <mergeCell ref="H779:H780"/>
-    <mergeCell ref="I779:I780"/>
-    <mergeCell ref="J779:J780"/>
-    <mergeCell ref="T776:T777"/>
-    <mergeCell ref="U776:U777"/>
-    <mergeCell ref="V776:V777"/>
-    <mergeCell ref="W776:W777"/>
-    <mergeCell ref="X776:X777"/>
-    <mergeCell ref="Y776:Y777"/>
-    <mergeCell ref="N776:N777"/>
-    <mergeCell ref="O776:O777"/>
-    <mergeCell ref="P776:P777"/>
-    <mergeCell ref="Q776:Q777"/>
-    <mergeCell ref="R776:R777"/>
-    <mergeCell ref="S776:S777"/>
-    <mergeCell ref="H776:H777"/>
-    <mergeCell ref="I776:I777"/>
-    <mergeCell ref="J776:J777"/>
-    <mergeCell ref="K776:K777"/>
-    <mergeCell ref="L776:L777"/>
-    <mergeCell ref="M776:M777"/>
-    <mergeCell ref="A776:A777"/>
-    <mergeCell ref="B776:B777"/>
-    <mergeCell ref="C776:C777"/>
-    <mergeCell ref="D776:D777"/>
-    <mergeCell ref="F776:F777"/>
-    <mergeCell ref="G776:G777"/>
-    <mergeCell ref="W767:W768"/>
-    <mergeCell ref="X767:X768"/>
-    <mergeCell ref="Y767:Y768"/>
-    <mergeCell ref="Z767:Z768"/>
-    <mergeCell ref="Q769:R769"/>
-    <mergeCell ref="Q772:R772"/>
-    <mergeCell ref="P767:P768"/>
-    <mergeCell ref="Q767:Q768"/>
-    <mergeCell ref="R767:R768"/>
-    <mergeCell ref="S767:S768"/>
-    <mergeCell ref="T767:U767"/>
-    <mergeCell ref="V767:V768"/>
-    <mergeCell ref="J767:J768"/>
-    <mergeCell ref="K767:K768"/>
-    <mergeCell ref="L767:L768"/>
-    <mergeCell ref="M767:M768"/>
-    <mergeCell ref="N767:N768"/>
-    <mergeCell ref="O767:O768"/>
-    <mergeCell ref="Q762:R762"/>
-    <mergeCell ref="T766:U766"/>
-    <mergeCell ref="A767:A768"/>
-    <mergeCell ref="B767:B768"/>
-    <mergeCell ref="C767:C768"/>
-    <mergeCell ref="D767:D768"/>
-    <mergeCell ref="F767:F768"/>
-    <mergeCell ref="G767:G768"/>
-    <mergeCell ref="H767:H768"/>
-    <mergeCell ref="I767:I768"/>
-    <mergeCell ref="Z750:Z751"/>
-    <mergeCell ref="Q755:R755"/>
-    <mergeCell ref="R757:S757"/>
-    <mergeCell ref="R758:S758"/>
-    <mergeCell ref="R760:S760"/>
-    <mergeCell ref="Q761:R761"/>
-    <mergeCell ref="T750:T751"/>
-    <mergeCell ref="U750:U751"/>
-    <mergeCell ref="V750:V751"/>
-    <mergeCell ref="W750:W751"/>
-    <mergeCell ref="X750:X751"/>
-    <mergeCell ref="Y750:Y751"/>
-    <mergeCell ref="N750:N751"/>
-    <mergeCell ref="O750:O751"/>
-    <mergeCell ref="P750:P751"/>
-    <mergeCell ref="Q750:Q751"/>
-    <mergeCell ref="R750:R751"/>
-    <mergeCell ref="S750:S751"/>
-    <mergeCell ref="H750:H751"/>
-    <mergeCell ref="I750:I751"/>
-    <mergeCell ref="J750:J751"/>
-    <mergeCell ref="K750:K751"/>
-    <mergeCell ref="L750:L751"/>
-    <mergeCell ref="M750:M751"/>
-    <mergeCell ref="W747:W748"/>
-    <mergeCell ref="X747:X748"/>
-    <mergeCell ref="Y747:Y748"/>
-    <mergeCell ref="Z747:Z748"/>
-    <mergeCell ref="A750:A751"/>
-    <mergeCell ref="B750:B751"/>
-    <mergeCell ref="C750:C751"/>
-    <mergeCell ref="D750:D751"/>
-    <mergeCell ref="F750:F751"/>
-    <mergeCell ref="G750:G751"/>
-    <mergeCell ref="Q747:Q748"/>
-    <mergeCell ref="R747:R748"/>
-    <mergeCell ref="S747:S748"/>
-    <mergeCell ref="T747:T748"/>
-    <mergeCell ref="U747:U748"/>
-    <mergeCell ref="V747:V748"/>
-    <mergeCell ref="K747:K748"/>
-    <mergeCell ref="L747:L748"/>
-    <mergeCell ref="M747:M748"/>
-    <mergeCell ref="N747:N748"/>
-    <mergeCell ref="O747:O748"/>
-    <mergeCell ref="P747:P748"/>
-    <mergeCell ref="S746:T746"/>
-    <mergeCell ref="A747:A748"/>
-    <mergeCell ref="B747:B748"/>
-    <mergeCell ref="C747:C748"/>
-    <mergeCell ref="D747:D748"/>
-    <mergeCell ref="F747:F748"/>
-    <mergeCell ref="G747:G748"/>
-    <mergeCell ref="H747:H748"/>
-    <mergeCell ref="I747:I748"/>
-    <mergeCell ref="J747:J748"/>
-    <mergeCell ref="V742:V743"/>
-    <mergeCell ref="W742:W743"/>
-    <mergeCell ref="X742:X743"/>
-    <mergeCell ref="Y742:Y743"/>
-    <mergeCell ref="Z742:Z743"/>
-    <mergeCell ref="R744:S744"/>
-    <mergeCell ref="O742:O743"/>
-    <mergeCell ref="P742:P743"/>
-    <mergeCell ref="Q742:Q743"/>
-    <mergeCell ref="R742:S742"/>
-    <mergeCell ref="T742:T743"/>
-    <mergeCell ref="U742:U743"/>
-    <mergeCell ref="I742:I743"/>
-    <mergeCell ref="J742:J743"/>
-    <mergeCell ref="K742:K743"/>
-    <mergeCell ref="L742:L743"/>
-    <mergeCell ref="M742:M743"/>
-    <mergeCell ref="N742:N743"/>
-    <mergeCell ref="Z734:Z736"/>
-    <mergeCell ref="Q740:R740"/>
-    <mergeCell ref="W741:X741"/>
-    <mergeCell ref="A742:A743"/>
-    <mergeCell ref="B742:B743"/>
-    <mergeCell ref="C742:C743"/>
-    <mergeCell ref="D742:D743"/>
-    <mergeCell ref="F742:F743"/>
-    <mergeCell ref="G742:G743"/>
-    <mergeCell ref="H742:H743"/>
-    <mergeCell ref="T734:T736"/>
-    <mergeCell ref="U734:U736"/>
-    <mergeCell ref="V734:V736"/>
-    <mergeCell ref="W734:W736"/>
-    <mergeCell ref="X734:X736"/>
-    <mergeCell ref="Y734:Y736"/>
-    <mergeCell ref="M734:M736"/>
-    <mergeCell ref="N734:N736"/>
-    <mergeCell ref="O734:O736"/>
-    <mergeCell ref="P734:P736"/>
-    <mergeCell ref="Q734:Q736"/>
-    <mergeCell ref="R734:S734"/>
-    <mergeCell ref="G734:G736"/>
-    <mergeCell ref="H734:H736"/>
-    <mergeCell ref="I734:I736"/>
-    <mergeCell ref="J734:J736"/>
-    <mergeCell ref="K734:K736"/>
-    <mergeCell ref="L734:L736"/>
-    <mergeCell ref="W728:W729"/>
-    <mergeCell ref="X728:X729"/>
-    <mergeCell ref="Y728:Y729"/>
-    <mergeCell ref="Z728:Z729"/>
-    <mergeCell ref="R731:S731"/>
-    <mergeCell ref="A734:A736"/>
-    <mergeCell ref="B734:B736"/>
-    <mergeCell ref="C734:C736"/>
-    <mergeCell ref="D734:D736"/>
-    <mergeCell ref="F734:F736"/>
-    <mergeCell ref="Q728:Q729"/>
-    <mergeCell ref="R728:R729"/>
-    <mergeCell ref="S728:S729"/>
-    <mergeCell ref="T728:T729"/>
-    <mergeCell ref="U728:U729"/>
-    <mergeCell ref="V728:V729"/>
-    <mergeCell ref="K728:K729"/>
-    <mergeCell ref="L728:L729"/>
-    <mergeCell ref="M728:M729"/>
-    <mergeCell ref="N728:N729"/>
-    <mergeCell ref="O728:O729"/>
-    <mergeCell ref="P728:P729"/>
-    <mergeCell ref="Z726:Z727"/>
-    <mergeCell ref="A728:A729"/>
-    <mergeCell ref="B728:B729"/>
-    <mergeCell ref="C728:C729"/>
-    <mergeCell ref="D728:D729"/>
-    <mergeCell ref="F728:F729"/>
-    <mergeCell ref="G728:G729"/>
-    <mergeCell ref="H728:H729"/>
-    <mergeCell ref="I728:I729"/>
-    <mergeCell ref="J728:J729"/>
-    <mergeCell ref="T726:T727"/>
-    <mergeCell ref="U726:U727"/>
-    <mergeCell ref="V726:V727"/>
-    <mergeCell ref="W726:W727"/>
-    <mergeCell ref="X726:X727"/>
-    <mergeCell ref="Y726:Y727"/>
-    <mergeCell ref="M726:M727"/>
-    <mergeCell ref="N726:N727"/>
-    <mergeCell ref="O726:O727"/>
-    <mergeCell ref="P726:P727"/>
-    <mergeCell ref="Q726:Q727"/>
-    <mergeCell ref="R726:S726"/>
-    <mergeCell ref="G726:G727"/>
-    <mergeCell ref="H726:H727"/>
-    <mergeCell ref="I726:I727"/>
-    <mergeCell ref="J726:J727"/>
-    <mergeCell ref="K726:K727"/>
-    <mergeCell ref="L726:L727"/>
-    <mergeCell ref="T709:U709"/>
-    <mergeCell ref="R714:S714"/>
-    <mergeCell ref="R717:S717"/>
-    <mergeCell ref="Q721:R721"/>
-    <mergeCell ref="R722:S722"/>
-    <mergeCell ref="A726:A727"/>
-    <mergeCell ref="B726:B727"/>
-    <mergeCell ref="C726:C727"/>
-    <mergeCell ref="D726:D727"/>
-    <mergeCell ref="F726:F727"/>
-    <mergeCell ref="R699:S699"/>
-    <mergeCell ref="Q700:R700"/>
-    <mergeCell ref="S703:T703"/>
-    <mergeCell ref="R705:S705"/>
-    <mergeCell ref="Q706:R706"/>
-    <mergeCell ref="S708:T708"/>
-    <mergeCell ref="Y687:Y688"/>
-    <mergeCell ref="Z687:Z688"/>
-    <mergeCell ref="Q692:R692"/>
-    <mergeCell ref="Q693:R693"/>
-    <mergeCell ref="Q694:R694"/>
-    <mergeCell ref="R697:S697"/>
-    <mergeCell ref="S687:S688"/>
-    <mergeCell ref="T687:T688"/>
-    <mergeCell ref="U687:U688"/>
-    <mergeCell ref="V687:V688"/>
-    <mergeCell ref="W687:W688"/>
-    <mergeCell ref="X687:X688"/>
-    <mergeCell ref="M687:M688"/>
-    <mergeCell ref="N687:N688"/>
-    <mergeCell ref="O687:O688"/>
-    <mergeCell ref="P687:P688"/>
-    <mergeCell ref="Q687:Q688"/>
-    <mergeCell ref="R687:R688"/>
-    <mergeCell ref="G687:G688"/>
-    <mergeCell ref="H687:H688"/>
-    <mergeCell ref="I687:I688"/>
-    <mergeCell ref="J687:J688"/>
-    <mergeCell ref="K687:K688"/>
-    <mergeCell ref="L687:L688"/>
-    <mergeCell ref="W681:W682"/>
-    <mergeCell ref="X681:X682"/>
-    <mergeCell ref="Y681:Y682"/>
-    <mergeCell ref="Z681:Z682"/>
-    <mergeCell ref="Q683:R683"/>
-    <mergeCell ref="A687:A688"/>
-    <mergeCell ref="B687:B688"/>
-    <mergeCell ref="C687:C688"/>
-    <mergeCell ref="D687:D688"/>
-    <mergeCell ref="F687:F688"/>
-    <mergeCell ref="P681:P682"/>
-    <mergeCell ref="Q681:R681"/>
-    <mergeCell ref="S681:S682"/>
-    <mergeCell ref="T681:T682"/>
-    <mergeCell ref="U681:U682"/>
-    <mergeCell ref="V681:V682"/>
-    <mergeCell ref="J681:J682"/>
-    <mergeCell ref="K681:K682"/>
-    <mergeCell ref="L681:L682"/>
-    <mergeCell ref="M681:M682"/>
-    <mergeCell ref="N681:N682"/>
-    <mergeCell ref="O681:O682"/>
-    <mergeCell ref="Y678:Y679"/>
-    <mergeCell ref="Z678:Z679"/>
-    <mergeCell ref="A681:A682"/>
-    <mergeCell ref="B681:B682"/>
-    <mergeCell ref="C681:C682"/>
-    <mergeCell ref="D681:D682"/>
-    <mergeCell ref="F681:F682"/>
-    <mergeCell ref="G681:G682"/>
-    <mergeCell ref="H681:H682"/>
-    <mergeCell ref="I681:I682"/>
-    <mergeCell ref="S678:S679"/>
-    <mergeCell ref="T678:T679"/>
-    <mergeCell ref="U678:U679"/>
-    <mergeCell ref="V678:V679"/>
-    <mergeCell ref="W678:W679"/>
-    <mergeCell ref="X678:X679"/>
-    <mergeCell ref="M678:M679"/>
-    <mergeCell ref="N678:N679"/>
-    <mergeCell ref="O678:O679"/>
-    <mergeCell ref="P678:P679"/>
-    <mergeCell ref="Q678:Q679"/>
-    <mergeCell ref="R678:R679"/>
-    <mergeCell ref="G678:G679"/>
-    <mergeCell ref="H678:H679"/>
-    <mergeCell ref="I678:I679"/>
-    <mergeCell ref="J678:J679"/>
-    <mergeCell ref="K678:K679"/>
-    <mergeCell ref="L678:L679"/>
-    <mergeCell ref="Y672:Y674"/>
-    <mergeCell ref="Z672:Z674"/>
-    <mergeCell ref="Q675:R675"/>
-    <mergeCell ref="Q676:R676"/>
-    <mergeCell ref="X677:Y677"/>
-    <mergeCell ref="A678:A679"/>
-    <mergeCell ref="B678:B679"/>
-    <mergeCell ref="C678:C679"/>
-    <mergeCell ref="D678:D679"/>
-    <mergeCell ref="F678:F679"/>
-    <mergeCell ref="S672:S674"/>
-    <mergeCell ref="T672:T674"/>
-    <mergeCell ref="U672:U674"/>
-    <mergeCell ref="V672:V674"/>
-    <mergeCell ref="W672:W674"/>
-    <mergeCell ref="X672:X674"/>
-    <mergeCell ref="M672:M674"/>
-    <mergeCell ref="N672:N674"/>
-    <mergeCell ref="O672:O674"/>
-    <mergeCell ref="P672:P674"/>
-    <mergeCell ref="Q672:Q674"/>
-    <mergeCell ref="R672:R674"/>
-    <mergeCell ref="G672:G674"/>
-    <mergeCell ref="H672:H674"/>
-    <mergeCell ref="I672:I674"/>
-    <mergeCell ref="J672:J674"/>
-    <mergeCell ref="K672:K674"/>
-    <mergeCell ref="L672:L674"/>
-    <mergeCell ref="X665:X666"/>
-    <mergeCell ref="Y665:Y666"/>
-    <mergeCell ref="Z665:Z666"/>
-    <mergeCell ref="R669:S669"/>
-    <mergeCell ref="Q670:R670"/>
-    <mergeCell ref="A672:A674"/>
-    <mergeCell ref="B672:B674"/>
-    <mergeCell ref="C672:C674"/>
-    <mergeCell ref="D672:D674"/>
-    <mergeCell ref="F672:F674"/>
-    <mergeCell ref="Q665:R665"/>
-    <mergeCell ref="S665:S666"/>
-    <mergeCell ref="T665:T666"/>
-    <mergeCell ref="U665:U666"/>
-    <mergeCell ref="V665:V666"/>
-    <mergeCell ref="W665:W666"/>
-    <mergeCell ref="K665:K666"/>
-    <mergeCell ref="L665:L666"/>
-    <mergeCell ref="M665:M666"/>
-    <mergeCell ref="N665:N666"/>
-    <mergeCell ref="O665:O666"/>
-    <mergeCell ref="P665:P666"/>
-    <mergeCell ref="S664:T664"/>
-    <mergeCell ref="A665:A666"/>
-    <mergeCell ref="B665:B666"/>
-    <mergeCell ref="C665:C666"/>
-    <mergeCell ref="D665:D666"/>
-    <mergeCell ref="F665:F666"/>
-    <mergeCell ref="G665:G666"/>
-    <mergeCell ref="H665:H666"/>
-    <mergeCell ref="I665:I666"/>
-    <mergeCell ref="J665:J666"/>
-    <mergeCell ref="U659:U661"/>
-    <mergeCell ref="V659:V661"/>
-    <mergeCell ref="W659:W661"/>
-    <mergeCell ref="X659:X661"/>
-    <mergeCell ref="Y659:Y661"/>
-    <mergeCell ref="Z659:Z661"/>
-    <mergeCell ref="N659:N661"/>
-    <mergeCell ref="O659:O661"/>
-    <mergeCell ref="P659:P661"/>
-    <mergeCell ref="Q659:R659"/>
-    <mergeCell ref="S659:S661"/>
-    <mergeCell ref="T659:T661"/>
-    <mergeCell ref="H659:H661"/>
-    <mergeCell ref="I659:I661"/>
-    <mergeCell ref="J659:J661"/>
-    <mergeCell ref="K659:K661"/>
-    <mergeCell ref="L659:L661"/>
-    <mergeCell ref="M659:M661"/>
-    <mergeCell ref="A659:A661"/>
-    <mergeCell ref="B659:B661"/>
-    <mergeCell ref="C659:C661"/>
-    <mergeCell ref="D659:D661"/>
-    <mergeCell ref="F659:F661"/>
-    <mergeCell ref="G659:G661"/>
-    <mergeCell ref="U656:U657"/>
-    <mergeCell ref="V656:V657"/>
-    <mergeCell ref="W656:W657"/>
-    <mergeCell ref="X656:X657"/>
-    <mergeCell ref="Y656:Y657"/>
-    <mergeCell ref="Z656:Z657"/>
-    <mergeCell ref="O656:O657"/>
-    <mergeCell ref="P656:P657"/>
-    <mergeCell ref="Q656:Q657"/>
-    <mergeCell ref="R656:R657"/>
-    <mergeCell ref="S656:S657"/>
-    <mergeCell ref="T656:T657"/>
-    <mergeCell ref="I656:I657"/>
-    <mergeCell ref="J656:J657"/>
-    <mergeCell ref="K656:K657"/>
-    <mergeCell ref="L656:L657"/>
-    <mergeCell ref="M656:M657"/>
-    <mergeCell ref="N656:N657"/>
-    <mergeCell ref="Y653:Y654"/>
-    <mergeCell ref="Z653:Z654"/>
-    <mergeCell ref="T655:U655"/>
-    <mergeCell ref="A656:A657"/>
-    <mergeCell ref="B656:B657"/>
-    <mergeCell ref="C656:C657"/>
-    <mergeCell ref="D656:D657"/>
-    <mergeCell ref="F656:F657"/>
-    <mergeCell ref="G656:G657"/>
-    <mergeCell ref="H656:H657"/>
-    <mergeCell ref="S653:S654"/>
-    <mergeCell ref="T653:T654"/>
-    <mergeCell ref="U653:U654"/>
-    <mergeCell ref="V653:V654"/>
-    <mergeCell ref="W653:W654"/>
-    <mergeCell ref="X653:X654"/>
-    <mergeCell ref="M653:M654"/>
-    <mergeCell ref="N653:N654"/>
-    <mergeCell ref="O653:O654"/>
-    <mergeCell ref="P653:P654"/>
-    <mergeCell ref="Q653:Q654"/>
-    <mergeCell ref="R653:R654"/>
-    <mergeCell ref="G653:G654"/>
-    <mergeCell ref="H653:H654"/>
-    <mergeCell ref="I653:I654"/>
-    <mergeCell ref="J653:J654"/>
-    <mergeCell ref="K653:K654"/>
-    <mergeCell ref="L653:L654"/>
-    <mergeCell ref="Z638:Z639"/>
-    <mergeCell ref="S643:T643"/>
-    <mergeCell ref="R644:S644"/>
-    <mergeCell ref="Q645:R645"/>
-    <mergeCell ref="Q648:R648"/>
-    <mergeCell ref="A653:A654"/>
-    <mergeCell ref="B653:B654"/>
-    <mergeCell ref="C653:C654"/>
-    <mergeCell ref="D653:D654"/>
-    <mergeCell ref="F653:F654"/>
-    <mergeCell ref="T638:T639"/>
-    <mergeCell ref="U638:U639"/>
-    <mergeCell ref="V638:V639"/>
-    <mergeCell ref="W638:W639"/>
-    <mergeCell ref="X638:X639"/>
-    <mergeCell ref="Y638:Y639"/>
-    <mergeCell ref="N638:N639"/>
-    <mergeCell ref="O638:O639"/>
-    <mergeCell ref="P638:P639"/>
-    <mergeCell ref="Q638:Q639"/>
-    <mergeCell ref="R638:R639"/>
-    <mergeCell ref="S638:S639"/>
-    <mergeCell ref="H638:H639"/>
-    <mergeCell ref="I638:I639"/>
-    <mergeCell ref="J638:J639"/>
-    <mergeCell ref="K638:K639"/>
-    <mergeCell ref="L638:L639"/>
-    <mergeCell ref="M638:M639"/>
-    <mergeCell ref="W636:W637"/>
-    <mergeCell ref="X636:X637"/>
-    <mergeCell ref="Y636:Y637"/>
-    <mergeCell ref="Z636:Z637"/>
-    <mergeCell ref="A638:A639"/>
-    <mergeCell ref="B638:B639"/>
-    <mergeCell ref="C638:C639"/>
-    <mergeCell ref="D638:D639"/>
-    <mergeCell ref="F638:F639"/>
-    <mergeCell ref="G638:G639"/>
-    <mergeCell ref="Q636:Q637"/>
-    <mergeCell ref="R636:R637"/>
-    <mergeCell ref="S636:S637"/>
-    <mergeCell ref="T636:T637"/>
-    <mergeCell ref="U636:U637"/>
-    <mergeCell ref="V636:V637"/>
-    <mergeCell ref="K636:K637"/>
-    <mergeCell ref="L636:L637"/>
-    <mergeCell ref="M636:M637"/>
-    <mergeCell ref="N636:N637"/>
-    <mergeCell ref="O636:O637"/>
-    <mergeCell ref="P636:P637"/>
-    <mergeCell ref="Q635:R635"/>
-    <mergeCell ref="A636:A637"/>
-    <mergeCell ref="B636:B637"/>
-    <mergeCell ref="C636:C637"/>
-    <mergeCell ref="D636:D637"/>
-    <mergeCell ref="F636:F637"/>
-    <mergeCell ref="G636:G637"/>
-    <mergeCell ref="H636:H637"/>
-    <mergeCell ref="I636:I637"/>
-    <mergeCell ref="J636:J637"/>
-    <mergeCell ref="W628:W629"/>
-    <mergeCell ref="X628:X629"/>
-    <mergeCell ref="Y628:Y629"/>
-    <mergeCell ref="Z628:Z629"/>
-    <mergeCell ref="R632:S632"/>
-    <mergeCell ref="Q633:R633"/>
-    <mergeCell ref="P628:P629"/>
-    <mergeCell ref="Q628:Q629"/>
-    <mergeCell ref="R628:R629"/>
-    <mergeCell ref="S628:T628"/>
-    <mergeCell ref="U628:U629"/>
-    <mergeCell ref="V628:V629"/>
-    <mergeCell ref="J628:J629"/>
-    <mergeCell ref="K628:K629"/>
-    <mergeCell ref="L628:L629"/>
-    <mergeCell ref="M628:M629"/>
-    <mergeCell ref="N628:N629"/>
-    <mergeCell ref="O628:O629"/>
-    <mergeCell ref="S624:T624"/>
-    <mergeCell ref="R625:S625"/>
-    <mergeCell ref="A628:A629"/>
-    <mergeCell ref="B628:B629"/>
-    <mergeCell ref="C628:C629"/>
-    <mergeCell ref="D628:D629"/>
-    <mergeCell ref="F628:F629"/>
-    <mergeCell ref="G628:G629"/>
-    <mergeCell ref="H628:H629"/>
-    <mergeCell ref="I628:I629"/>
-    <mergeCell ref="Q610:R610"/>
-    <mergeCell ref="X612:Y612"/>
-    <mergeCell ref="R614:S614"/>
-    <mergeCell ref="Q615:R615"/>
-    <mergeCell ref="R620:S620"/>
-    <mergeCell ref="T621:U621"/>
-    <mergeCell ref="W603:W605"/>
-    <mergeCell ref="X603:X605"/>
-    <mergeCell ref="Y603:Y605"/>
-    <mergeCell ref="Z603:Z605"/>
-    <mergeCell ref="T606:U606"/>
-    <mergeCell ref="R607:S607"/>
-    <mergeCell ref="Q603:Q605"/>
-    <mergeCell ref="R603:R605"/>
-    <mergeCell ref="S603:S605"/>
-    <mergeCell ref="T603:T605"/>
-    <mergeCell ref="U603:U605"/>
-    <mergeCell ref="V603:V605"/>
-    <mergeCell ref="K603:K605"/>
-    <mergeCell ref="L603:L605"/>
-    <mergeCell ref="M603:M605"/>
-    <mergeCell ref="N603:N605"/>
-    <mergeCell ref="O603:O605"/>
-    <mergeCell ref="P603:P605"/>
-    <mergeCell ref="Z598:Z599"/>
-    <mergeCell ref="A603:A605"/>
-    <mergeCell ref="B603:B605"/>
-    <mergeCell ref="C603:C605"/>
-    <mergeCell ref="D603:D605"/>
-    <mergeCell ref="F603:F605"/>
-    <mergeCell ref="G603:G605"/>
-    <mergeCell ref="H603:H605"/>
-    <mergeCell ref="I603:I605"/>
-    <mergeCell ref="J603:J605"/>
-    <mergeCell ref="T598:T599"/>
-    <mergeCell ref="U598:U599"/>
-    <mergeCell ref="V598:V599"/>
-    <mergeCell ref="W598:W599"/>
-    <mergeCell ref="X598:X599"/>
-    <mergeCell ref="Y598:Y599"/>
-    <mergeCell ref="N598:N599"/>
-    <mergeCell ref="O598:O599"/>
-    <mergeCell ref="P598:P599"/>
-    <mergeCell ref="Q598:Q599"/>
-    <mergeCell ref="R598:R599"/>
-    <mergeCell ref="S598:S599"/>
-    <mergeCell ref="H598:H599"/>
-    <mergeCell ref="I598:I599"/>
-    <mergeCell ref="J598:J599"/>
-    <mergeCell ref="K598:K599"/>
-    <mergeCell ref="L598:L599"/>
-    <mergeCell ref="M598:M599"/>
-    <mergeCell ref="A598:A599"/>
-    <mergeCell ref="B598:B599"/>
-    <mergeCell ref="C598:C599"/>
-    <mergeCell ref="D598:D599"/>
-    <mergeCell ref="F598:F599"/>
-    <mergeCell ref="G598:G599"/>
-    <mergeCell ref="W593:W594"/>
-    <mergeCell ref="X593:X594"/>
-    <mergeCell ref="Y593:Y594"/>
-    <mergeCell ref="Z593:Z594"/>
-    <mergeCell ref="R595:S595"/>
-    <mergeCell ref="Q597:R597"/>
-    <mergeCell ref="Q593:Q594"/>
-    <mergeCell ref="R593:R594"/>
-    <mergeCell ref="S593:S594"/>
-    <mergeCell ref="T593:T594"/>
-    <mergeCell ref="U593:U594"/>
-    <mergeCell ref="V593:V594"/>
-    <mergeCell ref="K593:K594"/>
-    <mergeCell ref="L593:L594"/>
-    <mergeCell ref="M593:M594"/>
-    <mergeCell ref="N593:N594"/>
-    <mergeCell ref="O593:O594"/>
-    <mergeCell ref="P593:P594"/>
-    <mergeCell ref="Z588:Z589"/>
-    <mergeCell ref="A593:A594"/>
-    <mergeCell ref="B593:B594"/>
-    <mergeCell ref="C593:C594"/>
-    <mergeCell ref="D593:D594"/>
-    <mergeCell ref="F593:F594"/>
-    <mergeCell ref="G593:G594"/>
-    <mergeCell ref="H593:H594"/>
-    <mergeCell ref="I593:I594"/>
-    <mergeCell ref="J593:J594"/>
-    <mergeCell ref="T588:T589"/>
-    <mergeCell ref="U588:U589"/>
-    <mergeCell ref="V588:V589"/>
-    <mergeCell ref="W588:W589"/>
-    <mergeCell ref="X588:X589"/>
-    <mergeCell ref="Y588:Y589"/>
-    <mergeCell ref="N588:N589"/>
-    <mergeCell ref="O588:O589"/>
-    <mergeCell ref="P588:P589"/>
-    <mergeCell ref="Q588:Q589"/>
-    <mergeCell ref="R588:R589"/>
-    <mergeCell ref="S588:S589"/>
-    <mergeCell ref="H588:H589"/>
-    <mergeCell ref="I588:I589"/>
-    <mergeCell ref="J588:J589"/>
-    <mergeCell ref="K588:K589"/>
-    <mergeCell ref="L588:L589"/>
-    <mergeCell ref="M588:M589"/>
-    <mergeCell ref="A588:A589"/>
-    <mergeCell ref="B588:B589"/>
-    <mergeCell ref="C588:C589"/>
-    <mergeCell ref="D588:D589"/>
-    <mergeCell ref="F588:F589"/>
-    <mergeCell ref="G588:G589"/>
-    <mergeCell ref="U585:U586"/>
-    <mergeCell ref="V585:V586"/>
-    <mergeCell ref="W585:W586"/>
-    <mergeCell ref="X585:X586"/>
-    <mergeCell ref="Y585:Y586"/>
-    <mergeCell ref="Z585:Z586"/>
-    <mergeCell ref="O585:O586"/>
-    <mergeCell ref="P585:P586"/>
-    <mergeCell ref="Q585:Q586"/>
-    <mergeCell ref="R585:R586"/>
-    <mergeCell ref="S585:S586"/>
-    <mergeCell ref="T585:T586"/>
-    <mergeCell ref="I585:I586"/>
-    <mergeCell ref="J585:J586"/>
-    <mergeCell ref="K585:K586"/>
-    <mergeCell ref="L585:L586"/>
-    <mergeCell ref="M585:M586"/>
-    <mergeCell ref="N585:N586"/>
-    <mergeCell ref="Z577:Z578"/>
-    <mergeCell ref="R582:S582"/>
-    <mergeCell ref="S584:T584"/>
-    <mergeCell ref="A585:A586"/>
-    <mergeCell ref="B585:B586"/>
-    <mergeCell ref="C585:C586"/>
-    <mergeCell ref="D585:D586"/>
-    <mergeCell ref="F585:F586"/>
-    <mergeCell ref="G585:G586"/>
-    <mergeCell ref="H585:H586"/>
-    <mergeCell ref="T577:T578"/>
-    <mergeCell ref="U577:U578"/>
-    <mergeCell ref="V577:V578"/>
-    <mergeCell ref="W577:W578"/>
-    <mergeCell ref="X577:X578"/>
-    <mergeCell ref="Y577:Y578"/>
-    <mergeCell ref="N577:N578"/>
-    <mergeCell ref="O577:O578"/>
-    <mergeCell ref="P577:P578"/>
-    <mergeCell ref="Q577:Q578"/>
-    <mergeCell ref="R577:R578"/>
-    <mergeCell ref="S577:S578"/>
-    <mergeCell ref="H577:H578"/>
-    <mergeCell ref="I577:I578"/>
-    <mergeCell ref="J577:J578"/>
-    <mergeCell ref="K577:K578"/>
-    <mergeCell ref="L577:L578"/>
-    <mergeCell ref="M577:M578"/>
-    <mergeCell ref="R569:S569"/>
-    <mergeCell ref="R571:S571"/>
-    <mergeCell ref="Q574:R574"/>
-    <mergeCell ref="R576:S576"/>
-    <mergeCell ref="A577:A578"/>
-    <mergeCell ref="B577:B578"/>
-    <mergeCell ref="C577:C578"/>
-    <mergeCell ref="D577:D578"/>
-    <mergeCell ref="F577:F578"/>
-    <mergeCell ref="G577:G578"/>
-    <mergeCell ref="Z558:Z559"/>
-    <mergeCell ref="R560:S560"/>
-    <mergeCell ref="T561:U561"/>
-    <mergeCell ref="R562:S562"/>
-    <mergeCell ref="S563:T563"/>
-    <mergeCell ref="Q566:R566"/>
-    <mergeCell ref="T558:T559"/>
-    <mergeCell ref="U558:U559"/>
-    <mergeCell ref="V558:V559"/>
-    <mergeCell ref="W558:W559"/>
-    <mergeCell ref="X558:X559"/>
-    <mergeCell ref="Y558:Y559"/>
-    <mergeCell ref="M558:M559"/>
-    <mergeCell ref="N558:N559"/>
-    <mergeCell ref="O558:O559"/>
-    <mergeCell ref="P558:P559"/>
-    <mergeCell ref="Q558:R558"/>
-    <mergeCell ref="S558:S559"/>
-    <mergeCell ref="G558:G559"/>
-    <mergeCell ref="H558:H559"/>
-    <mergeCell ref="I558:I559"/>
-    <mergeCell ref="J558:J559"/>
-    <mergeCell ref="K558:K559"/>
-    <mergeCell ref="L558:L559"/>
-    <mergeCell ref="V553:V554"/>
-    <mergeCell ref="W553:W554"/>
-    <mergeCell ref="X553:X554"/>
-    <mergeCell ref="Y553:Y554"/>
-    <mergeCell ref="Z553:Z554"/>
-    <mergeCell ref="A558:A559"/>
-    <mergeCell ref="B558:B559"/>
-    <mergeCell ref="C558:C559"/>
-    <mergeCell ref="D558:D559"/>
-    <mergeCell ref="F558:F559"/>
-    <mergeCell ref="P553:P554"/>
-    <mergeCell ref="Q553:Q554"/>
-    <mergeCell ref="R553:R554"/>
-    <mergeCell ref="S553:S554"/>
-    <mergeCell ref="T553:T554"/>
-    <mergeCell ref="U553:U554"/>
-    <mergeCell ref="J553:J554"/>
-    <mergeCell ref="K553:K554"/>
-    <mergeCell ref="L553:L554"/>
-    <mergeCell ref="M553:M554"/>
-    <mergeCell ref="N553:N554"/>
-    <mergeCell ref="O553:O554"/>
-    <mergeCell ref="Z550:Z551"/>
-    <mergeCell ref="S552:T552"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="C553:C554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="F553:F554"/>
-    <mergeCell ref="G553:G554"/>
-    <mergeCell ref="H553:H554"/>
-    <mergeCell ref="I553:I554"/>
-    <mergeCell ref="T550:T551"/>
-    <mergeCell ref="U550:U551"/>
-    <mergeCell ref="V550:V551"/>
-    <mergeCell ref="W550:W551"/>
-    <mergeCell ref="X550:X551"/>
-    <mergeCell ref="Y550:Y551"/>
-    <mergeCell ref="N550:N551"/>
-    <mergeCell ref="O550:O551"/>
-    <mergeCell ref="P550:P551"/>
-    <mergeCell ref="Q550:Q551"/>
-    <mergeCell ref="R550:R551"/>
-    <mergeCell ref="S550:S551"/>
-    <mergeCell ref="H550:H551"/>
-    <mergeCell ref="I550:I551"/>
-    <mergeCell ref="J550:J551"/>
-    <mergeCell ref="K550:K551"/>
-    <mergeCell ref="L550:L551"/>
-    <mergeCell ref="M550:M551"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="C550:C551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="F550:F551"/>
-    <mergeCell ref="G550:G551"/>
-    <mergeCell ref="U548:U549"/>
-    <mergeCell ref="V548:V549"/>
-    <mergeCell ref="W548:W549"/>
-    <mergeCell ref="X548:X549"/>
-    <mergeCell ref="Y548:Y549"/>
-    <mergeCell ref="Z548:Z549"/>
-    <mergeCell ref="N548:N549"/>
-    <mergeCell ref="O548:O549"/>
-    <mergeCell ref="P548:P549"/>
-    <mergeCell ref="Q548:Q549"/>
-    <mergeCell ref="R548:S548"/>
-    <mergeCell ref="T548:T549"/>
-    <mergeCell ref="H548:H549"/>
-    <mergeCell ref="I548:I549"/>
-    <mergeCell ref="J548:J549"/>
-    <mergeCell ref="K548:K549"/>
-    <mergeCell ref="L548:L549"/>
-    <mergeCell ref="M548:M549"/>
-    <mergeCell ref="A548:A549"/>
-    <mergeCell ref="B548:B549"/>
-    <mergeCell ref="C548:C549"/>
-    <mergeCell ref="D548:D549"/>
-    <mergeCell ref="F548:F549"/>
-    <mergeCell ref="G548:G549"/>
-    <mergeCell ref="Q538:R538"/>
-    <mergeCell ref="Q539:R539"/>
-    <mergeCell ref="Q540:R540"/>
-    <mergeCell ref="R542:S542"/>
-    <mergeCell ref="R544:S544"/>
-    <mergeCell ref="Q547:R547"/>
-    <mergeCell ref="V535:V536"/>
-    <mergeCell ref="W535:W536"/>
-    <mergeCell ref="X535:X536"/>
-    <mergeCell ref="Y535:Y536"/>
-    <mergeCell ref="Z535:Z536"/>
-    <mergeCell ref="S537:T537"/>
-    <mergeCell ref="P535:P536"/>
-    <mergeCell ref="Q535:Q536"/>
-    <mergeCell ref="R535:R536"/>
-    <mergeCell ref="S535:S536"/>
-    <mergeCell ref="T535:T536"/>
-    <mergeCell ref="U535:U536"/>
-    <mergeCell ref="J535:J536"/>
-    <mergeCell ref="K535:K536"/>
-    <mergeCell ref="L535:L536"/>
-    <mergeCell ref="M535:M536"/>
-    <mergeCell ref="N535:N536"/>
-    <mergeCell ref="O535:O536"/>
-    <mergeCell ref="Z532:Z533"/>
-    <mergeCell ref="R534:S534"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="C535:C536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="F535:F536"/>
-    <mergeCell ref="G535:G536"/>
-    <mergeCell ref="H535:H536"/>
-    <mergeCell ref="I535:I536"/>
-    <mergeCell ref="T532:T533"/>
-    <mergeCell ref="U532:U533"/>
-    <mergeCell ref="V532:V533"/>
-    <mergeCell ref="W532:W533"/>
-    <mergeCell ref="X532:X533"/>
-    <mergeCell ref="Y532:Y533"/>
-    <mergeCell ref="N532:N533"/>
-    <mergeCell ref="O532:O533"/>
-    <mergeCell ref="P532:P533"/>
-    <mergeCell ref="Q532:Q533"/>
-    <mergeCell ref="R532:R533"/>
-    <mergeCell ref="S532:S533"/>
-    <mergeCell ref="H532:H533"/>
-    <mergeCell ref="I532:I533"/>
-    <mergeCell ref="J532:J533"/>
-    <mergeCell ref="K532:K533"/>
-    <mergeCell ref="L532:L533"/>
-    <mergeCell ref="M532:M533"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="C532:C533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="F532:F533"/>
-    <mergeCell ref="G532:G533"/>
-    <mergeCell ref="V528:V529"/>
-    <mergeCell ref="W528:W529"/>
-    <mergeCell ref="X528:X529"/>
-    <mergeCell ref="Y528:Y529"/>
-    <mergeCell ref="Z528:Z529"/>
-    <mergeCell ref="Q531:R531"/>
-    <mergeCell ref="P528:P529"/>
-    <mergeCell ref="Q528:Q529"/>
-    <mergeCell ref="R528:R529"/>
-    <mergeCell ref="S528:S529"/>
-    <mergeCell ref="T528:T529"/>
-    <mergeCell ref="U528:U529"/>
-    <mergeCell ref="J528:J529"/>
-    <mergeCell ref="K528:K529"/>
-    <mergeCell ref="L528:L529"/>
-    <mergeCell ref="M528:M529"/>
-    <mergeCell ref="N528:N529"/>
-    <mergeCell ref="O528:O529"/>
-    <mergeCell ref="Z525:Z526"/>
-    <mergeCell ref="R527:S527"/>
-    <mergeCell ref="A528:A529"/>
-    <mergeCell ref="B528:B529"/>
-    <mergeCell ref="C528:C529"/>
-    <mergeCell ref="D528:D529"/>
-    <mergeCell ref="F528:F529"/>
-    <mergeCell ref="G528:G529"/>
-    <mergeCell ref="H528:H529"/>
-    <mergeCell ref="I528:I529"/>
-    <mergeCell ref="T525:T526"/>
-    <mergeCell ref="U525:U526"/>
-    <mergeCell ref="V525:V526"/>
-    <mergeCell ref="W525:W526"/>
-    <mergeCell ref="X525:X526"/>
-    <mergeCell ref="Y525:Y526"/>
-    <mergeCell ref="N525:N526"/>
-    <mergeCell ref="O525:O526"/>
-    <mergeCell ref="P525:P526"/>
-    <mergeCell ref="Q525:Q526"/>
-    <mergeCell ref="R525:R526"/>
-    <mergeCell ref="S525:S526"/>
-    <mergeCell ref="H525:H526"/>
-    <mergeCell ref="I525:I526"/>
-    <mergeCell ref="J525:J526"/>
-    <mergeCell ref="K525:K526"/>
-    <mergeCell ref="L525:L526"/>
-    <mergeCell ref="M525:M526"/>
-    <mergeCell ref="A525:A526"/>
-    <mergeCell ref="B525:B526"/>
-    <mergeCell ref="C525:C526"/>
-    <mergeCell ref="D525:D526"/>
-    <mergeCell ref="F525:F526"/>
-    <mergeCell ref="G525:G526"/>
-    <mergeCell ref="U522:U524"/>
-    <mergeCell ref="V522:V524"/>
-    <mergeCell ref="W522:W524"/>
-    <mergeCell ref="X522:X524"/>
-    <mergeCell ref="Y522:Y524"/>
-    <mergeCell ref="Z522:Z524"/>
-    <mergeCell ref="N522:N524"/>
-    <mergeCell ref="O522:O524"/>
-    <mergeCell ref="P522:P524"/>
-    <mergeCell ref="Q522:Q524"/>
-    <mergeCell ref="R522:S522"/>
-    <mergeCell ref="T522:T524"/>
-    <mergeCell ref="H522:H524"/>
-    <mergeCell ref="I522:I524"/>
-    <mergeCell ref="J522:J524"/>
-    <mergeCell ref="K522:K524"/>
-    <mergeCell ref="L522:L524"/>
-    <mergeCell ref="M522:M524"/>
-    <mergeCell ref="A522:A524"/>
-    <mergeCell ref="B522:B524"/>
-    <mergeCell ref="C522:C524"/>
-    <mergeCell ref="D522:D524"/>
-    <mergeCell ref="F522:F524"/>
-    <mergeCell ref="G522:G524"/>
-    <mergeCell ref="U520:U521"/>
-    <mergeCell ref="V520:V521"/>
-    <mergeCell ref="W520:W521"/>
-    <mergeCell ref="X520:X521"/>
-    <mergeCell ref="Y520:Y521"/>
-    <mergeCell ref="Z520:Z521"/>
-    <mergeCell ref="O520:O521"/>
-    <mergeCell ref="P520:P521"/>
-    <mergeCell ref="Q520:Q521"/>
-    <mergeCell ref="R520:R521"/>
-    <mergeCell ref="S520:S521"/>
-    <mergeCell ref="T520:T521"/>
-    <mergeCell ref="I520:I521"/>
-    <mergeCell ref="J520:J521"/>
-    <mergeCell ref="K520:K521"/>
-    <mergeCell ref="L520:L521"/>
-    <mergeCell ref="M520:M521"/>
-    <mergeCell ref="N520:N521"/>
-    <mergeCell ref="R509:S509"/>
-    <mergeCell ref="Q515:R515"/>
-    <mergeCell ref="Q516:R516"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="C520:C521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="F520:F521"/>
-    <mergeCell ref="G520:G521"/>
-    <mergeCell ref="H520:H521"/>
-    <mergeCell ref="U503:U504"/>
-    <mergeCell ref="V503:V504"/>
-    <mergeCell ref="W503:W504"/>
-    <mergeCell ref="X503:X504"/>
-    <mergeCell ref="Y503:Y504"/>
-    <mergeCell ref="Z503:Z504"/>
-    <mergeCell ref="N503:N504"/>
-    <mergeCell ref="O503:O504"/>
-    <mergeCell ref="P503:P504"/>
-    <mergeCell ref="Q503:R503"/>
-    <mergeCell ref="S503:S504"/>
-    <mergeCell ref="T503:T504"/>
-    <mergeCell ref="H503:H504"/>
-    <mergeCell ref="I503:I504"/>
-    <mergeCell ref="J503:J504"/>
-    <mergeCell ref="K503:K504"/>
-    <mergeCell ref="L503:L504"/>
-    <mergeCell ref="M503:M504"/>
-    <mergeCell ref="A503:A504"/>
-    <mergeCell ref="B503:B504"/>
-    <mergeCell ref="C503:C504"/>
-    <mergeCell ref="D503:D504"/>
-    <mergeCell ref="F503:F504"/>
-    <mergeCell ref="G503:G504"/>
-    <mergeCell ref="W499:W500"/>
-    <mergeCell ref="X499:X500"/>
-    <mergeCell ref="Y499:Y500"/>
-    <mergeCell ref="Z499:Z500"/>
-    <mergeCell ref="R501:S501"/>
-    <mergeCell ref="Q502:R502"/>
-    <mergeCell ref="P499:P500"/>
-    <mergeCell ref="Q499:Q500"/>
-    <mergeCell ref="R499:S499"/>
-    <mergeCell ref="T499:T500"/>
-    <mergeCell ref="U499:U500"/>
-    <mergeCell ref="V499:V500"/>
-    <mergeCell ref="J499:J500"/>
-    <mergeCell ref="K499:K500"/>
-    <mergeCell ref="L499:L500"/>
-    <mergeCell ref="M499:M500"/>
-    <mergeCell ref="N499:N500"/>
-    <mergeCell ref="O499:O500"/>
-    <mergeCell ref="Q497:R497"/>
-    <mergeCell ref="R498:S498"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="C499:C500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="F499:F500"/>
-    <mergeCell ref="G499:G500"/>
-    <mergeCell ref="H499:H500"/>
-    <mergeCell ref="I499:I500"/>
-    <mergeCell ref="V490:V491"/>
-    <mergeCell ref="W490:W491"/>
-    <mergeCell ref="X490:X491"/>
-    <mergeCell ref="Y490:Y491"/>
-    <mergeCell ref="Z490:Z491"/>
-    <mergeCell ref="S492:T492"/>
-    <mergeCell ref="P490:P491"/>
-    <mergeCell ref="Q490:Q491"/>
-    <mergeCell ref="R490:R491"/>
-    <mergeCell ref="S490:S491"/>
-    <mergeCell ref="T490:T491"/>
-    <mergeCell ref="U490:U491"/>
-    <mergeCell ref="J490:J491"/>
-    <mergeCell ref="K490:K491"/>
-    <mergeCell ref="L490:L491"/>
-    <mergeCell ref="M490:M491"/>
-    <mergeCell ref="N490:N491"/>
-    <mergeCell ref="O490:O491"/>
-    <mergeCell ref="Y488:Y489"/>
-    <mergeCell ref="Z488:Z489"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="C490:C491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="F490:F491"/>
-    <mergeCell ref="G490:G491"/>
-    <mergeCell ref="H490:H491"/>
-    <mergeCell ref="I490:I491"/>
-    <mergeCell ref="S488:S489"/>
-    <mergeCell ref="T488:T489"/>
-    <mergeCell ref="U488:U489"/>
-    <mergeCell ref="V488:V489"/>
-    <mergeCell ref="W488:W489"/>
-    <mergeCell ref="X488:X489"/>
-    <mergeCell ref="M488:M489"/>
-    <mergeCell ref="N488:N489"/>
-    <mergeCell ref="O488:O489"/>
-    <mergeCell ref="P488:P489"/>
-    <mergeCell ref="Q488:Q489"/>
-    <mergeCell ref="R488:R489"/>
-    <mergeCell ref="G488:G489"/>
-    <mergeCell ref="H488:H489"/>
-    <mergeCell ref="I488:I489"/>
-    <mergeCell ref="J488:J489"/>
-    <mergeCell ref="K488:K489"/>
-    <mergeCell ref="L488:L489"/>
-    <mergeCell ref="Z476:Z478"/>
-    <mergeCell ref="Q479:R479"/>
-    <mergeCell ref="Q483:R483"/>
-    <mergeCell ref="Q485:R485"/>
-    <mergeCell ref="S486:T486"/>
-    <mergeCell ref="A488:A489"/>
-    <mergeCell ref="B488:B489"/>
-    <mergeCell ref="C488:C489"/>
-    <mergeCell ref="D488:D489"/>
-    <mergeCell ref="F488:F489"/>
-    <mergeCell ref="T476:T478"/>
-    <mergeCell ref="U476:U478"/>
-    <mergeCell ref="V476:V478"/>
-    <mergeCell ref="W476:W478"/>
-    <mergeCell ref="X476:X478"/>
-    <mergeCell ref="Y476:Y478"/>
-    <mergeCell ref="N476:N478"/>
-    <mergeCell ref="O476:O478"/>
-    <mergeCell ref="P476:P478"/>
-    <mergeCell ref="Q476:Q478"/>
-    <mergeCell ref="R476:R478"/>
-    <mergeCell ref="S476:S478"/>
-    <mergeCell ref="H476:H478"/>
-    <mergeCell ref="I476:I478"/>
-    <mergeCell ref="J476:J478"/>
-    <mergeCell ref="K476:K478"/>
-    <mergeCell ref="L476:L478"/>
-    <mergeCell ref="M476:M478"/>
-    <mergeCell ref="R466:S466"/>
-    <mergeCell ref="Q468:R468"/>
-    <mergeCell ref="Q472:R472"/>
-    <mergeCell ref="R473:S473"/>
-    <mergeCell ref="A476:A478"/>
-    <mergeCell ref="B476:B478"/>
-    <mergeCell ref="C476:C478"/>
-    <mergeCell ref="D476:D478"/>
-    <mergeCell ref="F476:F478"/>
-    <mergeCell ref="G476:G478"/>
-    <mergeCell ref="Y460:Y461"/>
-    <mergeCell ref="Z460:Z461"/>
-    <mergeCell ref="S462:T462"/>
-    <mergeCell ref="R463:S463"/>
-    <mergeCell ref="Q464:R464"/>
-    <mergeCell ref="R465:S465"/>
-    <mergeCell ref="S460:S461"/>
-    <mergeCell ref="T460:T461"/>
-    <mergeCell ref="U460:U461"/>
-    <mergeCell ref="V460:V461"/>
-    <mergeCell ref="W460:W461"/>
-    <mergeCell ref="X460:X461"/>
-    <mergeCell ref="M460:M461"/>
-    <mergeCell ref="N460:N461"/>
-    <mergeCell ref="O460:O461"/>
-    <mergeCell ref="P460:P461"/>
-    <mergeCell ref="Q460:Q461"/>
-    <mergeCell ref="R460:R461"/>
-    <mergeCell ref="G460:G461"/>
-    <mergeCell ref="H460:H461"/>
-    <mergeCell ref="I460:I461"/>
-    <mergeCell ref="J460:J461"/>
-    <mergeCell ref="K460:K461"/>
-    <mergeCell ref="L460:L461"/>
-    <mergeCell ref="V458:V459"/>
-    <mergeCell ref="W458:W459"/>
-    <mergeCell ref="X458:X459"/>
-    <mergeCell ref="Y458:Y459"/>
-    <mergeCell ref="Z458:Z459"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="C460:C461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="F460:F461"/>
-    <mergeCell ref="P458:P459"/>
-    <mergeCell ref="Q458:Q459"/>
-    <mergeCell ref="R458:R459"/>
-    <mergeCell ref="S458:S459"/>
-    <mergeCell ref="T458:T459"/>
-    <mergeCell ref="U458:U459"/>
-    <mergeCell ref="J458:J459"/>
-    <mergeCell ref="K458:K459"/>
-    <mergeCell ref="L458:L459"/>
-    <mergeCell ref="M458:M459"/>
-    <mergeCell ref="N458:N459"/>
-    <mergeCell ref="O458:O459"/>
-    <mergeCell ref="Q447:R447"/>
-    <mergeCell ref="Q450:R450"/>
-    <mergeCell ref="A458:A459"/>
-    <mergeCell ref="B458:B459"/>
-    <mergeCell ref="C458:C459"/>
-    <mergeCell ref="D458:D459"/>
-    <mergeCell ref="F458:F459"/>
-    <mergeCell ref="G458:G459"/>
-    <mergeCell ref="H458:H459"/>
-    <mergeCell ref="I458:I459"/>
-    <mergeCell ref="W440:W441"/>
-    <mergeCell ref="X440:X441"/>
-    <mergeCell ref="Y440:Y441"/>
-    <mergeCell ref="Z440:Z441"/>
-    <mergeCell ref="R444:S444"/>
-    <mergeCell ref="R446:S446"/>
-    <mergeCell ref="Q440:Q441"/>
-    <mergeCell ref="R440:R441"/>
-    <mergeCell ref="S440:S441"/>
-    <mergeCell ref="T440:T441"/>
-    <mergeCell ref="U440:U441"/>
-    <mergeCell ref="V440:V441"/>
-    <mergeCell ref="K440:K441"/>
-    <mergeCell ref="L440:L441"/>
-    <mergeCell ref="M440:M441"/>
-    <mergeCell ref="N440:N441"/>
-    <mergeCell ref="O440:O441"/>
-    <mergeCell ref="P440:P441"/>
-    <mergeCell ref="R439:S439"/>
-    <mergeCell ref="A440:A441"/>
-    <mergeCell ref="B440:B441"/>
-    <mergeCell ref="C440:C441"/>
-    <mergeCell ref="D440:D441"/>
-    <mergeCell ref="F440:F441"/>
-    <mergeCell ref="G440:G441"/>
-    <mergeCell ref="H440:H441"/>
-    <mergeCell ref="I440:I441"/>
-    <mergeCell ref="J440:J441"/>
-    <mergeCell ref="U437:U438"/>
-    <mergeCell ref="V437:V438"/>
-    <mergeCell ref="W437:W438"/>
-    <mergeCell ref="X437:X438"/>
-    <mergeCell ref="Y437:Y438"/>
-    <mergeCell ref="Z437:Z438"/>
-    <mergeCell ref="N437:N438"/>
-    <mergeCell ref="O437:O438"/>
-    <mergeCell ref="P437:P438"/>
-    <mergeCell ref="Q437:R437"/>
-    <mergeCell ref="S437:S438"/>
-    <mergeCell ref="T437:T438"/>
-    <mergeCell ref="H437:H438"/>
-    <mergeCell ref="I437:I438"/>
-    <mergeCell ref="J437:J438"/>
-    <mergeCell ref="K437:K438"/>
-    <mergeCell ref="L437:L438"/>
-    <mergeCell ref="M437:M438"/>
-    <mergeCell ref="Q428:R428"/>
-    <mergeCell ref="Q430:R430"/>
-    <mergeCell ref="R431:S431"/>
-    <mergeCell ref="S434:T434"/>
-    <mergeCell ref="A437:A438"/>
-    <mergeCell ref="B437:B438"/>
-    <mergeCell ref="C437:C438"/>
-    <mergeCell ref="D437:D438"/>
-    <mergeCell ref="F437:F438"/>
-    <mergeCell ref="G437:G438"/>
-    <mergeCell ref="X417:X418"/>
-    <mergeCell ref="Y417:Y418"/>
-    <mergeCell ref="Z417:Z418"/>
-    <mergeCell ref="Q420:R420"/>
-    <mergeCell ref="Q422:R422"/>
-    <mergeCell ref="Q424:R424"/>
-    <mergeCell ref="Q417:Q418"/>
-    <mergeCell ref="R417:S417"/>
-    <mergeCell ref="T417:T418"/>
-    <mergeCell ref="U417:U418"/>
-    <mergeCell ref="V417:V418"/>
-    <mergeCell ref="W417:W418"/>
-    <mergeCell ref="K417:K418"/>
-    <mergeCell ref="L417:L418"/>
-    <mergeCell ref="M417:M418"/>
-    <mergeCell ref="N417:N418"/>
-    <mergeCell ref="O417:O418"/>
-    <mergeCell ref="P417:P418"/>
-    <mergeCell ref="Z415:Z416"/>
-    <mergeCell ref="A417:A418"/>
-    <mergeCell ref="B417:B418"/>
-    <mergeCell ref="C417:C418"/>
-    <mergeCell ref="D417:D418"/>
-    <mergeCell ref="F417:F418"/>
-    <mergeCell ref="G417:G418"/>
-    <mergeCell ref="H417:H418"/>
-    <mergeCell ref="I417:I418"/>
-    <mergeCell ref="J417:J418"/>
-    <mergeCell ref="T415:T416"/>
-    <mergeCell ref="U415:U416"/>
-    <mergeCell ref="V415:V416"/>
-    <mergeCell ref="W415:W416"/>
-    <mergeCell ref="X415:X416"/>
-    <mergeCell ref="Y415:Y416"/>
-    <mergeCell ref="N415:N416"/>
-    <mergeCell ref="O415:O416"/>
-    <mergeCell ref="P415:P416"/>
-    <mergeCell ref="Q415:Q416"/>
-    <mergeCell ref="R415:R416"/>
-    <mergeCell ref="S415:S416"/>
-    <mergeCell ref="H415:H416"/>
-    <mergeCell ref="I415:I416"/>
-    <mergeCell ref="J415:J416"/>
-    <mergeCell ref="K415:K416"/>
-    <mergeCell ref="L415:L416"/>
-    <mergeCell ref="M415:M416"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="C415:C416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="F415:F416"/>
-    <mergeCell ref="G415:G416"/>
-    <mergeCell ref="Z389:Z390"/>
-    <mergeCell ref="Q395:R395"/>
-    <mergeCell ref="R399:S399"/>
-    <mergeCell ref="R402:S402"/>
-    <mergeCell ref="R410:S410"/>
-    <mergeCell ref="Q411:R411"/>
-    <mergeCell ref="T389:T390"/>
-    <mergeCell ref="U389:U390"/>
-    <mergeCell ref="V389:V390"/>
-    <mergeCell ref="W389:W390"/>
-    <mergeCell ref="X389:X390"/>
-    <mergeCell ref="Y389:Y390"/>
-    <mergeCell ref="N389:N390"/>
-    <mergeCell ref="O389:O390"/>
-    <mergeCell ref="P389:P390"/>
-    <mergeCell ref="Q389:Q390"/>
-    <mergeCell ref="R389:R390"/>
-    <mergeCell ref="S389:S390"/>
-    <mergeCell ref="H389:H390"/>
-    <mergeCell ref="I389:I390"/>
-    <mergeCell ref="J389:J390"/>
-    <mergeCell ref="K389:K390"/>
-    <mergeCell ref="L389:L390"/>
-    <mergeCell ref="M389:M390"/>
-    <mergeCell ref="A389:A390"/>
-    <mergeCell ref="B389:B390"/>
-    <mergeCell ref="C389:C390"/>
-    <mergeCell ref="D389:D390"/>
-    <mergeCell ref="F389:F390"/>
-    <mergeCell ref="G389:G390"/>
-    <mergeCell ref="W382:W383"/>
-    <mergeCell ref="X382:X383"/>
-    <mergeCell ref="Y382:Y383"/>
-    <mergeCell ref="Z382:Z383"/>
-    <mergeCell ref="R384:S384"/>
-    <mergeCell ref="R388:S388"/>
-    <mergeCell ref="Q382:Q383"/>
-    <mergeCell ref="R382:R383"/>
-    <mergeCell ref="S382:S383"/>
-    <mergeCell ref="T382:T383"/>
-    <mergeCell ref="U382:U383"/>
-    <mergeCell ref="V382:V383"/>
-    <mergeCell ref="K382:K383"/>
-    <mergeCell ref="L382:L383"/>
-    <mergeCell ref="M382:M383"/>
-    <mergeCell ref="N382:N383"/>
-    <mergeCell ref="O382:O383"/>
-    <mergeCell ref="P382:P383"/>
-    <mergeCell ref="R381:S381"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="C382:C383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="F382:F383"/>
-    <mergeCell ref="G382:G383"/>
-    <mergeCell ref="H382:H383"/>
-    <mergeCell ref="I382:I383"/>
-    <mergeCell ref="J382:J383"/>
-    <mergeCell ref="V376:V378"/>
-    <mergeCell ref="W376:W378"/>
-    <mergeCell ref="X376:X378"/>
-    <mergeCell ref="Y376:Y378"/>
-    <mergeCell ref="Z376:Z378"/>
-    <mergeCell ref="S379:T379"/>
-    <mergeCell ref="P376:P378"/>
-    <mergeCell ref="Q376:Q378"/>
-    <mergeCell ref="R376:R378"/>
-    <mergeCell ref="S376:S378"/>
-    <mergeCell ref="T376:T378"/>
-    <mergeCell ref="U376:U378"/>
-    <mergeCell ref="J376:J378"/>
-    <mergeCell ref="K376:K378"/>
-    <mergeCell ref="L376:L378"/>
-    <mergeCell ref="M376:M378"/>
-    <mergeCell ref="N376:N378"/>
-    <mergeCell ref="O376:O378"/>
-    <mergeCell ref="Q371:R371"/>
-    <mergeCell ref="R373:S373"/>
-    <mergeCell ref="A376:A378"/>
-    <mergeCell ref="B376:B378"/>
-    <mergeCell ref="C376:C378"/>
-    <mergeCell ref="D376:D378"/>
-    <mergeCell ref="F376:F378"/>
-    <mergeCell ref="G376:G378"/>
-    <mergeCell ref="H376:H378"/>
-    <mergeCell ref="I376:I378"/>
-    <mergeCell ref="Z359:Z360"/>
-    <mergeCell ref="T361:U361"/>
-    <mergeCell ref="T364:U364"/>
-    <mergeCell ref="Q366:R366"/>
-    <mergeCell ref="S367:T367"/>
-    <mergeCell ref="Q368:R368"/>
-    <mergeCell ref="T359:T360"/>
-    <mergeCell ref="U359:U360"/>
-    <mergeCell ref="V359:V360"/>
-    <mergeCell ref="W359:W360"/>
-    <mergeCell ref="X359:X360"/>
-    <mergeCell ref="Y359:Y360"/>
-    <mergeCell ref="N359:N360"/>
-    <mergeCell ref="O359:O360"/>
-    <mergeCell ref="P359:P360"/>
-    <mergeCell ref="Q359:Q360"/>
-    <mergeCell ref="R359:R360"/>
-    <mergeCell ref="S359:S360"/>
-    <mergeCell ref="H359:H360"/>
-    <mergeCell ref="I359:I360"/>
-    <mergeCell ref="J359:J360"/>
-    <mergeCell ref="K359:K360"/>
-    <mergeCell ref="L359:L360"/>
-    <mergeCell ref="M359:M360"/>
-    <mergeCell ref="Z348:Z349"/>
-    <mergeCell ref="Q350:R350"/>
-    <mergeCell ref="R351:S351"/>
-    <mergeCell ref="Q355:R355"/>
-    <mergeCell ref="A359:A360"/>
-    <mergeCell ref="B359:B360"/>
-    <mergeCell ref="C359:C360"/>
-    <mergeCell ref="D359:D360"/>
-    <mergeCell ref="F359:F360"/>
-    <mergeCell ref="G359:G360"/>
-    <mergeCell ref="T348:T349"/>
-    <mergeCell ref="U348:U349"/>
-    <mergeCell ref="V348:V349"/>
-    <mergeCell ref="W348:W349"/>
-    <mergeCell ref="X348:X349"/>
-    <mergeCell ref="Y348:Y349"/>
-    <mergeCell ref="N348:N349"/>
-    <mergeCell ref="O348:O349"/>
-    <mergeCell ref="P348:P349"/>
-    <mergeCell ref="Q348:Q349"/>
-    <mergeCell ref="R348:R349"/>
-    <mergeCell ref="S348:S349"/>
-    <mergeCell ref="H348:H349"/>
-    <mergeCell ref="I348:I349"/>
-    <mergeCell ref="J348:J349"/>
-    <mergeCell ref="K348:K349"/>
-    <mergeCell ref="L348:L349"/>
-    <mergeCell ref="M348:M349"/>
-    <mergeCell ref="R342:S342"/>
-    <mergeCell ref="Q343:R343"/>
-    <mergeCell ref="Q344:R344"/>
-    <mergeCell ref="R347:S347"/>
-    <mergeCell ref="A348:A349"/>
-    <mergeCell ref="B348:B349"/>
-    <mergeCell ref="C348:C349"/>
-    <mergeCell ref="D348:D349"/>
-    <mergeCell ref="F348:F349"/>
-    <mergeCell ref="G348:G349"/>
-    <mergeCell ref="U332:U334"/>
-    <mergeCell ref="V332:V334"/>
-    <mergeCell ref="W332:W334"/>
-    <mergeCell ref="X332:X334"/>
-    <mergeCell ref="Y332:Y334"/>
-    <mergeCell ref="Z332:Z334"/>
-    <mergeCell ref="N332:N334"/>
-    <mergeCell ref="O332:O334"/>
-    <mergeCell ref="P332:P334"/>
-    <mergeCell ref="Q332:Q334"/>
-    <mergeCell ref="R332:S332"/>
-    <mergeCell ref="T332:T334"/>
-    <mergeCell ref="H332:H334"/>
-    <mergeCell ref="I332:I334"/>
-    <mergeCell ref="J332:J334"/>
-    <mergeCell ref="K332:K334"/>
-    <mergeCell ref="L332:L334"/>
-    <mergeCell ref="M332:M334"/>
-    <mergeCell ref="A332:A334"/>
-    <mergeCell ref="B332:B334"/>
-    <mergeCell ref="C332:C334"/>
-    <mergeCell ref="D332:D334"/>
-    <mergeCell ref="F332:F334"/>
-    <mergeCell ref="G332:G334"/>
-    <mergeCell ref="W322:W323"/>
-    <mergeCell ref="X322:X323"/>
-    <mergeCell ref="Y322:Y323"/>
-    <mergeCell ref="Z322:Z323"/>
-    <mergeCell ref="Q324:R324"/>
-    <mergeCell ref="R325:S325"/>
-    <mergeCell ref="Q322:Q323"/>
-    <mergeCell ref="R322:R323"/>
-    <mergeCell ref="S322:S323"/>
-    <mergeCell ref="T322:T323"/>
-    <mergeCell ref="U322:U323"/>
-    <mergeCell ref="V322:V323"/>
-    <mergeCell ref="K322:K323"/>
-    <mergeCell ref="L322:L323"/>
-    <mergeCell ref="M322:M323"/>
-    <mergeCell ref="N322:N323"/>
-    <mergeCell ref="O322:O323"/>
-    <mergeCell ref="P322:P323"/>
-    <mergeCell ref="Z318:Z319"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="C322:C323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="F322:F323"/>
-    <mergeCell ref="G322:G323"/>
-    <mergeCell ref="H322:H323"/>
-    <mergeCell ref="I322:I323"/>
-    <mergeCell ref="J322:J323"/>
-    <mergeCell ref="T318:T319"/>
-    <mergeCell ref="U318:U319"/>
-    <mergeCell ref="V318:V319"/>
-    <mergeCell ref="W318:W319"/>
-    <mergeCell ref="X318:X319"/>
-    <mergeCell ref="Y318:Y319"/>
-    <mergeCell ref="N318:N319"/>
-    <mergeCell ref="O318:O319"/>
-    <mergeCell ref="P318:P319"/>
-    <mergeCell ref="Q318:Q319"/>
-    <mergeCell ref="R318:R319"/>
-    <mergeCell ref="S318:S319"/>
-    <mergeCell ref="H318:H319"/>
-    <mergeCell ref="I318:I319"/>
-    <mergeCell ref="J318:J319"/>
-    <mergeCell ref="K318:K319"/>
-    <mergeCell ref="L318:L319"/>
-    <mergeCell ref="M318:M319"/>
-    <mergeCell ref="W316:W317"/>
-    <mergeCell ref="X316:X317"/>
-    <mergeCell ref="Y316:Y317"/>
-    <mergeCell ref="Z316:Z317"/>
-    <mergeCell ref="A318:A319"/>
-    <mergeCell ref="B318:B319"/>
-    <mergeCell ref="C318:C319"/>
-    <mergeCell ref="D318:D319"/>
-    <mergeCell ref="F318:F319"/>
-    <mergeCell ref="G318:G319"/>
-    <mergeCell ref="Q316:Q317"/>
-    <mergeCell ref="R316:R317"/>
-    <mergeCell ref="S316:S317"/>
-    <mergeCell ref="T316:T317"/>
-    <mergeCell ref="U316:U317"/>
-    <mergeCell ref="V316:V317"/>
-    <mergeCell ref="K316:K317"/>
-    <mergeCell ref="L316:L317"/>
-    <mergeCell ref="M316:M317"/>
-    <mergeCell ref="N316:N317"/>
-    <mergeCell ref="O316:O317"/>
-    <mergeCell ref="P316:P317"/>
-    <mergeCell ref="Z312:Z313"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="C316:C317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="F316:F317"/>
-    <mergeCell ref="G316:G317"/>
-    <mergeCell ref="H316:H317"/>
-    <mergeCell ref="I316:I317"/>
-    <mergeCell ref="J316:J317"/>
-    <mergeCell ref="T312:T313"/>
-    <mergeCell ref="U312:U313"/>
-    <mergeCell ref="V312:V313"/>
-    <mergeCell ref="W312:W313"/>
-    <mergeCell ref="X312:X313"/>
-    <mergeCell ref="Y312:Y313"/>
-    <mergeCell ref="N312:N313"/>
-    <mergeCell ref="O312:O313"/>
-    <mergeCell ref="P312:P313"/>
-    <mergeCell ref="Q312:Q313"/>
-    <mergeCell ref="R312:R313"/>
-    <mergeCell ref="S312:S313"/>
-    <mergeCell ref="H312:H313"/>
-    <mergeCell ref="I312:I313"/>
-    <mergeCell ref="J312:J313"/>
-    <mergeCell ref="K312:K313"/>
-    <mergeCell ref="L312:L313"/>
-    <mergeCell ref="M312:M313"/>
-    <mergeCell ref="A312:A313"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="C312:C313"/>
-    <mergeCell ref="D312:D313"/>
-    <mergeCell ref="F312:F313"/>
-    <mergeCell ref="G312:G313"/>
-    <mergeCell ref="U307:U308"/>
-    <mergeCell ref="V307:V308"/>
-    <mergeCell ref="W307:W308"/>
-    <mergeCell ref="X307:X308"/>
-    <mergeCell ref="Y307:Y308"/>
-    <mergeCell ref="Z307:Z308"/>
-    <mergeCell ref="O307:O308"/>
-    <mergeCell ref="P307:P308"/>
-    <mergeCell ref="Q307:Q308"/>
-    <mergeCell ref="R307:R308"/>
-    <mergeCell ref="S307:S308"/>
-    <mergeCell ref="T307:T308"/>
-    <mergeCell ref="I307:I308"/>
-    <mergeCell ref="J307:J308"/>
-    <mergeCell ref="K307:K308"/>
-    <mergeCell ref="L307:L308"/>
-    <mergeCell ref="M307:M308"/>
-    <mergeCell ref="N307:N308"/>
-    <mergeCell ref="X304:X305"/>
-    <mergeCell ref="Y304:Y305"/>
-    <mergeCell ref="Z304:Z305"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="F307:F308"/>
-    <mergeCell ref="G307:G308"/>
-    <mergeCell ref="H307:H308"/>
-    <mergeCell ref="Q304:Q305"/>
-    <mergeCell ref="R304:S304"/>
-    <mergeCell ref="T304:T305"/>
-    <mergeCell ref="U304:U305"/>
-    <mergeCell ref="V304:V305"/>
-    <mergeCell ref="W304:W305"/>
-    <mergeCell ref="K304:K305"/>
-    <mergeCell ref="L304:L305"/>
-    <mergeCell ref="M304:M305"/>
-    <mergeCell ref="N304:N305"/>
-    <mergeCell ref="O304:O305"/>
-    <mergeCell ref="P304:P305"/>
-    <mergeCell ref="Z298:Z299"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="F304:F305"/>
-    <mergeCell ref="G304:G305"/>
-    <mergeCell ref="H304:H305"/>
-    <mergeCell ref="I304:I305"/>
-    <mergeCell ref="J304:J305"/>
-    <mergeCell ref="T298:T299"/>
-    <mergeCell ref="U298:U299"/>
-    <mergeCell ref="V298:V299"/>
-    <mergeCell ref="W298:W299"/>
-    <mergeCell ref="X298:X299"/>
-    <mergeCell ref="Y298:Y299"/>
-    <mergeCell ref="N298:N299"/>
-    <mergeCell ref="O298:O299"/>
-    <mergeCell ref="P298:P299"/>
-    <mergeCell ref="Q298:Q299"/>
-    <mergeCell ref="R298:R299"/>
-    <mergeCell ref="S298:S299"/>
-    <mergeCell ref="H298:H299"/>
-    <mergeCell ref="I298:I299"/>
-    <mergeCell ref="J298:J299"/>
-    <mergeCell ref="K298:K299"/>
-    <mergeCell ref="L298:L299"/>
-    <mergeCell ref="M298:M299"/>
-    <mergeCell ref="W289:W290"/>
-    <mergeCell ref="X289:X290"/>
-    <mergeCell ref="Y289:Y290"/>
-    <mergeCell ref="Z289:Z290"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="F298:F299"/>
-    <mergeCell ref="G298:G299"/>
-    <mergeCell ref="Q289:Q290"/>
-    <mergeCell ref="R289:R290"/>
-    <mergeCell ref="S289:S290"/>
-    <mergeCell ref="T289:T290"/>
-    <mergeCell ref="U289:U290"/>
-    <mergeCell ref="V289:V290"/>
-    <mergeCell ref="K289:K290"/>
-    <mergeCell ref="L289:L290"/>
-    <mergeCell ref="M289:M290"/>
-    <mergeCell ref="N289:N290"/>
-    <mergeCell ref="O289:O290"/>
-    <mergeCell ref="P289:P290"/>
-    <mergeCell ref="Q287:R287"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="F289:F290"/>
-    <mergeCell ref="G289:G290"/>
-    <mergeCell ref="H289:H290"/>
-    <mergeCell ref="I289:I290"/>
-    <mergeCell ref="J289:J290"/>
-    <mergeCell ref="Y278:Y279"/>
-    <mergeCell ref="Z278:Z279"/>
-    <mergeCell ref="Q281:R281"/>
-    <mergeCell ref="Q283:R283"/>
-    <mergeCell ref="R284:S284"/>
-    <mergeCell ref="Q286:R286"/>
-    <mergeCell ref="S278:S279"/>
-    <mergeCell ref="T278:T279"/>
-    <mergeCell ref="U278:U279"/>
-    <mergeCell ref="V278:V279"/>
-    <mergeCell ref="W278:W279"/>
-    <mergeCell ref="X278:X279"/>
-    <mergeCell ref="M278:M279"/>
-    <mergeCell ref="N278:N279"/>
-    <mergeCell ref="O278:O279"/>
-    <mergeCell ref="P278:P279"/>
-    <mergeCell ref="Q278:Q279"/>
-    <mergeCell ref="R278:R279"/>
-    <mergeCell ref="G278:G279"/>
-    <mergeCell ref="H278:H279"/>
-    <mergeCell ref="I278:I279"/>
-    <mergeCell ref="J278:J279"/>
-    <mergeCell ref="K278:K279"/>
-    <mergeCell ref="L278:L279"/>
-    <mergeCell ref="S269:T269"/>
-    <mergeCell ref="Q270:R270"/>
-    <mergeCell ref="R271:S271"/>
-    <mergeCell ref="S272:T272"/>
-    <mergeCell ref="Q275:R275"/>
-    <mergeCell ref="A278:A279"/>
-    <mergeCell ref="B278:B279"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="D278:D279"/>
-    <mergeCell ref="F278:F279"/>
-    <mergeCell ref="U263:U264"/>
-    <mergeCell ref="V263:V264"/>
-    <mergeCell ref="W263:W264"/>
-    <mergeCell ref="X263:X264"/>
-    <mergeCell ref="Y263:Y264"/>
-    <mergeCell ref="Z263:Z264"/>
-    <mergeCell ref="O263:O264"/>
-    <mergeCell ref="P263:P264"/>
-    <mergeCell ref="Q263:Q264"/>
-    <mergeCell ref="R263:R264"/>
-    <mergeCell ref="S263:S264"/>
-    <mergeCell ref="T263:T264"/>
-    <mergeCell ref="I263:I264"/>
-    <mergeCell ref="J263:J264"/>
-    <mergeCell ref="K263:K264"/>
-    <mergeCell ref="L263:L264"/>
-    <mergeCell ref="M263:M264"/>
-    <mergeCell ref="N263:N264"/>
-    <mergeCell ref="Y259:Y260"/>
-    <mergeCell ref="Z259:Z260"/>
-    <mergeCell ref="S261:T261"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="F263:F264"/>
-    <mergeCell ref="G263:G264"/>
-    <mergeCell ref="H263:H264"/>
-    <mergeCell ref="S259:S260"/>
-    <mergeCell ref="T259:T260"/>
-    <mergeCell ref="U259:U260"/>
-    <mergeCell ref="V259:V260"/>
-    <mergeCell ref="W259:W260"/>
-    <mergeCell ref="X259:X260"/>
-    <mergeCell ref="M259:M260"/>
-    <mergeCell ref="N259:N260"/>
-    <mergeCell ref="O259:O260"/>
-    <mergeCell ref="P259:P260"/>
-    <mergeCell ref="Q259:Q260"/>
-    <mergeCell ref="R259:R260"/>
-    <mergeCell ref="G259:G260"/>
-    <mergeCell ref="H259:H260"/>
-    <mergeCell ref="I259:I260"/>
-    <mergeCell ref="J259:J260"/>
-    <mergeCell ref="K259:K260"/>
-    <mergeCell ref="L259:L260"/>
-    <mergeCell ref="R245:S245"/>
-    <mergeCell ref="Q249:R249"/>
-    <mergeCell ref="Q253:R253"/>
-    <mergeCell ref="R254:S254"/>
-    <mergeCell ref="R257:S257"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="F259:F260"/>
-    <mergeCell ref="U243:U244"/>
-    <mergeCell ref="V243:V244"/>
-    <mergeCell ref="W243:W244"/>
-    <mergeCell ref="X243:X244"/>
-    <mergeCell ref="Y243:Y244"/>
-    <mergeCell ref="Z243:Z244"/>
-    <mergeCell ref="O243:O244"/>
-    <mergeCell ref="P243:P244"/>
-    <mergeCell ref="Q243:Q244"/>
-    <mergeCell ref="R243:R244"/>
-    <mergeCell ref="S243:S244"/>
-    <mergeCell ref="T243:T244"/>
-    <mergeCell ref="I243:I244"/>
-    <mergeCell ref="J243:J244"/>
-    <mergeCell ref="K243:K244"/>
-    <mergeCell ref="L243:L244"/>
-    <mergeCell ref="M243:M244"/>
-    <mergeCell ref="N243:N244"/>
-    <mergeCell ref="Z239:Z240"/>
-    <mergeCell ref="Q241:R241"/>
-    <mergeCell ref="Q242:R242"/>
-    <mergeCell ref="A243:A244"/>
-    <mergeCell ref="B243:B244"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="F243:F244"/>
-    <mergeCell ref="G243:G244"/>
-    <mergeCell ref="H243:H244"/>
-    <mergeCell ref="T239:T240"/>
-    <mergeCell ref="U239:U240"/>
-    <mergeCell ref="V239:V240"/>
-    <mergeCell ref="W239:W240"/>
-    <mergeCell ref="X239:X240"/>
-    <mergeCell ref="Y239:Y240"/>
-    <mergeCell ref="N239:N240"/>
-    <mergeCell ref="O239:O240"/>
-    <mergeCell ref="P239:P240"/>
-    <mergeCell ref="Q239:Q240"/>
-    <mergeCell ref="R239:R240"/>
-    <mergeCell ref="S239:S240"/>
-    <mergeCell ref="H239:H240"/>
-    <mergeCell ref="I239:I240"/>
-    <mergeCell ref="J239:J240"/>
-    <mergeCell ref="K239:K240"/>
-    <mergeCell ref="L239:L240"/>
-    <mergeCell ref="M239:M240"/>
-    <mergeCell ref="Z227:Z228"/>
-    <mergeCell ref="R230:S230"/>
-    <mergeCell ref="R231:S231"/>
-    <mergeCell ref="R237:S237"/>
-    <mergeCell ref="A239:A240"/>
-    <mergeCell ref="B239:B240"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="D239:D240"/>
-    <mergeCell ref="F239:F240"/>
-    <mergeCell ref="G239:G240"/>
-    <mergeCell ref="T227:T228"/>
-    <mergeCell ref="U227:U228"/>
-    <mergeCell ref="V227:V228"/>
-    <mergeCell ref="W227:W228"/>
-    <mergeCell ref="X227:X228"/>
-    <mergeCell ref="Y227:Y228"/>
-    <mergeCell ref="N227:N228"/>
-    <mergeCell ref="O227:O228"/>
-    <mergeCell ref="P227:P228"/>
-    <mergeCell ref="Q227:Q228"/>
-    <mergeCell ref="R227:R228"/>
-    <mergeCell ref="S227:S228"/>
-    <mergeCell ref="H227:H228"/>
-    <mergeCell ref="I227:I228"/>
-    <mergeCell ref="J227:J228"/>
-    <mergeCell ref="K227:K228"/>
-    <mergeCell ref="L227:L228"/>
-    <mergeCell ref="M227:M228"/>
-    <mergeCell ref="Z219:Z220"/>
-    <mergeCell ref="Q221:R221"/>
-    <mergeCell ref="T223:U223"/>
-    <mergeCell ref="S225:T225"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="F227:F228"/>
-    <mergeCell ref="G227:G228"/>
-    <mergeCell ref="T219:T220"/>
-    <mergeCell ref="U219:U220"/>
-    <mergeCell ref="V219:V220"/>
-    <mergeCell ref="W219:W220"/>
-    <mergeCell ref="X219:X220"/>
-    <mergeCell ref="Y219:Y220"/>
-    <mergeCell ref="N219:N220"/>
-    <mergeCell ref="O219:O220"/>
-    <mergeCell ref="P219:P220"/>
-    <mergeCell ref="Q219:Q220"/>
-    <mergeCell ref="R219:R220"/>
-    <mergeCell ref="S219:S220"/>
-    <mergeCell ref="H219:H220"/>
-    <mergeCell ref="I219:I220"/>
-    <mergeCell ref="J219:J220"/>
-    <mergeCell ref="K219:K220"/>
-    <mergeCell ref="L219:L220"/>
-    <mergeCell ref="M219:M220"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="F219:F220"/>
-    <mergeCell ref="G219:G220"/>
-    <mergeCell ref="W213:W214"/>
-    <mergeCell ref="X213:X214"/>
-    <mergeCell ref="Y213:Y214"/>
-    <mergeCell ref="Z213:Z214"/>
-    <mergeCell ref="Q215:R215"/>
-    <mergeCell ref="R216:S216"/>
-    <mergeCell ref="Q213:Q214"/>
-    <mergeCell ref="R213:R214"/>
-    <mergeCell ref="S213:S214"/>
-    <mergeCell ref="T213:T214"/>
-    <mergeCell ref="U213:U214"/>
-    <mergeCell ref="V213:V214"/>
-    <mergeCell ref="K213:K214"/>
-    <mergeCell ref="L213:L214"/>
-    <mergeCell ref="M213:M214"/>
-    <mergeCell ref="N213:N214"/>
-    <mergeCell ref="O213:O214"/>
-    <mergeCell ref="P213:P214"/>
-    <mergeCell ref="Z211:Z212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="F213:F214"/>
-    <mergeCell ref="G213:G214"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="I213:I214"/>
-    <mergeCell ref="J213:J214"/>
-    <mergeCell ref="T211:T212"/>
-    <mergeCell ref="U211:U212"/>
-    <mergeCell ref="V211:V212"/>
-    <mergeCell ref="W211:W212"/>
-    <mergeCell ref="X211:X212"/>
-    <mergeCell ref="Y211:Y212"/>
-    <mergeCell ref="N211:N212"/>
-    <mergeCell ref="O211:O212"/>
-    <mergeCell ref="P211:P212"/>
-    <mergeCell ref="Q211:Q212"/>
-    <mergeCell ref="R211:R212"/>
-    <mergeCell ref="S211:S212"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="I211:I212"/>
-    <mergeCell ref="J211:J212"/>
-    <mergeCell ref="K211:K212"/>
-    <mergeCell ref="L211:L212"/>
-    <mergeCell ref="M211:M212"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="T208:U208"/>
-    <mergeCell ref="V208:V209"/>
-    <mergeCell ref="W208:W209"/>
-    <mergeCell ref="X208:X209"/>
-    <mergeCell ref="Y208:Y209"/>
-    <mergeCell ref="Z208:Z209"/>
-    <mergeCell ref="N208:N209"/>
-    <mergeCell ref="O208:O209"/>
-    <mergeCell ref="P208:P209"/>
-    <mergeCell ref="Q208:Q209"/>
-    <mergeCell ref="R208:R209"/>
-    <mergeCell ref="S208:S209"/>
-    <mergeCell ref="H208:H209"/>
-    <mergeCell ref="I208:I209"/>
-    <mergeCell ref="J208:J209"/>
-    <mergeCell ref="K208:K209"/>
-    <mergeCell ref="L208:L209"/>
-    <mergeCell ref="M208:M209"/>
-    <mergeCell ref="Q204:R204"/>
-    <mergeCell ref="S205:T205"/>
-    <mergeCell ref="Q206:R206"/>
-    <mergeCell ref="Q207:R207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="G208:G209"/>
-    <mergeCell ref="Y196:Y197"/>
-    <mergeCell ref="Z196:Z197"/>
-    <mergeCell ref="R199:S199"/>
-    <mergeCell ref="R200:S200"/>
-    <mergeCell ref="Q201:R201"/>
-    <mergeCell ref="S203:T203"/>
-    <mergeCell ref="S196:S197"/>
-    <mergeCell ref="T196:T197"/>
-    <mergeCell ref="U196:U197"/>
-    <mergeCell ref="V196:V197"/>
-    <mergeCell ref="W196:W197"/>
-    <mergeCell ref="X196:X197"/>
-    <mergeCell ref="M196:M197"/>
-    <mergeCell ref="N196:N197"/>
-    <mergeCell ref="O196:O197"/>
-    <mergeCell ref="P196:P197"/>
-    <mergeCell ref="Q196:Q197"/>
-    <mergeCell ref="R196:R197"/>
-    <mergeCell ref="G196:G197"/>
-    <mergeCell ref="H196:H197"/>
-    <mergeCell ref="I196:I197"/>
-    <mergeCell ref="J196:J197"/>
-    <mergeCell ref="K196:K197"/>
-    <mergeCell ref="L196:L197"/>
-    <mergeCell ref="Z189:Z190"/>
-    <mergeCell ref="Q191:R191"/>
-    <mergeCell ref="S192:T192"/>
-    <mergeCell ref="Q193:R193"/>
-    <mergeCell ref="Q194:R194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="T189:T190"/>
-    <mergeCell ref="U189:U190"/>
-    <mergeCell ref="V189:V190"/>
-    <mergeCell ref="W189:W190"/>
-    <mergeCell ref="X189:X190"/>
-    <mergeCell ref="Y189:Y190"/>
-    <mergeCell ref="N189:N190"/>
-    <mergeCell ref="O189:O190"/>
-    <mergeCell ref="P189:P190"/>
-    <mergeCell ref="Q189:Q190"/>
-    <mergeCell ref="R189:R190"/>
-    <mergeCell ref="S189:S190"/>
-    <mergeCell ref="H189:H190"/>
-    <mergeCell ref="I189:I190"/>
-    <mergeCell ref="J189:J190"/>
-    <mergeCell ref="K189:K190"/>
-    <mergeCell ref="L189:L190"/>
-    <mergeCell ref="M189:M190"/>
-    <mergeCell ref="Y185:Y186"/>
-    <mergeCell ref="Z185:Z186"/>
-    <mergeCell ref="R187:S187"/>
-    <mergeCell ref="R188:S188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="F189:F190"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="S185:S186"/>
-    <mergeCell ref="T185:T186"/>
-    <mergeCell ref="U185:U186"/>
-    <mergeCell ref="V185:V186"/>
-    <mergeCell ref="W185:W186"/>
-    <mergeCell ref="X185:X186"/>
-    <mergeCell ref="M185:M186"/>
-    <mergeCell ref="N185:N186"/>
-    <mergeCell ref="O185:O186"/>
-    <mergeCell ref="P185:P186"/>
-    <mergeCell ref="Q185:Q186"/>
-    <mergeCell ref="R185:R186"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="H185:H186"/>
-    <mergeCell ref="I185:I186"/>
-    <mergeCell ref="J185:J186"/>
-    <mergeCell ref="K185:K186"/>
-    <mergeCell ref="L185:L186"/>
-    <mergeCell ref="S167:T167"/>
-    <mergeCell ref="Q169:R169"/>
-    <mergeCell ref="Q178:R178"/>
-    <mergeCell ref="Q180:R180"/>
-    <mergeCell ref="S182:T182"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="Z155:Z156"/>
-    <mergeCell ref="Q158:R158"/>
-    <mergeCell ref="Q159:R159"/>
-    <mergeCell ref="R160:S160"/>
-    <mergeCell ref="R163:S163"/>
-    <mergeCell ref="R165:S165"/>
-    <mergeCell ref="T155:T156"/>
-    <mergeCell ref="U155:U156"/>
-    <mergeCell ref="V155:V156"/>
-    <mergeCell ref="W155:W156"/>
-    <mergeCell ref="X155:X156"/>
-    <mergeCell ref="Y155:Y156"/>
-    <mergeCell ref="N155:N156"/>
-    <mergeCell ref="O155:O156"/>
-    <mergeCell ref="P155:P156"/>
-    <mergeCell ref="Q155:Q156"/>
-    <mergeCell ref="R155:R156"/>
-    <mergeCell ref="S155:S156"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="M155:M156"/>
-    <mergeCell ref="Q149:R149"/>
-    <mergeCell ref="T150:U150"/>
-    <mergeCell ref="S152:T152"/>
-    <mergeCell ref="Q154:R154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="U145:U146"/>
-    <mergeCell ref="V145:V146"/>
-    <mergeCell ref="W145:W146"/>
-    <mergeCell ref="X145:X146"/>
-    <mergeCell ref="Y145:Y146"/>
-    <mergeCell ref="Z145:Z146"/>
-    <mergeCell ref="N145:N146"/>
-    <mergeCell ref="O145:O146"/>
-    <mergeCell ref="P145:P146"/>
-    <mergeCell ref="Q145:R145"/>
-    <mergeCell ref="S145:S146"/>
-    <mergeCell ref="T145:T146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="W140:W141"/>
-    <mergeCell ref="X140:X141"/>
-    <mergeCell ref="Y140:Y141"/>
-    <mergeCell ref="Z140:Z141"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="Q140:Q141"/>
-    <mergeCell ref="R140:R141"/>
-    <mergeCell ref="S140:S141"/>
-    <mergeCell ref="T140:T141"/>
-    <mergeCell ref="U140:U141"/>
-    <mergeCell ref="V140:V141"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="L140:L141"/>
-    <mergeCell ref="M140:M141"/>
-    <mergeCell ref="N140:N141"/>
-    <mergeCell ref="O140:O141"/>
-    <mergeCell ref="P140:P141"/>
-    <mergeCell ref="Q139:R139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="W131:W132"/>
-    <mergeCell ref="X131:X132"/>
-    <mergeCell ref="Y131:Y132"/>
-    <mergeCell ref="Z131:Z132"/>
-    <mergeCell ref="R133:S133"/>
-    <mergeCell ref="Q137:R137"/>
-    <mergeCell ref="P131:P132"/>
-    <mergeCell ref="Q131:Q132"/>
-    <mergeCell ref="R131:S131"/>
-    <mergeCell ref="T131:T132"/>
-    <mergeCell ref="U131:U132"/>
-    <mergeCell ref="V131:V132"/>
-    <mergeCell ref="J131:J132"/>
-    <mergeCell ref="K131:K132"/>
-    <mergeCell ref="L131:L132"/>
-    <mergeCell ref="M131:M132"/>
-    <mergeCell ref="N131:N132"/>
-    <mergeCell ref="O131:O132"/>
-    <mergeCell ref="Y126:Y128"/>
-    <mergeCell ref="Z126:Z128"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="S126:S128"/>
-    <mergeCell ref="T126:T128"/>
-    <mergeCell ref="U126:U128"/>
-    <mergeCell ref="V126:V128"/>
-    <mergeCell ref="W126:W128"/>
-    <mergeCell ref="X126:X128"/>
-    <mergeCell ref="M126:M128"/>
-    <mergeCell ref="N126:N128"/>
-    <mergeCell ref="O126:O128"/>
-    <mergeCell ref="P126:P128"/>
-    <mergeCell ref="Q126:Q128"/>
-    <mergeCell ref="R126:R128"/>
-    <mergeCell ref="G126:G128"/>
-    <mergeCell ref="H126:H128"/>
-    <mergeCell ref="I126:I128"/>
-    <mergeCell ref="J126:J128"/>
-    <mergeCell ref="K126:K128"/>
-    <mergeCell ref="L126:L128"/>
-    <mergeCell ref="Z119:Z120"/>
-    <mergeCell ref="R122:S122"/>
-    <mergeCell ref="R123:S123"/>
-    <mergeCell ref="R124:S124"/>
-    <mergeCell ref="R125:S125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="F126:F128"/>
-    <mergeCell ref="T119:T120"/>
-    <mergeCell ref="U119:U120"/>
-    <mergeCell ref="V119:V120"/>
-    <mergeCell ref="W119:W120"/>
-    <mergeCell ref="X119:X120"/>
-    <mergeCell ref="Y119:Y120"/>
-    <mergeCell ref="N119:N120"/>
-    <mergeCell ref="O119:O120"/>
-    <mergeCell ref="P119:P120"/>
-    <mergeCell ref="Q119:Q120"/>
-    <mergeCell ref="R119:R120"/>
-    <mergeCell ref="S119:S120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="M119:M120"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="U116:U117"/>
-    <mergeCell ref="V116:V117"/>
-    <mergeCell ref="W116:W117"/>
-    <mergeCell ref="X116:X117"/>
-    <mergeCell ref="Y116:Y117"/>
-    <mergeCell ref="Z116:Z117"/>
-    <mergeCell ref="N116:N117"/>
-    <mergeCell ref="O116:O117"/>
-    <mergeCell ref="P116:P117"/>
-    <mergeCell ref="Q116:R116"/>
-    <mergeCell ref="S116:S117"/>
-    <mergeCell ref="T116:T117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="K116:K117"/>
-    <mergeCell ref="L116:L117"/>
-    <mergeCell ref="M116:M117"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="Z95:Z96"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="S99:T99"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="T95:T96"/>
-    <mergeCell ref="U95:U96"/>
-    <mergeCell ref="V95:V96"/>
-    <mergeCell ref="W95:W96"/>
-    <mergeCell ref="X95:X96"/>
-    <mergeCell ref="Y95:Y96"/>
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="O95:O96"/>
-    <mergeCell ref="P95:P96"/>
-    <mergeCell ref="Q95:Q96"/>
-    <mergeCell ref="R95:R96"/>
-    <mergeCell ref="S95:S96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="X92:X93"/>
-    <mergeCell ref="Y92:Y93"/>
-    <mergeCell ref="Z92:Z93"/>
-    <mergeCell ref="Q94:R94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="Q92:Q93"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="T92:T93"/>
-    <mergeCell ref="U92:U93"/>
-    <mergeCell ref="V92:V93"/>
-    <mergeCell ref="W92:W93"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="L92:L93"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="N92:N93"/>
-    <mergeCell ref="O92:O93"/>
-    <mergeCell ref="P92:P93"/>
-    <mergeCell ref="Z89:Z90"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="T89:T90"/>
-    <mergeCell ref="U89:U90"/>
-    <mergeCell ref="V89:V90"/>
-    <mergeCell ref="W89:W90"/>
-    <mergeCell ref="X89:X90"/>
-    <mergeCell ref="Y89:Y90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="S89:S90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="X84:X85"/>
-    <mergeCell ref="Y84:Y85"/>
-    <mergeCell ref="Z84:Z85"/>
-    <mergeCell ref="S86:T86"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="S84:S85"/>
-    <mergeCell ref="T84:T85"/>
-    <mergeCell ref="U84:U85"/>
-    <mergeCell ref="V84:V85"/>
-    <mergeCell ref="W84:W85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="Q83:R83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="Z60:Z61"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="S76:T76"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="T60:T61"/>
-    <mergeCell ref="U60:U61"/>
-    <mergeCell ref="V60:V61"/>
-    <mergeCell ref="W60:W61"/>
-    <mergeCell ref="X60:X61"/>
-    <mergeCell ref="Y60:Y61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="U50:U51"/>
-    <mergeCell ref="V50:V51"/>
-    <mergeCell ref="W50:W51"/>
-    <mergeCell ref="X50:X51"/>
-    <mergeCell ref="Y50:Y51"/>
-    <mergeCell ref="Z50:Z51"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:S51"/>
-    <mergeCell ref="T50:T51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="Z40:Z41"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="U40:U41"/>
-    <mergeCell ref="V40:V41"/>
-    <mergeCell ref="W40:W41"/>
-    <mergeCell ref="X40:X41"/>
-    <mergeCell ref="Y40:Y41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="W1156:W1157"/>
+    <mergeCell ref="X1156:X1157"/>
+    <mergeCell ref="Y1156:Y1157"/>
+    <mergeCell ref="Z1156:Z1157"/>
+    <mergeCell ref="Q1156:Q1157"/>
+    <mergeCell ref="R1156:R1157"/>
+    <mergeCell ref="S1156:S1157"/>
+    <mergeCell ref="T1156:T1157"/>
+    <mergeCell ref="U1156:U1157"/>
+    <mergeCell ref="V1156:V1157"/>
+    <mergeCell ref="K1156:K1157"/>
+    <mergeCell ref="L1156:L1157"/>
+    <mergeCell ref="M1156:M1157"/>
+    <mergeCell ref="N1156:N1157"/>
+    <mergeCell ref="O1156:O1157"/>
+    <mergeCell ref="P1156:P1157"/>
+    <mergeCell ref="Z1151:Z1153"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/builds/production/data/maindata.xlsx
+++ b/builds/production/data/maindata.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="timeline" sheetId="1" r:id="rId1"/>
+    <sheet name="notes" sheetId="2" r:id="rId1"/>
     <sheet name="infuse_data" sheetId="3" r:id="rId2"/>
-    <sheet name="notes" sheetId="2" r:id="rId3"/>
+    <sheet name="timeline" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,6 +20,34 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>StarTribune StarTribune</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">About this data
+The U.S. Food and Drug Administration recently provided the Star Tribune with a database of 1,039 surgeries that used Medtronic’s bone-growth product Infuse and were followed by postsurgical complications. The surgeries in the database took place at hospitals around the country between 2002 and 2006, and the information about them was mainly gathered in 2007 by Medtronic. The database, obtained via the Freedom of Information Act, was controversial because it was created as part of a large study that Medtronic quietly closed down ahead of schedule after documenting postsurgical problems in more than a third of the cases it examined. Medtronic then failed to report these postsurgical “adverse events” to the FDA until 2013, well after the FDA obtained similar information from other sources.
+The Star Tribune is presenting the injury data publicly for the first time here. The database includes a total of 1,923 different complications in 1,039 surgeries. The vast majority of the surgeries were done in ways not approved by the FDA, which is legal as long as the manufacturer has not encouraged the off-label uses. Medtronic has strenuously disputed any suggestion that it promoted Infuse improperly.
+The spreadsheet includes all of the data provided under the FOIA request, plus several fields of contextual information added by the Star Tribune. The “Index” column was created by the Star Tribune because the FDA redacted the original unique patient identifier numbers. The Star Tribune also added an interpretative column called “Where Infuse Used,” based on the unique surgical description for each procedure. Finally, the Star Tribune has converted the alphanumeric “Patient Codes” into the actual health effects tracked by the FDA. Some of the surgeries are associated with multiple patient codes.
+No information was provided by the FDA for the columns pertaining to: Date of Event, Date of Implantation, Model No., Serial No., Lot No., and Evaluation Code-Results; and only repetitive information was provided under Brand Name, Device Code, and Evaluation Code-Conclusions.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15749" uniqueCount="1685">
   <si>
@@ -5082,7 +5110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5122,6 +5150,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5506,464 +5540,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="A1:E30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>36404</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>36161</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>37257</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>37438</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>37773</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>38078</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>38139</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>38231</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>39022</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>39173</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>39234</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>39387</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>39630</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>39722</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>39753</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>39995</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>40422</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>40695</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>40695</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>40695</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3">
-        <v>40756</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3">
-        <v>41030</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <v>41183</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3">
-        <v>41306</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3">
-        <v>41334</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3">
-        <v>41456</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3">
-        <v>41671</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3">
-        <v>41974</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3">
-        <v>42461</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1683</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1684</v>
-      </c>
-    </row>
+    <row r="1" spans="1:1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -76154,55 +75741,3249 @@
     </row>
   </sheetData>
   <mergeCells count="3324">
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="W1156:W1157"/>
+    <mergeCell ref="X1156:X1157"/>
+    <mergeCell ref="Y1156:Y1157"/>
+    <mergeCell ref="Z1156:Z1157"/>
+    <mergeCell ref="Q1156:Q1157"/>
+    <mergeCell ref="R1156:R1157"/>
+    <mergeCell ref="S1156:S1157"/>
+    <mergeCell ref="T1156:T1157"/>
+    <mergeCell ref="U1156:U1157"/>
+    <mergeCell ref="V1156:V1157"/>
+    <mergeCell ref="K1156:K1157"/>
+    <mergeCell ref="L1156:L1157"/>
+    <mergeCell ref="M1156:M1157"/>
+    <mergeCell ref="N1156:N1157"/>
+    <mergeCell ref="O1156:O1157"/>
+    <mergeCell ref="P1156:P1157"/>
+    <mergeCell ref="Z1151:Z1153"/>
+    <mergeCell ref="A1156:A1157"/>
+    <mergeCell ref="B1156:B1157"/>
+    <mergeCell ref="C1156:C1157"/>
+    <mergeCell ref="D1156:D1157"/>
+    <mergeCell ref="F1156:F1157"/>
+    <mergeCell ref="G1156:G1157"/>
+    <mergeCell ref="H1156:H1157"/>
+    <mergeCell ref="I1156:I1157"/>
+    <mergeCell ref="J1156:J1157"/>
+    <mergeCell ref="T1151:T1153"/>
+    <mergeCell ref="U1151:U1153"/>
+    <mergeCell ref="V1151:V1153"/>
+    <mergeCell ref="W1151:W1153"/>
+    <mergeCell ref="X1151:X1153"/>
+    <mergeCell ref="Y1151:Y1153"/>
+    <mergeCell ref="N1151:N1153"/>
+    <mergeCell ref="O1151:O1153"/>
+    <mergeCell ref="P1151:P1153"/>
+    <mergeCell ref="Q1151:Q1153"/>
+    <mergeCell ref="R1151:R1153"/>
+    <mergeCell ref="S1151:S1153"/>
+    <mergeCell ref="H1151:H1153"/>
+    <mergeCell ref="I1151:I1153"/>
+    <mergeCell ref="J1151:J1153"/>
+    <mergeCell ref="K1151:K1153"/>
+    <mergeCell ref="L1151:L1153"/>
+    <mergeCell ref="M1151:M1153"/>
+    <mergeCell ref="A1151:A1153"/>
+    <mergeCell ref="B1151:B1153"/>
+    <mergeCell ref="C1151:C1153"/>
+    <mergeCell ref="D1151:D1153"/>
+    <mergeCell ref="F1151:F1153"/>
+    <mergeCell ref="G1151:G1153"/>
+    <mergeCell ref="U1132:U1133"/>
+    <mergeCell ref="V1132:V1133"/>
+    <mergeCell ref="W1132:W1133"/>
+    <mergeCell ref="X1132:X1133"/>
+    <mergeCell ref="Y1132:Y1133"/>
+    <mergeCell ref="Z1132:Z1133"/>
+    <mergeCell ref="O1132:O1133"/>
+    <mergeCell ref="P1132:P1133"/>
+    <mergeCell ref="Q1132:Q1133"/>
+    <mergeCell ref="R1132:R1133"/>
+    <mergeCell ref="S1132:S1133"/>
+    <mergeCell ref="T1132:T1133"/>
+    <mergeCell ref="I1132:I1133"/>
+    <mergeCell ref="J1132:J1133"/>
+    <mergeCell ref="K1132:K1133"/>
+    <mergeCell ref="L1132:L1133"/>
+    <mergeCell ref="M1132:M1133"/>
+    <mergeCell ref="N1132:N1133"/>
+    <mergeCell ref="R1126:S1126"/>
+    <mergeCell ref="R1128:S1128"/>
+    <mergeCell ref="U1131:V1131"/>
+    <mergeCell ref="A1132:A1133"/>
+    <mergeCell ref="B1132:B1133"/>
+    <mergeCell ref="C1132:C1133"/>
+    <mergeCell ref="D1132:D1133"/>
+    <mergeCell ref="F1132:F1133"/>
+    <mergeCell ref="G1132:G1133"/>
+    <mergeCell ref="H1132:H1133"/>
+    <mergeCell ref="Q1104:R1104"/>
+    <mergeCell ref="Q1107:R1107"/>
+    <mergeCell ref="V1115:W1115"/>
+    <mergeCell ref="Q1116:R1116"/>
+    <mergeCell ref="Q1123:R1123"/>
+    <mergeCell ref="Q1125:R1125"/>
+    <mergeCell ref="W1100:W1101"/>
+    <mergeCell ref="X1100:X1101"/>
+    <mergeCell ref="Y1100:Y1101"/>
+    <mergeCell ref="Z1100:Z1101"/>
+    <mergeCell ref="Q1102:R1102"/>
+    <mergeCell ref="R1103:S1103"/>
+    <mergeCell ref="P1100:P1101"/>
+    <mergeCell ref="Q1100:Q1101"/>
+    <mergeCell ref="R1100:S1100"/>
+    <mergeCell ref="T1100:T1101"/>
+    <mergeCell ref="U1100:U1101"/>
+    <mergeCell ref="V1100:V1101"/>
+    <mergeCell ref="J1100:J1101"/>
+    <mergeCell ref="K1100:K1101"/>
+    <mergeCell ref="L1100:L1101"/>
+    <mergeCell ref="M1100:M1101"/>
+    <mergeCell ref="N1100:N1101"/>
+    <mergeCell ref="O1100:O1101"/>
+    <mergeCell ref="Q1091:R1091"/>
+    <mergeCell ref="R1097:S1097"/>
+    <mergeCell ref="A1100:A1101"/>
+    <mergeCell ref="B1100:B1101"/>
+    <mergeCell ref="C1100:C1101"/>
+    <mergeCell ref="D1100:D1101"/>
+    <mergeCell ref="F1100:F1101"/>
+    <mergeCell ref="G1100:G1101"/>
+    <mergeCell ref="H1100:H1101"/>
+    <mergeCell ref="I1100:I1101"/>
+    <mergeCell ref="Y1082:Y1083"/>
+    <mergeCell ref="Z1082:Z1083"/>
+    <mergeCell ref="R1084:S1084"/>
+    <mergeCell ref="S1087:T1087"/>
+    <mergeCell ref="S1089:T1089"/>
+    <mergeCell ref="R1090:S1090"/>
+    <mergeCell ref="S1082:S1083"/>
+    <mergeCell ref="T1082:T1083"/>
+    <mergeCell ref="U1082:U1083"/>
+    <mergeCell ref="V1082:V1083"/>
+    <mergeCell ref="W1082:W1083"/>
+    <mergeCell ref="X1082:X1083"/>
+    <mergeCell ref="M1082:M1083"/>
+    <mergeCell ref="N1082:N1083"/>
+    <mergeCell ref="O1082:O1083"/>
+    <mergeCell ref="P1082:P1083"/>
+    <mergeCell ref="Q1082:Q1083"/>
+    <mergeCell ref="R1082:R1083"/>
+    <mergeCell ref="G1082:G1083"/>
+    <mergeCell ref="H1082:H1083"/>
+    <mergeCell ref="I1082:I1083"/>
+    <mergeCell ref="J1082:J1083"/>
+    <mergeCell ref="K1082:K1083"/>
+    <mergeCell ref="L1082:L1083"/>
+    <mergeCell ref="Z1069:Z1070"/>
+    <mergeCell ref="R1078:S1078"/>
+    <mergeCell ref="Q1079:R1079"/>
+    <mergeCell ref="S1080:T1080"/>
+    <mergeCell ref="Q1081:R1081"/>
+    <mergeCell ref="A1082:A1083"/>
+    <mergeCell ref="B1082:B1083"/>
+    <mergeCell ref="C1082:C1083"/>
+    <mergeCell ref="D1082:D1083"/>
+    <mergeCell ref="F1082:F1083"/>
+    <mergeCell ref="T1069:T1070"/>
+    <mergeCell ref="U1069:U1070"/>
+    <mergeCell ref="V1069:V1070"/>
+    <mergeCell ref="W1069:W1070"/>
+    <mergeCell ref="X1069:X1070"/>
+    <mergeCell ref="Y1069:Y1070"/>
+    <mergeCell ref="N1069:N1070"/>
+    <mergeCell ref="O1069:O1070"/>
+    <mergeCell ref="P1069:P1070"/>
+    <mergeCell ref="Q1069:Q1070"/>
+    <mergeCell ref="R1069:R1070"/>
+    <mergeCell ref="S1069:S1070"/>
+    <mergeCell ref="H1069:H1070"/>
+    <mergeCell ref="I1069:I1070"/>
+    <mergeCell ref="J1069:J1070"/>
+    <mergeCell ref="K1069:K1070"/>
+    <mergeCell ref="L1069:L1070"/>
+    <mergeCell ref="M1069:M1070"/>
+    <mergeCell ref="A1069:A1070"/>
+    <mergeCell ref="B1069:B1070"/>
+    <mergeCell ref="C1069:C1070"/>
+    <mergeCell ref="D1069:D1070"/>
+    <mergeCell ref="F1069:F1070"/>
+    <mergeCell ref="G1069:G1070"/>
+    <mergeCell ref="U1063:U1064"/>
+    <mergeCell ref="V1063:V1064"/>
+    <mergeCell ref="W1063:W1064"/>
+    <mergeCell ref="X1063:X1064"/>
+    <mergeCell ref="Y1063:Y1064"/>
+    <mergeCell ref="Z1063:Z1064"/>
+    <mergeCell ref="N1063:N1064"/>
+    <mergeCell ref="O1063:O1064"/>
+    <mergeCell ref="P1063:P1064"/>
+    <mergeCell ref="Q1063:R1063"/>
+    <mergeCell ref="S1063:S1064"/>
+    <mergeCell ref="T1063:T1064"/>
+    <mergeCell ref="H1063:H1064"/>
+    <mergeCell ref="I1063:I1064"/>
+    <mergeCell ref="J1063:J1064"/>
+    <mergeCell ref="K1063:K1064"/>
+    <mergeCell ref="L1063:L1064"/>
+    <mergeCell ref="M1063:M1064"/>
+    <mergeCell ref="A1063:A1064"/>
+    <mergeCell ref="B1063:B1064"/>
+    <mergeCell ref="C1063:C1064"/>
+    <mergeCell ref="D1063:D1064"/>
+    <mergeCell ref="F1063:F1064"/>
+    <mergeCell ref="G1063:G1064"/>
+    <mergeCell ref="U1061:U1062"/>
+    <mergeCell ref="V1061:V1062"/>
+    <mergeCell ref="W1061:W1062"/>
+    <mergeCell ref="X1061:X1062"/>
+    <mergeCell ref="Y1061:Y1062"/>
+    <mergeCell ref="Z1061:Z1062"/>
+    <mergeCell ref="N1061:N1062"/>
+    <mergeCell ref="O1061:O1062"/>
+    <mergeCell ref="P1061:P1062"/>
+    <mergeCell ref="Q1061:Q1062"/>
+    <mergeCell ref="R1061:R1062"/>
+    <mergeCell ref="S1061:T1061"/>
+    <mergeCell ref="H1061:H1062"/>
+    <mergeCell ref="I1061:I1062"/>
+    <mergeCell ref="J1061:J1062"/>
+    <mergeCell ref="K1061:K1062"/>
+    <mergeCell ref="L1061:L1062"/>
+    <mergeCell ref="M1061:M1062"/>
+    <mergeCell ref="A1061:A1062"/>
+    <mergeCell ref="B1061:B1062"/>
+    <mergeCell ref="C1061:C1062"/>
+    <mergeCell ref="D1061:D1062"/>
+    <mergeCell ref="F1061:F1062"/>
+    <mergeCell ref="G1061:G1062"/>
+    <mergeCell ref="Q1052:R1052"/>
+    <mergeCell ref="R1053:S1053"/>
+    <mergeCell ref="R1055:S1055"/>
+    <mergeCell ref="R1056:S1056"/>
+    <mergeCell ref="R1059:S1059"/>
+    <mergeCell ref="R1060:S1060"/>
+    <mergeCell ref="V1048:V1049"/>
+    <mergeCell ref="W1048:W1049"/>
+    <mergeCell ref="X1048:X1049"/>
+    <mergeCell ref="Y1048:Y1049"/>
+    <mergeCell ref="Z1048:Z1049"/>
+    <mergeCell ref="S1050:T1050"/>
+    <mergeCell ref="P1048:P1049"/>
+    <mergeCell ref="Q1048:Q1049"/>
+    <mergeCell ref="R1048:R1049"/>
+    <mergeCell ref="S1048:S1049"/>
+    <mergeCell ref="T1048:T1049"/>
+    <mergeCell ref="U1048:U1049"/>
+    <mergeCell ref="J1048:J1049"/>
+    <mergeCell ref="K1048:K1049"/>
+    <mergeCell ref="L1048:L1049"/>
+    <mergeCell ref="M1048:M1049"/>
+    <mergeCell ref="N1048:N1049"/>
+    <mergeCell ref="O1048:O1049"/>
+    <mergeCell ref="Y1045:Y1046"/>
+    <mergeCell ref="Z1045:Z1046"/>
+    <mergeCell ref="A1048:A1049"/>
+    <mergeCell ref="B1048:B1049"/>
+    <mergeCell ref="C1048:C1049"/>
+    <mergeCell ref="D1048:D1049"/>
+    <mergeCell ref="F1048:F1049"/>
+    <mergeCell ref="G1048:G1049"/>
+    <mergeCell ref="H1048:H1049"/>
+    <mergeCell ref="I1048:I1049"/>
+    <mergeCell ref="S1045:S1046"/>
+    <mergeCell ref="T1045:T1046"/>
+    <mergeCell ref="U1045:U1046"/>
+    <mergeCell ref="V1045:V1046"/>
+    <mergeCell ref="W1045:W1046"/>
+    <mergeCell ref="X1045:X1046"/>
+    <mergeCell ref="M1045:M1046"/>
+    <mergeCell ref="N1045:N1046"/>
+    <mergeCell ref="O1045:O1046"/>
+    <mergeCell ref="P1045:P1046"/>
+    <mergeCell ref="Q1045:Q1046"/>
+    <mergeCell ref="R1045:R1046"/>
+    <mergeCell ref="G1045:G1046"/>
+    <mergeCell ref="H1045:H1046"/>
+    <mergeCell ref="I1045:I1046"/>
+    <mergeCell ref="J1045:J1046"/>
+    <mergeCell ref="K1045:K1046"/>
+    <mergeCell ref="L1045:L1046"/>
+    <mergeCell ref="V1041:V1042"/>
+    <mergeCell ref="W1041:W1042"/>
+    <mergeCell ref="X1041:X1042"/>
+    <mergeCell ref="Y1041:Y1042"/>
+    <mergeCell ref="Z1041:Z1042"/>
+    <mergeCell ref="A1045:A1046"/>
+    <mergeCell ref="B1045:B1046"/>
+    <mergeCell ref="C1045:C1046"/>
+    <mergeCell ref="D1045:D1046"/>
+    <mergeCell ref="F1045:F1046"/>
+    <mergeCell ref="P1041:P1042"/>
+    <mergeCell ref="Q1041:Q1042"/>
+    <mergeCell ref="R1041:R1042"/>
+    <mergeCell ref="S1041:S1042"/>
+    <mergeCell ref="T1041:T1042"/>
+    <mergeCell ref="U1041:U1042"/>
+    <mergeCell ref="J1041:J1042"/>
+    <mergeCell ref="K1041:K1042"/>
+    <mergeCell ref="L1041:L1042"/>
+    <mergeCell ref="M1041:M1042"/>
+    <mergeCell ref="N1041:N1042"/>
+    <mergeCell ref="O1041:O1042"/>
+    <mergeCell ref="Q1040:R1040"/>
+    <mergeCell ref="A1041:A1042"/>
+    <mergeCell ref="B1041:B1042"/>
+    <mergeCell ref="C1041:C1042"/>
+    <mergeCell ref="D1041:D1042"/>
+    <mergeCell ref="F1041:F1042"/>
+    <mergeCell ref="G1041:G1042"/>
+    <mergeCell ref="H1041:H1042"/>
+    <mergeCell ref="I1041:I1042"/>
+    <mergeCell ref="T1037:T1038"/>
+    <mergeCell ref="U1037:U1038"/>
+    <mergeCell ref="V1037:V1038"/>
+    <mergeCell ref="W1037:W1038"/>
+    <mergeCell ref="X1037:X1038"/>
+    <mergeCell ref="Y1037:Y1038"/>
+    <mergeCell ref="N1037:N1038"/>
+    <mergeCell ref="O1037:O1038"/>
+    <mergeCell ref="P1037:P1038"/>
+    <mergeCell ref="Q1037:Q1038"/>
+    <mergeCell ref="R1037:R1038"/>
+    <mergeCell ref="S1037:S1038"/>
+    <mergeCell ref="H1037:H1038"/>
+    <mergeCell ref="I1037:I1038"/>
+    <mergeCell ref="J1037:J1038"/>
+    <mergeCell ref="K1037:K1038"/>
+    <mergeCell ref="L1037:L1038"/>
+    <mergeCell ref="M1037:M1038"/>
+    <mergeCell ref="A1037:A1038"/>
+    <mergeCell ref="B1037:B1038"/>
+    <mergeCell ref="C1037:C1038"/>
+    <mergeCell ref="D1037:D1038"/>
+    <mergeCell ref="F1037:F1038"/>
+    <mergeCell ref="G1037:G1038"/>
+    <mergeCell ref="R1019:S1019"/>
+    <mergeCell ref="R1023:S1023"/>
+    <mergeCell ref="R1024:S1024"/>
+    <mergeCell ref="Q1026:R1026"/>
+    <mergeCell ref="Q1027:R1027"/>
+    <mergeCell ref="Q1030:R1030"/>
+    <mergeCell ref="W1015:W1016"/>
+    <mergeCell ref="X1015:X1016"/>
+    <mergeCell ref="Y1015:Y1016"/>
+    <mergeCell ref="Z1015:Z1016"/>
+    <mergeCell ref="Q1017:R1017"/>
+    <mergeCell ref="Y1018:Z1018"/>
+    <mergeCell ref="Q1015:Q1016"/>
+    <mergeCell ref="R1015:R1016"/>
+    <mergeCell ref="S1015:S1016"/>
+    <mergeCell ref="T1015:T1016"/>
+    <mergeCell ref="U1015:U1016"/>
+    <mergeCell ref="V1015:V1016"/>
+    <mergeCell ref="K1015:K1016"/>
+    <mergeCell ref="L1015:L1016"/>
+    <mergeCell ref="M1015:M1016"/>
+    <mergeCell ref="N1015:N1016"/>
+    <mergeCell ref="O1015:O1016"/>
+    <mergeCell ref="P1015:P1016"/>
+    <mergeCell ref="Z1037:Z1038"/>
+    <mergeCell ref="R1014:S1014"/>
+    <mergeCell ref="A1015:A1016"/>
+    <mergeCell ref="B1015:B1016"/>
+    <mergeCell ref="C1015:C1016"/>
+    <mergeCell ref="D1015:D1016"/>
+    <mergeCell ref="F1015:F1016"/>
+    <mergeCell ref="G1015:G1016"/>
+    <mergeCell ref="H1015:H1016"/>
+    <mergeCell ref="I1015:I1016"/>
+    <mergeCell ref="J1015:J1016"/>
+    <mergeCell ref="V1005:V1006"/>
+    <mergeCell ref="W1005:W1006"/>
+    <mergeCell ref="X1005:X1006"/>
+    <mergeCell ref="Y1005:Y1006"/>
+    <mergeCell ref="Z1005:Z1006"/>
+    <mergeCell ref="S1008:T1008"/>
+    <mergeCell ref="O1005:O1006"/>
+    <mergeCell ref="P1005:P1006"/>
+    <mergeCell ref="Q1005:Q1006"/>
+    <mergeCell ref="R1005:S1005"/>
+    <mergeCell ref="T1005:T1006"/>
+    <mergeCell ref="U1005:U1006"/>
+    <mergeCell ref="I1005:I1006"/>
+    <mergeCell ref="J1005:J1006"/>
+    <mergeCell ref="K1005:K1006"/>
+    <mergeCell ref="L1005:L1006"/>
+    <mergeCell ref="M1005:M1006"/>
+    <mergeCell ref="N1005:N1006"/>
+    <mergeCell ref="R997:S997"/>
+    <mergeCell ref="R999:S999"/>
+    <mergeCell ref="Q1001:R1001"/>
+    <mergeCell ref="A1005:A1006"/>
+    <mergeCell ref="B1005:B1006"/>
+    <mergeCell ref="C1005:C1006"/>
+    <mergeCell ref="D1005:D1006"/>
+    <mergeCell ref="F1005:F1006"/>
+    <mergeCell ref="G1005:G1006"/>
+    <mergeCell ref="H1005:H1006"/>
+    <mergeCell ref="T993:U993"/>
+    <mergeCell ref="V993:V994"/>
+    <mergeCell ref="W993:W994"/>
+    <mergeCell ref="X993:X994"/>
+    <mergeCell ref="Y993:Y994"/>
+    <mergeCell ref="Z993:Z994"/>
+    <mergeCell ref="N993:N994"/>
+    <mergeCell ref="O993:O994"/>
+    <mergeCell ref="P993:P994"/>
+    <mergeCell ref="Q993:Q994"/>
+    <mergeCell ref="R993:R994"/>
+    <mergeCell ref="S993:S994"/>
+    <mergeCell ref="H993:H994"/>
+    <mergeCell ref="I993:I994"/>
+    <mergeCell ref="J993:J994"/>
+    <mergeCell ref="K993:K994"/>
+    <mergeCell ref="L993:L994"/>
+    <mergeCell ref="M993:M994"/>
+    <mergeCell ref="A993:A994"/>
+    <mergeCell ref="B993:B994"/>
+    <mergeCell ref="C993:C994"/>
+    <mergeCell ref="D993:D994"/>
+    <mergeCell ref="F993:F994"/>
+    <mergeCell ref="G993:G994"/>
+    <mergeCell ref="U991:U992"/>
+    <mergeCell ref="V991:V992"/>
+    <mergeCell ref="W991:W992"/>
+    <mergeCell ref="X991:X992"/>
+    <mergeCell ref="Y991:Y992"/>
+    <mergeCell ref="Z991:Z992"/>
+    <mergeCell ref="O991:O992"/>
+    <mergeCell ref="P991:P992"/>
+    <mergeCell ref="Q991:Q992"/>
+    <mergeCell ref="R991:R992"/>
+    <mergeCell ref="S991:S992"/>
+    <mergeCell ref="T991:T992"/>
+    <mergeCell ref="I991:I992"/>
+    <mergeCell ref="J991:J992"/>
+    <mergeCell ref="K991:K992"/>
+    <mergeCell ref="L991:L992"/>
+    <mergeCell ref="M991:M992"/>
+    <mergeCell ref="N991:N992"/>
+    <mergeCell ref="R981:S981"/>
+    <mergeCell ref="Q982:R982"/>
+    <mergeCell ref="Q983:R983"/>
+    <mergeCell ref="A991:A992"/>
+    <mergeCell ref="B991:B992"/>
+    <mergeCell ref="C991:C992"/>
+    <mergeCell ref="D991:D992"/>
+    <mergeCell ref="F991:F992"/>
+    <mergeCell ref="G991:G992"/>
+    <mergeCell ref="H991:H992"/>
+    <mergeCell ref="Z968:Z969"/>
+    <mergeCell ref="S970:T970"/>
+    <mergeCell ref="S971:T971"/>
+    <mergeCell ref="R973:S973"/>
+    <mergeCell ref="R977:S977"/>
+    <mergeCell ref="Q980:R980"/>
+    <mergeCell ref="T968:T969"/>
+    <mergeCell ref="U968:U969"/>
+    <mergeCell ref="V968:V969"/>
+    <mergeCell ref="W968:W969"/>
+    <mergeCell ref="X968:X969"/>
+    <mergeCell ref="Y968:Y969"/>
+    <mergeCell ref="N968:N969"/>
+    <mergeCell ref="O968:O969"/>
+    <mergeCell ref="P968:P969"/>
+    <mergeCell ref="Q968:Q969"/>
+    <mergeCell ref="R968:R969"/>
+    <mergeCell ref="S968:S969"/>
+    <mergeCell ref="H968:H969"/>
+    <mergeCell ref="I968:I969"/>
+    <mergeCell ref="J968:J969"/>
+    <mergeCell ref="K968:K969"/>
+    <mergeCell ref="L968:L969"/>
+    <mergeCell ref="M968:M969"/>
+    <mergeCell ref="W965:W966"/>
+    <mergeCell ref="X965:X966"/>
+    <mergeCell ref="Y965:Y966"/>
+    <mergeCell ref="Z965:Z966"/>
+    <mergeCell ref="A968:A969"/>
+    <mergeCell ref="B968:B969"/>
+    <mergeCell ref="C968:C969"/>
+    <mergeCell ref="D968:D969"/>
+    <mergeCell ref="F968:F969"/>
+    <mergeCell ref="G968:G969"/>
+    <mergeCell ref="Q965:Q966"/>
+    <mergeCell ref="R965:R966"/>
+    <mergeCell ref="S965:S966"/>
+    <mergeCell ref="T965:T966"/>
+    <mergeCell ref="U965:U966"/>
+    <mergeCell ref="V965:V966"/>
+    <mergeCell ref="K965:K966"/>
+    <mergeCell ref="L965:L966"/>
+    <mergeCell ref="M965:M966"/>
+    <mergeCell ref="N965:N966"/>
+    <mergeCell ref="O965:O966"/>
+    <mergeCell ref="P965:P966"/>
+    <mergeCell ref="A965:A966"/>
+    <mergeCell ref="B965:B966"/>
+    <mergeCell ref="C965:C966"/>
+    <mergeCell ref="D965:D966"/>
+    <mergeCell ref="F965:F966"/>
+    <mergeCell ref="G965:G966"/>
+    <mergeCell ref="H965:H966"/>
+    <mergeCell ref="I965:I966"/>
+    <mergeCell ref="J965:J966"/>
+    <mergeCell ref="T963:T964"/>
+    <mergeCell ref="U963:U964"/>
+    <mergeCell ref="V963:V964"/>
+    <mergeCell ref="W963:W964"/>
+    <mergeCell ref="X963:X964"/>
+    <mergeCell ref="Y963:Y964"/>
+    <mergeCell ref="N963:N964"/>
+    <mergeCell ref="O963:O964"/>
+    <mergeCell ref="P963:P964"/>
+    <mergeCell ref="Q963:Q964"/>
+    <mergeCell ref="R963:R964"/>
+    <mergeCell ref="S963:S964"/>
+    <mergeCell ref="H963:H964"/>
+    <mergeCell ref="I963:I964"/>
+    <mergeCell ref="J963:J964"/>
+    <mergeCell ref="K963:K964"/>
+    <mergeCell ref="L963:L964"/>
+    <mergeCell ref="M963:M964"/>
+    <mergeCell ref="R957:S957"/>
+    <mergeCell ref="S959:T959"/>
+    <mergeCell ref="Q960:R960"/>
+    <mergeCell ref="R961:S961"/>
+    <mergeCell ref="A963:A964"/>
+    <mergeCell ref="B963:B964"/>
+    <mergeCell ref="C963:C964"/>
+    <mergeCell ref="D963:D964"/>
+    <mergeCell ref="F963:F964"/>
+    <mergeCell ref="G963:G964"/>
+    <mergeCell ref="U955:U956"/>
+    <mergeCell ref="V955:V956"/>
+    <mergeCell ref="W955:W956"/>
+    <mergeCell ref="X955:X956"/>
+    <mergeCell ref="Y955:Y956"/>
+    <mergeCell ref="Z955:Z956"/>
+    <mergeCell ref="N955:N956"/>
+    <mergeCell ref="O955:O956"/>
+    <mergeCell ref="P955:P956"/>
+    <mergeCell ref="Q955:Q956"/>
+    <mergeCell ref="R955:S955"/>
+    <mergeCell ref="T955:T956"/>
+    <mergeCell ref="H955:H956"/>
+    <mergeCell ref="I955:I956"/>
+    <mergeCell ref="J955:J956"/>
+    <mergeCell ref="K955:K956"/>
+    <mergeCell ref="L955:L956"/>
+    <mergeCell ref="M955:M956"/>
+    <mergeCell ref="Z963:Z964"/>
+    <mergeCell ref="Q928:R928"/>
+    <mergeCell ref="S930:T930"/>
+    <mergeCell ref="R935:S935"/>
+    <mergeCell ref="R936:S936"/>
+    <mergeCell ref="W953:W954"/>
+    <mergeCell ref="X953:X954"/>
+    <mergeCell ref="Y953:Y954"/>
+    <mergeCell ref="Z953:Z954"/>
+    <mergeCell ref="A955:A956"/>
+    <mergeCell ref="B955:B956"/>
+    <mergeCell ref="C955:C956"/>
+    <mergeCell ref="D955:D956"/>
+    <mergeCell ref="F955:F956"/>
+    <mergeCell ref="G955:G956"/>
+    <mergeCell ref="Q953:Q954"/>
+    <mergeCell ref="R953:R954"/>
+    <mergeCell ref="S953:S954"/>
+    <mergeCell ref="T953:T954"/>
+    <mergeCell ref="U953:U954"/>
+    <mergeCell ref="V953:V954"/>
+    <mergeCell ref="K953:K954"/>
+    <mergeCell ref="L953:L954"/>
+    <mergeCell ref="M953:M954"/>
+    <mergeCell ref="N953:N954"/>
+    <mergeCell ref="O953:O954"/>
+    <mergeCell ref="P953:P954"/>
+    <mergeCell ref="Z919:Z920"/>
+    <mergeCell ref="Q922:R922"/>
+    <mergeCell ref="P919:P920"/>
+    <mergeCell ref="Q919:Q920"/>
+    <mergeCell ref="R919:R920"/>
+    <mergeCell ref="S919:S920"/>
+    <mergeCell ref="T919:T920"/>
+    <mergeCell ref="U919:U920"/>
+    <mergeCell ref="J919:J920"/>
+    <mergeCell ref="K919:K920"/>
+    <mergeCell ref="L919:L920"/>
+    <mergeCell ref="M919:M920"/>
+    <mergeCell ref="N919:N920"/>
+    <mergeCell ref="O919:O920"/>
+    <mergeCell ref="Q951:R951"/>
+    <mergeCell ref="A953:A954"/>
+    <mergeCell ref="B953:B954"/>
+    <mergeCell ref="C953:C954"/>
+    <mergeCell ref="D953:D954"/>
+    <mergeCell ref="F953:F954"/>
+    <mergeCell ref="G953:G954"/>
+    <mergeCell ref="H953:H954"/>
+    <mergeCell ref="I953:I954"/>
+    <mergeCell ref="J953:J954"/>
+    <mergeCell ref="S937:T937"/>
+    <mergeCell ref="R939:S939"/>
+    <mergeCell ref="Q945:R945"/>
+    <mergeCell ref="Q946:R946"/>
+    <mergeCell ref="Q948:R948"/>
+    <mergeCell ref="T950:U950"/>
+    <mergeCell ref="R924:S924"/>
+    <mergeCell ref="S927:T927"/>
+    <mergeCell ref="S915:T915"/>
+    <mergeCell ref="Q917:R917"/>
+    <mergeCell ref="A919:A920"/>
+    <mergeCell ref="B919:B920"/>
+    <mergeCell ref="C919:C920"/>
+    <mergeCell ref="D919:D920"/>
+    <mergeCell ref="F919:F920"/>
+    <mergeCell ref="G919:G920"/>
+    <mergeCell ref="H919:H920"/>
+    <mergeCell ref="I919:I920"/>
+    <mergeCell ref="W906:W907"/>
+    <mergeCell ref="X906:X907"/>
+    <mergeCell ref="Y906:Y907"/>
+    <mergeCell ref="Z906:Z907"/>
+    <mergeCell ref="U911:V911"/>
+    <mergeCell ref="R912:S912"/>
+    <mergeCell ref="Q906:Q907"/>
+    <mergeCell ref="R906:R907"/>
+    <mergeCell ref="S906:S907"/>
+    <mergeCell ref="T906:T907"/>
+    <mergeCell ref="U906:U907"/>
+    <mergeCell ref="V906:V907"/>
+    <mergeCell ref="K906:K907"/>
+    <mergeCell ref="L906:L907"/>
+    <mergeCell ref="M906:M907"/>
+    <mergeCell ref="N906:N907"/>
+    <mergeCell ref="O906:O907"/>
+    <mergeCell ref="P906:P907"/>
+    <mergeCell ref="V919:V920"/>
+    <mergeCell ref="W919:W920"/>
+    <mergeCell ref="X919:X920"/>
+    <mergeCell ref="Y919:Y920"/>
+    <mergeCell ref="A906:A907"/>
+    <mergeCell ref="B906:B907"/>
+    <mergeCell ref="C906:C907"/>
+    <mergeCell ref="D906:D907"/>
+    <mergeCell ref="F906:F907"/>
+    <mergeCell ref="G906:G907"/>
+    <mergeCell ref="H906:H907"/>
+    <mergeCell ref="I906:I907"/>
+    <mergeCell ref="J906:J907"/>
+    <mergeCell ref="T904:T905"/>
+    <mergeCell ref="U904:U905"/>
+    <mergeCell ref="V904:V905"/>
+    <mergeCell ref="W904:W905"/>
+    <mergeCell ref="X904:X905"/>
+    <mergeCell ref="Y904:Y905"/>
+    <mergeCell ref="M904:M905"/>
+    <mergeCell ref="N904:N905"/>
+    <mergeCell ref="O904:O905"/>
+    <mergeCell ref="P904:P905"/>
+    <mergeCell ref="Q904:Q905"/>
+    <mergeCell ref="R904:S904"/>
+    <mergeCell ref="G904:G905"/>
+    <mergeCell ref="H904:H905"/>
+    <mergeCell ref="I904:I905"/>
+    <mergeCell ref="J904:J905"/>
+    <mergeCell ref="K904:K905"/>
+    <mergeCell ref="L904:L905"/>
+    <mergeCell ref="R893:S893"/>
+    <mergeCell ref="Q894:R894"/>
+    <mergeCell ref="Q898:R898"/>
+    <mergeCell ref="R901:S901"/>
+    <mergeCell ref="R903:S903"/>
+    <mergeCell ref="A904:A905"/>
+    <mergeCell ref="B904:B905"/>
+    <mergeCell ref="C904:C905"/>
+    <mergeCell ref="D904:D905"/>
+    <mergeCell ref="F904:F905"/>
+    <mergeCell ref="U887:U889"/>
+    <mergeCell ref="V887:V889"/>
+    <mergeCell ref="W887:W889"/>
+    <mergeCell ref="X887:X889"/>
+    <mergeCell ref="Y887:Y889"/>
+    <mergeCell ref="Z887:Z889"/>
+    <mergeCell ref="O887:O889"/>
+    <mergeCell ref="P887:P889"/>
+    <mergeCell ref="Q887:Q889"/>
+    <mergeCell ref="R887:R889"/>
+    <mergeCell ref="S887:S889"/>
+    <mergeCell ref="T887:T889"/>
+    <mergeCell ref="I887:I889"/>
+    <mergeCell ref="J887:J889"/>
+    <mergeCell ref="K887:K889"/>
+    <mergeCell ref="L887:L889"/>
+    <mergeCell ref="M887:M889"/>
+    <mergeCell ref="N887:N889"/>
+    <mergeCell ref="Z904:Z905"/>
+    <mergeCell ref="R883:S883"/>
+    <mergeCell ref="R884:S884"/>
+    <mergeCell ref="R886:S886"/>
+    <mergeCell ref="A887:A889"/>
+    <mergeCell ref="B887:B889"/>
+    <mergeCell ref="C887:C889"/>
+    <mergeCell ref="D887:D889"/>
+    <mergeCell ref="F887:F889"/>
+    <mergeCell ref="G887:G889"/>
+    <mergeCell ref="H887:H889"/>
+    <mergeCell ref="Q871:R871"/>
+    <mergeCell ref="Q873:R873"/>
+    <mergeCell ref="R875:S875"/>
+    <mergeCell ref="Q876:R876"/>
+    <mergeCell ref="T877:U877"/>
+    <mergeCell ref="S881:T881"/>
+    <mergeCell ref="Z850:Z851"/>
+    <mergeCell ref="Q852:R852"/>
+    <mergeCell ref="R853:S853"/>
+    <mergeCell ref="Q866:R866"/>
+    <mergeCell ref="Q869:R869"/>
+    <mergeCell ref="Q870:R870"/>
+    <mergeCell ref="T850:T851"/>
+    <mergeCell ref="U850:U851"/>
+    <mergeCell ref="V850:V851"/>
+    <mergeCell ref="W850:W851"/>
+    <mergeCell ref="X850:X851"/>
+    <mergeCell ref="Y850:Y851"/>
+    <mergeCell ref="N850:N851"/>
+    <mergeCell ref="O850:O851"/>
+    <mergeCell ref="P850:P851"/>
+    <mergeCell ref="Q850:Q851"/>
+    <mergeCell ref="R850:R851"/>
+    <mergeCell ref="S850:S851"/>
+    <mergeCell ref="H850:H851"/>
+    <mergeCell ref="I850:I851"/>
+    <mergeCell ref="J850:J851"/>
+    <mergeCell ref="K850:K851"/>
+    <mergeCell ref="L850:L851"/>
+    <mergeCell ref="M850:M851"/>
+    <mergeCell ref="X843:X844"/>
+    <mergeCell ref="Y843:Y844"/>
+    <mergeCell ref="Z843:Z844"/>
+    <mergeCell ref="Q845:R845"/>
+    <mergeCell ref="A850:A851"/>
+    <mergeCell ref="B850:B851"/>
+    <mergeCell ref="C850:C851"/>
+    <mergeCell ref="D850:D851"/>
+    <mergeCell ref="F850:F851"/>
+    <mergeCell ref="G850:G851"/>
+    <mergeCell ref="Q843:Q844"/>
+    <mergeCell ref="R843:R844"/>
+    <mergeCell ref="S843:S844"/>
+    <mergeCell ref="T843:U843"/>
+    <mergeCell ref="V843:V844"/>
+    <mergeCell ref="W843:W844"/>
+    <mergeCell ref="K843:K844"/>
+    <mergeCell ref="L843:L844"/>
+    <mergeCell ref="M843:M844"/>
+    <mergeCell ref="N843:N844"/>
+    <mergeCell ref="O843:O844"/>
+    <mergeCell ref="P843:P844"/>
+    <mergeCell ref="R835:S835"/>
+    <mergeCell ref="A843:A844"/>
+    <mergeCell ref="B843:B844"/>
+    <mergeCell ref="C843:C844"/>
+    <mergeCell ref="D843:D844"/>
+    <mergeCell ref="F843:F844"/>
+    <mergeCell ref="G843:G844"/>
+    <mergeCell ref="H843:H844"/>
+    <mergeCell ref="I843:I844"/>
+    <mergeCell ref="J843:J844"/>
+    <mergeCell ref="Z821:Z823"/>
+    <mergeCell ref="Q825:R825"/>
+    <mergeCell ref="Q826:R826"/>
+    <mergeCell ref="R830:S830"/>
+    <mergeCell ref="Q832:R832"/>
+    <mergeCell ref="R833:S833"/>
+    <mergeCell ref="S821:T821"/>
+    <mergeCell ref="U821:U823"/>
+    <mergeCell ref="V821:V823"/>
+    <mergeCell ref="W821:W823"/>
+    <mergeCell ref="X821:X823"/>
+    <mergeCell ref="Y821:Y823"/>
+    <mergeCell ref="M821:M823"/>
+    <mergeCell ref="N821:N823"/>
+    <mergeCell ref="O821:O823"/>
+    <mergeCell ref="P821:P823"/>
+    <mergeCell ref="Q821:Q823"/>
+    <mergeCell ref="R821:R823"/>
+    <mergeCell ref="G821:G823"/>
+    <mergeCell ref="H821:H823"/>
+    <mergeCell ref="I821:I823"/>
+    <mergeCell ref="J821:J823"/>
+    <mergeCell ref="K821:K823"/>
+    <mergeCell ref="L821:L823"/>
+    <mergeCell ref="Q800:R800"/>
+    <mergeCell ref="Q803:R803"/>
+    <mergeCell ref="S805:T805"/>
+    <mergeCell ref="R807:S807"/>
+    <mergeCell ref="S818:T818"/>
+    <mergeCell ref="A821:A823"/>
+    <mergeCell ref="B821:B823"/>
+    <mergeCell ref="C821:C823"/>
+    <mergeCell ref="D821:D823"/>
+    <mergeCell ref="F821:F823"/>
+    <mergeCell ref="V796:V797"/>
+    <mergeCell ref="W796:W797"/>
+    <mergeCell ref="X796:X797"/>
+    <mergeCell ref="Y796:Y797"/>
+    <mergeCell ref="Z796:Z797"/>
+    <mergeCell ref="S798:T798"/>
+    <mergeCell ref="O796:O797"/>
+    <mergeCell ref="P796:P797"/>
+    <mergeCell ref="Q796:Q797"/>
+    <mergeCell ref="R796:S796"/>
+    <mergeCell ref="T796:T797"/>
+    <mergeCell ref="U796:U797"/>
+    <mergeCell ref="I796:I797"/>
+    <mergeCell ref="J796:J797"/>
+    <mergeCell ref="K796:K797"/>
+    <mergeCell ref="L796:L797"/>
+    <mergeCell ref="M796:M797"/>
+    <mergeCell ref="N796:N797"/>
+    <mergeCell ref="X794:X795"/>
+    <mergeCell ref="Y794:Y795"/>
+    <mergeCell ref="Z794:Z795"/>
+    <mergeCell ref="A796:A797"/>
+    <mergeCell ref="B796:B797"/>
+    <mergeCell ref="C796:C797"/>
+    <mergeCell ref="D796:D797"/>
+    <mergeCell ref="F796:F797"/>
+    <mergeCell ref="G796:G797"/>
+    <mergeCell ref="H796:H797"/>
+    <mergeCell ref="Q794:Q795"/>
+    <mergeCell ref="R794:S794"/>
+    <mergeCell ref="T794:T795"/>
+    <mergeCell ref="U794:U795"/>
+    <mergeCell ref="V794:V795"/>
+    <mergeCell ref="W794:W795"/>
+    <mergeCell ref="K794:K795"/>
+    <mergeCell ref="L794:L795"/>
+    <mergeCell ref="M794:M795"/>
+    <mergeCell ref="N794:N795"/>
+    <mergeCell ref="O794:O795"/>
+    <mergeCell ref="P794:P795"/>
+    <mergeCell ref="R792:S792"/>
+    <mergeCell ref="A794:A795"/>
+    <mergeCell ref="B794:B795"/>
+    <mergeCell ref="C794:C795"/>
+    <mergeCell ref="D794:D795"/>
+    <mergeCell ref="F794:F795"/>
+    <mergeCell ref="G794:G795"/>
+    <mergeCell ref="H794:H795"/>
+    <mergeCell ref="I794:I795"/>
+    <mergeCell ref="J794:J795"/>
+    <mergeCell ref="U788:U789"/>
+    <mergeCell ref="V788:V789"/>
+    <mergeCell ref="W788:W789"/>
+    <mergeCell ref="X788:X789"/>
+    <mergeCell ref="Y788:Y789"/>
+    <mergeCell ref="Z788:Z789"/>
+    <mergeCell ref="N788:N789"/>
+    <mergeCell ref="O788:O789"/>
+    <mergeCell ref="P788:P789"/>
+    <mergeCell ref="Q788:Q789"/>
+    <mergeCell ref="R788:S788"/>
+    <mergeCell ref="T788:T789"/>
+    <mergeCell ref="H788:H789"/>
+    <mergeCell ref="I788:I789"/>
+    <mergeCell ref="J788:J789"/>
+    <mergeCell ref="K788:K789"/>
+    <mergeCell ref="L788:L789"/>
+    <mergeCell ref="M788:M789"/>
+    <mergeCell ref="A788:A789"/>
+    <mergeCell ref="B788:B789"/>
+    <mergeCell ref="C788:C789"/>
+    <mergeCell ref="D788:D789"/>
+    <mergeCell ref="F788:F789"/>
+    <mergeCell ref="G788:G789"/>
+    <mergeCell ref="U785:U786"/>
+    <mergeCell ref="V785:V786"/>
+    <mergeCell ref="W785:W786"/>
+    <mergeCell ref="X785:X786"/>
+    <mergeCell ref="Y785:Y786"/>
+    <mergeCell ref="Z785:Z786"/>
+    <mergeCell ref="O785:O786"/>
+    <mergeCell ref="P785:P786"/>
+    <mergeCell ref="Q785:Q786"/>
+    <mergeCell ref="R785:R786"/>
+    <mergeCell ref="S785:S786"/>
+    <mergeCell ref="T785:T786"/>
+    <mergeCell ref="I785:I786"/>
+    <mergeCell ref="J785:J786"/>
+    <mergeCell ref="K785:K786"/>
+    <mergeCell ref="L785:L786"/>
+    <mergeCell ref="M785:M786"/>
+    <mergeCell ref="N785:N786"/>
+    <mergeCell ref="Y779:Y780"/>
+    <mergeCell ref="Z779:Z780"/>
+    <mergeCell ref="A785:A786"/>
+    <mergeCell ref="B785:B786"/>
+    <mergeCell ref="C785:C786"/>
+    <mergeCell ref="D785:D786"/>
+    <mergeCell ref="F785:F786"/>
+    <mergeCell ref="G785:G786"/>
+    <mergeCell ref="H785:H786"/>
+    <mergeCell ref="Q779:R779"/>
+    <mergeCell ref="S779:S780"/>
+    <mergeCell ref="T779:T780"/>
+    <mergeCell ref="U779:U780"/>
+    <mergeCell ref="V779:V780"/>
+    <mergeCell ref="W779:W780"/>
+    <mergeCell ref="K779:K780"/>
+    <mergeCell ref="L779:L780"/>
+    <mergeCell ref="M779:M780"/>
+    <mergeCell ref="N779:N780"/>
+    <mergeCell ref="O779:O780"/>
+    <mergeCell ref="P779:P780"/>
+    <mergeCell ref="A779:A780"/>
+    <mergeCell ref="B779:B780"/>
+    <mergeCell ref="C779:C780"/>
+    <mergeCell ref="D779:D780"/>
+    <mergeCell ref="F779:F780"/>
+    <mergeCell ref="G779:G780"/>
+    <mergeCell ref="H779:H780"/>
+    <mergeCell ref="I779:I780"/>
+    <mergeCell ref="J779:J780"/>
+    <mergeCell ref="T776:T777"/>
+    <mergeCell ref="U776:U777"/>
+    <mergeCell ref="V776:V777"/>
+    <mergeCell ref="W776:W777"/>
+    <mergeCell ref="X776:X777"/>
+    <mergeCell ref="Y776:Y777"/>
+    <mergeCell ref="N776:N777"/>
+    <mergeCell ref="O776:O777"/>
+    <mergeCell ref="P776:P777"/>
+    <mergeCell ref="Q776:Q777"/>
+    <mergeCell ref="R776:R777"/>
+    <mergeCell ref="S776:S777"/>
+    <mergeCell ref="H776:H777"/>
+    <mergeCell ref="I776:I777"/>
+    <mergeCell ref="J776:J777"/>
+    <mergeCell ref="K776:K777"/>
+    <mergeCell ref="L776:L777"/>
+    <mergeCell ref="M776:M777"/>
+    <mergeCell ref="A776:A777"/>
+    <mergeCell ref="B776:B777"/>
+    <mergeCell ref="C776:C777"/>
+    <mergeCell ref="D776:D777"/>
+    <mergeCell ref="X779:X780"/>
+    <mergeCell ref="F776:F777"/>
+    <mergeCell ref="G776:G777"/>
+    <mergeCell ref="W767:W768"/>
+    <mergeCell ref="X767:X768"/>
+    <mergeCell ref="Y767:Y768"/>
+    <mergeCell ref="Z767:Z768"/>
+    <mergeCell ref="Q769:R769"/>
+    <mergeCell ref="Q772:R772"/>
+    <mergeCell ref="P767:P768"/>
+    <mergeCell ref="Q767:Q768"/>
+    <mergeCell ref="R767:R768"/>
+    <mergeCell ref="S767:S768"/>
+    <mergeCell ref="T767:U767"/>
+    <mergeCell ref="V767:V768"/>
+    <mergeCell ref="J767:J768"/>
+    <mergeCell ref="K767:K768"/>
+    <mergeCell ref="L767:L768"/>
+    <mergeCell ref="M767:M768"/>
+    <mergeCell ref="N767:N768"/>
+    <mergeCell ref="O767:O768"/>
+    <mergeCell ref="Z776:Z777"/>
+    <mergeCell ref="Q762:R762"/>
+    <mergeCell ref="T766:U766"/>
+    <mergeCell ref="A767:A768"/>
+    <mergeCell ref="B767:B768"/>
+    <mergeCell ref="C767:C768"/>
+    <mergeCell ref="D767:D768"/>
+    <mergeCell ref="F767:F768"/>
+    <mergeCell ref="G767:G768"/>
+    <mergeCell ref="H767:H768"/>
+    <mergeCell ref="I767:I768"/>
+    <mergeCell ref="Z750:Z751"/>
+    <mergeCell ref="Q755:R755"/>
+    <mergeCell ref="R757:S757"/>
+    <mergeCell ref="R758:S758"/>
+    <mergeCell ref="R760:S760"/>
+    <mergeCell ref="Q761:R761"/>
+    <mergeCell ref="T750:T751"/>
+    <mergeCell ref="U750:U751"/>
+    <mergeCell ref="V750:V751"/>
+    <mergeCell ref="W750:W751"/>
+    <mergeCell ref="X750:X751"/>
+    <mergeCell ref="Y750:Y751"/>
+    <mergeCell ref="N750:N751"/>
+    <mergeCell ref="O750:O751"/>
+    <mergeCell ref="P750:P751"/>
+    <mergeCell ref="Q750:Q751"/>
+    <mergeCell ref="R750:R751"/>
+    <mergeCell ref="S750:S751"/>
+    <mergeCell ref="H750:H751"/>
+    <mergeCell ref="I750:I751"/>
+    <mergeCell ref="J750:J751"/>
+    <mergeCell ref="K750:K751"/>
+    <mergeCell ref="L750:L751"/>
+    <mergeCell ref="M750:M751"/>
+    <mergeCell ref="W747:W748"/>
+    <mergeCell ref="X747:X748"/>
+    <mergeCell ref="Y747:Y748"/>
+    <mergeCell ref="Z747:Z748"/>
+    <mergeCell ref="A750:A751"/>
+    <mergeCell ref="B750:B751"/>
+    <mergeCell ref="C750:C751"/>
+    <mergeCell ref="D750:D751"/>
+    <mergeCell ref="F750:F751"/>
+    <mergeCell ref="G750:G751"/>
+    <mergeCell ref="Q747:Q748"/>
+    <mergeCell ref="R747:R748"/>
+    <mergeCell ref="S747:S748"/>
+    <mergeCell ref="T747:T748"/>
+    <mergeCell ref="U747:U748"/>
+    <mergeCell ref="V747:V748"/>
+    <mergeCell ref="K747:K748"/>
+    <mergeCell ref="L747:L748"/>
+    <mergeCell ref="M747:M748"/>
+    <mergeCell ref="N747:N748"/>
+    <mergeCell ref="O747:O748"/>
+    <mergeCell ref="P747:P748"/>
+    <mergeCell ref="S746:T746"/>
+    <mergeCell ref="A747:A748"/>
+    <mergeCell ref="B747:B748"/>
+    <mergeCell ref="C747:C748"/>
+    <mergeCell ref="D747:D748"/>
+    <mergeCell ref="F747:F748"/>
+    <mergeCell ref="G747:G748"/>
+    <mergeCell ref="H747:H748"/>
+    <mergeCell ref="I747:I748"/>
+    <mergeCell ref="J747:J748"/>
+    <mergeCell ref="V742:V743"/>
+    <mergeCell ref="W742:W743"/>
+    <mergeCell ref="X742:X743"/>
+    <mergeCell ref="Y742:Y743"/>
+    <mergeCell ref="Z742:Z743"/>
+    <mergeCell ref="R744:S744"/>
+    <mergeCell ref="O742:O743"/>
+    <mergeCell ref="P742:P743"/>
+    <mergeCell ref="Q742:Q743"/>
+    <mergeCell ref="R742:S742"/>
+    <mergeCell ref="T742:T743"/>
+    <mergeCell ref="U742:U743"/>
+    <mergeCell ref="I742:I743"/>
+    <mergeCell ref="J742:J743"/>
+    <mergeCell ref="K742:K743"/>
+    <mergeCell ref="L742:L743"/>
+    <mergeCell ref="M742:M743"/>
+    <mergeCell ref="N742:N743"/>
+    <mergeCell ref="Z734:Z736"/>
+    <mergeCell ref="Q740:R740"/>
+    <mergeCell ref="W741:X741"/>
+    <mergeCell ref="A742:A743"/>
+    <mergeCell ref="B742:B743"/>
+    <mergeCell ref="C742:C743"/>
+    <mergeCell ref="D742:D743"/>
+    <mergeCell ref="F742:F743"/>
+    <mergeCell ref="G742:G743"/>
+    <mergeCell ref="H742:H743"/>
+    <mergeCell ref="T734:T736"/>
+    <mergeCell ref="U734:U736"/>
+    <mergeCell ref="V734:V736"/>
+    <mergeCell ref="W734:W736"/>
+    <mergeCell ref="X734:X736"/>
+    <mergeCell ref="Y734:Y736"/>
+    <mergeCell ref="M734:M736"/>
+    <mergeCell ref="N734:N736"/>
+    <mergeCell ref="O734:O736"/>
+    <mergeCell ref="P734:P736"/>
+    <mergeCell ref="Q734:Q736"/>
+    <mergeCell ref="R734:S734"/>
+    <mergeCell ref="G734:G736"/>
+    <mergeCell ref="H734:H736"/>
+    <mergeCell ref="I734:I736"/>
+    <mergeCell ref="J734:J736"/>
+    <mergeCell ref="K734:K736"/>
+    <mergeCell ref="L734:L736"/>
+    <mergeCell ref="R731:S731"/>
+    <mergeCell ref="A734:A736"/>
+    <mergeCell ref="B734:B736"/>
+    <mergeCell ref="C734:C736"/>
+    <mergeCell ref="D734:D736"/>
+    <mergeCell ref="F734:F736"/>
+    <mergeCell ref="Q728:Q729"/>
+    <mergeCell ref="R728:R729"/>
+    <mergeCell ref="S728:S729"/>
+    <mergeCell ref="T728:T729"/>
+    <mergeCell ref="U728:U729"/>
+    <mergeCell ref="V728:V729"/>
+    <mergeCell ref="K728:K729"/>
+    <mergeCell ref="L728:L729"/>
+    <mergeCell ref="M728:M729"/>
+    <mergeCell ref="N728:N729"/>
+    <mergeCell ref="O728:O729"/>
+    <mergeCell ref="P728:P729"/>
+    <mergeCell ref="Z726:Z727"/>
+    <mergeCell ref="A728:A729"/>
+    <mergeCell ref="B728:B729"/>
+    <mergeCell ref="C728:C729"/>
+    <mergeCell ref="D728:D729"/>
+    <mergeCell ref="F728:F729"/>
+    <mergeCell ref="G728:G729"/>
+    <mergeCell ref="H728:H729"/>
+    <mergeCell ref="I728:I729"/>
+    <mergeCell ref="J728:J729"/>
+    <mergeCell ref="T726:T727"/>
+    <mergeCell ref="U726:U727"/>
+    <mergeCell ref="V726:V727"/>
+    <mergeCell ref="W726:W727"/>
+    <mergeCell ref="X726:X727"/>
+    <mergeCell ref="Y726:Y727"/>
+    <mergeCell ref="M726:M727"/>
+    <mergeCell ref="N726:N727"/>
+    <mergeCell ref="O726:O727"/>
+    <mergeCell ref="P726:P727"/>
+    <mergeCell ref="Q726:Q727"/>
+    <mergeCell ref="R726:S726"/>
+    <mergeCell ref="G726:G727"/>
+    <mergeCell ref="H726:H727"/>
+    <mergeCell ref="I726:I727"/>
+    <mergeCell ref="J726:J727"/>
+    <mergeCell ref="K726:K727"/>
+    <mergeCell ref="L726:L727"/>
+    <mergeCell ref="W728:W729"/>
+    <mergeCell ref="X728:X729"/>
+    <mergeCell ref="Y728:Y729"/>
+    <mergeCell ref="Z728:Z729"/>
+    <mergeCell ref="T709:U709"/>
+    <mergeCell ref="R714:S714"/>
+    <mergeCell ref="R717:S717"/>
+    <mergeCell ref="Q721:R721"/>
+    <mergeCell ref="R722:S722"/>
+    <mergeCell ref="A726:A727"/>
+    <mergeCell ref="B726:B727"/>
+    <mergeCell ref="C726:C727"/>
+    <mergeCell ref="D726:D727"/>
+    <mergeCell ref="F726:F727"/>
+    <mergeCell ref="R699:S699"/>
+    <mergeCell ref="Q700:R700"/>
+    <mergeCell ref="S703:T703"/>
+    <mergeCell ref="R705:S705"/>
+    <mergeCell ref="Q706:R706"/>
+    <mergeCell ref="S708:T708"/>
+    <mergeCell ref="Y687:Y688"/>
+    <mergeCell ref="G687:G688"/>
+    <mergeCell ref="H687:H688"/>
+    <mergeCell ref="I687:I688"/>
+    <mergeCell ref="J687:J688"/>
+    <mergeCell ref="K687:K688"/>
+    <mergeCell ref="L687:L688"/>
+    <mergeCell ref="Z687:Z688"/>
+    <mergeCell ref="Q692:R692"/>
+    <mergeCell ref="Q693:R693"/>
+    <mergeCell ref="Q694:R694"/>
+    <mergeCell ref="R697:S697"/>
+    <mergeCell ref="S687:S688"/>
+    <mergeCell ref="T687:T688"/>
+    <mergeCell ref="U687:U688"/>
+    <mergeCell ref="V687:V688"/>
+    <mergeCell ref="W687:W688"/>
+    <mergeCell ref="X687:X688"/>
+    <mergeCell ref="M687:M688"/>
+    <mergeCell ref="N687:N688"/>
+    <mergeCell ref="O687:O688"/>
+    <mergeCell ref="P687:P688"/>
+    <mergeCell ref="Q687:Q688"/>
+    <mergeCell ref="R687:R688"/>
+    <mergeCell ref="Q683:R683"/>
+    <mergeCell ref="A687:A688"/>
+    <mergeCell ref="B687:B688"/>
+    <mergeCell ref="C687:C688"/>
+    <mergeCell ref="D687:D688"/>
+    <mergeCell ref="F687:F688"/>
+    <mergeCell ref="P681:P682"/>
+    <mergeCell ref="Q681:R681"/>
+    <mergeCell ref="S681:S682"/>
+    <mergeCell ref="T681:T682"/>
+    <mergeCell ref="U681:U682"/>
+    <mergeCell ref="V681:V682"/>
+    <mergeCell ref="J681:J682"/>
+    <mergeCell ref="K681:K682"/>
+    <mergeCell ref="L681:L682"/>
+    <mergeCell ref="M681:M682"/>
+    <mergeCell ref="N681:N682"/>
+    <mergeCell ref="O681:O682"/>
+    <mergeCell ref="Z678:Z679"/>
+    <mergeCell ref="A681:A682"/>
+    <mergeCell ref="B681:B682"/>
+    <mergeCell ref="C681:C682"/>
+    <mergeCell ref="D681:D682"/>
+    <mergeCell ref="F681:F682"/>
+    <mergeCell ref="G681:G682"/>
+    <mergeCell ref="H681:H682"/>
+    <mergeCell ref="I681:I682"/>
+    <mergeCell ref="S678:S679"/>
+    <mergeCell ref="T678:T679"/>
+    <mergeCell ref="U678:U679"/>
+    <mergeCell ref="V678:V679"/>
+    <mergeCell ref="W678:W679"/>
+    <mergeCell ref="X678:X679"/>
+    <mergeCell ref="M678:M679"/>
+    <mergeCell ref="N678:N679"/>
+    <mergeCell ref="O678:O679"/>
+    <mergeCell ref="P678:P679"/>
+    <mergeCell ref="Q678:Q679"/>
+    <mergeCell ref="R678:R679"/>
+    <mergeCell ref="G678:G679"/>
+    <mergeCell ref="H678:H679"/>
+    <mergeCell ref="I678:I679"/>
+    <mergeCell ref="J678:J679"/>
+    <mergeCell ref="K678:K679"/>
+    <mergeCell ref="L678:L679"/>
+    <mergeCell ref="W681:W682"/>
+    <mergeCell ref="X681:X682"/>
+    <mergeCell ref="Y681:Y682"/>
+    <mergeCell ref="Z681:Z682"/>
+    <mergeCell ref="Q675:R675"/>
+    <mergeCell ref="Q676:R676"/>
+    <mergeCell ref="X677:Y677"/>
+    <mergeCell ref="A678:A679"/>
+    <mergeCell ref="B678:B679"/>
+    <mergeCell ref="C678:C679"/>
+    <mergeCell ref="D678:D679"/>
+    <mergeCell ref="F678:F679"/>
+    <mergeCell ref="S672:S674"/>
+    <mergeCell ref="T672:T674"/>
+    <mergeCell ref="U672:U674"/>
+    <mergeCell ref="V672:V674"/>
+    <mergeCell ref="W672:W674"/>
+    <mergeCell ref="X672:X674"/>
+    <mergeCell ref="M672:M674"/>
+    <mergeCell ref="N672:N674"/>
+    <mergeCell ref="O672:O674"/>
+    <mergeCell ref="P672:P674"/>
+    <mergeCell ref="Q672:Q674"/>
+    <mergeCell ref="R672:R674"/>
+    <mergeCell ref="G672:G674"/>
+    <mergeCell ref="H672:H674"/>
+    <mergeCell ref="I672:I674"/>
+    <mergeCell ref="J672:J674"/>
+    <mergeCell ref="K672:K674"/>
+    <mergeCell ref="L672:L674"/>
+    <mergeCell ref="Y678:Y679"/>
+    <mergeCell ref="X665:X666"/>
+    <mergeCell ref="Y665:Y666"/>
+    <mergeCell ref="Z665:Z666"/>
+    <mergeCell ref="R669:S669"/>
+    <mergeCell ref="Q670:R670"/>
+    <mergeCell ref="A672:A674"/>
+    <mergeCell ref="B672:B674"/>
+    <mergeCell ref="C672:C674"/>
+    <mergeCell ref="D672:D674"/>
+    <mergeCell ref="F672:F674"/>
+    <mergeCell ref="Q665:R665"/>
+    <mergeCell ref="S665:S666"/>
+    <mergeCell ref="T665:T666"/>
+    <mergeCell ref="U665:U666"/>
+    <mergeCell ref="V665:V666"/>
+    <mergeCell ref="W665:W666"/>
+    <mergeCell ref="K665:K666"/>
+    <mergeCell ref="L665:L666"/>
+    <mergeCell ref="M665:M666"/>
+    <mergeCell ref="N665:N666"/>
+    <mergeCell ref="O665:O666"/>
+    <mergeCell ref="P665:P666"/>
+    <mergeCell ref="Y672:Y674"/>
+    <mergeCell ref="Z672:Z674"/>
+    <mergeCell ref="S664:T664"/>
+    <mergeCell ref="A665:A666"/>
+    <mergeCell ref="B665:B666"/>
+    <mergeCell ref="C665:C666"/>
+    <mergeCell ref="D665:D666"/>
+    <mergeCell ref="F665:F666"/>
+    <mergeCell ref="G665:G666"/>
+    <mergeCell ref="H665:H666"/>
+    <mergeCell ref="I665:I666"/>
+    <mergeCell ref="J665:J666"/>
+    <mergeCell ref="U659:U661"/>
+    <mergeCell ref="V659:V661"/>
+    <mergeCell ref="W659:W661"/>
+    <mergeCell ref="X659:X661"/>
+    <mergeCell ref="Y659:Y661"/>
+    <mergeCell ref="Z659:Z661"/>
+    <mergeCell ref="N659:N661"/>
+    <mergeCell ref="O659:O661"/>
+    <mergeCell ref="P659:P661"/>
+    <mergeCell ref="Q659:R659"/>
+    <mergeCell ref="S659:S661"/>
+    <mergeCell ref="T659:T661"/>
+    <mergeCell ref="H659:H661"/>
+    <mergeCell ref="I659:I661"/>
+    <mergeCell ref="J659:J661"/>
+    <mergeCell ref="K659:K661"/>
+    <mergeCell ref="L659:L661"/>
+    <mergeCell ref="M659:M661"/>
+    <mergeCell ref="A659:A661"/>
+    <mergeCell ref="B659:B661"/>
+    <mergeCell ref="C659:C661"/>
+    <mergeCell ref="D659:D661"/>
+    <mergeCell ref="F659:F661"/>
+    <mergeCell ref="G659:G661"/>
+    <mergeCell ref="U656:U657"/>
+    <mergeCell ref="V656:V657"/>
+    <mergeCell ref="W656:W657"/>
+    <mergeCell ref="X656:X657"/>
+    <mergeCell ref="Y656:Y657"/>
+    <mergeCell ref="Z656:Z657"/>
+    <mergeCell ref="O656:O657"/>
+    <mergeCell ref="P656:P657"/>
+    <mergeCell ref="Q656:Q657"/>
+    <mergeCell ref="R656:R657"/>
+    <mergeCell ref="S656:S657"/>
+    <mergeCell ref="T656:T657"/>
+    <mergeCell ref="I656:I657"/>
+    <mergeCell ref="J656:J657"/>
+    <mergeCell ref="K656:K657"/>
+    <mergeCell ref="L656:L657"/>
+    <mergeCell ref="M656:M657"/>
+    <mergeCell ref="N656:N657"/>
+    <mergeCell ref="T655:U655"/>
+    <mergeCell ref="A656:A657"/>
+    <mergeCell ref="B656:B657"/>
+    <mergeCell ref="C656:C657"/>
+    <mergeCell ref="D656:D657"/>
+    <mergeCell ref="F656:F657"/>
+    <mergeCell ref="G656:G657"/>
+    <mergeCell ref="H656:H657"/>
+    <mergeCell ref="S653:S654"/>
+    <mergeCell ref="T653:T654"/>
+    <mergeCell ref="U653:U654"/>
+    <mergeCell ref="V653:V654"/>
+    <mergeCell ref="W653:W654"/>
+    <mergeCell ref="X653:X654"/>
+    <mergeCell ref="M653:M654"/>
+    <mergeCell ref="N653:N654"/>
+    <mergeCell ref="O653:O654"/>
+    <mergeCell ref="P653:P654"/>
+    <mergeCell ref="Q653:Q654"/>
+    <mergeCell ref="R653:R654"/>
+    <mergeCell ref="G653:G654"/>
+    <mergeCell ref="H653:H654"/>
+    <mergeCell ref="I653:I654"/>
+    <mergeCell ref="J653:J654"/>
+    <mergeCell ref="K653:K654"/>
+    <mergeCell ref="L653:L654"/>
+    <mergeCell ref="Z638:Z639"/>
+    <mergeCell ref="S643:T643"/>
+    <mergeCell ref="R644:S644"/>
+    <mergeCell ref="Q645:R645"/>
+    <mergeCell ref="Q648:R648"/>
+    <mergeCell ref="A653:A654"/>
+    <mergeCell ref="B653:B654"/>
+    <mergeCell ref="C653:C654"/>
+    <mergeCell ref="D653:D654"/>
+    <mergeCell ref="F653:F654"/>
+    <mergeCell ref="T638:T639"/>
+    <mergeCell ref="U638:U639"/>
+    <mergeCell ref="V638:V639"/>
+    <mergeCell ref="W638:W639"/>
+    <mergeCell ref="X638:X639"/>
+    <mergeCell ref="Y638:Y639"/>
+    <mergeCell ref="N638:N639"/>
+    <mergeCell ref="O638:O639"/>
+    <mergeCell ref="P638:P639"/>
+    <mergeCell ref="Q638:Q639"/>
+    <mergeCell ref="R638:R639"/>
+    <mergeCell ref="S638:S639"/>
+    <mergeCell ref="H638:H639"/>
+    <mergeCell ref="I638:I639"/>
+    <mergeCell ref="J638:J639"/>
+    <mergeCell ref="K638:K639"/>
+    <mergeCell ref="L638:L639"/>
+    <mergeCell ref="M638:M639"/>
+    <mergeCell ref="Y653:Y654"/>
+    <mergeCell ref="Z653:Z654"/>
+    <mergeCell ref="A638:A639"/>
+    <mergeCell ref="B638:B639"/>
+    <mergeCell ref="C638:C639"/>
+    <mergeCell ref="D638:D639"/>
+    <mergeCell ref="F638:F639"/>
+    <mergeCell ref="G638:G639"/>
+    <mergeCell ref="Q636:Q637"/>
+    <mergeCell ref="R636:R637"/>
+    <mergeCell ref="S636:S637"/>
+    <mergeCell ref="T636:T637"/>
+    <mergeCell ref="U636:U637"/>
+    <mergeCell ref="V636:V637"/>
+    <mergeCell ref="K636:K637"/>
+    <mergeCell ref="L636:L637"/>
+    <mergeCell ref="M636:M637"/>
+    <mergeCell ref="N636:N637"/>
+    <mergeCell ref="O636:O637"/>
+    <mergeCell ref="P636:P637"/>
+    <mergeCell ref="Q635:R635"/>
+    <mergeCell ref="A636:A637"/>
+    <mergeCell ref="B636:B637"/>
+    <mergeCell ref="C636:C637"/>
+    <mergeCell ref="D636:D637"/>
+    <mergeCell ref="F636:F637"/>
+    <mergeCell ref="G636:G637"/>
+    <mergeCell ref="H636:H637"/>
+    <mergeCell ref="I636:I637"/>
+    <mergeCell ref="J636:J637"/>
+    <mergeCell ref="W628:W629"/>
+    <mergeCell ref="X628:X629"/>
+    <mergeCell ref="Y628:Y629"/>
+    <mergeCell ref="Z628:Z629"/>
+    <mergeCell ref="R632:S632"/>
+    <mergeCell ref="Q633:R633"/>
+    <mergeCell ref="P628:P629"/>
+    <mergeCell ref="Q628:Q629"/>
+    <mergeCell ref="R628:R629"/>
+    <mergeCell ref="S628:T628"/>
+    <mergeCell ref="U628:U629"/>
+    <mergeCell ref="V628:V629"/>
+    <mergeCell ref="J628:J629"/>
+    <mergeCell ref="K628:K629"/>
+    <mergeCell ref="L628:L629"/>
+    <mergeCell ref="M628:M629"/>
+    <mergeCell ref="N628:N629"/>
+    <mergeCell ref="O628:O629"/>
+    <mergeCell ref="W636:W637"/>
+    <mergeCell ref="X636:X637"/>
+    <mergeCell ref="Y636:Y637"/>
+    <mergeCell ref="Z636:Z637"/>
+    <mergeCell ref="S624:T624"/>
+    <mergeCell ref="R625:S625"/>
+    <mergeCell ref="A628:A629"/>
+    <mergeCell ref="B628:B629"/>
+    <mergeCell ref="C628:C629"/>
+    <mergeCell ref="D628:D629"/>
+    <mergeCell ref="F628:F629"/>
+    <mergeCell ref="G628:G629"/>
+    <mergeCell ref="H628:H629"/>
+    <mergeCell ref="I628:I629"/>
+    <mergeCell ref="Q610:R610"/>
+    <mergeCell ref="X612:Y612"/>
+    <mergeCell ref="R614:S614"/>
+    <mergeCell ref="Q615:R615"/>
+    <mergeCell ref="R620:S620"/>
+    <mergeCell ref="T621:U621"/>
+    <mergeCell ref="W603:W605"/>
+    <mergeCell ref="X603:X605"/>
+    <mergeCell ref="Y603:Y605"/>
+    <mergeCell ref="Z603:Z605"/>
+    <mergeCell ref="T606:U606"/>
+    <mergeCell ref="R607:S607"/>
+    <mergeCell ref="Q603:Q605"/>
+    <mergeCell ref="R603:R605"/>
+    <mergeCell ref="S603:S605"/>
+    <mergeCell ref="T603:T605"/>
+    <mergeCell ref="U603:U605"/>
+    <mergeCell ref="V603:V605"/>
+    <mergeCell ref="K603:K605"/>
+    <mergeCell ref="L603:L605"/>
+    <mergeCell ref="M603:M605"/>
+    <mergeCell ref="N603:N605"/>
+    <mergeCell ref="O603:O605"/>
+    <mergeCell ref="P603:P605"/>
+    <mergeCell ref="Z598:Z599"/>
+    <mergeCell ref="A603:A605"/>
+    <mergeCell ref="B603:B605"/>
+    <mergeCell ref="C603:C605"/>
+    <mergeCell ref="D603:D605"/>
+    <mergeCell ref="F603:F605"/>
+    <mergeCell ref="G603:G605"/>
+    <mergeCell ref="H603:H605"/>
+    <mergeCell ref="I603:I605"/>
+    <mergeCell ref="J603:J605"/>
+    <mergeCell ref="T598:T599"/>
+    <mergeCell ref="U598:U599"/>
+    <mergeCell ref="V598:V599"/>
+    <mergeCell ref="W598:W599"/>
+    <mergeCell ref="X598:X599"/>
+    <mergeCell ref="Y598:Y599"/>
+    <mergeCell ref="N598:N599"/>
+    <mergeCell ref="O598:O599"/>
+    <mergeCell ref="P598:P599"/>
+    <mergeCell ref="Q598:Q599"/>
+    <mergeCell ref="R598:R599"/>
+    <mergeCell ref="S598:S599"/>
+    <mergeCell ref="H598:H599"/>
+    <mergeCell ref="I598:I599"/>
+    <mergeCell ref="J598:J599"/>
+    <mergeCell ref="K598:K599"/>
+    <mergeCell ref="L598:L599"/>
+    <mergeCell ref="M598:M599"/>
+    <mergeCell ref="A598:A599"/>
+    <mergeCell ref="B598:B599"/>
+    <mergeCell ref="C598:C599"/>
+    <mergeCell ref="D598:D599"/>
+    <mergeCell ref="F598:F599"/>
+    <mergeCell ref="G598:G599"/>
+    <mergeCell ref="X593:X594"/>
+    <mergeCell ref="Y593:Y594"/>
+    <mergeCell ref="Z593:Z594"/>
+    <mergeCell ref="R595:S595"/>
+    <mergeCell ref="Q597:R597"/>
+    <mergeCell ref="Q593:Q594"/>
+    <mergeCell ref="R593:R594"/>
+    <mergeCell ref="S593:S594"/>
+    <mergeCell ref="T593:T594"/>
+    <mergeCell ref="U593:U594"/>
+    <mergeCell ref="V593:V594"/>
+    <mergeCell ref="K593:K594"/>
+    <mergeCell ref="L593:L594"/>
+    <mergeCell ref="M593:M594"/>
+    <mergeCell ref="N593:N594"/>
+    <mergeCell ref="O593:O594"/>
+    <mergeCell ref="P593:P594"/>
+    <mergeCell ref="A593:A594"/>
+    <mergeCell ref="B593:B594"/>
+    <mergeCell ref="C593:C594"/>
+    <mergeCell ref="D593:D594"/>
+    <mergeCell ref="F593:F594"/>
+    <mergeCell ref="G593:G594"/>
+    <mergeCell ref="H593:H594"/>
+    <mergeCell ref="I593:I594"/>
+    <mergeCell ref="J593:J594"/>
+    <mergeCell ref="T588:T589"/>
+    <mergeCell ref="U588:U589"/>
+    <mergeCell ref="V588:V589"/>
+    <mergeCell ref="W588:W589"/>
+    <mergeCell ref="X588:X589"/>
+    <mergeCell ref="Y588:Y589"/>
+    <mergeCell ref="N588:N589"/>
+    <mergeCell ref="O588:O589"/>
+    <mergeCell ref="P588:P589"/>
+    <mergeCell ref="Q588:Q589"/>
+    <mergeCell ref="R588:R589"/>
+    <mergeCell ref="S588:S589"/>
+    <mergeCell ref="H588:H589"/>
+    <mergeCell ref="I588:I589"/>
+    <mergeCell ref="J588:J589"/>
+    <mergeCell ref="K588:K589"/>
+    <mergeCell ref="L588:L589"/>
+    <mergeCell ref="M588:M589"/>
+    <mergeCell ref="A588:A589"/>
+    <mergeCell ref="B588:B589"/>
+    <mergeCell ref="C588:C589"/>
+    <mergeCell ref="D588:D589"/>
+    <mergeCell ref="W593:W594"/>
+    <mergeCell ref="F588:F589"/>
+    <mergeCell ref="G588:G589"/>
+    <mergeCell ref="U585:U586"/>
+    <mergeCell ref="V585:V586"/>
+    <mergeCell ref="W585:W586"/>
+    <mergeCell ref="X585:X586"/>
+    <mergeCell ref="Y585:Y586"/>
+    <mergeCell ref="Z585:Z586"/>
+    <mergeCell ref="O585:O586"/>
+    <mergeCell ref="P585:P586"/>
+    <mergeCell ref="Q585:Q586"/>
+    <mergeCell ref="R585:R586"/>
+    <mergeCell ref="S585:S586"/>
+    <mergeCell ref="T585:T586"/>
+    <mergeCell ref="I585:I586"/>
+    <mergeCell ref="J585:J586"/>
+    <mergeCell ref="K585:K586"/>
+    <mergeCell ref="L585:L586"/>
+    <mergeCell ref="M585:M586"/>
+    <mergeCell ref="N585:N586"/>
+    <mergeCell ref="Z588:Z589"/>
+    <mergeCell ref="Z577:Z578"/>
+    <mergeCell ref="R582:S582"/>
+    <mergeCell ref="S584:T584"/>
+    <mergeCell ref="A585:A586"/>
+    <mergeCell ref="B585:B586"/>
+    <mergeCell ref="C585:C586"/>
+    <mergeCell ref="D585:D586"/>
+    <mergeCell ref="F585:F586"/>
+    <mergeCell ref="G585:G586"/>
+    <mergeCell ref="H585:H586"/>
+    <mergeCell ref="T577:T578"/>
+    <mergeCell ref="U577:U578"/>
+    <mergeCell ref="V577:V578"/>
+    <mergeCell ref="W577:W578"/>
+    <mergeCell ref="X577:X578"/>
+    <mergeCell ref="Y577:Y578"/>
+    <mergeCell ref="N577:N578"/>
+    <mergeCell ref="O577:O578"/>
+    <mergeCell ref="P577:P578"/>
+    <mergeCell ref="Q577:Q578"/>
+    <mergeCell ref="R577:R578"/>
+    <mergeCell ref="S577:S578"/>
+    <mergeCell ref="H577:H578"/>
+    <mergeCell ref="I577:I578"/>
+    <mergeCell ref="J577:J578"/>
+    <mergeCell ref="K577:K578"/>
+    <mergeCell ref="L577:L578"/>
+    <mergeCell ref="M577:M578"/>
+    <mergeCell ref="R569:S569"/>
+    <mergeCell ref="R571:S571"/>
+    <mergeCell ref="Q574:R574"/>
+    <mergeCell ref="R576:S576"/>
+    <mergeCell ref="A577:A578"/>
+    <mergeCell ref="B577:B578"/>
+    <mergeCell ref="C577:C578"/>
+    <mergeCell ref="D577:D578"/>
+    <mergeCell ref="F577:F578"/>
+    <mergeCell ref="G577:G578"/>
+    <mergeCell ref="Z558:Z559"/>
+    <mergeCell ref="R560:S560"/>
+    <mergeCell ref="T561:U561"/>
+    <mergeCell ref="R562:S562"/>
+    <mergeCell ref="S563:T563"/>
+    <mergeCell ref="Q566:R566"/>
+    <mergeCell ref="T558:T559"/>
+    <mergeCell ref="U558:U559"/>
+    <mergeCell ref="V558:V559"/>
+    <mergeCell ref="W558:W559"/>
+    <mergeCell ref="X558:X559"/>
+    <mergeCell ref="Y558:Y559"/>
+    <mergeCell ref="M558:M559"/>
+    <mergeCell ref="N558:N559"/>
+    <mergeCell ref="O558:O559"/>
+    <mergeCell ref="P558:P559"/>
+    <mergeCell ref="Q558:R558"/>
+    <mergeCell ref="S558:S559"/>
+    <mergeCell ref="G558:G559"/>
+    <mergeCell ref="H558:H559"/>
+    <mergeCell ref="I558:I559"/>
+    <mergeCell ref="J558:J559"/>
+    <mergeCell ref="K558:K559"/>
+    <mergeCell ref="L558:L559"/>
+    <mergeCell ref="V553:V554"/>
+    <mergeCell ref="W553:W554"/>
+    <mergeCell ref="X553:X554"/>
+    <mergeCell ref="Y553:Y554"/>
+    <mergeCell ref="Z553:Z554"/>
+    <mergeCell ref="A558:A559"/>
+    <mergeCell ref="B558:B559"/>
+    <mergeCell ref="C558:C559"/>
+    <mergeCell ref="D558:D559"/>
+    <mergeCell ref="F558:F559"/>
+    <mergeCell ref="P553:P554"/>
+    <mergeCell ref="Q553:Q554"/>
+    <mergeCell ref="R553:R554"/>
+    <mergeCell ref="S553:S554"/>
+    <mergeCell ref="T553:T554"/>
+    <mergeCell ref="U553:U554"/>
+    <mergeCell ref="J553:J554"/>
+    <mergeCell ref="K553:K554"/>
+    <mergeCell ref="L553:L554"/>
+    <mergeCell ref="M553:M554"/>
+    <mergeCell ref="N553:N554"/>
+    <mergeCell ref="O553:O554"/>
+    <mergeCell ref="S552:T552"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="C553:C554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="F553:F554"/>
+    <mergeCell ref="G553:G554"/>
+    <mergeCell ref="H553:H554"/>
+    <mergeCell ref="I553:I554"/>
+    <mergeCell ref="T550:T551"/>
+    <mergeCell ref="U550:U551"/>
+    <mergeCell ref="V550:V551"/>
+    <mergeCell ref="W550:W551"/>
+    <mergeCell ref="X550:X551"/>
+    <mergeCell ref="Y550:Y551"/>
+    <mergeCell ref="N550:N551"/>
+    <mergeCell ref="O550:O551"/>
+    <mergeCell ref="P550:P551"/>
+    <mergeCell ref="Q550:Q551"/>
+    <mergeCell ref="R550:R551"/>
+    <mergeCell ref="S550:S551"/>
+    <mergeCell ref="H550:H551"/>
+    <mergeCell ref="I550:I551"/>
+    <mergeCell ref="J550:J551"/>
+    <mergeCell ref="K550:K551"/>
+    <mergeCell ref="L550:L551"/>
+    <mergeCell ref="M550:M551"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="C550:C551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="F550:F551"/>
+    <mergeCell ref="G550:G551"/>
+    <mergeCell ref="U548:U549"/>
+    <mergeCell ref="V548:V549"/>
+    <mergeCell ref="W548:W549"/>
+    <mergeCell ref="X548:X549"/>
+    <mergeCell ref="Y548:Y549"/>
+    <mergeCell ref="Z548:Z549"/>
+    <mergeCell ref="N548:N549"/>
+    <mergeCell ref="O548:O549"/>
+    <mergeCell ref="P548:P549"/>
+    <mergeCell ref="Q548:Q549"/>
+    <mergeCell ref="R548:S548"/>
+    <mergeCell ref="T548:T549"/>
+    <mergeCell ref="H548:H549"/>
+    <mergeCell ref="I548:I549"/>
+    <mergeCell ref="J548:J549"/>
+    <mergeCell ref="K548:K549"/>
+    <mergeCell ref="L548:L549"/>
+    <mergeCell ref="M548:M549"/>
+    <mergeCell ref="Z550:Z551"/>
+    <mergeCell ref="A548:A549"/>
+    <mergeCell ref="B548:B549"/>
+    <mergeCell ref="C548:C549"/>
+    <mergeCell ref="D548:D549"/>
+    <mergeCell ref="F548:F549"/>
+    <mergeCell ref="G548:G549"/>
+    <mergeCell ref="Q538:R538"/>
+    <mergeCell ref="Q539:R539"/>
+    <mergeCell ref="Q540:R540"/>
+    <mergeCell ref="R542:S542"/>
+    <mergeCell ref="R544:S544"/>
+    <mergeCell ref="Q547:R547"/>
+    <mergeCell ref="V535:V536"/>
+    <mergeCell ref="W535:W536"/>
+    <mergeCell ref="X535:X536"/>
+    <mergeCell ref="Y535:Y536"/>
+    <mergeCell ref="Z535:Z536"/>
+    <mergeCell ref="S537:T537"/>
+    <mergeCell ref="P535:P536"/>
+    <mergeCell ref="Q535:Q536"/>
+    <mergeCell ref="R535:R536"/>
+    <mergeCell ref="S535:S536"/>
+    <mergeCell ref="T535:T536"/>
+    <mergeCell ref="U535:U536"/>
+    <mergeCell ref="J535:J536"/>
+    <mergeCell ref="K535:K536"/>
+    <mergeCell ref="L535:L536"/>
+    <mergeCell ref="M535:M536"/>
+    <mergeCell ref="N535:N536"/>
+    <mergeCell ref="O535:O536"/>
+    <mergeCell ref="R534:S534"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="C535:C536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="F535:F536"/>
+    <mergeCell ref="G535:G536"/>
+    <mergeCell ref="H535:H536"/>
+    <mergeCell ref="I535:I536"/>
+    <mergeCell ref="T532:T533"/>
+    <mergeCell ref="U532:U533"/>
+    <mergeCell ref="V532:V533"/>
+    <mergeCell ref="W532:W533"/>
+    <mergeCell ref="X532:X533"/>
+    <mergeCell ref="Y532:Y533"/>
+    <mergeCell ref="N532:N533"/>
+    <mergeCell ref="O532:O533"/>
+    <mergeCell ref="P532:P533"/>
+    <mergeCell ref="Q532:Q533"/>
+    <mergeCell ref="R532:R533"/>
+    <mergeCell ref="S532:S533"/>
+    <mergeCell ref="H532:H533"/>
+    <mergeCell ref="I532:I533"/>
+    <mergeCell ref="J532:J533"/>
+    <mergeCell ref="K532:K533"/>
+    <mergeCell ref="L532:L533"/>
+    <mergeCell ref="M532:M533"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="C532:C533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="F532:F533"/>
+    <mergeCell ref="G532:G533"/>
+    <mergeCell ref="V528:V529"/>
+    <mergeCell ref="W528:W529"/>
+    <mergeCell ref="X528:X529"/>
+    <mergeCell ref="Y528:Y529"/>
+    <mergeCell ref="Z528:Z529"/>
+    <mergeCell ref="Q531:R531"/>
+    <mergeCell ref="P528:P529"/>
+    <mergeCell ref="Q528:Q529"/>
+    <mergeCell ref="R528:R529"/>
+    <mergeCell ref="S528:S529"/>
+    <mergeCell ref="T528:T529"/>
+    <mergeCell ref="U528:U529"/>
+    <mergeCell ref="J528:J529"/>
+    <mergeCell ref="K528:K529"/>
+    <mergeCell ref="L528:L529"/>
+    <mergeCell ref="M528:M529"/>
+    <mergeCell ref="N528:N529"/>
+    <mergeCell ref="O528:O529"/>
+    <mergeCell ref="Z532:Z533"/>
+    <mergeCell ref="R527:S527"/>
+    <mergeCell ref="A528:A529"/>
+    <mergeCell ref="B528:B529"/>
+    <mergeCell ref="C528:C529"/>
+    <mergeCell ref="D528:D529"/>
+    <mergeCell ref="F528:F529"/>
+    <mergeCell ref="G528:G529"/>
+    <mergeCell ref="H528:H529"/>
+    <mergeCell ref="I528:I529"/>
+    <mergeCell ref="T525:T526"/>
+    <mergeCell ref="U525:U526"/>
+    <mergeCell ref="V525:V526"/>
+    <mergeCell ref="W525:W526"/>
+    <mergeCell ref="X525:X526"/>
+    <mergeCell ref="Y525:Y526"/>
+    <mergeCell ref="N525:N526"/>
+    <mergeCell ref="O525:O526"/>
+    <mergeCell ref="P525:P526"/>
+    <mergeCell ref="Q525:Q526"/>
+    <mergeCell ref="R525:R526"/>
+    <mergeCell ref="S525:S526"/>
+    <mergeCell ref="H525:H526"/>
+    <mergeCell ref="I525:I526"/>
+    <mergeCell ref="J525:J526"/>
+    <mergeCell ref="K525:K526"/>
+    <mergeCell ref="L525:L526"/>
+    <mergeCell ref="M525:M526"/>
+    <mergeCell ref="A525:A526"/>
+    <mergeCell ref="B525:B526"/>
+    <mergeCell ref="C525:C526"/>
+    <mergeCell ref="D525:D526"/>
+    <mergeCell ref="F525:F526"/>
+    <mergeCell ref="G525:G526"/>
+    <mergeCell ref="U522:U524"/>
+    <mergeCell ref="V522:V524"/>
+    <mergeCell ref="W522:W524"/>
+    <mergeCell ref="X522:X524"/>
+    <mergeCell ref="Y522:Y524"/>
+    <mergeCell ref="Z522:Z524"/>
+    <mergeCell ref="N522:N524"/>
+    <mergeCell ref="O522:O524"/>
+    <mergeCell ref="P522:P524"/>
+    <mergeCell ref="Q522:Q524"/>
+    <mergeCell ref="R522:S522"/>
+    <mergeCell ref="T522:T524"/>
+    <mergeCell ref="H522:H524"/>
+    <mergeCell ref="I522:I524"/>
+    <mergeCell ref="J522:J524"/>
+    <mergeCell ref="K522:K524"/>
+    <mergeCell ref="L522:L524"/>
+    <mergeCell ref="M522:M524"/>
+    <mergeCell ref="Z525:Z526"/>
+    <mergeCell ref="A522:A524"/>
+    <mergeCell ref="B522:B524"/>
+    <mergeCell ref="C522:C524"/>
+    <mergeCell ref="D522:D524"/>
+    <mergeCell ref="F522:F524"/>
+    <mergeCell ref="G522:G524"/>
+    <mergeCell ref="U520:U521"/>
+    <mergeCell ref="V520:V521"/>
+    <mergeCell ref="W520:W521"/>
+    <mergeCell ref="X520:X521"/>
+    <mergeCell ref="Y520:Y521"/>
+    <mergeCell ref="Z520:Z521"/>
+    <mergeCell ref="O520:O521"/>
+    <mergeCell ref="P520:P521"/>
+    <mergeCell ref="Q520:Q521"/>
+    <mergeCell ref="R520:R521"/>
+    <mergeCell ref="S520:S521"/>
+    <mergeCell ref="T520:T521"/>
+    <mergeCell ref="I520:I521"/>
+    <mergeCell ref="J520:J521"/>
+    <mergeCell ref="K520:K521"/>
+    <mergeCell ref="L520:L521"/>
+    <mergeCell ref="M520:M521"/>
+    <mergeCell ref="N520:N521"/>
+    <mergeCell ref="R509:S509"/>
+    <mergeCell ref="Q515:R515"/>
+    <mergeCell ref="Q516:R516"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="C520:C521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="F520:F521"/>
+    <mergeCell ref="G520:G521"/>
+    <mergeCell ref="H520:H521"/>
+    <mergeCell ref="U503:U504"/>
+    <mergeCell ref="V503:V504"/>
+    <mergeCell ref="W503:W504"/>
+    <mergeCell ref="X503:X504"/>
+    <mergeCell ref="Y503:Y504"/>
+    <mergeCell ref="Z503:Z504"/>
+    <mergeCell ref="N503:N504"/>
+    <mergeCell ref="O503:O504"/>
+    <mergeCell ref="P503:P504"/>
+    <mergeCell ref="Q503:R503"/>
+    <mergeCell ref="S503:S504"/>
+    <mergeCell ref="T503:T504"/>
+    <mergeCell ref="H503:H504"/>
+    <mergeCell ref="I503:I504"/>
+    <mergeCell ref="J503:J504"/>
+    <mergeCell ref="K503:K504"/>
+    <mergeCell ref="L503:L504"/>
+    <mergeCell ref="M503:M504"/>
+    <mergeCell ref="A503:A504"/>
+    <mergeCell ref="B503:B504"/>
+    <mergeCell ref="C503:C504"/>
+    <mergeCell ref="D503:D504"/>
+    <mergeCell ref="F503:F504"/>
+    <mergeCell ref="G503:G504"/>
+    <mergeCell ref="W499:W500"/>
+    <mergeCell ref="X499:X500"/>
+    <mergeCell ref="Y499:Y500"/>
+    <mergeCell ref="Z499:Z500"/>
+    <mergeCell ref="R501:S501"/>
+    <mergeCell ref="Q502:R502"/>
+    <mergeCell ref="P499:P500"/>
+    <mergeCell ref="Q499:Q500"/>
+    <mergeCell ref="R499:S499"/>
+    <mergeCell ref="T499:T500"/>
+    <mergeCell ref="U499:U500"/>
+    <mergeCell ref="V499:V500"/>
+    <mergeCell ref="J499:J500"/>
+    <mergeCell ref="K499:K500"/>
+    <mergeCell ref="L499:L500"/>
+    <mergeCell ref="M499:M500"/>
+    <mergeCell ref="N499:N500"/>
+    <mergeCell ref="O499:O500"/>
+    <mergeCell ref="Q497:R497"/>
+    <mergeCell ref="R498:S498"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="C499:C500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="F499:F500"/>
+    <mergeCell ref="G499:G500"/>
+    <mergeCell ref="H499:H500"/>
+    <mergeCell ref="I499:I500"/>
+    <mergeCell ref="V490:V491"/>
+    <mergeCell ref="W490:W491"/>
+    <mergeCell ref="X490:X491"/>
+    <mergeCell ref="Y490:Y491"/>
+    <mergeCell ref="Z490:Z491"/>
+    <mergeCell ref="S492:T492"/>
+    <mergeCell ref="P490:P491"/>
+    <mergeCell ref="Q490:Q491"/>
+    <mergeCell ref="R490:R491"/>
+    <mergeCell ref="S490:S491"/>
+    <mergeCell ref="T490:T491"/>
+    <mergeCell ref="U490:U491"/>
+    <mergeCell ref="J490:J491"/>
+    <mergeCell ref="K490:K491"/>
+    <mergeCell ref="L490:L491"/>
+    <mergeCell ref="M490:M491"/>
+    <mergeCell ref="N490:N491"/>
+    <mergeCell ref="O490:O491"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="C490:C491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="F490:F491"/>
+    <mergeCell ref="G490:G491"/>
+    <mergeCell ref="H490:H491"/>
+    <mergeCell ref="I490:I491"/>
+    <mergeCell ref="S488:S489"/>
+    <mergeCell ref="T488:T489"/>
+    <mergeCell ref="U488:U489"/>
+    <mergeCell ref="V488:V489"/>
+    <mergeCell ref="W488:W489"/>
+    <mergeCell ref="X488:X489"/>
+    <mergeCell ref="M488:M489"/>
+    <mergeCell ref="N488:N489"/>
+    <mergeCell ref="O488:O489"/>
+    <mergeCell ref="P488:P489"/>
+    <mergeCell ref="Q488:Q489"/>
+    <mergeCell ref="R488:R489"/>
+    <mergeCell ref="G488:G489"/>
+    <mergeCell ref="H488:H489"/>
+    <mergeCell ref="I488:I489"/>
+    <mergeCell ref="J488:J489"/>
+    <mergeCell ref="K488:K489"/>
+    <mergeCell ref="L488:L489"/>
+    <mergeCell ref="Z476:Z478"/>
+    <mergeCell ref="Q479:R479"/>
+    <mergeCell ref="Q483:R483"/>
+    <mergeCell ref="Q485:R485"/>
+    <mergeCell ref="S486:T486"/>
+    <mergeCell ref="A488:A489"/>
+    <mergeCell ref="B488:B489"/>
+    <mergeCell ref="C488:C489"/>
+    <mergeCell ref="D488:D489"/>
+    <mergeCell ref="F488:F489"/>
+    <mergeCell ref="T476:T478"/>
+    <mergeCell ref="U476:U478"/>
+    <mergeCell ref="V476:V478"/>
+    <mergeCell ref="W476:W478"/>
+    <mergeCell ref="X476:X478"/>
+    <mergeCell ref="Y476:Y478"/>
+    <mergeCell ref="N476:N478"/>
+    <mergeCell ref="O476:O478"/>
+    <mergeCell ref="P476:P478"/>
+    <mergeCell ref="Q476:Q478"/>
+    <mergeCell ref="R476:R478"/>
+    <mergeCell ref="S476:S478"/>
+    <mergeCell ref="H476:H478"/>
+    <mergeCell ref="I476:I478"/>
+    <mergeCell ref="J476:J478"/>
+    <mergeCell ref="K476:K478"/>
+    <mergeCell ref="L476:L478"/>
+    <mergeCell ref="M476:M478"/>
+    <mergeCell ref="Y488:Y489"/>
+    <mergeCell ref="Z488:Z489"/>
+    <mergeCell ref="R466:S466"/>
+    <mergeCell ref="Q468:R468"/>
+    <mergeCell ref="Q472:R472"/>
+    <mergeCell ref="R473:S473"/>
+    <mergeCell ref="A476:A478"/>
+    <mergeCell ref="B476:B478"/>
+    <mergeCell ref="C476:C478"/>
+    <mergeCell ref="D476:D478"/>
+    <mergeCell ref="F476:F478"/>
+    <mergeCell ref="G476:G478"/>
+    <mergeCell ref="Y460:Y461"/>
+    <mergeCell ref="Z460:Z461"/>
+    <mergeCell ref="S462:T462"/>
+    <mergeCell ref="R463:S463"/>
+    <mergeCell ref="Q464:R464"/>
+    <mergeCell ref="R465:S465"/>
+    <mergeCell ref="S460:S461"/>
+    <mergeCell ref="T460:T461"/>
+    <mergeCell ref="U460:U461"/>
+    <mergeCell ref="V460:V461"/>
+    <mergeCell ref="W460:W461"/>
+    <mergeCell ref="X460:X461"/>
+    <mergeCell ref="M460:M461"/>
+    <mergeCell ref="N460:N461"/>
+    <mergeCell ref="O460:O461"/>
+    <mergeCell ref="P460:P461"/>
+    <mergeCell ref="Q460:Q461"/>
+    <mergeCell ref="R460:R461"/>
+    <mergeCell ref="G460:G461"/>
+    <mergeCell ref="H460:H461"/>
+    <mergeCell ref="I460:I461"/>
+    <mergeCell ref="J460:J461"/>
+    <mergeCell ref="K460:K461"/>
+    <mergeCell ref="L460:L461"/>
+    <mergeCell ref="V458:V459"/>
+    <mergeCell ref="W458:W459"/>
+    <mergeCell ref="X458:X459"/>
+    <mergeCell ref="Y458:Y459"/>
+    <mergeCell ref="Z458:Z459"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="C460:C461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="F460:F461"/>
+    <mergeCell ref="P458:P459"/>
+    <mergeCell ref="Q458:Q459"/>
+    <mergeCell ref="R458:R459"/>
+    <mergeCell ref="S458:S459"/>
+    <mergeCell ref="T458:T459"/>
+    <mergeCell ref="U458:U459"/>
+    <mergeCell ref="J458:J459"/>
+    <mergeCell ref="K458:K459"/>
+    <mergeCell ref="L458:L459"/>
+    <mergeCell ref="M458:M459"/>
+    <mergeCell ref="N458:N459"/>
+    <mergeCell ref="O458:O459"/>
+    <mergeCell ref="Q447:R447"/>
+    <mergeCell ref="Q450:R450"/>
+    <mergeCell ref="A458:A459"/>
+    <mergeCell ref="B458:B459"/>
+    <mergeCell ref="C458:C459"/>
+    <mergeCell ref="D458:D459"/>
+    <mergeCell ref="F458:F459"/>
+    <mergeCell ref="G458:G459"/>
+    <mergeCell ref="H458:H459"/>
+    <mergeCell ref="I458:I459"/>
+    <mergeCell ref="W440:W441"/>
+    <mergeCell ref="X440:X441"/>
+    <mergeCell ref="Y440:Y441"/>
+    <mergeCell ref="Z440:Z441"/>
+    <mergeCell ref="R444:S444"/>
+    <mergeCell ref="R446:S446"/>
+    <mergeCell ref="Q440:Q441"/>
+    <mergeCell ref="R440:R441"/>
+    <mergeCell ref="S440:S441"/>
+    <mergeCell ref="T440:T441"/>
+    <mergeCell ref="U440:U441"/>
+    <mergeCell ref="V440:V441"/>
+    <mergeCell ref="K440:K441"/>
+    <mergeCell ref="L440:L441"/>
+    <mergeCell ref="M440:M441"/>
+    <mergeCell ref="N440:N441"/>
+    <mergeCell ref="O440:O441"/>
+    <mergeCell ref="P440:P441"/>
+    <mergeCell ref="R439:S439"/>
+    <mergeCell ref="A440:A441"/>
+    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="C440:C441"/>
+    <mergeCell ref="D440:D441"/>
+    <mergeCell ref="F440:F441"/>
+    <mergeCell ref="G440:G441"/>
+    <mergeCell ref="H440:H441"/>
+    <mergeCell ref="I440:I441"/>
+    <mergeCell ref="J440:J441"/>
+    <mergeCell ref="U437:U438"/>
+    <mergeCell ref="V437:V438"/>
+    <mergeCell ref="W437:W438"/>
+    <mergeCell ref="X437:X438"/>
+    <mergeCell ref="Y437:Y438"/>
+    <mergeCell ref="Z437:Z438"/>
+    <mergeCell ref="N437:N438"/>
+    <mergeCell ref="O437:O438"/>
+    <mergeCell ref="P437:P438"/>
+    <mergeCell ref="Q437:R437"/>
+    <mergeCell ref="S437:S438"/>
+    <mergeCell ref="T437:T438"/>
+    <mergeCell ref="H437:H438"/>
+    <mergeCell ref="I437:I438"/>
+    <mergeCell ref="J437:J438"/>
+    <mergeCell ref="K437:K438"/>
+    <mergeCell ref="L437:L438"/>
+    <mergeCell ref="M437:M438"/>
+    <mergeCell ref="Q428:R428"/>
+    <mergeCell ref="Q430:R430"/>
+    <mergeCell ref="R431:S431"/>
+    <mergeCell ref="S434:T434"/>
+    <mergeCell ref="A437:A438"/>
+    <mergeCell ref="B437:B438"/>
+    <mergeCell ref="C437:C438"/>
+    <mergeCell ref="D437:D438"/>
+    <mergeCell ref="F437:F438"/>
+    <mergeCell ref="G437:G438"/>
+    <mergeCell ref="X417:X418"/>
+    <mergeCell ref="Y417:Y418"/>
+    <mergeCell ref="Z417:Z418"/>
+    <mergeCell ref="Q420:R420"/>
+    <mergeCell ref="Q422:R422"/>
+    <mergeCell ref="Q424:R424"/>
+    <mergeCell ref="Q417:Q418"/>
+    <mergeCell ref="R417:S417"/>
+    <mergeCell ref="T417:T418"/>
+    <mergeCell ref="U417:U418"/>
+    <mergeCell ref="V417:V418"/>
+    <mergeCell ref="W417:W418"/>
+    <mergeCell ref="K417:K418"/>
+    <mergeCell ref="L417:L418"/>
+    <mergeCell ref="M417:M418"/>
+    <mergeCell ref="N417:N418"/>
+    <mergeCell ref="O417:O418"/>
+    <mergeCell ref="P417:P418"/>
+    <mergeCell ref="A417:A418"/>
+    <mergeCell ref="B417:B418"/>
+    <mergeCell ref="C417:C418"/>
+    <mergeCell ref="D417:D418"/>
+    <mergeCell ref="F417:F418"/>
+    <mergeCell ref="G417:G418"/>
+    <mergeCell ref="H417:H418"/>
+    <mergeCell ref="I417:I418"/>
+    <mergeCell ref="J417:J418"/>
+    <mergeCell ref="T415:T416"/>
+    <mergeCell ref="U415:U416"/>
+    <mergeCell ref="V415:V416"/>
+    <mergeCell ref="W415:W416"/>
+    <mergeCell ref="X415:X416"/>
+    <mergeCell ref="Y415:Y416"/>
+    <mergeCell ref="N415:N416"/>
+    <mergeCell ref="O415:O416"/>
+    <mergeCell ref="P415:P416"/>
+    <mergeCell ref="Q415:Q416"/>
+    <mergeCell ref="R415:R416"/>
+    <mergeCell ref="S415:S416"/>
+    <mergeCell ref="H415:H416"/>
+    <mergeCell ref="I415:I416"/>
+    <mergeCell ref="J415:J416"/>
+    <mergeCell ref="K415:K416"/>
+    <mergeCell ref="L415:L416"/>
+    <mergeCell ref="M415:M416"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="C415:C416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="F415:F416"/>
+    <mergeCell ref="G415:G416"/>
+    <mergeCell ref="Z389:Z390"/>
+    <mergeCell ref="Q395:R395"/>
+    <mergeCell ref="R399:S399"/>
+    <mergeCell ref="R402:S402"/>
+    <mergeCell ref="R410:S410"/>
+    <mergeCell ref="Q411:R411"/>
+    <mergeCell ref="T389:T390"/>
+    <mergeCell ref="U389:U390"/>
+    <mergeCell ref="V389:V390"/>
+    <mergeCell ref="W389:W390"/>
+    <mergeCell ref="X389:X390"/>
+    <mergeCell ref="Y389:Y390"/>
+    <mergeCell ref="N389:N390"/>
+    <mergeCell ref="O389:O390"/>
+    <mergeCell ref="P389:P390"/>
+    <mergeCell ref="Q389:Q390"/>
+    <mergeCell ref="R389:R390"/>
+    <mergeCell ref="S389:S390"/>
+    <mergeCell ref="H389:H390"/>
+    <mergeCell ref="I389:I390"/>
+    <mergeCell ref="J389:J390"/>
+    <mergeCell ref="K389:K390"/>
+    <mergeCell ref="L389:L390"/>
+    <mergeCell ref="M389:M390"/>
+    <mergeCell ref="Z415:Z416"/>
+    <mergeCell ref="A389:A390"/>
+    <mergeCell ref="B389:B390"/>
+    <mergeCell ref="C389:C390"/>
+    <mergeCell ref="D389:D390"/>
+    <mergeCell ref="F389:F390"/>
+    <mergeCell ref="G389:G390"/>
+    <mergeCell ref="W382:W383"/>
+    <mergeCell ref="X382:X383"/>
+    <mergeCell ref="Y382:Y383"/>
+    <mergeCell ref="Z382:Z383"/>
+    <mergeCell ref="R384:S384"/>
+    <mergeCell ref="R388:S388"/>
+    <mergeCell ref="Q382:Q383"/>
+    <mergeCell ref="R382:R383"/>
+    <mergeCell ref="S382:S383"/>
+    <mergeCell ref="T382:T383"/>
+    <mergeCell ref="U382:U383"/>
+    <mergeCell ref="V382:V383"/>
+    <mergeCell ref="K382:K383"/>
+    <mergeCell ref="L382:L383"/>
+    <mergeCell ref="M382:M383"/>
+    <mergeCell ref="N382:N383"/>
+    <mergeCell ref="O382:O383"/>
+    <mergeCell ref="P382:P383"/>
+    <mergeCell ref="R381:S381"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="C382:C383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="F382:F383"/>
+    <mergeCell ref="G382:G383"/>
+    <mergeCell ref="H382:H383"/>
+    <mergeCell ref="I382:I383"/>
+    <mergeCell ref="J382:J383"/>
+    <mergeCell ref="V376:V378"/>
+    <mergeCell ref="W376:W378"/>
+    <mergeCell ref="X376:X378"/>
+    <mergeCell ref="Y376:Y378"/>
+    <mergeCell ref="Z376:Z378"/>
+    <mergeCell ref="S379:T379"/>
+    <mergeCell ref="P376:P378"/>
+    <mergeCell ref="Q376:Q378"/>
+    <mergeCell ref="R376:R378"/>
+    <mergeCell ref="S376:S378"/>
+    <mergeCell ref="T376:T378"/>
+    <mergeCell ref="U376:U378"/>
+    <mergeCell ref="J376:J378"/>
+    <mergeCell ref="K376:K378"/>
+    <mergeCell ref="L376:L378"/>
+    <mergeCell ref="M376:M378"/>
+    <mergeCell ref="N376:N378"/>
+    <mergeCell ref="O376:O378"/>
+    <mergeCell ref="Q371:R371"/>
+    <mergeCell ref="R373:S373"/>
+    <mergeCell ref="A376:A378"/>
+    <mergeCell ref="B376:B378"/>
+    <mergeCell ref="C376:C378"/>
+    <mergeCell ref="D376:D378"/>
+    <mergeCell ref="F376:F378"/>
+    <mergeCell ref="G376:G378"/>
+    <mergeCell ref="H376:H378"/>
+    <mergeCell ref="I376:I378"/>
+    <mergeCell ref="Z359:Z360"/>
+    <mergeCell ref="T361:U361"/>
+    <mergeCell ref="T364:U364"/>
+    <mergeCell ref="Q366:R366"/>
+    <mergeCell ref="S367:T367"/>
+    <mergeCell ref="Q368:R368"/>
+    <mergeCell ref="T359:T360"/>
+    <mergeCell ref="U359:U360"/>
+    <mergeCell ref="V359:V360"/>
+    <mergeCell ref="W359:W360"/>
+    <mergeCell ref="X359:X360"/>
+    <mergeCell ref="Y359:Y360"/>
+    <mergeCell ref="N359:N360"/>
+    <mergeCell ref="O359:O360"/>
+    <mergeCell ref="P359:P360"/>
+    <mergeCell ref="Q359:Q360"/>
+    <mergeCell ref="R359:R360"/>
+    <mergeCell ref="S359:S360"/>
+    <mergeCell ref="H359:H360"/>
+    <mergeCell ref="I359:I360"/>
+    <mergeCell ref="J359:J360"/>
+    <mergeCell ref="K359:K360"/>
+    <mergeCell ref="L359:L360"/>
+    <mergeCell ref="M359:M360"/>
+    <mergeCell ref="Z348:Z349"/>
+    <mergeCell ref="Q350:R350"/>
+    <mergeCell ref="R351:S351"/>
+    <mergeCell ref="Q355:R355"/>
+    <mergeCell ref="A359:A360"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="D359:D360"/>
+    <mergeCell ref="F359:F360"/>
+    <mergeCell ref="G359:G360"/>
+    <mergeCell ref="T348:T349"/>
+    <mergeCell ref="U348:U349"/>
+    <mergeCell ref="V348:V349"/>
+    <mergeCell ref="W348:W349"/>
+    <mergeCell ref="X348:X349"/>
+    <mergeCell ref="Y348:Y349"/>
+    <mergeCell ref="N348:N349"/>
+    <mergeCell ref="O348:O349"/>
+    <mergeCell ref="P348:P349"/>
+    <mergeCell ref="Q348:Q349"/>
+    <mergeCell ref="R348:R349"/>
+    <mergeCell ref="S348:S349"/>
+    <mergeCell ref="H348:H349"/>
+    <mergeCell ref="I348:I349"/>
+    <mergeCell ref="J348:J349"/>
+    <mergeCell ref="K348:K349"/>
+    <mergeCell ref="L348:L349"/>
+    <mergeCell ref="M348:M349"/>
+    <mergeCell ref="R342:S342"/>
+    <mergeCell ref="Q343:R343"/>
+    <mergeCell ref="Q344:R344"/>
+    <mergeCell ref="R347:S347"/>
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="C348:C349"/>
+    <mergeCell ref="D348:D349"/>
+    <mergeCell ref="F348:F349"/>
+    <mergeCell ref="G348:G349"/>
+    <mergeCell ref="U332:U334"/>
+    <mergeCell ref="V332:V334"/>
+    <mergeCell ref="W332:W334"/>
+    <mergeCell ref="X332:X334"/>
+    <mergeCell ref="Y332:Y334"/>
+    <mergeCell ref="Z332:Z334"/>
+    <mergeCell ref="N332:N334"/>
+    <mergeCell ref="O332:O334"/>
+    <mergeCell ref="P332:P334"/>
+    <mergeCell ref="Q332:Q334"/>
+    <mergeCell ref="R332:S332"/>
+    <mergeCell ref="T332:T334"/>
+    <mergeCell ref="H332:H334"/>
+    <mergeCell ref="I332:I334"/>
+    <mergeCell ref="J332:J334"/>
+    <mergeCell ref="K332:K334"/>
+    <mergeCell ref="L332:L334"/>
+    <mergeCell ref="M332:M334"/>
+    <mergeCell ref="A332:A334"/>
+    <mergeCell ref="B332:B334"/>
+    <mergeCell ref="C332:C334"/>
+    <mergeCell ref="D332:D334"/>
+    <mergeCell ref="F332:F334"/>
+    <mergeCell ref="G332:G334"/>
+    <mergeCell ref="W322:W323"/>
+    <mergeCell ref="X322:X323"/>
+    <mergeCell ref="Y322:Y323"/>
+    <mergeCell ref="Z322:Z323"/>
+    <mergeCell ref="Q324:R324"/>
+    <mergeCell ref="R325:S325"/>
+    <mergeCell ref="Q322:Q323"/>
+    <mergeCell ref="R322:R323"/>
+    <mergeCell ref="S322:S323"/>
+    <mergeCell ref="T322:T323"/>
+    <mergeCell ref="U322:U323"/>
+    <mergeCell ref="V322:V323"/>
+    <mergeCell ref="K322:K323"/>
+    <mergeCell ref="L322:L323"/>
+    <mergeCell ref="M322:M323"/>
+    <mergeCell ref="N322:N323"/>
+    <mergeCell ref="O322:O323"/>
+    <mergeCell ref="P322:P323"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="C322:C323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="F322:F323"/>
+    <mergeCell ref="G322:G323"/>
+    <mergeCell ref="H322:H323"/>
+    <mergeCell ref="I322:I323"/>
+    <mergeCell ref="J322:J323"/>
+    <mergeCell ref="T318:T319"/>
+    <mergeCell ref="U318:U319"/>
+    <mergeCell ref="V318:V319"/>
+    <mergeCell ref="W318:W319"/>
+    <mergeCell ref="X318:X319"/>
+    <mergeCell ref="Y318:Y319"/>
+    <mergeCell ref="N318:N319"/>
+    <mergeCell ref="O318:O319"/>
+    <mergeCell ref="P318:P319"/>
+    <mergeCell ref="Q318:Q319"/>
+    <mergeCell ref="R318:R319"/>
+    <mergeCell ref="S318:S319"/>
+    <mergeCell ref="H318:H319"/>
+    <mergeCell ref="I318:I319"/>
+    <mergeCell ref="J318:J319"/>
+    <mergeCell ref="K318:K319"/>
+    <mergeCell ref="L318:L319"/>
+    <mergeCell ref="M318:M319"/>
+    <mergeCell ref="X316:X317"/>
+    <mergeCell ref="Y316:Y317"/>
+    <mergeCell ref="Z316:Z317"/>
+    <mergeCell ref="A318:A319"/>
+    <mergeCell ref="B318:B319"/>
+    <mergeCell ref="C318:C319"/>
+    <mergeCell ref="D318:D319"/>
+    <mergeCell ref="F318:F319"/>
+    <mergeCell ref="G318:G319"/>
+    <mergeCell ref="Q316:Q317"/>
+    <mergeCell ref="R316:R317"/>
+    <mergeCell ref="S316:S317"/>
+    <mergeCell ref="T316:T317"/>
+    <mergeCell ref="U316:U317"/>
+    <mergeCell ref="V316:V317"/>
+    <mergeCell ref="K316:K317"/>
+    <mergeCell ref="L316:L317"/>
+    <mergeCell ref="M316:M317"/>
+    <mergeCell ref="N316:N317"/>
+    <mergeCell ref="O316:O317"/>
+    <mergeCell ref="P316:P317"/>
+    <mergeCell ref="Z318:Z319"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="F316:F317"/>
+    <mergeCell ref="G316:G317"/>
+    <mergeCell ref="H316:H317"/>
+    <mergeCell ref="I316:I317"/>
+    <mergeCell ref="J316:J317"/>
+    <mergeCell ref="T312:T313"/>
+    <mergeCell ref="U312:U313"/>
+    <mergeCell ref="V312:V313"/>
+    <mergeCell ref="W312:W313"/>
+    <mergeCell ref="X312:X313"/>
+    <mergeCell ref="Y312:Y313"/>
+    <mergeCell ref="N312:N313"/>
+    <mergeCell ref="O312:O313"/>
+    <mergeCell ref="P312:P313"/>
+    <mergeCell ref="Q312:Q313"/>
+    <mergeCell ref="R312:R313"/>
+    <mergeCell ref="S312:S313"/>
+    <mergeCell ref="H312:H313"/>
+    <mergeCell ref="I312:I313"/>
+    <mergeCell ref="J312:J313"/>
+    <mergeCell ref="K312:K313"/>
+    <mergeCell ref="L312:L313"/>
+    <mergeCell ref="M312:M313"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="D312:D313"/>
+    <mergeCell ref="W316:W317"/>
+    <mergeCell ref="F312:F313"/>
+    <mergeCell ref="G312:G313"/>
+    <mergeCell ref="U307:U308"/>
+    <mergeCell ref="V307:V308"/>
+    <mergeCell ref="W307:W308"/>
+    <mergeCell ref="X307:X308"/>
+    <mergeCell ref="Y307:Y308"/>
+    <mergeCell ref="Z307:Z308"/>
+    <mergeCell ref="O307:O308"/>
+    <mergeCell ref="P307:P308"/>
+    <mergeCell ref="Q307:Q308"/>
+    <mergeCell ref="R307:R308"/>
+    <mergeCell ref="S307:S308"/>
+    <mergeCell ref="T307:T308"/>
+    <mergeCell ref="I307:I308"/>
+    <mergeCell ref="J307:J308"/>
+    <mergeCell ref="K307:K308"/>
+    <mergeCell ref="L307:L308"/>
+    <mergeCell ref="M307:M308"/>
+    <mergeCell ref="N307:N308"/>
+    <mergeCell ref="Z312:Z313"/>
+    <mergeCell ref="Z304:Z305"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="F307:F308"/>
+    <mergeCell ref="G307:G308"/>
+    <mergeCell ref="H307:H308"/>
+    <mergeCell ref="Q304:Q305"/>
+    <mergeCell ref="R304:S304"/>
+    <mergeCell ref="T304:T305"/>
+    <mergeCell ref="U304:U305"/>
+    <mergeCell ref="V304:V305"/>
+    <mergeCell ref="W304:W305"/>
+    <mergeCell ref="K304:K305"/>
+    <mergeCell ref="L304:L305"/>
+    <mergeCell ref="M304:M305"/>
+    <mergeCell ref="N304:N305"/>
+    <mergeCell ref="O304:O305"/>
+    <mergeCell ref="P304:P305"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="F304:F305"/>
+    <mergeCell ref="G304:G305"/>
+    <mergeCell ref="H304:H305"/>
+    <mergeCell ref="I304:I305"/>
+    <mergeCell ref="J304:J305"/>
+    <mergeCell ref="T298:T299"/>
+    <mergeCell ref="U298:U299"/>
+    <mergeCell ref="V298:V299"/>
+    <mergeCell ref="W298:W299"/>
+    <mergeCell ref="X298:X299"/>
+    <mergeCell ref="Y298:Y299"/>
+    <mergeCell ref="N298:N299"/>
+    <mergeCell ref="O298:O299"/>
+    <mergeCell ref="P298:P299"/>
+    <mergeCell ref="Q298:Q299"/>
+    <mergeCell ref="R298:R299"/>
+    <mergeCell ref="S298:S299"/>
+    <mergeCell ref="H298:H299"/>
+    <mergeCell ref="I298:I299"/>
+    <mergeCell ref="J298:J299"/>
+    <mergeCell ref="K298:K299"/>
+    <mergeCell ref="L298:L299"/>
+    <mergeCell ref="M298:M299"/>
+    <mergeCell ref="X304:X305"/>
+    <mergeCell ref="Y304:Y305"/>
+    <mergeCell ref="W289:W290"/>
+    <mergeCell ref="X289:X290"/>
+    <mergeCell ref="Y289:Y290"/>
+    <mergeCell ref="Z289:Z290"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="F298:F299"/>
+    <mergeCell ref="G298:G299"/>
+    <mergeCell ref="Q289:Q290"/>
+    <mergeCell ref="R289:R290"/>
+    <mergeCell ref="S289:S290"/>
+    <mergeCell ref="T289:T290"/>
+    <mergeCell ref="U289:U290"/>
+    <mergeCell ref="V289:V290"/>
+    <mergeCell ref="K289:K290"/>
+    <mergeCell ref="L289:L290"/>
+    <mergeCell ref="M289:M290"/>
+    <mergeCell ref="N289:N290"/>
+    <mergeCell ref="O289:O290"/>
+    <mergeCell ref="P289:P290"/>
+    <mergeCell ref="Z298:Z299"/>
+    <mergeCell ref="Q287:R287"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="F289:F290"/>
+    <mergeCell ref="G289:G290"/>
+    <mergeCell ref="H289:H290"/>
+    <mergeCell ref="I289:I290"/>
+    <mergeCell ref="J289:J290"/>
+    <mergeCell ref="Y278:Y279"/>
+    <mergeCell ref="Z278:Z279"/>
+    <mergeCell ref="Q281:R281"/>
+    <mergeCell ref="Q283:R283"/>
+    <mergeCell ref="R284:S284"/>
+    <mergeCell ref="Q286:R286"/>
+    <mergeCell ref="S278:S279"/>
+    <mergeCell ref="T278:T279"/>
+    <mergeCell ref="U278:U279"/>
+    <mergeCell ref="V278:V279"/>
+    <mergeCell ref="W278:W279"/>
+    <mergeCell ref="X278:X279"/>
+    <mergeCell ref="M278:M279"/>
+    <mergeCell ref="N278:N279"/>
+    <mergeCell ref="O278:O279"/>
+    <mergeCell ref="P278:P279"/>
+    <mergeCell ref="Q278:Q279"/>
+    <mergeCell ref="R278:R279"/>
+    <mergeCell ref="G278:G279"/>
+    <mergeCell ref="H278:H279"/>
+    <mergeCell ref="I278:I279"/>
+    <mergeCell ref="J278:J279"/>
+    <mergeCell ref="K278:K279"/>
+    <mergeCell ref="L278:L279"/>
+    <mergeCell ref="S269:T269"/>
+    <mergeCell ref="Q270:R270"/>
+    <mergeCell ref="R271:S271"/>
+    <mergeCell ref="S272:T272"/>
+    <mergeCell ref="Q275:R275"/>
+    <mergeCell ref="A278:A279"/>
+    <mergeCell ref="B278:B279"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="D278:D279"/>
+    <mergeCell ref="F278:F279"/>
+    <mergeCell ref="U263:U264"/>
+    <mergeCell ref="V263:V264"/>
+    <mergeCell ref="W263:W264"/>
+    <mergeCell ref="X263:X264"/>
+    <mergeCell ref="Y263:Y264"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="F259:F260"/>
+    <mergeCell ref="Z263:Z264"/>
+    <mergeCell ref="O263:O264"/>
+    <mergeCell ref="P263:P264"/>
+    <mergeCell ref="Q263:Q264"/>
+    <mergeCell ref="R263:R264"/>
+    <mergeCell ref="S263:S264"/>
+    <mergeCell ref="T263:T264"/>
+    <mergeCell ref="I263:I264"/>
+    <mergeCell ref="J263:J264"/>
+    <mergeCell ref="K263:K264"/>
+    <mergeCell ref="L263:L264"/>
+    <mergeCell ref="M263:M264"/>
+    <mergeCell ref="N263:N264"/>
+    <mergeCell ref="Y259:Y260"/>
+    <mergeCell ref="Z259:Z260"/>
+    <mergeCell ref="S261:T261"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="F263:F264"/>
+    <mergeCell ref="G263:G264"/>
+    <mergeCell ref="H263:H264"/>
+    <mergeCell ref="S259:S260"/>
+    <mergeCell ref="T259:T260"/>
+    <mergeCell ref="U259:U260"/>
+    <mergeCell ref="V259:V260"/>
+    <mergeCell ref="Z243:Z244"/>
+    <mergeCell ref="O243:O244"/>
+    <mergeCell ref="P243:P244"/>
+    <mergeCell ref="Q243:Q244"/>
+    <mergeCell ref="R243:R244"/>
+    <mergeCell ref="S243:S244"/>
+    <mergeCell ref="T243:T244"/>
+    <mergeCell ref="I243:I244"/>
+    <mergeCell ref="J243:J244"/>
+    <mergeCell ref="K243:K244"/>
+    <mergeCell ref="L243:L244"/>
+    <mergeCell ref="M243:M244"/>
+    <mergeCell ref="N243:N244"/>
+    <mergeCell ref="P259:P260"/>
+    <mergeCell ref="Q259:Q260"/>
+    <mergeCell ref="R259:R260"/>
+    <mergeCell ref="G259:G260"/>
+    <mergeCell ref="H259:H260"/>
+    <mergeCell ref="I259:I260"/>
+    <mergeCell ref="J259:J260"/>
+    <mergeCell ref="K259:K260"/>
+    <mergeCell ref="L259:L260"/>
+    <mergeCell ref="R245:S245"/>
+    <mergeCell ref="Q249:R249"/>
+    <mergeCell ref="Q253:R253"/>
+    <mergeCell ref="R254:S254"/>
+    <mergeCell ref="R257:S257"/>
+    <mergeCell ref="W259:W260"/>
+    <mergeCell ref="X259:X260"/>
+    <mergeCell ref="M259:M260"/>
+    <mergeCell ref="N259:N260"/>
+    <mergeCell ref="O259:O260"/>
+    <mergeCell ref="Q241:R241"/>
+    <mergeCell ref="Q242:R242"/>
+    <mergeCell ref="A243:A244"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="G243:G244"/>
+    <mergeCell ref="H243:H244"/>
+    <mergeCell ref="T239:T240"/>
+    <mergeCell ref="U239:U240"/>
+    <mergeCell ref="V239:V240"/>
+    <mergeCell ref="W239:W240"/>
+    <mergeCell ref="X239:X240"/>
+    <mergeCell ref="Y239:Y240"/>
+    <mergeCell ref="N239:N240"/>
+    <mergeCell ref="O239:O240"/>
+    <mergeCell ref="P239:P240"/>
+    <mergeCell ref="Q239:Q240"/>
+    <mergeCell ref="R239:R240"/>
+    <mergeCell ref="S239:S240"/>
+    <mergeCell ref="H239:H240"/>
+    <mergeCell ref="I239:I240"/>
+    <mergeCell ref="J239:J240"/>
+    <mergeCell ref="K239:K240"/>
+    <mergeCell ref="L239:L240"/>
+    <mergeCell ref="M239:M240"/>
+    <mergeCell ref="U243:U244"/>
+    <mergeCell ref="V243:V244"/>
+    <mergeCell ref="W243:W244"/>
+    <mergeCell ref="X243:X244"/>
+    <mergeCell ref="Y243:Y244"/>
+    <mergeCell ref="Z227:Z228"/>
+    <mergeCell ref="R230:S230"/>
+    <mergeCell ref="R231:S231"/>
+    <mergeCell ref="R237:S237"/>
+    <mergeCell ref="A239:A240"/>
+    <mergeCell ref="B239:B240"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="D239:D240"/>
+    <mergeCell ref="F239:F240"/>
+    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="T227:T228"/>
+    <mergeCell ref="U227:U228"/>
+    <mergeCell ref="V227:V228"/>
+    <mergeCell ref="W227:W228"/>
+    <mergeCell ref="X227:X228"/>
+    <mergeCell ref="Y227:Y228"/>
+    <mergeCell ref="N227:N228"/>
+    <mergeCell ref="O227:O228"/>
+    <mergeCell ref="P227:P228"/>
+    <mergeCell ref="Q227:Q228"/>
+    <mergeCell ref="R227:R228"/>
+    <mergeCell ref="S227:S228"/>
+    <mergeCell ref="H227:H228"/>
+    <mergeCell ref="I227:I228"/>
+    <mergeCell ref="J227:J228"/>
+    <mergeCell ref="K227:K228"/>
+    <mergeCell ref="L227:L228"/>
+    <mergeCell ref="M227:M228"/>
+    <mergeCell ref="Z239:Z240"/>
+    <mergeCell ref="Q221:R221"/>
+    <mergeCell ref="T223:U223"/>
+    <mergeCell ref="S225:T225"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="F227:F228"/>
+    <mergeCell ref="G227:G228"/>
+    <mergeCell ref="T219:T220"/>
+    <mergeCell ref="U219:U220"/>
+    <mergeCell ref="V219:V220"/>
+    <mergeCell ref="W219:W220"/>
+    <mergeCell ref="X219:X220"/>
+    <mergeCell ref="Y219:Y220"/>
+    <mergeCell ref="N219:N220"/>
+    <mergeCell ref="O219:O220"/>
+    <mergeCell ref="P219:P220"/>
+    <mergeCell ref="Q219:Q220"/>
+    <mergeCell ref="R219:R220"/>
+    <mergeCell ref="S219:S220"/>
+    <mergeCell ref="H219:H220"/>
+    <mergeCell ref="I219:I220"/>
+    <mergeCell ref="J219:J220"/>
+    <mergeCell ref="K219:K220"/>
+    <mergeCell ref="L219:L220"/>
+    <mergeCell ref="M219:M220"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="F219:F220"/>
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="W213:W214"/>
+    <mergeCell ref="X213:X214"/>
+    <mergeCell ref="Y213:Y214"/>
+    <mergeCell ref="Z213:Z214"/>
+    <mergeCell ref="Q215:R215"/>
+    <mergeCell ref="R216:S216"/>
+    <mergeCell ref="Q213:Q214"/>
+    <mergeCell ref="R213:R214"/>
+    <mergeCell ref="S213:S214"/>
+    <mergeCell ref="T213:T214"/>
+    <mergeCell ref="U213:U214"/>
+    <mergeCell ref="V213:V214"/>
+    <mergeCell ref="K213:K214"/>
+    <mergeCell ref="L213:L214"/>
+    <mergeCell ref="M213:M214"/>
+    <mergeCell ref="N213:N214"/>
+    <mergeCell ref="O213:O214"/>
+    <mergeCell ref="P213:P214"/>
+    <mergeCell ref="Z219:Z220"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="I213:I214"/>
+    <mergeCell ref="J213:J214"/>
+    <mergeCell ref="T211:T212"/>
+    <mergeCell ref="U211:U212"/>
+    <mergeCell ref="V211:V212"/>
+    <mergeCell ref="W211:W212"/>
+    <mergeCell ref="X211:X212"/>
+    <mergeCell ref="Y211:Y212"/>
+    <mergeCell ref="N211:N212"/>
+    <mergeCell ref="O211:O212"/>
+    <mergeCell ref="P211:P212"/>
+    <mergeCell ref="Q211:Q212"/>
+    <mergeCell ref="R211:R212"/>
+    <mergeCell ref="S211:S212"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="I211:I212"/>
+    <mergeCell ref="J211:J212"/>
+    <mergeCell ref="K211:K212"/>
+    <mergeCell ref="L211:L212"/>
+    <mergeCell ref="M211:M212"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="T208:U208"/>
+    <mergeCell ref="V208:V209"/>
+    <mergeCell ref="W208:W209"/>
+    <mergeCell ref="X208:X209"/>
+    <mergeCell ref="Y208:Y209"/>
+    <mergeCell ref="Z208:Z209"/>
+    <mergeCell ref="N208:N209"/>
+    <mergeCell ref="O208:O209"/>
+    <mergeCell ref="P208:P209"/>
+    <mergeCell ref="Q208:Q209"/>
+    <mergeCell ref="R208:R209"/>
+    <mergeCell ref="S208:S209"/>
+    <mergeCell ref="H208:H209"/>
+    <mergeCell ref="I208:I209"/>
+    <mergeCell ref="J208:J209"/>
+    <mergeCell ref="K208:K209"/>
+    <mergeCell ref="L208:L209"/>
+    <mergeCell ref="M208:M209"/>
+    <mergeCell ref="Z211:Z212"/>
+    <mergeCell ref="Q204:R204"/>
+    <mergeCell ref="S205:T205"/>
+    <mergeCell ref="Q206:R206"/>
+    <mergeCell ref="Q207:R207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="G208:G209"/>
+    <mergeCell ref="Y196:Y197"/>
+    <mergeCell ref="Z196:Z197"/>
+    <mergeCell ref="R199:S199"/>
+    <mergeCell ref="R200:S200"/>
+    <mergeCell ref="Q201:R201"/>
+    <mergeCell ref="S203:T203"/>
+    <mergeCell ref="S196:S197"/>
+    <mergeCell ref="T196:T197"/>
+    <mergeCell ref="U196:U197"/>
+    <mergeCell ref="V196:V197"/>
+    <mergeCell ref="W196:W197"/>
+    <mergeCell ref="X196:X197"/>
+    <mergeCell ref="M196:M197"/>
+    <mergeCell ref="N196:N197"/>
+    <mergeCell ref="O196:O197"/>
+    <mergeCell ref="P196:P197"/>
+    <mergeCell ref="Q196:Q197"/>
+    <mergeCell ref="R196:R197"/>
+    <mergeCell ref="G196:G197"/>
+    <mergeCell ref="H196:H197"/>
+    <mergeCell ref="I196:I197"/>
+    <mergeCell ref="J196:J197"/>
+    <mergeCell ref="K196:K197"/>
+    <mergeCell ref="L196:L197"/>
+    <mergeCell ref="Z189:Z190"/>
+    <mergeCell ref="Q191:R191"/>
+    <mergeCell ref="S192:T192"/>
+    <mergeCell ref="Q193:R193"/>
+    <mergeCell ref="Q194:R194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="T189:T190"/>
+    <mergeCell ref="U189:U190"/>
+    <mergeCell ref="V189:V190"/>
+    <mergeCell ref="W189:W190"/>
+    <mergeCell ref="X189:X190"/>
+    <mergeCell ref="Y189:Y190"/>
+    <mergeCell ref="N189:N190"/>
+    <mergeCell ref="O189:O190"/>
+    <mergeCell ref="P189:P190"/>
+    <mergeCell ref="Q189:Q190"/>
+    <mergeCell ref="R189:R190"/>
+    <mergeCell ref="S189:S190"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="I189:I190"/>
+    <mergeCell ref="J189:J190"/>
+    <mergeCell ref="K189:K190"/>
+    <mergeCell ref="L189:L190"/>
+    <mergeCell ref="M189:M190"/>
+    <mergeCell ref="Y185:Y186"/>
+    <mergeCell ref="Z185:Z186"/>
+    <mergeCell ref="R187:S187"/>
+    <mergeCell ref="R188:S188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="S185:S186"/>
+    <mergeCell ref="T185:T186"/>
+    <mergeCell ref="U185:U186"/>
+    <mergeCell ref="V185:V186"/>
+    <mergeCell ref="W185:W186"/>
+    <mergeCell ref="X185:X186"/>
+    <mergeCell ref="M185:M186"/>
+    <mergeCell ref="N185:N186"/>
+    <mergeCell ref="O185:O186"/>
+    <mergeCell ref="P185:P186"/>
+    <mergeCell ref="Q185:Q186"/>
+    <mergeCell ref="R185:R186"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="H185:H186"/>
+    <mergeCell ref="I185:I186"/>
+    <mergeCell ref="J185:J186"/>
+    <mergeCell ref="K185:K186"/>
+    <mergeCell ref="L185:L186"/>
+    <mergeCell ref="S167:T167"/>
+    <mergeCell ref="Q169:R169"/>
+    <mergeCell ref="Q178:R178"/>
+    <mergeCell ref="Q180:R180"/>
+    <mergeCell ref="S182:T182"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="Z155:Z156"/>
+    <mergeCell ref="Q158:R158"/>
+    <mergeCell ref="Q159:R159"/>
+    <mergeCell ref="R160:S160"/>
+    <mergeCell ref="R163:S163"/>
+    <mergeCell ref="R165:S165"/>
+    <mergeCell ref="T155:T156"/>
+    <mergeCell ref="U155:U156"/>
+    <mergeCell ref="V155:V156"/>
+    <mergeCell ref="W155:W156"/>
+    <mergeCell ref="X155:X156"/>
+    <mergeCell ref="Y155:Y156"/>
+    <mergeCell ref="N155:N156"/>
+    <mergeCell ref="O155:O156"/>
+    <mergeCell ref="P155:P156"/>
+    <mergeCell ref="Q155:Q156"/>
+    <mergeCell ref="R155:R156"/>
+    <mergeCell ref="S155:S156"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="M155:M156"/>
+    <mergeCell ref="Q149:R149"/>
+    <mergeCell ref="T150:U150"/>
+    <mergeCell ref="S152:T152"/>
+    <mergeCell ref="Q154:R154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="U145:U146"/>
+    <mergeCell ref="V145:V146"/>
+    <mergeCell ref="W145:W146"/>
+    <mergeCell ref="X145:X146"/>
+    <mergeCell ref="Y145:Y146"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="Z145:Z146"/>
+    <mergeCell ref="N145:N146"/>
+    <mergeCell ref="O145:O146"/>
+    <mergeCell ref="P145:P146"/>
+    <mergeCell ref="Q145:R145"/>
+    <mergeCell ref="S145:S146"/>
+    <mergeCell ref="T145:T146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="M145:M146"/>
+    <mergeCell ref="W140:W141"/>
+    <mergeCell ref="X140:X141"/>
+    <mergeCell ref="Y140:Y141"/>
+    <mergeCell ref="Z140:Z141"/>
+    <mergeCell ref="Q140:Q141"/>
+    <mergeCell ref="R140:R141"/>
+    <mergeCell ref="S140:S141"/>
+    <mergeCell ref="T140:T141"/>
+    <mergeCell ref="U140:U141"/>
+    <mergeCell ref="V140:V141"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="L140:L141"/>
+    <mergeCell ref="M140:M141"/>
+    <mergeCell ref="N140:N141"/>
+    <mergeCell ref="O140:O141"/>
+    <mergeCell ref="P140:P141"/>
+    <mergeCell ref="Q139:R139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="W131:W132"/>
+    <mergeCell ref="X131:X132"/>
+    <mergeCell ref="Y131:Y132"/>
+    <mergeCell ref="Z131:Z132"/>
+    <mergeCell ref="R133:S133"/>
+    <mergeCell ref="Q137:R137"/>
+    <mergeCell ref="P131:P132"/>
+    <mergeCell ref="Q131:Q132"/>
+    <mergeCell ref="R131:S131"/>
+    <mergeCell ref="T131:T132"/>
+    <mergeCell ref="U131:U132"/>
+    <mergeCell ref="V131:V132"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="L131:L132"/>
+    <mergeCell ref="M131:M132"/>
+    <mergeCell ref="N131:N132"/>
+    <mergeCell ref="O131:O132"/>
+    <mergeCell ref="Z126:Z128"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="S126:S128"/>
+    <mergeCell ref="T126:T128"/>
+    <mergeCell ref="U126:U128"/>
+    <mergeCell ref="V126:V128"/>
+    <mergeCell ref="W126:W128"/>
+    <mergeCell ref="X126:X128"/>
+    <mergeCell ref="M126:M128"/>
+    <mergeCell ref="N126:N128"/>
+    <mergeCell ref="O126:O128"/>
+    <mergeCell ref="P126:P128"/>
+    <mergeCell ref="Q126:Q128"/>
+    <mergeCell ref="R126:R128"/>
+    <mergeCell ref="G126:G128"/>
+    <mergeCell ref="H126:H128"/>
+    <mergeCell ref="I126:I128"/>
+    <mergeCell ref="J126:J128"/>
+    <mergeCell ref="K126:K128"/>
+    <mergeCell ref="L126:L128"/>
+    <mergeCell ref="R122:S122"/>
+    <mergeCell ref="R123:S123"/>
+    <mergeCell ref="R124:S124"/>
+    <mergeCell ref="R125:S125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="T119:T120"/>
+    <mergeCell ref="U119:U120"/>
+    <mergeCell ref="V119:V120"/>
+    <mergeCell ref="W119:W120"/>
+    <mergeCell ref="X119:X120"/>
+    <mergeCell ref="Y119:Y120"/>
+    <mergeCell ref="N119:N120"/>
+    <mergeCell ref="O119:O120"/>
+    <mergeCell ref="P119:P120"/>
+    <mergeCell ref="Q119:Q120"/>
+    <mergeCell ref="R119:R120"/>
+    <mergeCell ref="S119:S120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="Y126:Y128"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="U116:U117"/>
+    <mergeCell ref="V116:V117"/>
+    <mergeCell ref="W116:W117"/>
+    <mergeCell ref="X116:X117"/>
+    <mergeCell ref="Y116:Y117"/>
+    <mergeCell ref="Z116:Z117"/>
+    <mergeCell ref="N116:N117"/>
+    <mergeCell ref="O116:O117"/>
+    <mergeCell ref="P116:P117"/>
+    <mergeCell ref="Q116:R116"/>
+    <mergeCell ref="S116:S117"/>
+    <mergeCell ref="T116:T117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="M116:M117"/>
+    <mergeCell ref="Z119:Z120"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="Z95:Z96"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="T95:T96"/>
+    <mergeCell ref="U95:U96"/>
+    <mergeCell ref="V95:V96"/>
+    <mergeCell ref="W95:W96"/>
+    <mergeCell ref="X95:X96"/>
+    <mergeCell ref="Y95:Y96"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="O95:O96"/>
+    <mergeCell ref="P95:P96"/>
+    <mergeCell ref="Q95:Q96"/>
+    <mergeCell ref="R95:R96"/>
+    <mergeCell ref="S95:S96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="Z92:Z93"/>
+    <mergeCell ref="Q94:R94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="Q92:Q93"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="T92:T93"/>
+    <mergeCell ref="U92:U93"/>
+    <mergeCell ref="V92:V93"/>
+    <mergeCell ref="W92:W93"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="N92:N93"/>
+    <mergeCell ref="O92:O93"/>
+    <mergeCell ref="P92:P93"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="T89:T90"/>
+    <mergeCell ref="U89:U90"/>
+    <mergeCell ref="V89:V90"/>
+    <mergeCell ref="W89:W90"/>
+    <mergeCell ref="X89:X90"/>
+    <mergeCell ref="Y89:Y90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="S89:S90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="X92:X93"/>
+    <mergeCell ref="Y92:Y93"/>
+    <mergeCell ref="X84:X85"/>
+    <mergeCell ref="Y84:Y85"/>
+    <mergeCell ref="Z84:Z85"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="S84:S85"/>
+    <mergeCell ref="T84:T85"/>
+    <mergeCell ref="U84:U85"/>
+    <mergeCell ref="V84:V85"/>
+    <mergeCell ref="W84:W85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="Z89:Z90"/>
+    <mergeCell ref="Q83:R83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="Z60:Z61"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="T60:T61"/>
+    <mergeCell ref="U60:U61"/>
+    <mergeCell ref="V60:V61"/>
+    <mergeCell ref="W60:W61"/>
+    <mergeCell ref="X60:X61"/>
+    <mergeCell ref="Y60:Y61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="U50:U51"/>
+    <mergeCell ref="V50:V51"/>
+    <mergeCell ref="W50:W51"/>
+    <mergeCell ref="X50:X51"/>
+    <mergeCell ref="Y50:Y51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
     <mergeCell ref="Z50:Z51"/>
     <mergeCell ref="N50:N51"/>
     <mergeCell ref="O50:O51"/>
@@ -76235,3249 +79016,55 @@
     <mergeCell ref="H40:H41"/>
     <mergeCell ref="I40:I41"/>
     <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="U50:U51"/>
-    <mergeCell ref="V50:V51"/>
-    <mergeCell ref="W50:W51"/>
-    <mergeCell ref="X50:X51"/>
-    <mergeCell ref="Y50:Y51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="Q83:R83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="Z60:Z61"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="S76:T76"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="T60:T61"/>
-    <mergeCell ref="U60:U61"/>
-    <mergeCell ref="V60:V61"/>
-    <mergeCell ref="W60:W61"/>
-    <mergeCell ref="X60:X61"/>
-    <mergeCell ref="Y60:Y61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="X84:X85"/>
-    <mergeCell ref="Y84:Y85"/>
-    <mergeCell ref="Z84:Z85"/>
-    <mergeCell ref="S86:T86"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="S84:S85"/>
-    <mergeCell ref="T84:T85"/>
-    <mergeCell ref="U84:U85"/>
-    <mergeCell ref="V84:V85"/>
-    <mergeCell ref="W84:W85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="Z89:Z90"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="T89:T90"/>
-    <mergeCell ref="U89:U90"/>
-    <mergeCell ref="V89:V90"/>
-    <mergeCell ref="W89:W90"/>
-    <mergeCell ref="X89:X90"/>
-    <mergeCell ref="Y89:Y90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="S89:S90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="X92:X93"/>
-    <mergeCell ref="Y92:Y93"/>
-    <mergeCell ref="Z92:Z93"/>
-    <mergeCell ref="Q94:R94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="Q92:Q93"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="T92:T93"/>
-    <mergeCell ref="U92:U93"/>
-    <mergeCell ref="V92:V93"/>
-    <mergeCell ref="W92:W93"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="L92:L93"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="N92:N93"/>
-    <mergeCell ref="O92:O93"/>
-    <mergeCell ref="P92:P93"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="Z95:Z96"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="S99:T99"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="T95:T96"/>
-    <mergeCell ref="U95:U96"/>
-    <mergeCell ref="V95:V96"/>
-    <mergeCell ref="W95:W96"/>
-    <mergeCell ref="X95:X96"/>
-    <mergeCell ref="Y95:Y96"/>
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="O95:O96"/>
-    <mergeCell ref="P95:P96"/>
-    <mergeCell ref="Q95:Q96"/>
-    <mergeCell ref="R95:R96"/>
-    <mergeCell ref="S95:S96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="U116:U117"/>
-    <mergeCell ref="V116:V117"/>
-    <mergeCell ref="W116:W117"/>
-    <mergeCell ref="X116:X117"/>
-    <mergeCell ref="Y116:Y117"/>
-    <mergeCell ref="Z116:Z117"/>
-    <mergeCell ref="N116:N117"/>
-    <mergeCell ref="O116:O117"/>
-    <mergeCell ref="P116:P117"/>
-    <mergeCell ref="Q116:R116"/>
-    <mergeCell ref="S116:S117"/>
-    <mergeCell ref="T116:T117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="K116:K117"/>
-    <mergeCell ref="L116:L117"/>
-    <mergeCell ref="M116:M117"/>
-    <mergeCell ref="Z119:Z120"/>
-    <mergeCell ref="R122:S122"/>
-    <mergeCell ref="R123:S123"/>
-    <mergeCell ref="R124:S124"/>
-    <mergeCell ref="R125:S125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="F126:F128"/>
-    <mergeCell ref="T119:T120"/>
-    <mergeCell ref="U119:U120"/>
-    <mergeCell ref="V119:V120"/>
-    <mergeCell ref="W119:W120"/>
-    <mergeCell ref="X119:X120"/>
-    <mergeCell ref="Y119:Y120"/>
-    <mergeCell ref="N119:N120"/>
-    <mergeCell ref="O119:O120"/>
-    <mergeCell ref="P119:P120"/>
-    <mergeCell ref="Q119:Q120"/>
-    <mergeCell ref="R119:R120"/>
-    <mergeCell ref="S119:S120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="M119:M120"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="Y126:Y128"/>
-    <mergeCell ref="Z126:Z128"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="S126:S128"/>
-    <mergeCell ref="T126:T128"/>
-    <mergeCell ref="U126:U128"/>
-    <mergeCell ref="V126:V128"/>
-    <mergeCell ref="W126:W128"/>
-    <mergeCell ref="X126:X128"/>
-    <mergeCell ref="M126:M128"/>
-    <mergeCell ref="N126:N128"/>
-    <mergeCell ref="O126:O128"/>
-    <mergeCell ref="P126:P128"/>
-    <mergeCell ref="Q126:Q128"/>
-    <mergeCell ref="R126:R128"/>
-    <mergeCell ref="G126:G128"/>
-    <mergeCell ref="H126:H128"/>
-    <mergeCell ref="I126:I128"/>
-    <mergeCell ref="J126:J128"/>
-    <mergeCell ref="K126:K128"/>
-    <mergeCell ref="L126:L128"/>
-    <mergeCell ref="Q139:R139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="W131:W132"/>
-    <mergeCell ref="X131:X132"/>
-    <mergeCell ref="Y131:Y132"/>
-    <mergeCell ref="Z131:Z132"/>
-    <mergeCell ref="R133:S133"/>
-    <mergeCell ref="Q137:R137"/>
-    <mergeCell ref="P131:P132"/>
-    <mergeCell ref="Q131:Q132"/>
-    <mergeCell ref="R131:S131"/>
-    <mergeCell ref="T131:T132"/>
-    <mergeCell ref="U131:U132"/>
-    <mergeCell ref="V131:V132"/>
-    <mergeCell ref="J131:J132"/>
-    <mergeCell ref="K131:K132"/>
-    <mergeCell ref="L131:L132"/>
-    <mergeCell ref="M131:M132"/>
-    <mergeCell ref="N131:N132"/>
-    <mergeCell ref="O131:O132"/>
-    <mergeCell ref="Z145:Z146"/>
-    <mergeCell ref="N145:N146"/>
-    <mergeCell ref="O145:O146"/>
-    <mergeCell ref="P145:P146"/>
-    <mergeCell ref="Q145:R145"/>
-    <mergeCell ref="S145:S146"/>
-    <mergeCell ref="T145:T146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="W140:W141"/>
-    <mergeCell ref="X140:X141"/>
-    <mergeCell ref="Y140:Y141"/>
-    <mergeCell ref="Z140:Z141"/>
-    <mergeCell ref="Q140:Q141"/>
-    <mergeCell ref="R140:R141"/>
-    <mergeCell ref="S140:S141"/>
-    <mergeCell ref="T140:T141"/>
-    <mergeCell ref="U140:U141"/>
-    <mergeCell ref="V140:V141"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="L140:L141"/>
-    <mergeCell ref="M140:M141"/>
-    <mergeCell ref="N140:N141"/>
-    <mergeCell ref="O140:O141"/>
-    <mergeCell ref="P140:P141"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="M155:M156"/>
-    <mergeCell ref="Q149:R149"/>
-    <mergeCell ref="T150:U150"/>
-    <mergeCell ref="S152:T152"/>
-    <mergeCell ref="Q154:R154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="U145:U146"/>
-    <mergeCell ref="V145:V146"/>
-    <mergeCell ref="W145:W146"/>
-    <mergeCell ref="X145:X146"/>
-    <mergeCell ref="Y145:Y146"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="S167:T167"/>
-    <mergeCell ref="Q169:R169"/>
-    <mergeCell ref="Q178:R178"/>
-    <mergeCell ref="Q180:R180"/>
-    <mergeCell ref="S182:T182"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="Z155:Z156"/>
-    <mergeCell ref="Q158:R158"/>
-    <mergeCell ref="Q159:R159"/>
-    <mergeCell ref="R160:S160"/>
-    <mergeCell ref="R163:S163"/>
-    <mergeCell ref="R165:S165"/>
-    <mergeCell ref="T155:T156"/>
-    <mergeCell ref="U155:U156"/>
-    <mergeCell ref="V155:V156"/>
-    <mergeCell ref="W155:W156"/>
-    <mergeCell ref="X155:X156"/>
-    <mergeCell ref="Y155:Y156"/>
-    <mergeCell ref="N155:N156"/>
-    <mergeCell ref="O155:O156"/>
-    <mergeCell ref="P155:P156"/>
-    <mergeCell ref="Q155:Q156"/>
-    <mergeCell ref="R155:R156"/>
-    <mergeCell ref="S155:S156"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="Y185:Y186"/>
-    <mergeCell ref="Z185:Z186"/>
-    <mergeCell ref="R187:S187"/>
-    <mergeCell ref="R188:S188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="F189:F190"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="S185:S186"/>
-    <mergeCell ref="T185:T186"/>
-    <mergeCell ref="U185:U186"/>
-    <mergeCell ref="V185:V186"/>
-    <mergeCell ref="W185:W186"/>
-    <mergeCell ref="X185:X186"/>
-    <mergeCell ref="M185:M186"/>
-    <mergeCell ref="N185:N186"/>
-    <mergeCell ref="O185:O186"/>
-    <mergeCell ref="P185:P186"/>
-    <mergeCell ref="Q185:Q186"/>
-    <mergeCell ref="R185:R186"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="H185:H186"/>
-    <mergeCell ref="I185:I186"/>
-    <mergeCell ref="J185:J186"/>
-    <mergeCell ref="K185:K186"/>
-    <mergeCell ref="L185:L186"/>
-    <mergeCell ref="K196:K197"/>
-    <mergeCell ref="L196:L197"/>
-    <mergeCell ref="Z189:Z190"/>
-    <mergeCell ref="Q191:R191"/>
-    <mergeCell ref="S192:T192"/>
-    <mergeCell ref="Q193:R193"/>
-    <mergeCell ref="Q194:R194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="T189:T190"/>
-    <mergeCell ref="U189:U190"/>
-    <mergeCell ref="V189:V190"/>
-    <mergeCell ref="W189:W190"/>
-    <mergeCell ref="X189:X190"/>
-    <mergeCell ref="Y189:Y190"/>
-    <mergeCell ref="N189:N190"/>
-    <mergeCell ref="O189:O190"/>
-    <mergeCell ref="P189:P190"/>
-    <mergeCell ref="Q189:Q190"/>
-    <mergeCell ref="R189:R190"/>
-    <mergeCell ref="S189:S190"/>
-    <mergeCell ref="H189:H190"/>
-    <mergeCell ref="I189:I190"/>
-    <mergeCell ref="J189:J190"/>
-    <mergeCell ref="K189:K190"/>
-    <mergeCell ref="L189:L190"/>
-    <mergeCell ref="M189:M190"/>
-    <mergeCell ref="Q204:R204"/>
-    <mergeCell ref="S205:T205"/>
-    <mergeCell ref="Q206:R206"/>
-    <mergeCell ref="Q207:R207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="G208:G209"/>
-    <mergeCell ref="Y196:Y197"/>
-    <mergeCell ref="Z196:Z197"/>
-    <mergeCell ref="R199:S199"/>
-    <mergeCell ref="R200:S200"/>
-    <mergeCell ref="Q201:R201"/>
-    <mergeCell ref="S203:T203"/>
-    <mergeCell ref="S196:S197"/>
-    <mergeCell ref="T196:T197"/>
-    <mergeCell ref="U196:U197"/>
-    <mergeCell ref="V196:V197"/>
-    <mergeCell ref="W196:W197"/>
-    <mergeCell ref="X196:X197"/>
-    <mergeCell ref="M196:M197"/>
-    <mergeCell ref="N196:N197"/>
-    <mergeCell ref="O196:O197"/>
-    <mergeCell ref="P196:P197"/>
-    <mergeCell ref="Q196:Q197"/>
-    <mergeCell ref="R196:R197"/>
-    <mergeCell ref="G196:G197"/>
-    <mergeCell ref="H196:H197"/>
-    <mergeCell ref="I196:I197"/>
-    <mergeCell ref="J196:J197"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="T208:U208"/>
-    <mergeCell ref="V208:V209"/>
-    <mergeCell ref="W208:W209"/>
-    <mergeCell ref="X208:X209"/>
-    <mergeCell ref="Y208:Y209"/>
-    <mergeCell ref="Z208:Z209"/>
-    <mergeCell ref="N208:N209"/>
-    <mergeCell ref="O208:O209"/>
-    <mergeCell ref="P208:P209"/>
-    <mergeCell ref="Q208:Q209"/>
-    <mergeCell ref="R208:R209"/>
-    <mergeCell ref="S208:S209"/>
-    <mergeCell ref="H208:H209"/>
-    <mergeCell ref="I208:I209"/>
-    <mergeCell ref="J208:J209"/>
-    <mergeCell ref="K208:K209"/>
-    <mergeCell ref="L208:L209"/>
-    <mergeCell ref="M208:M209"/>
-    <mergeCell ref="Z211:Z212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="F213:F214"/>
-    <mergeCell ref="G213:G214"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="I213:I214"/>
-    <mergeCell ref="J213:J214"/>
-    <mergeCell ref="T211:T212"/>
-    <mergeCell ref="U211:U212"/>
-    <mergeCell ref="V211:V212"/>
-    <mergeCell ref="W211:W212"/>
-    <mergeCell ref="X211:X212"/>
-    <mergeCell ref="Y211:Y212"/>
-    <mergeCell ref="N211:N212"/>
-    <mergeCell ref="O211:O212"/>
-    <mergeCell ref="P211:P212"/>
-    <mergeCell ref="Q211:Q212"/>
-    <mergeCell ref="R211:R212"/>
-    <mergeCell ref="S211:S212"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="I211:I212"/>
-    <mergeCell ref="J211:J212"/>
-    <mergeCell ref="K211:K212"/>
-    <mergeCell ref="L211:L212"/>
-    <mergeCell ref="M211:M212"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="F219:F220"/>
-    <mergeCell ref="G219:G220"/>
-    <mergeCell ref="W213:W214"/>
-    <mergeCell ref="X213:X214"/>
-    <mergeCell ref="Y213:Y214"/>
-    <mergeCell ref="Z213:Z214"/>
-    <mergeCell ref="Q215:R215"/>
-    <mergeCell ref="R216:S216"/>
-    <mergeCell ref="Q213:Q214"/>
-    <mergeCell ref="R213:R214"/>
-    <mergeCell ref="S213:S214"/>
-    <mergeCell ref="T213:T214"/>
-    <mergeCell ref="U213:U214"/>
-    <mergeCell ref="V213:V214"/>
-    <mergeCell ref="K213:K214"/>
-    <mergeCell ref="L213:L214"/>
-    <mergeCell ref="M213:M214"/>
-    <mergeCell ref="N213:N214"/>
-    <mergeCell ref="O213:O214"/>
-    <mergeCell ref="P213:P214"/>
-    <mergeCell ref="Z219:Z220"/>
-    <mergeCell ref="Q221:R221"/>
-    <mergeCell ref="T223:U223"/>
-    <mergeCell ref="S225:T225"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="F227:F228"/>
-    <mergeCell ref="G227:G228"/>
-    <mergeCell ref="T219:T220"/>
-    <mergeCell ref="U219:U220"/>
-    <mergeCell ref="V219:V220"/>
-    <mergeCell ref="W219:W220"/>
-    <mergeCell ref="X219:X220"/>
-    <mergeCell ref="Y219:Y220"/>
-    <mergeCell ref="N219:N220"/>
-    <mergeCell ref="O219:O220"/>
-    <mergeCell ref="P219:P220"/>
-    <mergeCell ref="Q219:Q220"/>
-    <mergeCell ref="R219:R220"/>
-    <mergeCell ref="S219:S220"/>
-    <mergeCell ref="H219:H220"/>
-    <mergeCell ref="I219:I220"/>
-    <mergeCell ref="J219:J220"/>
-    <mergeCell ref="K219:K220"/>
-    <mergeCell ref="L219:L220"/>
-    <mergeCell ref="M219:M220"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="Z227:Z228"/>
-    <mergeCell ref="R230:S230"/>
-    <mergeCell ref="R231:S231"/>
-    <mergeCell ref="R237:S237"/>
-    <mergeCell ref="A239:A240"/>
-    <mergeCell ref="B239:B240"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="D239:D240"/>
-    <mergeCell ref="F239:F240"/>
-    <mergeCell ref="G239:G240"/>
-    <mergeCell ref="T227:T228"/>
-    <mergeCell ref="U227:U228"/>
-    <mergeCell ref="V227:V228"/>
-    <mergeCell ref="W227:W228"/>
-    <mergeCell ref="X227:X228"/>
-    <mergeCell ref="Y227:Y228"/>
-    <mergeCell ref="N227:N228"/>
-    <mergeCell ref="O227:O228"/>
-    <mergeCell ref="P227:P228"/>
-    <mergeCell ref="Q227:Q228"/>
-    <mergeCell ref="R227:R228"/>
-    <mergeCell ref="S227:S228"/>
-    <mergeCell ref="H227:H228"/>
-    <mergeCell ref="I227:I228"/>
-    <mergeCell ref="J227:J228"/>
-    <mergeCell ref="K227:K228"/>
-    <mergeCell ref="L227:L228"/>
-    <mergeCell ref="M227:M228"/>
-    <mergeCell ref="Z239:Z240"/>
-    <mergeCell ref="Q241:R241"/>
-    <mergeCell ref="Q242:R242"/>
-    <mergeCell ref="A243:A244"/>
-    <mergeCell ref="B243:B244"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="F243:F244"/>
-    <mergeCell ref="G243:G244"/>
-    <mergeCell ref="H243:H244"/>
-    <mergeCell ref="T239:T240"/>
-    <mergeCell ref="U239:U240"/>
-    <mergeCell ref="V239:V240"/>
-    <mergeCell ref="W239:W240"/>
-    <mergeCell ref="X239:X240"/>
-    <mergeCell ref="Y239:Y240"/>
-    <mergeCell ref="N239:N240"/>
-    <mergeCell ref="O239:O240"/>
-    <mergeCell ref="P239:P240"/>
-    <mergeCell ref="Q239:Q240"/>
-    <mergeCell ref="R239:R240"/>
-    <mergeCell ref="S239:S240"/>
-    <mergeCell ref="H239:H240"/>
-    <mergeCell ref="I239:I240"/>
-    <mergeCell ref="J239:J240"/>
-    <mergeCell ref="K239:K240"/>
-    <mergeCell ref="L239:L240"/>
-    <mergeCell ref="M239:M240"/>
-    <mergeCell ref="U243:U244"/>
-    <mergeCell ref="V243:V244"/>
-    <mergeCell ref="W243:W244"/>
-    <mergeCell ref="X243:X244"/>
-    <mergeCell ref="Y243:Y244"/>
-    <mergeCell ref="Z243:Z244"/>
-    <mergeCell ref="O243:O244"/>
-    <mergeCell ref="P243:P244"/>
-    <mergeCell ref="Q243:Q244"/>
-    <mergeCell ref="R243:R244"/>
-    <mergeCell ref="S243:S244"/>
-    <mergeCell ref="T243:T244"/>
-    <mergeCell ref="I243:I244"/>
-    <mergeCell ref="J243:J244"/>
-    <mergeCell ref="K243:K244"/>
-    <mergeCell ref="L243:L244"/>
-    <mergeCell ref="M243:M244"/>
-    <mergeCell ref="N243:N244"/>
-    <mergeCell ref="P259:P260"/>
-    <mergeCell ref="Q259:Q260"/>
-    <mergeCell ref="R259:R260"/>
-    <mergeCell ref="G259:G260"/>
-    <mergeCell ref="H259:H260"/>
-    <mergeCell ref="I259:I260"/>
-    <mergeCell ref="J259:J260"/>
-    <mergeCell ref="K259:K260"/>
-    <mergeCell ref="L259:L260"/>
-    <mergeCell ref="R245:S245"/>
-    <mergeCell ref="Q249:R249"/>
-    <mergeCell ref="Q253:R253"/>
-    <mergeCell ref="R254:S254"/>
-    <mergeCell ref="R257:S257"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="F259:F260"/>
-    <mergeCell ref="Z263:Z264"/>
-    <mergeCell ref="O263:O264"/>
-    <mergeCell ref="P263:P264"/>
-    <mergeCell ref="Q263:Q264"/>
-    <mergeCell ref="R263:R264"/>
-    <mergeCell ref="S263:S264"/>
-    <mergeCell ref="T263:T264"/>
-    <mergeCell ref="I263:I264"/>
-    <mergeCell ref="J263:J264"/>
-    <mergeCell ref="K263:K264"/>
-    <mergeCell ref="L263:L264"/>
-    <mergeCell ref="M263:M264"/>
-    <mergeCell ref="N263:N264"/>
-    <mergeCell ref="Y259:Y260"/>
-    <mergeCell ref="Z259:Z260"/>
-    <mergeCell ref="S261:T261"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="F263:F264"/>
-    <mergeCell ref="G263:G264"/>
-    <mergeCell ref="H263:H264"/>
-    <mergeCell ref="S259:S260"/>
-    <mergeCell ref="T259:T260"/>
-    <mergeCell ref="U259:U260"/>
-    <mergeCell ref="V259:V260"/>
-    <mergeCell ref="W259:W260"/>
-    <mergeCell ref="X259:X260"/>
-    <mergeCell ref="M259:M260"/>
-    <mergeCell ref="N259:N260"/>
-    <mergeCell ref="O259:O260"/>
-    <mergeCell ref="K278:K279"/>
-    <mergeCell ref="L278:L279"/>
-    <mergeCell ref="S269:T269"/>
-    <mergeCell ref="Q270:R270"/>
-    <mergeCell ref="R271:S271"/>
-    <mergeCell ref="S272:T272"/>
-    <mergeCell ref="Q275:R275"/>
-    <mergeCell ref="A278:A279"/>
-    <mergeCell ref="B278:B279"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="D278:D279"/>
-    <mergeCell ref="F278:F279"/>
-    <mergeCell ref="U263:U264"/>
-    <mergeCell ref="V263:V264"/>
-    <mergeCell ref="W263:W264"/>
-    <mergeCell ref="X263:X264"/>
-    <mergeCell ref="Y263:Y264"/>
-    <mergeCell ref="Q287:R287"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="F289:F290"/>
-    <mergeCell ref="G289:G290"/>
-    <mergeCell ref="H289:H290"/>
-    <mergeCell ref="I289:I290"/>
-    <mergeCell ref="J289:J290"/>
-    <mergeCell ref="Y278:Y279"/>
-    <mergeCell ref="Z278:Z279"/>
-    <mergeCell ref="Q281:R281"/>
-    <mergeCell ref="Q283:R283"/>
-    <mergeCell ref="R284:S284"/>
-    <mergeCell ref="Q286:R286"/>
-    <mergeCell ref="S278:S279"/>
-    <mergeCell ref="T278:T279"/>
-    <mergeCell ref="U278:U279"/>
-    <mergeCell ref="V278:V279"/>
-    <mergeCell ref="W278:W279"/>
-    <mergeCell ref="X278:X279"/>
-    <mergeCell ref="M278:M279"/>
-    <mergeCell ref="N278:N279"/>
-    <mergeCell ref="O278:O279"/>
-    <mergeCell ref="P278:P279"/>
-    <mergeCell ref="Q278:Q279"/>
-    <mergeCell ref="R278:R279"/>
-    <mergeCell ref="G278:G279"/>
-    <mergeCell ref="H278:H279"/>
-    <mergeCell ref="I278:I279"/>
-    <mergeCell ref="J278:J279"/>
-    <mergeCell ref="W289:W290"/>
-    <mergeCell ref="X289:X290"/>
-    <mergeCell ref="Y289:Y290"/>
-    <mergeCell ref="Z289:Z290"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="F298:F299"/>
-    <mergeCell ref="G298:G299"/>
-    <mergeCell ref="Q289:Q290"/>
-    <mergeCell ref="R289:R290"/>
-    <mergeCell ref="S289:S290"/>
-    <mergeCell ref="T289:T290"/>
-    <mergeCell ref="U289:U290"/>
-    <mergeCell ref="V289:V290"/>
-    <mergeCell ref="K289:K290"/>
-    <mergeCell ref="L289:L290"/>
-    <mergeCell ref="M289:M290"/>
-    <mergeCell ref="N289:N290"/>
-    <mergeCell ref="O289:O290"/>
-    <mergeCell ref="P289:P290"/>
-    <mergeCell ref="Z298:Z299"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="F304:F305"/>
-    <mergeCell ref="G304:G305"/>
-    <mergeCell ref="H304:H305"/>
-    <mergeCell ref="I304:I305"/>
-    <mergeCell ref="J304:J305"/>
-    <mergeCell ref="T298:T299"/>
-    <mergeCell ref="U298:U299"/>
-    <mergeCell ref="V298:V299"/>
-    <mergeCell ref="W298:W299"/>
-    <mergeCell ref="X298:X299"/>
-    <mergeCell ref="Y298:Y299"/>
-    <mergeCell ref="N298:N299"/>
-    <mergeCell ref="O298:O299"/>
-    <mergeCell ref="P298:P299"/>
-    <mergeCell ref="Q298:Q299"/>
-    <mergeCell ref="R298:R299"/>
-    <mergeCell ref="S298:S299"/>
-    <mergeCell ref="H298:H299"/>
-    <mergeCell ref="I298:I299"/>
-    <mergeCell ref="J298:J299"/>
-    <mergeCell ref="K298:K299"/>
-    <mergeCell ref="L298:L299"/>
-    <mergeCell ref="M298:M299"/>
-    <mergeCell ref="X304:X305"/>
-    <mergeCell ref="Y304:Y305"/>
-    <mergeCell ref="Z304:Z305"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="F307:F308"/>
-    <mergeCell ref="G307:G308"/>
-    <mergeCell ref="H307:H308"/>
-    <mergeCell ref="Q304:Q305"/>
-    <mergeCell ref="R304:S304"/>
-    <mergeCell ref="T304:T305"/>
-    <mergeCell ref="U304:U305"/>
-    <mergeCell ref="V304:V305"/>
-    <mergeCell ref="W304:W305"/>
-    <mergeCell ref="K304:K305"/>
-    <mergeCell ref="L304:L305"/>
-    <mergeCell ref="M304:M305"/>
-    <mergeCell ref="N304:N305"/>
-    <mergeCell ref="O304:O305"/>
-    <mergeCell ref="P304:P305"/>
-    <mergeCell ref="F312:F313"/>
-    <mergeCell ref="G312:G313"/>
-    <mergeCell ref="U307:U308"/>
-    <mergeCell ref="V307:V308"/>
-    <mergeCell ref="W307:W308"/>
-    <mergeCell ref="X307:X308"/>
-    <mergeCell ref="Y307:Y308"/>
-    <mergeCell ref="Z307:Z308"/>
-    <mergeCell ref="O307:O308"/>
-    <mergeCell ref="P307:P308"/>
-    <mergeCell ref="Q307:Q308"/>
-    <mergeCell ref="R307:R308"/>
-    <mergeCell ref="S307:S308"/>
-    <mergeCell ref="T307:T308"/>
-    <mergeCell ref="I307:I308"/>
-    <mergeCell ref="J307:J308"/>
-    <mergeCell ref="K307:K308"/>
-    <mergeCell ref="L307:L308"/>
-    <mergeCell ref="M307:M308"/>
-    <mergeCell ref="N307:N308"/>
-    <mergeCell ref="Z312:Z313"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="C316:C317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="F316:F317"/>
-    <mergeCell ref="G316:G317"/>
-    <mergeCell ref="H316:H317"/>
-    <mergeCell ref="I316:I317"/>
-    <mergeCell ref="J316:J317"/>
-    <mergeCell ref="T312:T313"/>
-    <mergeCell ref="U312:U313"/>
-    <mergeCell ref="V312:V313"/>
-    <mergeCell ref="W312:W313"/>
-    <mergeCell ref="X312:X313"/>
-    <mergeCell ref="Y312:Y313"/>
-    <mergeCell ref="N312:N313"/>
-    <mergeCell ref="O312:O313"/>
-    <mergeCell ref="P312:P313"/>
-    <mergeCell ref="Q312:Q313"/>
-    <mergeCell ref="R312:R313"/>
-    <mergeCell ref="S312:S313"/>
-    <mergeCell ref="H312:H313"/>
-    <mergeCell ref="I312:I313"/>
-    <mergeCell ref="J312:J313"/>
-    <mergeCell ref="K312:K313"/>
-    <mergeCell ref="L312:L313"/>
-    <mergeCell ref="M312:M313"/>
-    <mergeCell ref="A312:A313"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="C312:C313"/>
-    <mergeCell ref="D312:D313"/>
-    <mergeCell ref="W316:W317"/>
-    <mergeCell ref="X316:X317"/>
-    <mergeCell ref="Y316:Y317"/>
-    <mergeCell ref="Z316:Z317"/>
-    <mergeCell ref="A318:A319"/>
-    <mergeCell ref="B318:B319"/>
-    <mergeCell ref="C318:C319"/>
-    <mergeCell ref="D318:D319"/>
-    <mergeCell ref="F318:F319"/>
-    <mergeCell ref="G318:G319"/>
-    <mergeCell ref="Q316:Q317"/>
-    <mergeCell ref="R316:R317"/>
-    <mergeCell ref="S316:S317"/>
-    <mergeCell ref="T316:T317"/>
-    <mergeCell ref="U316:U317"/>
-    <mergeCell ref="V316:V317"/>
-    <mergeCell ref="K316:K317"/>
-    <mergeCell ref="L316:L317"/>
-    <mergeCell ref="M316:M317"/>
-    <mergeCell ref="N316:N317"/>
-    <mergeCell ref="O316:O317"/>
-    <mergeCell ref="P316:P317"/>
-    <mergeCell ref="Z318:Z319"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="C322:C323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="F322:F323"/>
-    <mergeCell ref="G322:G323"/>
-    <mergeCell ref="H322:H323"/>
-    <mergeCell ref="I322:I323"/>
-    <mergeCell ref="J322:J323"/>
-    <mergeCell ref="T318:T319"/>
-    <mergeCell ref="U318:U319"/>
-    <mergeCell ref="V318:V319"/>
-    <mergeCell ref="W318:W319"/>
-    <mergeCell ref="X318:X319"/>
-    <mergeCell ref="Y318:Y319"/>
-    <mergeCell ref="N318:N319"/>
-    <mergeCell ref="O318:O319"/>
-    <mergeCell ref="P318:P319"/>
-    <mergeCell ref="Q318:Q319"/>
-    <mergeCell ref="R318:R319"/>
-    <mergeCell ref="S318:S319"/>
-    <mergeCell ref="H318:H319"/>
-    <mergeCell ref="I318:I319"/>
-    <mergeCell ref="J318:J319"/>
-    <mergeCell ref="K318:K319"/>
-    <mergeCell ref="L318:L319"/>
-    <mergeCell ref="M318:M319"/>
-    <mergeCell ref="F332:F334"/>
-    <mergeCell ref="G332:G334"/>
-    <mergeCell ref="W322:W323"/>
-    <mergeCell ref="X322:X323"/>
-    <mergeCell ref="Y322:Y323"/>
-    <mergeCell ref="Z322:Z323"/>
-    <mergeCell ref="Q324:R324"/>
-    <mergeCell ref="R325:S325"/>
-    <mergeCell ref="Q322:Q323"/>
-    <mergeCell ref="R322:R323"/>
-    <mergeCell ref="S322:S323"/>
-    <mergeCell ref="T322:T323"/>
-    <mergeCell ref="U322:U323"/>
-    <mergeCell ref="V322:V323"/>
-    <mergeCell ref="K322:K323"/>
-    <mergeCell ref="L322:L323"/>
-    <mergeCell ref="M322:M323"/>
-    <mergeCell ref="N322:N323"/>
-    <mergeCell ref="O322:O323"/>
-    <mergeCell ref="P322:P323"/>
-    <mergeCell ref="R342:S342"/>
-    <mergeCell ref="Q343:R343"/>
-    <mergeCell ref="Q344:R344"/>
-    <mergeCell ref="R347:S347"/>
-    <mergeCell ref="A348:A349"/>
-    <mergeCell ref="B348:B349"/>
-    <mergeCell ref="C348:C349"/>
-    <mergeCell ref="D348:D349"/>
-    <mergeCell ref="F348:F349"/>
-    <mergeCell ref="G348:G349"/>
-    <mergeCell ref="U332:U334"/>
-    <mergeCell ref="V332:V334"/>
-    <mergeCell ref="W332:W334"/>
-    <mergeCell ref="X332:X334"/>
-    <mergeCell ref="Y332:Y334"/>
-    <mergeCell ref="Z332:Z334"/>
-    <mergeCell ref="N332:N334"/>
-    <mergeCell ref="O332:O334"/>
-    <mergeCell ref="P332:P334"/>
-    <mergeCell ref="Q332:Q334"/>
-    <mergeCell ref="R332:S332"/>
-    <mergeCell ref="T332:T334"/>
-    <mergeCell ref="H332:H334"/>
-    <mergeCell ref="I332:I334"/>
-    <mergeCell ref="J332:J334"/>
-    <mergeCell ref="K332:K334"/>
-    <mergeCell ref="L332:L334"/>
-    <mergeCell ref="M332:M334"/>
-    <mergeCell ref="A332:A334"/>
-    <mergeCell ref="B332:B334"/>
-    <mergeCell ref="C332:C334"/>
-    <mergeCell ref="D332:D334"/>
-    <mergeCell ref="L359:L360"/>
-    <mergeCell ref="M359:M360"/>
-    <mergeCell ref="Z348:Z349"/>
-    <mergeCell ref="Q350:R350"/>
-    <mergeCell ref="R351:S351"/>
-    <mergeCell ref="Q355:R355"/>
-    <mergeCell ref="A359:A360"/>
-    <mergeCell ref="B359:B360"/>
-    <mergeCell ref="C359:C360"/>
-    <mergeCell ref="D359:D360"/>
-    <mergeCell ref="F359:F360"/>
-    <mergeCell ref="G359:G360"/>
-    <mergeCell ref="T348:T349"/>
-    <mergeCell ref="U348:U349"/>
-    <mergeCell ref="V348:V349"/>
-    <mergeCell ref="W348:W349"/>
-    <mergeCell ref="X348:X349"/>
-    <mergeCell ref="Y348:Y349"/>
-    <mergeCell ref="N348:N349"/>
-    <mergeCell ref="O348:O349"/>
-    <mergeCell ref="P348:P349"/>
-    <mergeCell ref="Q348:Q349"/>
-    <mergeCell ref="R348:R349"/>
-    <mergeCell ref="S348:S349"/>
-    <mergeCell ref="H348:H349"/>
-    <mergeCell ref="I348:I349"/>
-    <mergeCell ref="J348:J349"/>
-    <mergeCell ref="K348:K349"/>
-    <mergeCell ref="L348:L349"/>
-    <mergeCell ref="M348:M349"/>
-    <mergeCell ref="Q371:R371"/>
-    <mergeCell ref="R373:S373"/>
-    <mergeCell ref="A376:A378"/>
-    <mergeCell ref="B376:B378"/>
-    <mergeCell ref="C376:C378"/>
-    <mergeCell ref="D376:D378"/>
-    <mergeCell ref="F376:F378"/>
-    <mergeCell ref="G376:G378"/>
-    <mergeCell ref="H376:H378"/>
-    <mergeCell ref="I376:I378"/>
-    <mergeCell ref="Z359:Z360"/>
-    <mergeCell ref="T361:U361"/>
-    <mergeCell ref="T364:U364"/>
-    <mergeCell ref="Q366:R366"/>
-    <mergeCell ref="S367:T367"/>
-    <mergeCell ref="Q368:R368"/>
-    <mergeCell ref="T359:T360"/>
-    <mergeCell ref="U359:U360"/>
-    <mergeCell ref="V359:V360"/>
-    <mergeCell ref="W359:W360"/>
-    <mergeCell ref="X359:X360"/>
-    <mergeCell ref="Y359:Y360"/>
-    <mergeCell ref="N359:N360"/>
-    <mergeCell ref="O359:O360"/>
-    <mergeCell ref="P359:P360"/>
-    <mergeCell ref="Q359:Q360"/>
-    <mergeCell ref="R359:R360"/>
-    <mergeCell ref="S359:S360"/>
-    <mergeCell ref="H359:H360"/>
-    <mergeCell ref="I359:I360"/>
-    <mergeCell ref="J359:J360"/>
-    <mergeCell ref="K359:K360"/>
-    <mergeCell ref="R381:S381"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="C382:C383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="F382:F383"/>
-    <mergeCell ref="G382:G383"/>
-    <mergeCell ref="H382:H383"/>
-    <mergeCell ref="I382:I383"/>
-    <mergeCell ref="J382:J383"/>
-    <mergeCell ref="V376:V378"/>
-    <mergeCell ref="W376:W378"/>
-    <mergeCell ref="X376:X378"/>
-    <mergeCell ref="Y376:Y378"/>
-    <mergeCell ref="Z376:Z378"/>
-    <mergeCell ref="S379:T379"/>
-    <mergeCell ref="P376:P378"/>
-    <mergeCell ref="Q376:Q378"/>
-    <mergeCell ref="R376:R378"/>
-    <mergeCell ref="S376:S378"/>
-    <mergeCell ref="T376:T378"/>
-    <mergeCell ref="U376:U378"/>
-    <mergeCell ref="J376:J378"/>
-    <mergeCell ref="K376:K378"/>
-    <mergeCell ref="L376:L378"/>
-    <mergeCell ref="M376:M378"/>
-    <mergeCell ref="N376:N378"/>
-    <mergeCell ref="O376:O378"/>
-    <mergeCell ref="A389:A390"/>
-    <mergeCell ref="B389:B390"/>
-    <mergeCell ref="C389:C390"/>
-    <mergeCell ref="D389:D390"/>
-    <mergeCell ref="F389:F390"/>
-    <mergeCell ref="G389:G390"/>
-    <mergeCell ref="W382:W383"/>
-    <mergeCell ref="X382:X383"/>
-    <mergeCell ref="Y382:Y383"/>
-    <mergeCell ref="Z382:Z383"/>
-    <mergeCell ref="R384:S384"/>
-    <mergeCell ref="R388:S388"/>
-    <mergeCell ref="Q382:Q383"/>
-    <mergeCell ref="R382:R383"/>
-    <mergeCell ref="S382:S383"/>
-    <mergeCell ref="T382:T383"/>
-    <mergeCell ref="U382:U383"/>
-    <mergeCell ref="V382:V383"/>
-    <mergeCell ref="K382:K383"/>
-    <mergeCell ref="L382:L383"/>
-    <mergeCell ref="M382:M383"/>
-    <mergeCell ref="N382:N383"/>
-    <mergeCell ref="O382:O383"/>
-    <mergeCell ref="P382:P383"/>
-    <mergeCell ref="F415:F416"/>
-    <mergeCell ref="G415:G416"/>
-    <mergeCell ref="Z389:Z390"/>
-    <mergeCell ref="Q395:R395"/>
-    <mergeCell ref="R399:S399"/>
-    <mergeCell ref="R402:S402"/>
-    <mergeCell ref="R410:S410"/>
-    <mergeCell ref="Q411:R411"/>
-    <mergeCell ref="T389:T390"/>
-    <mergeCell ref="U389:U390"/>
-    <mergeCell ref="V389:V390"/>
-    <mergeCell ref="W389:W390"/>
-    <mergeCell ref="X389:X390"/>
-    <mergeCell ref="Y389:Y390"/>
-    <mergeCell ref="N389:N390"/>
-    <mergeCell ref="O389:O390"/>
-    <mergeCell ref="P389:P390"/>
-    <mergeCell ref="Q389:Q390"/>
-    <mergeCell ref="R389:R390"/>
-    <mergeCell ref="S389:S390"/>
-    <mergeCell ref="H389:H390"/>
-    <mergeCell ref="I389:I390"/>
-    <mergeCell ref="J389:J390"/>
-    <mergeCell ref="K389:K390"/>
-    <mergeCell ref="L389:L390"/>
-    <mergeCell ref="M389:M390"/>
-    <mergeCell ref="Z415:Z416"/>
-    <mergeCell ref="A417:A418"/>
-    <mergeCell ref="B417:B418"/>
-    <mergeCell ref="C417:C418"/>
-    <mergeCell ref="D417:D418"/>
-    <mergeCell ref="F417:F418"/>
-    <mergeCell ref="G417:G418"/>
-    <mergeCell ref="H417:H418"/>
-    <mergeCell ref="I417:I418"/>
-    <mergeCell ref="J417:J418"/>
-    <mergeCell ref="T415:T416"/>
-    <mergeCell ref="U415:U416"/>
-    <mergeCell ref="V415:V416"/>
-    <mergeCell ref="W415:W416"/>
-    <mergeCell ref="X415:X416"/>
-    <mergeCell ref="Y415:Y416"/>
-    <mergeCell ref="N415:N416"/>
-    <mergeCell ref="O415:O416"/>
-    <mergeCell ref="P415:P416"/>
-    <mergeCell ref="Q415:Q416"/>
-    <mergeCell ref="R415:R416"/>
-    <mergeCell ref="S415:S416"/>
-    <mergeCell ref="H415:H416"/>
-    <mergeCell ref="I415:I416"/>
-    <mergeCell ref="J415:J416"/>
-    <mergeCell ref="K415:K416"/>
-    <mergeCell ref="L415:L416"/>
-    <mergeCell ref="M415:M416"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="C415:C416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="Q428:R428"/>
-    <mergeCell ref="Q430:R430"/>
-    <mergeCell ref="R431:S431"/>
-    <mergeCell ref="S434:T434"/>
-    <mergeCell ref="A437:A438"/>
-    <mergeCell ref="B437:B438"/>
-    <mergeCell ref="C437:C438"/>
-    <mergeCell ref="D437:D438"/>
-    <mergeCell ref="F437:F438"/>
-    <mergeCell ref="G437:G438"/>
-    <mergeCell ref="X417:X418"/>
-    <mergeCell ref="Y417:Y418"/>
-    <mergeCell ref="Z417:Z418"/>
-    <mergeCell ref="Q420:R420"/>
-    <mergeCell ref="Q422:R422"/>
-    <mergeCell ref="Q424:R424"/>
-    <mergeCell ref="Q417:Q418"/>
-    <mergeCell ref="R417:S417"/>
-    <mergeCell ref="T417:T418"/>
-    <mergeCell ref="U417:U418"/>
-    <mergeCell ref="V417:V418"/>
-    <mergeCell ref="W417:W418"/>
-    <mergeCell ref="K417:K418"/>
-    <mergeCell ref="L417:L418"/>
-    <mergeCell ref="M417:M418"/>
-    <mergeCell ref="N417:N418"/>
-    <mergeCell ref="O417:O418"/>
-    <mergeCell ref="P417:P418"/>
-    <mergeCell ref="R439:S439"/>
-    <mergeCell ref="A440:A441"/>
-    <mergeCell ref="B440:B441"/>
-    <mergeCell ref="C440:C441"/>
-    <mergeCell ref="D440:D441"/>
-    <mergeCell ref="F440:F441"/>
-    <mergeCell ref="G440:G441"/>
-    <mergeCell ref="H440:H441"/>
-    <mergeCell ref="I440:I441"/>
-    <mergeCell ref="J440:J441"/>
-    <mergeCell ref="U437:U438"/>
-    <mergeCell ref="V437:V438"/>
-    <mergeCell ref="W437:W438"/>
-    <mergeCell ref="X437:X438"/>
-    <mergeCell ref="Y437:Y438"/>
-    <mergeCell ref="Z437:Z438"/>
-    <mergeCell ref="N437:N438"/>
-    <mergeCell ref="O437:O438"/>
-    <mergeCell ref="P437:P438"/>
-    <mergeCell ref="Q437:R437"/>
-    <mergeCell ref="S437:S438"/>
-    <mergeCell ref="T437:T438"/>
-    <mergeCell ref="H437:H438"/>
-    <mergeCell ref="I437:I438"/>
-    <mergeCell ref="J437:J438"/>
-    <mergeCell ref="K437:K438"/>
-    <mergeCell ref="L437:L438"/>
-    <mergeCell ref="M437:M438"/>
-    <mergeCell ref="Q447:R447"/>
-    <mergeCell ref="Q450:R450"/>
-    <mergeCell ref="A458:A459"/>
-    <mergeCell ref="B458:B459"/>
-    <mergeCell ref="C458:C459"/>
-    <mergeCell ref="D458:D459"/>
-    <mergeCell ref="F458:F459"/>
-    <mergeCell ref="G458:G459"/>
-    <mergeCell ref="H458:H459"/>
-    <mergeCell ref="I458:I459"/>
-    <mergeCell ref="W440:W441"/>
-    <mergeCell ref="X440:X441"/>
-    <mergeCell ref="Y440:Y441"/>
-    <mergeCell ref="Z440:Z441"/>
-    <mergeCell ref="R444:S444"/>
-    <mergeCell ref="R446:S446"/>
-    <mergeCell ref="Q440:Q441"/>
-    <mergeCell ref="R440:R441"/>
-    <mergeCell ref="S440:S441"/>
-    <mergeCell ref="T440:T441"/>
-    <mergeCell ref="U440:U441"/>
-    <mergeCell ref="V440:V441"/>
-    <mergeCell ref="K440:K441"/>
-    <mergeCell ref="L440:L441"/>
-    <mergeCell ref="M440:M441"/>
-    <mergeCell ref="N440:N441"/>
-    <mergeCell ref="O440:O441"/>
-    <mergeCell ref="P440:P441"/>
-    <mergeCell ref="K460:K461"/>
-    <mergeCell ref="L460:L461"/>
-    <mergeCell ref="V458:V459"/>
-    <mergeCell ref="W458:W459"/>
-    <mergeCell ref="X458:X459"/>
-    <mergeCell ref="Y458:Y459"/>
-    <mergeCell ref="Z458:Z459"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="C460:C461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="F460:F461"/>
-    <mergeCell ref="P458:P459"/>
-    <mergeCell ref="Q458:Q459"/>
-    <mergeCell ref="R458:R459"/>
-    <mergeCell ref="S458:S459"/>
-    <mergeCell ref="T458:T459"/>
-    <mergeCell ref="U458:U459"/>
-    <mergeCell ref="J458:J459"/>
-    <mergeCell ref="K458:K459"/>
-    <mergeCell ref="L458:L459"/>
-    <mergeCell ref="M458:M459"/>
-    <mergeCell ref="N458:N459"/>
-    <mergeCell ref="O458:O459"/>
-    <mergeCell ref="R466:S466"/>
-    <mergeCell ref="Q468:R468"/>
-    <mergeCell ref="Q472:R472"/>
-    <mergeCell ref="R473:S473"/>
-    <mergeCell ref="A476:A478"/>
-    <mergeCell ref="B476:B478"/>
-    <mergeCell ref="C476:C478"/>
-    <mergeCell ref="D476:D478"/>
-    <mergeCell ref="F476:F478"/>
-    <mergeCell ref="G476:G478"/>
-    <mergeCell ref="Y460:Y461"/>
-    <mergeCell ref="Z460:Z461"/>
-    <mergeCell ref="S462:T462"/>
-    <mergeCell ref="R463:S463"/>
-    <mergeCell ref="Q464:R464"/>
-    <mergeCell ref="R465:S465"/>
-    <mergeCell ref="S460:S461"/>
-    <mergeCell ref="T460:T461"/>
-    <mergeCell ref="U460:U461"/>
-    <mergeCell ref="V460:V461"/>
-    <mergeCell ref="W460:W461"/>
-    <mergeCell ref="X460:X461"/>
-    <mergeCell ref="M460:M461"/>
-    <mergeCell ref="N460:N461"/>
-    <mergeCell ref="O460:O461"/>
-    <mergeCell ref="P460:P461"/>
-    <mergeCell ref="Q460:Q461"/>
-    <mergeCell ref="R460:R461"/>
-    <mergeCell ref="G460:G461"/>
-    <mergeCell ref="H460:H461"/>
-    <mergeCell ref="I460:I461"/>
-    <mergeCell ref="J460:J461"/>
-    <mergeCell ref="Z476:Z478"/>
-    <mergeCell ref="Q479:R479"/>
-    <mergeCell ref="Q483:R483"/>
-    <mergeCell ref="Q485:R485"/>
-    <mergeCell ref="S486:T486"/>
-    <mergeCell ref="A488:A489"/>
-    <mergeCell ref="B488:B489"/>
-    <mergeCell ref="C488:C489"/>
-    <mergeCell ref="D488:D489"/>
-    <mergeCell ref="F488:F489"/>
-    <mergeCell ref="T476:T478"/>
-    <mergeCell ref="U476:U478"/>
-    <mergeCell ref="V476:V478"/>
-    <mergeCell ref="W476:W478"/>
-    <mergeCell ref="X476:X478"/>
-    <mergeCell ref="Y476:Y478"/>
-    <mergeCell ref="N476:N478"/>
-    <mergeCell ref="O476:O478"/>
-    <mergeCell ref="P476:P478"/>
-    <mergeCell ref="Q476:Q478"/>
-    <mergeCell ref="R476:R478"/>
-    <mergeCell ref="S476:S478"/>
-    <mergeCell ref="H476:H478"/>
-    <mergeCell ref="I476:I478"/>
-    <mergeCell ref="J476:J478"/>
-    <mergeCell ref="K476:K478"/>
-    <mergeCell ref="L476:L478"/>
-    <mergeCell ref="M476:M478"/>
-    <mergeCell ref="Y488:Y489"/>
-    <mergeCell ref="Z488:Z489"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="C490:C491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="F490:F491"/>
-    <mergeCell ref="G490:G491"/>
-    <mergeCell ref="H490:H491"/>
-    <mergeCell ref="I490:I491"/>
-    <mergeCell ref="S488:S489"/>
-    <mergeCell ref="T488:T489"/>
-    <mergeCell ref="U488:U489"/>
-    <mergeCell ref="V488:V489"/>
-    <mergeCell ref="W488:W489"/>
-    <mergeCell ref="X488:X489"/>
-    <mergeCell ref="M488:M489"/>
-    <mergeCell ref="N488:N489"/>
-    <mergeCell ref="O488:O489"/>
-    <mergeCell ref="P488:P489"/>
-    <mergeCell ref="Q488:Q489"/>
-    <mergeCell ref="R488:R489"/>
-    <mergeCell ref="G488:G489"/>
-    <mergeCell ref="H488:H489"/>
-    <mergeCell ref="I488:I489"/>
-    <mergeCell ref="J488:J489"/>
-    <mergeCell ref="K488:K489"/>
-    <mergeCell ref="L488:L489"/>
-    <mergeCell ref="Q497:R497"/>
-    <mergeCell ref="R498:S498"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="C499:C500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="F499:F500"/>
-    <mergeCell ref="G499:G500"/>
-    <mergeCell ref="H499:H500"/>
-    <mergeCell ref="I499:I500"/>
-    <mergeCell ref="V490:V491"/>
-    <mergeCell ref="W490:W491"/>
-    <mergeCell ref="X490:X491"/>
-    <mergeCell ref="Y490:Y491"/>
-    <mergeCell ref="Z490:Z491"/>
-    <mergeCell ref="S492:T492"/>
-    <mergeCell ref="P490:P491"/>
-    <mergeCell ref="Q490:Q491"/>
-    <mergeCell ref="R490:R491"/>
-    <mergeCell ref="S490:S491"/>
-    <mergeCell ref="T490:T491"/>
-    <mergeCell ref="U490:U491"/>
-    <mergeCell ref="J490:J491"/>
-    <mergeCell ref="K490:K491"/>
-    <mergeCell ref="L490:L491"/>
-    <mergeCell ref="M490:M491"/>
-    <mergeCell ref="N490:N491"/>
-    <mergeCell ref="O490:O491"/>
-    <mergeCell ref="F503:F504"/>
-    <mergeCell ref="G503:G504"/>
-    <mergeCell ref="W499:W500"/>
-    <mergeCell ref="X499:X500"/>
-    <mergeCell ref="Y499:Y500"/>
-    <mergeCell ref="Z499:Z500"/>
-    <mergeCell ref="R501:S501"/>
-    <mergeCell ref="Q502:R502"/>
-    <mergeCell ref="P499:P500"/>
-    <mergeCell ref="Q499:Q500"/>
-    <mergeCell ref="R499:S499"/>
-    <mergeCell ref="T499:T500"/>
-    <mergeCell ref="U499:U500"/>
-    <mergeCell ref="V499:V500"/>
-    <mergeCell ref="J499:J500"/>
-    <mergeCell ref="K499:K500"/>
-    <mergeCell ref="L499:L500"/>
-    <mergeCell ref="M499:M500"/>
-    <mergeCell ref="N499:N500"/>
-    <mergeCell ref="O499:O500"/>
-    <mergeCell ref="R509:S509"/>
-    <mergeCell ref="Q515:R515"/>
-    <mergeCell ref="Q516:R516"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="C520:C521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="F520:F521"/>
-    <mergeCell ref="G520:G521"/>
-    <mergeCell ref="H520:H521"/>
-    <mergeCell ref="U503:U504"/>
-    <mergeCell ref="V503:V504"/>
-    <mergeCell ref="W503:W504"/>
-    <mergeCell ref="X503:X504"/>
-    <mergeCell ref="Y503:Y504"/>
-    <mergeCell ref="Z503:Z504"/>
-    <mergeCell ref="N503:N504"/>
-    <mergeCell ref="O503:O504"/>
-    <mergeCell ref="P503:P504"/>
-    <mergeCell ref="Q503:R503"/>
-    <mergeCell ref="S503:S504"/>
-    <mergeCell ref="T503:T504"/>
-    <mergeCell ref="H503:H504"/>
-    <mergeCell ref="I503:I504"/>
-    <mergeCell ref="J503:J504"/>
-    <mergeCell ref="K503:K504"/>
-    <mergeCell ref="L503:L504"/>
-    <mergeCell ref="M503:M504"/>
-    <mergeCell ref="A503:A504"/>
-    <mergeCell ref="B503:B504"/>
-    <mergeCell ref="C503:C504"/>
-    <mergeCell ref="D503:D504"/>
-    <mergeCell ref="A522:A524"/>
-    <mergeCell ref="B522:B524"/>
-    <mergeCell ref="C522:C524"/>
-    <mergeCell ref="D522:D524"/>
-    <mergeCell ref="F522:F524"/>
-    <mergeCell ref="G522:G524"/>
-    <mergeCell ref="U520:U521"/>
-    <mergeCell ref="V520:V521"/>
-    <mergeCell ref="W520:W521"/>
-    <mergeCell ref="X520:X521"/>
-    <mergeCell ref="Y520:Y521"/>
-    <mergeCell ref="Z520:Z521"/>
-    <mergeCell ref="O520:O521"/>
-    <mergeCell ref="P520:P521"/>
-    <mergeCell ref="Q520:Q521"/>
-    <mergeCell ref="R520:R521"/>
-    <mergeCell ref="S520:S521"/>
-    <mergeCell ref="T520:T521"/>
-    <mergeCell ref="I520:I521"/>
-    <mergeCell ref="J520:J521"/>
-    <mergeCell ref="K520:K521"/>
-    <mergeCell ref="L520:L521"/>
-    <mergeCell ref="M520:M521"/>
-    <mergeCell ref="N520:N521"/>
-    <mergeCell ref="F525:F526"/>
-    <mergeCell ref="G525:G526"/>
-    <mergeCell ref="U522:U524"/>
-    <mergeCell ref="V522:V524"/>
-    <mergeCell ref="W522:W524"/>
-    <mergeCell ref="X522:X524"/>
-    <mergeCell ref="Y522:Y524"/>
-    <mergeCell ref="Z522:Z524"/>
-    <mergeCell ref="N522:N524"/>
-    <mergeCell ref="O522:O524"/>
-    <mergeCell ref="P522:P524"/>
-    <mergeCell ref="Q522:Q524"/>
-    <mergeCell ref="R522:S522"/>
-    <mergeCell ref="T522:T524"/>
-    <mergeCell ref="H522:H524"/>
-    <mergeCell ref="I522:I524"/>
-    <mergeCell ref="J522:J524"/>
-    <mergeCell ref="K522:K524"/>
-    <mergeCell ref="L522:L524"/>
-    <mergeCell ref="M522:M524"/>
-    <mergeCell ref="Z525:Z526"/>
-    <mergeCell ref="R527:S527"/>
-    <mergeCell ref="A528:A529"/>
-    <mergeCell ref="B528:B529"/>
-    <mergeCell ref="C528:C529"/>
-    <mergeCell ref="D528:D529"/>
-    <mergeCell ref="F528:F529"/>
-    <mergeCell ref="G528:G529"/>
-    <mergeCell ref="H528:H529"/>
-    <mergeCell ref="I528:I529"/>
-    <mergeCell ref="T525:T526"/>
-    <mergeCell ref="U525:U526"/>
-    <mergeCell ref="V525:V526"/>
-    <mergeCell ref="W525:W526"/>
-    <mergeCell ref="X525:X526"/>
-    <mergeCell ref="Y525:Y526"/>
-    <mergeCell ref="N525:N526"/>
-    <mergeCell ref="O525:O526"/>
-    <mergeCell ref="P525:P526"/>
-    <mergeCell ref="Q525:Q526"/>
-    <mergeCell ref="R525:R526"/>
-    <mergeCell ref="S525:S526"/>
-    <mergeCell ref="H525:H526"/>
-    <mergeCell ref="I525:I526"/>
-    <mergeCell ref="J525:J526"/>
-    <mergeCell ref="K525:K526"/>
-    <mergeCell ref="L525:L526"/>
-    <mergeCell ref="M525:M526"/>
-    <mergeCell ref="A525:A526"/>
-    <mergeCell ref="B525:B526"/>
-    <mergeCell ref="C525:C526"/>
-    <mergeCell ref="D525:D526"/>
-    <mergeCell ref="F532:F533"/>
-    <mergeCell ref="G532:G533"/>
-    <mergeCell ref="V528:V529"/>
-    <mergeCell ref="W528:W529"/>
-    <mergeCell ref="X528:X529"/>
-    <mergeCell ref="Y528:Y529"/>
-    <mergeCell ref="Z528:Z529"/>
-    <mergeCell ref="Q531:R531"/>
-    <mergeCell ref="P528:P529"/>
-    <mergeCell ref="Q528:Q529"/>
-    <mergeCell ref="R528:R529"/>
-    <mergeCell ref="S528:S529"/>
-    <mergeCell ref="T528:T529"/>
-    <mergeCell ref="U528:U529"/>
-    <mergeCell ref="J528:J529"/>
-    <mergeCell ref="K528:K529"/>
-    <mergeCell ref="L528:L529"/>
-    <mergeCell ref="M528:M529"/>
-    <mergeCell ref="N528:N529"/>
-    <mergeCell ref="O528:O529"/>
-    <mergeCell ref="Z532:Z533"/>
-    <mergeCell ref="R534:S534"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="C535:C536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="F535:F536"/>
-    <mergeCell ref="G535:G536"/>
-    <mergeCell ref="H535:H536"/>
-    <mergeCell ref="I535:I536"/>
-    <mergeCell ref="T532:T533"/>
-    <mergeCell ref="U532:U533"/>
-    <mergeCell ref="V532:V533"/>
-    <mergeCell ref="W532:W533"/>
-    <mergeCell ref="X532:X533"/>
-    <mergeCell ref="Y532:Y533"/>
-    <mergeCell ref="N532:N533"/>
-    <mergeCell ref="O532:O533"/>
-    <mergeCell ref="P532:P533"/>
-    <mergeCell ref="Q532:Q533"/>
-    <mergeCell ref="R532:R533"/>
-    <mergeCell ref="S532:S533"/>
-    <mergeCell ref="H532:H533"/>
-    <mergeCell ref="I532:I533"/>
-    <mergeCell ref="J532:J533"/>
-    <mergeCell ref="K532:K533"/>
-    <mergeCell ref="L532:L533"/>
-    <mergeCell ref="M532:M533"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="C532:C533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="A548:A549"/>
-    <mergeCell ref="B548:B549"/>
-    <mergeCell ref="C548:C549"/>
-    <mergeCell ref="D548:D549"/>
-    <mergeCell ref="F548:F549"/>
-    <mergeCell ref="G548:G549"/>
-    <mergeCell ref="Q538:R538"/>
-    <mergeCell ref="Q539:R539"/>
-    <mergeCell ref="Q540:R540"/>
-    <mergeCell ref="R542:S542"/>
-    <mergeCell ref="R544:S544"/>
-    <mergeCell ref="Q547:R547"/>
-    <mergeCell ref="V535:V536"/>
-    <mergeCell ref="W535:W536"/>
-    <mergeCell ref="X535:X536"/>
-    <mergeCell ref="Y535:Y536"/>
-    <mergeCell ref="Z535:Z536"/>
-    <mergeCell ref="S537:T537"/>
-    <mergeCell ref="P535:P536"/>
-    <mergeCell ref="Q535:Q536"/>
-    <mergeCell ref="R535:R536"/>
-    <mergeCell ref="S535:S536"/>
-    <mergeCell ref="T535:T536"/>
-    <mergeCell ref="U535:U536"/>
-    <mergeCell ref="J535:J536"/>
-    <mergeCell ref="K535:K536"/>
-    <mergeCell ref="L535:L536"/>
-    <mergeCell ref="M535:M536"/>
-    <mergeCell ref="N535:N536"/>
-    <mergeCell ref="O535:O536"/>
-    <mergeCell ref="F550:F551"/>
-    <mergeCell ref="G550:G551"/>
-    <mergeCell ref="U548:U549"/>
-    <mergeCell ref="V548:V549"/>
-    <mergeCell ref="W548:W549"/>
-    <mergeCell ref="X548:X549"/>
-    <mergeCell ref="Y548:Y549"/>
-    <mergeCell ref="Z548:Z549"/>
-    <mergeCell ref="N548:N549"/>
-    <mergeCell ref="O548:O549"/>
-    <mergeCell ref="P548:P549"/>
-    <mergeCell ref="Q548:Q549"/>
-    <mergeCell ref="R548:S548"/>
-    <mergeCell ref="T548:T549"/>
-    <mergeCell ref="H548:H549"/>
-    <mergeCell ref="I548:I549"/>
-    <mergeCell ref="J548:J549"/>
-    <mergeCell ref="K548:K549"/>
-    <mergeCell ref="L548:L549"/>
-    <mergeCell ref="M548:M549"/>
-    <mergeCell ref="Z550:Z551"/>
-    <mergeCell ref="S552:T552"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="C553:C554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="F553:F554"/>
-    <mergeCell ref="G553:G554"/>
-    <mergeCell ref="H553:H554"/>
-    <mergeCell ref="I553:I554"/>
-    <mergeCell ref="T550:T551"/>
-    <mergeCell ref="U550:U551"/>
-    <mergeCell ref="V550:V551"/>
-    <mergeCell ref="W550:W551"/>
-    <mergeCell ref="X550:X551"/>
-    <mergeCell ref="Y550:Y551"/>
-    <mergeCell ref="N550:N551"/>
-    <mergeCell ref="O550:O551"/>
-    <mergeCell ref="P550:P551"/>
-    <mergeCell ref="Q550:Q551"/>
-    <mergeCell ref="R550:R551"/>
-    <mergeCell ref="S550:S551"/>
-    <mergeCell ref="H550:H551"/>
-    <mergeCell ref="I550:I551"/>
-    <mergeCell ref="J550:J551"/>
-    <mergeCell ref="K550:K551"/>
-    <mergeCell ref="L550:L551"/>
-    <mergeCell ref="M550:M551"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="C550:C551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="K558:K559"/>
-    <mergeCell ref="L558:L559"/>
-    <mergeCell ref="V553:V554"/>
-    <mergeCell ref="W553:W554"/>
-    <mergeCell ref="X553:X554"/>
-    <mergeCell ref="Y553:Y554"/>
-    <mergeCell ref="Z553:Z554"/>
-    <mergeCell ref="A558:A559"/>
-    <mergeCell ref="B558:B559"/>
-    <mergeCell ref="C558:C559"/>
-    <mergeCell ref="D558:D559"/>
-    <mergeCell ref="F558:F559"/>
-    <mergeCell ref="P553:P554"/>
-    <mergeCell ref="Q553:Q554"/>
-    <mergeCell ref="R553:R554"/>
-    <mergeCell ref="S553:S554"/>
-    <mergeCell ref="T553:T554"/>
-    <mergeCell ref="U553:U554"/>
-    <mergeCell ref="J553:J554"/>
-    <mergeCell ref="K553:K554"/>
-    <mergeCell ref="L553:L554"/>
-    <mergeCell ref="M553:M554"/>
-    <mergeCell ref="N553:N554"/>
-    <mergeCell ref="O553:O554"/>
-    <mergeCell ref="R569:S569"/>
-    <mergeCell ref="R571:S571"/>
-    <mergeCell ref="Q574:R574"/>
-    <mergeCell ref="R576:S576"/>
-    <mergeCell ref="A577:A578"/>
-    <mergeCell ref="B577:B578"/>
-    <mergeCell ref="C577:C578"/>
-    <mergeCell ref="D577:D578"/>
-    <mergeCell ref="F577:F578"/>
-    <mergeCell ref="G577:G578"/>
-    <mergeCell ref="Z558:Z559"/>
-    <mergeCell ref="R560:S560"/>
-    <mergeCell ref="T561:U561"/>
-    <mergeCell ref="R562:S562"/>
-    <mergeCell ref="S563:T563"/>
-    <mergeCell ref="Q566:R566"/>
-    <mergeCell ref="T558:T559"/>
-    <mergeCell ref="U558:U559"/>
-    <mergeCell ref="V558:V559"/>
-    <mergeCell ref="W558:W559"/>
-    <mergeCell ref="X558:X559"/>
-    <mergeCell ref="Y558:Y559"/>
-    <mergeCell ref="M558:M559"/>
-    <mergeCell ref="N558:N559"/>
-    <mergeCell ref="O558:O559"/>
-    <mergeCell ref="P558:P559"/>
-    <mergeCell ref="Q558:R558"/>
-    <mergeCell ref="S558:S559"/>
-    <mergeCell ref="G558:G559"/>
-    <mergeCell ref="H558:H559"/>
-    <mergeCell ref="I558:I559"/>
-    <mergeCell ref="J558:J559"/>
-    <mergeCell ref="Z577:Z578"/>
-    <mergeCell ref="R582:S582"/>
-    <mergeCell ref="S584:T584"/>
-    <mergeCell ref="A585:A586"/>
-    <mergeCell ref="B585:B586"/>
-    <mergeCell ref="C585:C586"/>
-    <mergeCell ref="D585:D586"/>
-    <mergeCell ref="F585:F586"/>
-    <mergeCell ref="G585:G586"/>
-    <mergeCell ref="H585:H586"/>
-    <mergeCell ref="T577:T578"/>
-    <mergeCell ref="U577:U578"/>
-    <mergeCell ref="V577:V578"/>
-    <mergeCell ref="W577:W578"/>
-    <mergeCell ref="X577:X578"/>
-    <mergeCell ref="Y577:Y578"/>
-    <mergeCell ref="N577:N578"/>
-    <mergeCell ref="O577:O578"/>
-    <mergeCell ref="P577:P578"/>
-    <mergeCell ref="Q577:Q578"/>
-    <mergeCell ref="R577:R578"/>
-    <mergeCell ref="S577:S578"/>
-    <mergeCell ref="H577:H578"/>
-    <mergeCell ref="I577:I578"/>
-    <mergeCell ref="J577:J578"/>
-    <mergeCell ref="K577:K578"/>
-    <mergeCell ref="L577:L578"/>
-    <mergeCell ref="M577:M578"/>
-    <mergeCell ref="F588:F589"/>
-    <mergeCell ref="G588:G589"/>
-    <mergeCell ref="U585:U586"/>
-    <mergeCell ref="V585:V586"/>
-    <mergeCell ref="W585:W586"/>
-    <mergeCell ref="X585:X586"/>
-    <mergeCell ref="Y585:Y586"/>
-    <mergeCell ref="Z585:Z586"/>
-    <mergeCell ref="O585:O586"/>
-    <mergeCell ref="P585:P586"/>
-    <mergeCell ref="Q585:Q586"/>
-    <mergeCell ref="R585:R586"/>
-    <mergeCell ref="S585:S586"/>
-    <mergeCell ref="T585:T586"/>
-    <mergeCell ref="I585:I586"/>
-    <mergeCell ref="J585:J586"/>
-    <mergeCell ref="K585:K586"/>
-    <mergeCell ref="L585:L586"/>
-    <mergeCell ref="M585:M586"/>
-    <mergeCell ref="N585:N586"/>
-    <mergeCell ref="Z588:Z589"/>
-    <mergeCell ref="A593:A594"/>
-    <mergeCell ref="B593:B594"/>
-    <mergeCell ref="C593:C594"/>
-    <mergeCell ref="D593:D594"/>
-    <mergeCell ref="F593:F594"/>
-    <mergeCell ref="G593:G594"/>
-    <mergeCell ref="H593:H594"/>
-    <mergeCell ref="I593:I594"/>
-    <mergeCell ref="J593:J594"/>
-    <mergeCell ref="T588:T589"/>
-    <mergeCell ref="U588:U589"/>
-    <mergeCell ref="V588:V589"/>
-    <mergeCell ref="W588:W589"/>
-    <mergeCell ref="X588:X589"/>
-    <mergeCell ref="Y588:Y589"/>
-    <mergeCell ref="N588:N589"/>
-    <mergeCell ref="O588:O589"/>
-    <mergeCell ref="P588:P589"/>
-    <mergeCell ref="Q588:Q589"/>
-    <mergeCell ref="R588:R589"/>
-    <mergeCell ref="S588:S589"/>
-    <mergeCell ref="H588:H589"/>
-    <mergeCell ref="I588:I589"/>
-    <mergeCell ref="J588:J589"/>
-    <mergeCell ref="K588:K589"/>
-    <mergeCell ref="L588:L589"/>
-    <mergeCell ref="M588:M589"/>
-    <mergeCell ref="A588:A589"/>
-    <mergeCell ref="B588:B589"/>
-    <mergeCell ref="C588:C589"/>
-    <mergeCell ref="D588:D589"/>
-    <mergeCell ref="W593:W594"/>
-    <mergeCell ref="X593:X594"/>
-    <mergeCell ref="Y593:Y594"/>
-    <mergeCell ref="Z593:Z594"/>
-    <mergeCell ref="R595:S595"/>
-    <mergeCell ref="Q597:R597"/>
-    <mergeCell ref="Q593:Q594"/>
-    <mergeCell ref="R593:R594"/>
-    <mergeCell ref="S593:S594"/>
-    <mergeCell ref="T593:T594"/>
-    <mergeCell ref="U593:U594"/>
-    <mergeCell ref="V593:V594"/>
-    <mergeCell ref="K593:K594"/>
-    <mergeCell ref="L593:L594"/>
-    <mergeCell ref="M593:M594"/>
-    <mergeCell ref="N593:N594"/>
-    <mergeCell ref="O593:O594"/>
-    <mergeCell ref="P593:P594"/>
-    <mergeCell ref="O598:O599"/>
-    <mergeCell ref="P598:P599"/>
-    <mergeCell ref="Q598:Q599"/>
-    <mergeCell ref="R598:R599"/>
-    <mergeCell ref="S598:S599"/>
-    <mergeCell ref="H598:H599"/>
-    <mergeCell ref="I598:I599"/>
-    <mergeCell ref="J598:J599"/>
-    <mergeCell ref="K598:K599"/>
-    <mergeCell ref="L598:L599"/>
-    <mergeCell ref="M598:M599"/>
-    <mergeCell ref="A598:A599"/>
-    <mergeCell ref="B598:B599"/>
-    <mergeCell ref="C598:C599"/>
-    <mergeCell ref="D598:D599"/>
-    <mergeCell ref="F598:F599"/>
-    <mergeCell ref="G598:G599"/>
-    <mergeCell ref="Z603:Z605"/>
-    <mergeCell ref="T606:U606"/>
-    <mergeCell ref="R607:S607"/>
-    <mergeCell ref="Q603:Q605"/>
-    <mergeCell ref="R603:R605"/>
-    <mergeCell ref="S603:S605"/>
-    <mergeCell ref="T603:T605"/>
-    <mergeCell ref="U603:U605"/>
-    <mergeCell ref="V603:V605"/>
-    <mergeCell ref="K603:K605"/>
-    <mergeCell ref="L603:L605"/>
-    <mergeCell ref="M603:M605"/>
-    <mergeCell ref="N603:N605"/>
-    <mergeCell ref="O603:O605"/>
-    <mergeCell ref="P603:P605"/>
-    <mergeCell ref="Z598:Z599"/>
-    <mergeCell ref="A603:A605"/>
-    <mergeCell ref="B603:B605"/>
-    <mergeCell ref="C603:C605"/>
-    <mergeCell ref="D603:D605"/>
-    <mergeCell ref="F603:F605"/>
-    <mergeCell ref="G603:G605"/>
-    <mergeCell ref="H603:H605"/>
-    <mergeCell ref="I603:I605"/>
-    <mergeCell ref="J603:J605"/>
-    <mergeCell ref="T598:T599"/>
-    <mergeCell ref="U598:U599"/>
-    <mergeCell ref="V598:V599"/>
-    <mergeCell ref="W598:W599"/>
-    <mergeCell ref="X598:X599"/>
-    <mergeCell ref="Y598:Y599"/>
-    <mergeCell ref="N598:N599"/>
-    <mergeCell ref="S624:T624"/>
-    <mergeCell ref="R625:S625"/>
-    <mergeCell ref="A628:A629"/>
-    <mergeCell ref="B628:B629"/>
-    <mergeCell ref="C628:C629"/>
-    <mergeCell ref="D628:D629"/>
-    <mergeCell ref="F628:F629"/>
-    <mergeCell ref="G628:G629"/>
-    <mergeCell ref="H628:H629"/>
-    <mergeCell ref="I628:I629"/>
-    <mergeCell ref="Q610:R610"/>
-    <mergeCell ref="X612:Y612"/>
-    <mergeCell ref="R614:S614"/>
-    <mergeCell ref="Q615:R615"/>
-    <mergeCell ref="R620:S620"/>
-    <mergeCell ref="T621:U621"/>
-    <mergeCell ref="W603:W605"/>
-    <mergeCell ref="X603:X605"/>
-    <mergeCell ref="Y603:Y605"/>
-    <mergeCell ref="Q635:R635"/>
-    <mergeCell ref="A636:A637"/>
-    <mergeCell ref="B636:B637"/>
-    <mergeCell ref="C636:C637"/>
-    <mergeCell ref="D636:D637"/>
-    <mergeCell ref="F636:F637"/>
-    <mergeCell ref="G636:G637"/>
-    <mergeCell ref="H636:H637"/>
-    <mergeCell ref="I636:I637"/>
-    <mergeCell ref="J636:J637"/>
-    <mergeCell ref="W628:W629"/>
-    <mergeCell ref="X628:X629"/>
-    <mergeCell ref="Y628:Y629"/>
-    <mergeCell ref="Z628:Z629"/>
-    <mergeCell ref="R632:S632"/>
-    <mergeCell ref="Q633:R633"/>
-    <mergeCell ref="P628:P629"/>
-    <mergeCell ref="Q628:Q629"/>
-    <mergeCell ref="R628:R629"/>
-    <mergeCell ref="S628:T628"/>
-    <mergeCell ref="U628:U629"/>
-    <mergeCell ref="V628:V629"/>
-    <mergeCell ref="J628:J629"/>
-    <mergeCell ref="K628:K629"/>
-    <mergeCell ref="L628:L629"/>
-    <mergeCell ref="M628:M629"/>
-    <mergeCell ref="N628:N629"/>
-    <mergeCell ref="O628:O629"/>
-    <mergeCell ref="W636:W637"/>
-    <mergeCell ref="X636:X637"/>
-    <mergeCell ref="Y636:Y637"/>
-    <mergeCell ref="Z636:Z637"/>
-    <mergeCell ref="A638:A639"/>
-    <mergeCell ref="B638:B639"/>
-    <mergeCell ref="C638:C639"/>
-    <mergeCell ref="D638:D639"/>
-    <mergeCell ref="F638:F639"/>
-    <mergeCell ref="G638:G639"/>
-    <mergeCell ref="Q636:Q637"/>
-    <mergeCell ref="R636:R637"/>
-    <mergeCell ref="S636:S637"/>
-    <mergeCell ref="T636:T637"/>
-    <mergeCell ref="U636:U637"/>
-    <mergeCell ref="V636:V637"/>
-    <mergeCell ref="K636:K637"/>
-    <mergeCell ref="L636:L637"/>
-    <mergeCell ref="M636:M637"/>
-    <mergeCell ref="N636:N637"/>
-    <mergeCell ref="O636:O637"/>
-    <mergeCell ref="P636:P637"/>
-    <mergeCell ref="Z638:Z639"/>
-    <mergeCell ref="S643:T643"/>
-    <mergeCell ref="R644:S644"/>
-    <mergeCell ref="Q645:R645"/>
-    <mergeCell ref="Q648:R648"/>
-    <mergeCell ref="A653:A654"/>
-    <mergeCell ref="B653:B654"/>
-    <mergeCell ref="C653:C654"/>
-    <mergeCell ref="D653:D654"/>
-    <mergeCell ref="F653:F654"/>
-    <mergeCell ref="T638:T639"/>
-    <mergeCell ref="U638:U639"/>
-    <mergeCell ref="V638:V639"/>
-    <mergeCell ref="W638:W639"/>
-    <mergeCell ref="X638:X639"/>
-    <mergeCell ref="Y638:Y639"/>
-    <mergeCell ref="N638:N639"/>
-    <mergeCell ref="O638:O639"/>
-    <mergeCell ref="P638:P639"/>
-    <mergeCell ref="Q638:Q639"/>
-    <mergeCell ref="R638:R639"/>
-    <mergeCell ref="S638:S639"/>
-    <mergeCell ref="H638:H639"/>
-    <mergeCell ref="I638:I639"/>
-    <mergeCell ref="J638:J639"/>
-    <mergeCell ref="K638:K639"/>
-    <mergeCell ref="L638:L639"/>
-    <mergeCell ref="M638:M639"/>
-    <mergeCell ref="Y653:Y654"/>
-    <mergeCell ref="Z653:Z654"/>
-    <mergeCell ref="T655:U655"/>
-    <mergeCell ref="A656:A657"/>
-    <mergeCell ref="B656:B657"/>
-    <mergeCell ref="C656:C657"/>
-    <mergeCell ref="D656:D657"/>
-    <mergeCell ref="F656:F657"/>
-    <mergeCell ref="G656:G657"/>
-    <mergeCell ref="H656:H657"/>
-    <mergeCell ref="S653:S654"/>
-    <mergeCell ref="T653:T654"/>
-    <mergeCell ref="U653:U654"/>
-    <mergeCell ref="V653:V654"/>
-    <mergeCell ref="W653:W654"/>
-    <mergeCell ref="X653:X654"/>
-    <mergeCell ref="M653:M654"/>
-    <mergeCell ref="N653:N654"/>
-    <mergeCell ref="O653:O654"/>
-    <mergeCell ref="P653:P654"/>
-    <mergeCell ref="Q653:Q654"/>
-    <mergeCell ref="R653:R654"/>
-    <mergeCell ref="G653:G654"/>
-    <mergeCell ref="H653:H654"/>
-    <mergeCell ref="I653:I654"/>
-    <mergeCell ref="J653:J654"/>
-    <mergeCell ref="K653:K654"/>
-    <mergeCell ref="L653:L654"/>
-    <mergeCell ref="F659:F661"/>
-    <mergeCell ref="G659:G661"/>
-    <mergeCell ref="U656:U657"/>
-    <mergeCell ref="V656:V657"/>
-    <mergeCell ref="W656:W657"/>
-    <mergeCell ref="X656:X657"/>
-    <mergeCell ref="Y656:Y657"/>
-    <mergeCell ref="Z656:Z657"/>
-    <mergeCell ref="O656:O657"/>
-    <mergeCell ref="P656:P657"/>
-    <mergeCell ref="Q656:Q657"/>
-    <mergeCell ref="R656:R657"/>
-    <mergeCell ref="S656:S657"/>
-    <mergeCell ref="T656:T657"/>
-    <mergeCell ref="I656:I657"/>
-    <mergeCell ref="J656:J657"/>
-    <mergeCell ref="K656:K657"/>
-    <mergeCell ref="L656:L657"/>
-    <mergeCell ref="M656:M657"/>
-    <mergeCell ref="N656:N657"/>
-    <mergeCell ref="S664:T664"/>
-    <mergeCell ref="A665:A666"/>
-    <mergeCell ref="B665:B666"/>
-    <mergeCell ref="C665:C666"/>
-    <mergeCell ref="D665:D666"/>
-    <mergeCell ref="F665:F666"/>
-    <mergeCell ref="G665:G666"/>
-    <mergeCell ref="H665:H666"/>
-    <mergeCell ref="I665:I666"/>
-    <mergeCell ref="J665:J666"/>
-    <mergeCell ref="U659:U661"/>
-    <mergeCell ref="V659:V661"/>
-    <mergeCell ref="W659:W661"/>
-    <mergeCell ref="X659:X661"/>
-    <mergeCell ref="Y659:Y661"/>
-    <mergeCell ref="Z659:Z661"/>
-    <mergeCell ref="N659:N661"/>
-    <mergeCell ref="O659:O661"/>
-    <mergeCell ref="P659:P661"/>
-    <mergeCell ref="Q659:R659"/>
-    <mergeCell ref="S659:S661"/>
-    <mergeCell ref="T659:T661"/>
-    <mergeCell ref="H659:H661"/>
-    <mergeCell ref="I659:I661"/>
-    <mergeCell ref="J659:J661"/>
-    <mergeCell ref="K659:K661"/>
-    <mergeCell ref="L659:L661"/>
-    <mergeCell ref="M659:M661"/>
-    <mergeCell ref="A659:A661"/>
-    <mergeCell ref="B659:B661"/>
-    <mergeCell ref="C659:C661"/>
-    <mergeCell ref="D659:D661"/>
-    <mergeCell ref="X665:X666"/>
-    <mergeCell ref="Y665:Y666"/>
-    <mergeCell ref="Z665:Z666"/>
-    <mergeCell ref="R669:S669"/>
-    <mergeCell ref="Q670:R670"/>
-    <mergeCell ref="A672:A674"/>
-    <mergeCell ref="B672:B674"/>
-    <mergeCell ref="C672:C674"/>
-    <mergeCell ref="D672:D674"/>
-    <mergeCell ref="F672:F674"/>
-    <mergeCell ref="Q665:R665"/>
-    <mergeCell ref="S665:S666"/>
-    <mergeCell ref="T665:T666"/>
-    <mergeCell ref="U665:U666"/>
-    <mergeCell ref="V665:V666"/>
-    <mergeCell ref="W665:W666"/>
-    <mergeCell ref="K665:K666"/>
-    <mergeCell ref="L665:L666"/>
-    <mergeCell ref="M665:M666"/>
-    <mergeCell ref="N665:N666"/>
-    <mergeCell ref="O665:O666"/>
-    <mergeCell ref="P665:P666"/>
-    <mergeCell ref="Y672:Y674"/>
-    <mergeCell ref="Z672:Z674"/>
-    <mergeCell ref="Q675:R675"/>
-    <mergeCell ref="Q676:R676"/>
-    <mergeCell ref="X677:Y677"/>
-    <mergeCell ref="A678:A679"/>
-    <mergeCell ref="B678:B679"/>
-    <mergeCell ref="C678:C679"/>
-    <mergeCell ref="D678:D679"/>
-    <mergeCell ref="F678:F679"/>
-    <mergeCell ref="S672:S674"/>
-    <mergeCell ref="T672:T674"/>
-    <mergeCell ref="U672:U674"/>
-    <mergeCell ref="V672:V674"/>
-    <mergeCell ref="W672:W674"/>
-    <mergeCell ref="X672:X674"/>
-    <mergeCell ref="M672:M674"/>
-    <mergeCell ref="N672:N674"/>
-    <mergeCell ref="O672:O674"/>
-    <mergeCell ref="P672:P674"/>
-    <mergeCell ref="Q672:Q674"/>
-    <mergeCell ref="R672:R674"/>
-    <mergeCell ref="G672:G674"/>
-    <mergeCell ref="H672:H674"/>
-    <mergeCell ref="I672:I674"/>
-    <mergeCell ref="J672:J674"/>
-    <mergeCell ref="K672:K674"/>
-    <mergeCell ref="L672:L674"/>
-    <mergeCell ref="Y678:Y679"/>
-    <mergeCell ref="Z678:Z679"/>
-    <mergeCell ref="A681:A682"/>
-    <mergeCell ref="B681:B682"/>
-    <mergeCell ref="C681:C682"/>
-    <mergeCell ref="D681:D682"/>
-    <mergeCell ref="F681:F682"/>
-    <mergeCell ref="G681:G682"/>
-    <mergeCell ref="H681:H682"/>
-    <mergeCell ref="I681:I682"/>
-    <mergeCell ref="S678:S679"/>
-    <mergeCell ref="T678:T679"/>
-    <mergeCell ref="U678:U679"/>
-    <mergeCell ref="V678:V679"/>
-    <mergeCell ref="W678:W679"/>
-    <mergeCell ref="X678:X679"/>
-    <mergeCell ref="M678:M679"/>
-    <mergeCell ref="N678:N679"/>
-    <mergeCell ref="O678:O679"/>
-    <mergeCell ref="P678:P679"/>
-    <mergeCell ref="Q678:Q679"/>
-    <mergeCell ref="R678:R679"/>
-    <mergeCell ref="G678:G679"/>
-    <mergeCell ref="H678:H679"/>
-    <mergeCell ref="I678:I679"/>
-    <mergeCell ref="J678:J679"/>
-    <mergeCell ref="K678:K679"/>
-    <mergeCell ref="L678:L679"/>
-    <mergeCell ref="W681:W682"/>
-    <mergeCell ref="X681:X682"/>
-    <mergeCell ref="Y681:Y682"/>
-    <mergeCell ref="Z681:Z682"/>
-    <mergeCell ref="Q683:R683"/>
-    <mergeCell ref="A687:A688"/>
-    <mergeCell ref="B687:B688"/>
-    <mergeCell ref="C687:C688"/>
-    <mergeCell ref="D687:D688"/>
-    <mergeCell ref="F687:F688"/>
-    <mergeCell ref="P681:P682"/>
-    <mergeCell ref="Q681:R681"/>
-    <mergeCell ref="S681:S682"/>
-    <mergeCell ref="T681:T682"/>
-    <mergeCell ref="U681:U682"/>
-    <mergeCell ref="V681:V682"/>
-    <mergeCell ref="J681:J682"/>
-    <mergeCell ref="K681:K682"/>
-    <mergeCell ref="L681:L682"/>
-    <mergeCell ref="M681:M682"/>
-    <mergeCell ref="N681:N682"/>
-    <mergeCell ref="O681:O682"/>
-    <mergeCell ref="Z687:Z688"/>
-    <mergeCell ref="Q692:R692"/>
-    <mergeCell ref="Q693:R693"/>
-    <mergeCell ref="Q694:R694"/>
-    <mergeCell ref="R697:S697"/>
-    <mergeCell ref="S687:S688"/>
-    <mergeCell ref="T687:T688"/>
-    <mergeCell ref="U687:U688"/>
-    <mergeCell ref="V687:V688"/>
-    <mergeCell ref="W687:W688"/>
-    <mergeCell ref="X687:X688"/>
-    <mergeCell ref="M687:M688"/>
-    <mergeCell ref="N687:N688"/>
-    <mergeCell ref="O687:O688"/>
-    <mergeCell ref="P687:P688"/>
-    <mergeCell ref="Q687:Q688"/>
-    <mergeCell ref="R687:R688"/>
-    <mergeCell ref="T709:U709"/>
-    <mergeCell ref="R714:S714"/>
-    <mergeCell ref="R717:S717"/>
-    <mergeCell ref="Q721:R721"/>
-    <mergeCell ref="R722:S722"/>
-    <mergeCell ref="A726:A727"/>
-    <mergeCell ref="B726:B727"/>
-    <mergeCell ref="C726:C727"/>
-    <mergeCell ref="D726:D727"/>
-    <mergeCell ref="F726:F727"/>
-    <mergeCell ref="R699:S699"/>
-    <mergeCell ref="Q700:R700"/>
-    <mergeCell ref="S703:T703"/>
-    <mergeCell ref="R705:S705"/>
-    <mergeCell ref="Q706:R706"/>
-    <mergeCell ref="S708:T708"/>
-    <mergeCell ref="Y687:Y688"/>
-    <mergeCell ref="G687:G688"/>
-    <mergeCell ref="H687:H688"/>
-    <mergeCell ref="I687:I688"/>
-    <mergeCell ref="J687:J688"/>
-    <mergeCell ref="K687:K688"/>
-    <mergeCell ref="L687:L688"/>
-    <mergeCell ref="Z726:Z727"/>
-    <mergeCell ref="A728:A729"/>
-    <mergeCell ref="B728:B729"/>
-    <mergeCell ref="C728:C729"/>
-    <mergeCell ref="D728:D729"/>
-    <mergeCell ref="F728:F729"/>
-    <mergeCell ref="G728:G729"/>
-    <mergeCell ref="H728:H729"/>
-    <mergeCell ref="I728:I729"/>
-    <mergeCell ref="J728:J729"/>
-    <mergeCell ref="T726:T727"/>
-    <mergeCell ref="U726:U727"/>
-    <mergeCell ref="V726:V727"/>
-    <mergeCell ref="W726:W727"/>
-    <mergeCell ref="X726:X727"/>
-    <mergeCell ref="Y726:Y727"/>
-    <mergeCell ref="M726:M727"/>
-    <mergeCell ref="N726:N727"/>
-    <mergeCell ref="O726:O727"/>
-    <mergeCell ref="P726:P727"/>
-    <mergeCell ref="Q726:Q727"/>
-    <mergeCell ref="R726:S726"/>
-    <mergeCell ref="G726:G727"/>
-    <mergeCell ref="H726:H727"/>
-    <mergeCell ref="I726:I727"/>
-    <mergeCell ref="J726:J727"/>
-    <mergeCell ref="K726:K727"/>
-    <mergeCell ref="L726:L727"/>
-    <mergeCell ref="W728:W729"/>
-    <mergeCell ref="X728:X729"/>
-    <mergeCell ref="Y728:Y729"/>
-    <mergeCell ref="Z728:Z729"/>
-    <mergeCell ref="R731:S731"/>
-    <mergeCell ref="A734:A736"/>
-    <mergeCell ref="B734:B736"/>
-    <mergeCell ref="C734:C736"/>
-    <mergeCell ref="D734:D736"/>
-    <mergeCell ref="F734:F736"/>
-    <mergeCell ref="Q728:Q729"/>
-    <mergeCell ref="R728:R729"/>
-    <mergeCell ref="S728:S729"/>
-    <mergeCell ref="T728:T729"/>
-    <mergeCell ref="U728:U729"/>
-    <mergeCell ref="V728:V729"/>
-    <mergeCell ref="K728:K729"/>
-    <mergeCell ref="L728:L729"/>
-    <mergeCell ref="M728:M729"/>
-    <mergeCell ref="N728:N729"/>
-    <mergeCell ref="O728:O729"/>
-    <mergeCell ref="P728:P729"/>
-    <mergeCell ref="Z734:Z736"/>
-    <mergeCell ref="Q740:R740"/>
-    <mergeCell ref="W741:X741"/>
-    <mergeCell ref="A742:A743"/>
-    <mergeCell ref="B742:B743"/>
-    <mergeCell ref="C742:C743"/>
-    <mergeCell ref="D742:D743"/>
-    <mergeCell ref="F742:F743"/>
-    <mergeCell ref="G742:G743"/>
-    <mergeCell ref="H742:H743"/>
-    <mergeCell ref="T734:T736"/>
-    <mergeCell ref="U734:U736"/>
-    <mergeCell ref="V734:V736"/>
-    <mergeCell ref="W734:W736"/>
-    <mergeCell ref="X734:X736"/>
-    <mergeCell ref="Y734:Y736"/>
-    <mergeCell ref="M734:M736"/>
-    <mergeCell ref="N734:N736"/>
-    <mergeCell ref="O734:O736"/>
-    <mergeCell ref="P734:P736"/>
-    <mergeCell ref="Q734:Q736"/>
-    <mergeCell ref="R734:S734"/>
-    <mergeCell ref="G734:G736"/>
-    <mergeCell ref="H734:H736"/>
-    <mergeCell ref="I734:I736"/>
-    <mergeCell ref="J734:J736"/>
-    <mergeCell ref="K734:K736"/>
-    <mergeCell ref="L734:L736"/>
-    <mergeCell ref="S746:T746"/>
-    <mergeCell ref="A747:A748"/>
-    <mergeCell ref="B747:B748"/>
-    <mergeCell ref="C747:C748"/>
-    <mergeCell ref="D747:D748"/>
-    <mergeCell ref="F747:F748"/>
-    <mergeCell ref="G747:G748"/>
-    <mergeCell ref="H747:H748"/>
-    <mergeCell ref="I747:I748"/>
-    <mergeCell ref="J747:J748"/>
-    <mergeCell ref="V742:V743"/>
-    <mergeCell ref="W742:W743"/>
-    <mergeCell ref="X742:X743"/>
-    <mergeCell ref="Y742:Y743"/>
-    <mergeCell ref="Z742:Z743"/>
-    <mergeCell ref="R744:S744"/>
-    <mergeCell ref="O742:O743"/>
-    <mergeCell ref="P742:P743"/>
-    <mergeCell ref="Q742:Q743"/>
-    <mergeCell ref="R742:S742"/>
-    <mergeCell ref="T742:T743"/>
-    <mergeCell ref="U742:U743"/>
-    <mergeCell ref="I742:I743"/>
-    <mergeCell ref="J742:J743"/>
-    <mergeCell ref="K742:K743"/>
-    <mergeCell ref="L742:L743"/>
-    <mergeCell ref="M742:M743"/>
-    <mergeCell ref="N742:N743"/>
-    <mergeCell ref="L750:L751"/>
-    <mergeCell ref="M750:M751"/>
-    <mergeCell ref="W747:W748"/>
-    <mergeCell ref="X747:X748"/>
-    <mergeCell ref="Y747:Y748"/>
-    <mergeCell ref="Z747:Z748"/>
-    <mergeCell ref="A750:A751"/>
-    <mergeCell ref="B750:B751"/>
-    <mergeCell ref="C750:C751"/>
-    <mergeCell ref="D750:D751"/>
-    <mergeCell ref="F750:F751"/>
-    <mergeCell ref="G750:G751"/>
-    <mergeCell ref="Q747:Q748"/>
-    <mergeCell ref="R747:R748"/>
-    <mergeCell ref="S747:S748"/>
-    <mergeCell ref="T747:T748"/>
-    <mergeCell ref="U747:U748"/>
-    <mergeCell ref="V747:V748"/>
-    <mergeCell ref="K747:K748"/>
-    <mergeCell ref="L747:L748"/>
-    <mergeCell ref="M747:M748"/>
-    <mergeCell ref="N747:N748"/>
-    <mergeCell ref="O747:O748"/>
-    <mergeCell ref="P747:P748"/>
-    <mergeCell ref="Q762:R762"/>
-    <mergeCell ref="T766:U766"/>
-    <mergeCell ref="A767:A768"/>
-    <mergeCell ref="B767:B768"/>
-    <mergeCell ref="C767:C768"/>
-    <mergeCell ref="D767:D768"/>
-    <mergeCell ref="F767:F768"/>
-    <mergeCell ref="G767:G768"/>
-    <mergeCell ref="H767:H768"/>
-    <mergeCell ref="I767:I768"/>
-    <mergeCell ref="Z750:Z751"/>
-    <mergeCell ref="Q755:R755"/>
-    <mergeCell ref="R757:S757"/>
-    <mergeCell ref="R758:S758"/>
-    <mergeCell ref="R760:S760"/>
-    <mergeCell ref="Q761:R761"/>
-    <mergeCell ref="T750:T751"/>
-    <mergeCell ref="U750:U751"/>
-    <mergeCell ref="V750:V751"/>
-    <mergeCell ref="W750:W751"/>
-    <mergeCell ref="X750:X751"/>
-    <mergeCell ref="Y750:Y751"/>
-    <mergeCell ref="N750:N751"/>
-    <mergeCell ref="O750:O751"/>
-    <mergeCell ref="P750:P751"/>
-    <mergeCell ref="Q750:Q751"/>
-    <mergeCell ref="R750:R751"/>
-    <mergeCell ref="S750:S751"/>
-    <mergeCell ref="H750:H751"/>
-    <mergeCell ref="I750:I751"/>
-    <mergeCell ref="J750:J751"/>
-    <mergeCell ref="K750:K751"/>
-    <mergeCell ref="F776:F777"/>
-    <mergeCell ref="G776:G777"/>
-    <mergeCell ref="W767:W768"/>
-    <mergeCell ref="X767:X768"/>
-    <mergeCell ref="Y767:Y768"/>
-    <mergeCell ref="Z767:Z768"/>
-    <mergeCell ref="Q769:R769"/>
-    <mergeCell ref="Q772:R772"/>
-    <mergeCell ref="P767:P768"/>
-    <mergeCell ref="Q767:Q768"/>
-    <mergeCell ref="R767:R768"/>
-    <mergeCell ref="S767:S768"/>
-    <mergeCell ref="T767:U767"/>
-    <mergeCell ref="V767:V768"/>
-    <mergeCell ref="J767:J768"/>
-    <mergeCell ref="K767:K768"/>
-    <mergeCell ref="L767:L768"/>
-    <mergeCell ref="M767:M768"/>
-    <mergeCell ref="N767:N768"/>
-    <mergeCell ref="O767:O768"/>
-    <mergeCell ref="Z776:Z777"/>
-    <mergeCell ref="A779:A780"/>
-    <mergeCell ref="B779:B780"/>
-    <mergeCell ref="C779:C780"/>
-    <mergeCell ref="D779:D780"/>
-    <mergeCell ref="F779:F780"/>
-    <mergeCell ref="G779:G780"/>
-    <mergeCell ref="H779:H780"/>
-    <mergeCell ref="I779:I780"/>
-    <mergeCell ref="J779:J780"/>
-    <mergeCell ref="T776:T777"/>
-    <mergeCell ref="U776:U777"/>
-    <mergeCell ref="V776:V777"/>
-    <mergeCell ref="W776:W777"/>
-    <mergeCell ref="X776:X777"/>
-    <mergeCell ref="Y776:Y777"/>
-    <mergeCell ref="N776:N777"/>
-    <mergeCell ref="O776:O777"/>
-    <mergeCell ref="P776:P777"/>
-    <mergeCell ref="Q776:Q777"/>
-    <mergeCell ref="R776:R777"/>
-    <mergeCell ref="S776:S777"/>
-    <mergeCell ref="H776:H777"/>
-    <mergeCell ref="I776:I777"/>
-    <mergeCell ref="J776:J777"/>
-    <mergeCell ref="K776:K777"/>
-    <mergeCell ref="L776:L777"/>
-    <mergeCell ref="M776:M777"/>
-    <mergeCell ref="A776:A777"/>
-    <mergeCell ref="B776:B777"/>
-    <mergeCell ref="C776:C777"/>
-    <mergeCell ref="D776:D777"/>
-    <mergeCell ref="X779:X780"/>
-    <mergeCell ref="Y779:Y780"/>
-    <mergeCell ref="Z779:Z780"/>
-    <mergeCell ref="A785:A786"/>
-    <mergeCell ref="B785:B786"/>
-    <mergeCell ref="C785:C786"/>
-    <mergeCell ref="D785:D786"/>
-    <mergeCell ref="F785:F786"/>
-    <mergeCell ref="G785:G786"/>
-    <mergeCell ref="H785:H786"/>
-    <mergeCell ref="Q779:R779"/>
-    <mergeCell ref="S779:S780"/>
-    <mergeCell ref="T779:T780"/>
-    <mergeCell ref="U779:U780"/>
-    <mergeCell ref="V779:V780"/>
-    <mergeCell ref="W779:W780"/>
-    <mergeCell ref="K779:K780"/>
-    <mergeCell ref="L779:L780"/>
-    <mergeCell ref="M779:M780"/>
-    <mergeCell ref="N779:N780"/>
-    <mergeCell ref="O779:O780"/>
-    <mergeCell ref="P779:P780"/>
-    <mergeCell ref="F788:F789"/>
-    <mergeCell ref="G788:G789"/>
-    <mergeCell ref="U785:U786"/>
-    <mergeCell ref="V785:V786"/>
-    <mergeCell ref="W785:W786"/>
-    <mergeCell ref="X785:X786"/>
-    <mergeCell ref="Y785:Y786"/>
-    <mergeCell ref="Z785:Z786"/>
-    <mergeCell ref="O785:O786"/>
-    <mergeCell ref="P785:P786"/>
-    <mergeCell ref="Q785:Q786"/>
-    <mergeCell ref="R785:R786"/>
-    <mergeCell ref="S785:S786"/>
-    <mergeCell ref="T785:T786"/>
-    <mergeCell ref="I785:I786"/>
-    <mergeCell ref="J785:J786"/>
-    <mergeCell ref="K785:K786"/>
-    <mergeCell ref="L785:L786"/>
-    <mergeCell ref="M785:M786"/>
-    <mergeCell ref="N785:N786"/>
-    <mergeCell ref="R792:S792"/>
-    <mergeCell ref="A794:A795"/>
-    <mergeCell ref="B794:B795"/>
-    <mergeCell ref="C794:C795"/>
-    <mergeCell ref="D794:D795"/>
-    <mergeCell ref="F794:F795"/>
-    <mergeCell ref="G794:G795"/>
-    <mergeCell ref="H794:H795"/>
-    <mergeCell ref="I794:I795"/>
-    <mergeCell ref="J794:J795"/>
-    <mergeCell ref="U788:U789"/>
-    <mergeCell ref="V788:V789"/>
-    <mergeCell ref="W788:W789"/>
-    <mergeCell ref="X788:X789"/>
-    <mergeCell ref="Y788:Y789"/>
-    <mergeCell ref="Z788:Z789"/>
-    <mergeCell ref="N788:N789"/>
-    <mergeCell ref="O788:O789"/>
-    <mergeCell ref="P788:P789"/>
-    <mergeCell ref="Q788:Q789"/>
-    <mergeCell ref="R788:S788"/>
-    <mergeCell ref="T788:T789"/>
-    <mergeCell ref="H788:H789"/>
-    <mergeCell ref="I788:I789"/>
-    <mergeCell ref="J788:J789"/>
-    <mergeCell ref="K788:K789"/>
-    <mergeCell ref="L788:L789"/>
-    <mergeCell ref="M788:M789"/>
-    <mergeCell ref="A788:A789"/>
-    <mergeCell ref="B788:B789"/>
-    <mergeCell ref="C788:C789"/>
-    <mergeCell ref="D788:D789"/>
-    <mergeCell ref="X794:X795"/>
-    <mergeCell ref="Y794:Y795"/>
-    <mergeCell ref="Z794:Z795"/>
-    <mergeCell ref="A796:A797"/>
-    <mergeCell ref="B796:B797"/>
-    <mergeCell ref="C796:C797"/>
-    <mergeCell ref="D796:D797"/>
-    <mergeCell ref="F796:F797"/>
-    <mergeCell ref="G796:G797"/>
-    <mergeCell ref="H796:H797"/>
-    <mergeCell ref="Q794:Q795"/>
-    <mergeCell ref="R794:S794"/>
-    <mergeCell ref="T794:T795"/>
-    <mergeCell ref="U794:U795"/>
-    <mergeCell ref="V794:V795"/>
-    <mergeCell ref="W794:W795"/>
-    <mergeCell ref="K794:K795"/>
-    <mergeCell ref="L794:L795"/>
-    <mergeCell ref="M794:M795"/>
-    <mergeCell ref="N794:N795"/>
-    <mergeCell ref="O794:O795"/>
-    <mergeCell ref="P794:P795"/>
-    <mergeCell ref="K821:K823"/>
-    <mergeCell ref="L821:L823"/>
-    <mergeCell ref="Q800:R800"/>
-    <mergeCell ref="Q803:R803"/>
-    <mergeCell ref="S805:T805"/>
-    <mergeCell ref="R807:S807"/>
-    <mergeCell ref="S818:T818"/>
-    <mergeCell ref="A821:A823"/>
-    <mergeCell ref="B821:B823"/>
-    <mergeCell ref="C821:C823"/>
-    <mergeCell ref="D821:D823"/>
-    <mergeCell ref="F821:F823"/>
-    <mergeCell ref="V796:V797"/>
-    <mergeCell ref="W796:W797"/>
-    <mergeCell ref="X796:X797"/>
-    <mergeCell ref="Y796:Y797"/>
-    <mergeCell ref="Z796:Z797"/>
-    <mergeCell ref="S798:T798"/>
-    <mergeCell ref="O796:O797"/>
-    <mergeCell ref="P796:P797"/>
-    <mergeCell ref="Q796:Q797"/>
-    <mergeCell ref="R796:S796"/>
-    <mergeCell ref="T796:T797"/>
-    <mergeCell ref="U796:U797"/>
-    <mergeCell ref="I796:I797"/>
-    <mergeCell ref="J796:J797"/>
-    <mergeCell ref="K796:K797"/>
-    <mergeCell ref="L796:L797"/>
-    <mergeCell ref="M796:M797"/>
-    <mergeCell ref="N796:N797"/>
-    <mergeCell ref="R835:S835"/>
-    <mergeCell ref="A843:A844"/>
-    <mergeCell ref="B843:B844"/>
-    <mergeCell ref="C843:C844"/>
-    <mergeCell ref="D843:D844"/>
-    <mergeCell ref="F843:F844"/>
-    <mergeCell ref="G843:G844"/>
-    <mergeCell ref="H843:H844"/>
-    <mergeCell ref="I843:I844"/>
-    <mergeCell ref="J843:J844"/>
-    <mergeCell ref="Z821:Z823"/>
-    <mergeCell ref="Q825:R825"/>
-    <mergeCell ref="Q826:R826"/>
-    <mergeCell ref="R830:S830"/>
-    <mergeCell ref="Q832:R832"/>
-    <mergeCell ref="R833:S833"/>
-    <mergeCell ref="S821:T821"/>
-    <mergeCell ref="U821:U823"/>
-    <mergeCell ref="V821:V823"/>
-    <mergeCell ref="W821:W823"/>
-    <mergeCell ref="X821:X823"/>
-    <mergeCell ref="Y821:Y823"/>
-    <mergeCell ref="M821:M823"/>
-    <mergeCell ref="N821:N823"/>
-    <mergeCell ref="O821:O823"/>
-    <mergeCell ref="P821:P823"/>
-    <mergeCell ref="Q821:Q823"/>
-    <mergeCell ref="R821:R823"/>
-    <mergeCell ref="G821:G823"/>
-    <mergeCell ref="H821:H823"/>
-    <mergeCell ref="I821:I823"/>
-    <mergeCell ref="J821:J823"/>
-    <mergeCell ref="R850:R851"/>
-    <mergeCell ref="S850:S851"/>
-    <mergeCell ref="H850:H851"/>
-    <mergeCell ref="I850:I851"/>
-    <mergeCell ref="J850:J851"/>
-    <mergeCell ref="K850:K851"/>
-    <mergeCell ref="L850:L851"/>
-    <mergeCell ref="M850:M851"/>
-    <mergeCell ref="X843:X844"/>
-    <mergeCell ref="Y843:Y844"/>
-    <mergeCell ref="Z843:Z844"/>
-    <mergeCell ref="Q845:R845"/>
-    <mergeCell ref="A850:A851"/>
-    <mergeCell ref="B850:B851"/>
-    <mergeCell ref="C850:C851"/>
-    <mergeCell ref="D850:D851"/>
-    <mergeCell ref="F850:F851"/>
-    <mergeCell ref="G850:G851"/>
-    <mergeCell ref="Q843:Q844"/>
-    <mergeCell ref="R843:R844"/>
-    <mergeCell ref="S843:S844"/>
-    <mergeCell ref="T843:U843"/>
-    <mergeCell ref="V843:V844"/>
-    <mergeCell ref="W843:W844"/>
-    <mergeCell ref="K843:K844"/>
-    <mergeCell ref="L843:L844"/>
-    <mergeCell ref="M843:M844"/>
-    <mergeCell ref="N843:N844"/>
-    <mergeCell ref="O843:O844"/>
-    <mergeCell ref="P843:P844"/>
-    <mergeCell ref="R883:S883"/>
-    <mergeCell ref="R884:S884"/>
-    <mergeCell ref="R886:S886"/>
-    <mergeCell ref="A887:A889"/>
-    <mergeCell ref="B887:B889"/>
-    <mergeCell ref="C887:C889"/>
-    <mergeCell ref="D887:D889"/>
-    <mergeCell ref="F887:F889"/>
-    <mergeCell ref="G887:G889"/>
-    <mergeCell ref="H887:H889"/>
-    <mergeCell ref="Q871:R871"/>
-    <mergeCell ref="Q873:R873"/>
-    <mergeCell ref="R875:S875"/>
-    <mergeCell ref="Q876:R876"/>
-    <mergeCell ref="T877:U877"/>
-    <mergeCell ref="S881:T881"/>
-    <mergeCell ref="Z850:Z851"/>
-    <mergeCell ref="Q852:R852"/>
-    <mergeCell ref="R853:S853"/>
-    <mergeCell ref="Q866:R866"/>
-    <mergeCell ref="Q869:R869"/>
-    <mergeCell ref="Q870:R870"/>
-    <mergeCell ref="T850:T851"/>
-    <mergeCell ref="U850:U851"/>
-    <mergeCell ref="V850:V851"/>
-    <mergeCell ref="W850:W851"/>
-    <mergeCell ref="X850:X851"/>
-    <mergeCell ref="Y850:Y851"/>
-    <mergeCell ref="N850:N851"/>
-    <mergeCell ref="O850:O851"/>
-    <mergeCell ref="P850:P851"/>
-    <mergeCell ref="Q850:Q851"/>
-    <mergeCell ref="R893:S893"/>
-    <mergeCell ref="Q894:R894"/>
-    <mergeCell ref="Q898:R898"/>
-    <mergeCell ref="R901:S901"/>
-    <mergeCell ref="R903:S903"/>
-    <mergeCell ref="A904:A905"/>
-    <mergeCell ref="B904:B905"/>
-    <mergeCell ref="C904:C905"/>
-    <mergeCell ref="D904:D905"/>
-    <mergeCell ref="F904:F905"/>
-    <mergeCell ref="U887:U889"/>
-    <mergeCell ref="V887:V889"/>
-    <mergeCell ref="W887:W889"/>
-    <mergeCell ref="X887:X889"/>
-    <mergeCell ref="Y887:Y889"/>
-    <mergeCell ref="Z887:Z889"/>
-    <mergeCell ref="O887:O889"/>
-    <mergeCell ref="P887:P889"/>
-    <mergeCell ref="Q887:Q889"/>
-    <mergeCell ref="R887:R889"/>
-    <mergeCell ref="S887:S889"/>
-    <mergeCell ref="T887:T889"/>
-    <mergeCell ref="I887:I889"/>
-    <mergeCell ref="J887:J889"/>
-    <mergeCell ref="K887:K889"/>
-    <mergeCell ref="L887:L889"/>
-    <mergeCell ref="M887:M889"/>
-    <mergeCell ref="N887:N889"/>
-    <mergeCell ref="Z904:Z905"/>
-    <mergeCell ref="A906:A907"/>
-    <mergeCell ref="B906:B907"/>
-    <mergeCell ref="C906:C907"/>
-    <mergeCell ref="D906:D907"/>
-    <mergeCell ref="F906:F907"/>
-    <mergeCell ref="G906:G907"/>
-    <mergeCell ref="H906:H907"/>
-    <mergeCell ref="I906:I907"/>
-    <mergeCell ref="J906:J907"/>
-    <mergeCell ref="T904:T905"/>
-    <mergeCell ref="U904:U905"/>
-    <mergeCell ref="V904:V905"/>
-    <mergeCell ref="W904:W905"/>
-    <mergeCell ref="X904:X905"/>
-    <mergeCell ref="Y904:Y905"/>
-    <mergeCell ref="M904:M905"/>
-    <mergeCell ref="N904:N905"/>
-    <mergeCell ref="O904:O905"/>
-    <mergeCell ref="P904:P905"/>
-    <mergeCell ref="Q904:Q905"/>
-    <mergeCell ref="R904:S904"/>
-    <mergeCell ref="G904:G905"/>
-    <mergeCell ref="H904:H905"/>
-    <mergeCell ref="I904:I905"/>
-    <mergeCell ref="J904:J905"/>
-    <mergeCell ref="K904:K905"/>
-    <mergeCell ref="L904:L905"/>
-    <mergeCell ref="S915:T915"/>
-    <mergeCell ref="Q917:R917"/>
-    <mergeCell ref="A919:A920"/>
-    <mergeCell ref="B919:B920"/>
-    <mergeCell ref="C919:C920"/>
-    <mergeCell ref="D919:D920"/>
-    <mergeCell ref="F919:F920"/>
-    <mergeCell ref="G919:G920"/>
-    <mergeCell ref="H919:H920"/>
-    <mergeCell ref="I919:I920"/>
-    <mergeCell ref="W906:W907"/>
-    <mergeCell ref="X906:X907"/>
-    <mergeCell ref="Y906:Y907"/>
-    <mergeCell ref="Z906:Z907"/>
-    <mergeCell ref="U911:V911"/>
-    <mergeCell ref="R912:S912"/>
-    <mergeCell ref="Q906:Q907"/>
-    <mergeCell ref="R906:R907"/>
-    <mergeCell ref="S906:S907"/>
-    <mergeCell ref="T906:T907"/>
-    <mergeCell ref="U906:U907"/>
-    <mergeCell ref="V906:V907"/>
-    <mergeCell ref="K906:K907"/>
-    <mergeCell ref="L906:L907"/>
-    <mergeCell ref="M906:M907"/>
-    <mergeCell ref="N906:N907"/>
-    <mergeCell ref="O906:O907"/>
-    <mergeCell ref="P906:P907"/>
-    <mergeCell ref="V919:V920"/>
-    <mergeCell ref="W919:W920"/>
-    <mergeCell ref="X919:X920"/>
-    <mergeCell ref="Y919:Y920"/>
-    <mergeCell ref="Z919:Z920"/>
-    <mergeCell ref="Q922:R922"/>
-    <mergeCell ref="P919:P920"/>
-    <mergeCell ref="Q919:Q920"/>
-    <mergeCell ref="R919:R920"/>
-    <mergeCell ref="S919:S920"/>
-    <mergeCell ref="T919:T920"/>
-    <mergeCell ref="U919:U920"/>
-    <mergeCell ref="J919:J920"/>
-    <mergeCell ref="K919:K920"/>
-    <mergeCell ref="L919:L920"/>
-    <mergeCell ref="M919:M920"/>
-    <mergeCell ref="N919:N920"/>
-    <mergeCell ref="O919:O920"/>
-    <mergeCell ref="Q951:R951"/>
-    <mergeCell ref="A953:A954"/>
-    <mergeCell ref="B953:B954"/>
-    <mergeCell ref="C953:C954"/>
-    <mergeCell ref="D953:D954"/>
-    <mergeCell ref="F953:F954"/>
-    <mergeCell ref="G953:G954"/>
-    <mergeCell ref="H953:H954"/>
-    <mergeCell ref="I953:I954"/>
-    <mergeCell ref="J953:J954"/>
-    <mergeCell ref="S937:T937"/>
-    <mergeCell ref="R939:S939"/>
-    <mergeCell ref="Q945:R945"/>
-    <mergeCell ref="Q946:R946"/>
-    <mergeCell ref="Q948:R948"/>
-    <mergeCell ref="T950:U950"/>
-    <mergeCell ref="R924:S924"/>
-    <mergeCell ref="S927:T927"/>
-    <mergeCell ref="Q928:R928"/>
-    <mergeCell ref="S930:T930"/>
-    <mergeCell ref="R935:S935"/>
-    <mergeCell ref="R936:S936"/>
-    <mergeCell ref="W953:W954"/>
-    <mergeCell ref="X953:X954"/>
-    <mergeCell ref="Y953:Y954"/>
-    <mergeCell ref="Z953:Z954"/>
-    <mergeCell ref="A955:A956"/>
-    <mergeCell ref="B955:B956"/>
-    <mergeCell ref="C955:C956"/>
-    <mergeCell ref="D955:D956"/>
-    <mergeCell ref="F955:F956"/>
-    <mergeCell ref="G955:G956"/>
-    <mergeCell ref="Q953:Q954"/>
-    <mergeCell ref="R953:R954"/>
-    <mergeCell ref="S953:S954"/>
-    <mergeCell ref="T953:T954"/>
-    <mergeCell ref="U953:U954"/>
-    <mergeCell ref="V953:V954"/>
-    <mergeCell ref="K953:K954"/>
-    <mergeCell ref="L953:L954"/>
-    <mergeCell ref="M953:M954"/>
-    <mergeCell ref="N953:N954"/>
-    <mergeCell ref="O953:O954"/>
-    <mergeCell ref="P953:P954"/>
-    <mergeCell ref="R957:S957"/>
-    <mergeCell ref="S959:T959"/>
-    <mergeCell ref="Q960:R960"/>
-    <mergeCell ref="R961:S961"/>
-    <mergeCell ref="A963:A964"/>
-    <mergeCell ref="B963:B964"/>
-    <mergeCell ref="C963:C964"/>
-    <mergeCell ref="D963:D964"/>
-    <mergeCell ref="F963:F964"/>
-    <mergeCell ref="G963:G964"/>
-    <mergeCell ref="U955:U956"/>
-    <mergeCell ref="V955:V956"/>
-    <mergeCell ref="W955:W956"/>
-    <mergeCell ref="X955:X956"/>
-    <mergeCell ref="Y955:Y956"/>
-    <mergeCell ref="Z955:Z956"/>
-    <mergeCell ref="N955:N956"/>
-    <mergeCell ref="O955:O956"/>
-    <mergeCell ref="P955:P956"/>
-    <mergeCell ref="Q955:Q956"/>
-    <mergeCell ref="R955:S955"/>
-    <mergeCell ref="T955:T956"/>
-    <mergeCell ref="H955:H956"/>
-    <mergeCell ref="I955:I956"/>
-    <mergeCell ref="J955:J956"/>
-    <mergeCell ref="K955:K956"/>
-    <mergeCell ref="L955:L956"/>
-    <mergeCell ref="M955:M956"/>
-    <mergeCell ref="Z963:Z964"/>
-    <mergeCell ref="A965:A966"/>
-    <mergeCell ref="B965:B966"/>
-    <mergeCell ref="C965:C966"/>
-    <mergeCell ref="D965:D966"/>
-    <mergeCell ref="F965:F966"/>
-    <mergeCell ref="G965:G966"/>
-    <mergeCell ref="H965:H966"/>
-    <mergeCell ref="I965:I966"/>
-    <mergeCell ref="J965:J966"/>
-    <mergeCell ref="T963:T964"/>
-    <mergeCell ref="U963:U964"/>
-    <mergeCell ref="V963:V964"/>
-    <mergeCell ref="W963:W964"/>
-    <mergeCell ref="X963:X964"/>
-    <mergeCell ref="Y963:Y964"/>
-    <mergeCell ref="N963:N964"/>
-    <mergeCell ref="O963:O964"/>
-    <mergeCell ref="P963:P964"/>
-    <mergeCell ref="Q963:Q964"/>
-    <mergeCell ref="R963:R964"/>
-    <mergeCell ref="S963:S964"/>
-    <mergeCell ref="H963:H964"/>
-    <mergeCell ref="I963:I964"/>
-    <mergeCell ref="J963:J964"/>
-    <mergeCell ref="K963:K964"/>
-    <mergeCell ref="L963:L964"/>
-    <mergeCell ref="M963:M964"/>
-    <mergeCell ref="L968:L969"/>
-    <mergeCell ref="M968:M969"/>
-    <mergeCell ref="W965:W966"/>
-    <mergeCell ref="X965:X966"/>
-    <mergeCell ref="Y965:Y966"/>
-    <mergeCell ref="Z965:Z966"/>
-    <mergeCell ref="A968:A969"/>
-    <mergeCell ref="B968:B969"/>
-    <mergeCell ref="C968:C969"/>
-    <mergeCell ref="D968:D969"/>
-    <mergeCell ref="F968:F969"/>
-    <mergeCell ref="G968:G969"/>
-    <mergeCell ref="Q965:Q966"/>
-    <mergeCell ref="R965:R966"/>
-    <mergeCell ref="S965:S966"/>
-    <mergeCell ref="T965:T966"/>
-    <mergeCell ref="U965:U966"/>
-    <mergeCell ref="V965:V966"/>
-    <mergeCell ref="K965:K966"/>
-    <mergeCell ref="L965:L966"/>
-    <mergeCell ref="M965:M966"/>
-    <mergeCell ref="N965:N966"/>
-    <mergeCell ref="O965:O966"/>
-    <mergeCell ref="P965:P966"/>
-    <mergeCell ref="R981:S981"/>
-    <mergeCell ref="Q982:R982"/>
-    <mergeCell ref="Q983:R983"/>
-    <mergeCell ref="A991:A992"/>
-    <mergeCell ref="B991:B992"/>
-    <mergeCell ref="C991:C992"/>
-    <mergeCell ref="D991:D992"/>
-    <mergeCell ref="F991:F992"/>
-    <mergeCell ref="G991:G992"/>
-    <mergeCell ref="H991:H992"/>
-    <mergeCell ref="Z968:Z969"/>
-    <mergeCell ref="S970:T970"/>
-    <mergeCell ref="S971:T971"/>
-    <mergeCell ref="R973:S973"/>
-    <mergeCell ref="R977:S977"/>
-    <mergeCell ref="Q980:R980"/>
-    <mergeCell ref="T968:T969"/>
-    <mergeCell ref="U968:U969"/>
-    <mergeCell ref="V968:V969"/>
-    <mergeCell ref="W968:W969"/>
-    <mergeCell ref="X968:X969"/>
-    <mergeCell ref="Y968:Y969"/>
-    <mergeCell ref="N968:N969"/>
-    <mergeCell ref="O968:O969"/>
-    <mergeCell ref="P968:P969"/>
-    <mergeCell ref="Q968:Q969"/>
-    <mergeCell ref="R968:R969"/>
-    <mergeCell ref="S968:S969"/>
-    <mergeCell ref="H968:H969"/>
-    <mergeCell ref="I968:I969"/>
-    <mergeCell ref="J968:J969"/>
-    <mergeCell ref="K968:K969"/>
-    <mergeCell ref="F993:F994"/>
-    <mergeCell ref="G993:G994"/>
-    <mergeCell ref="U991:U992"/>
-    <mergeCell ref="V991:V992"/>
-    <mergeCell ref="W991:W992"/>
-    <mergeCell ref="X991:X992"/>
-    <mergeCell ref="Y991:Y992"/>
-    <mergeCell ref="Z991:Z992"/>
-    <mergeCell ref="O991:O992"/>
-    <mergeCell ref="P991:P992"/>
-    <mergeCell ref="Q991:Q992"/>
-    <mergeCell ref="R991:R992"/>
-    <mergeCell ref="S991:S992"/>
-    <mergeCell ref="T991:T992"/>
-    <mergeCell ref="I991:I992"/>
-    <mergeCell ref="J991:J992"/>
-    <mergeCell ref="K991:K992"/>
-    <mergeCell ref="L991:L992"/>
-    <mergeCell ref="M991:M992"/>
-    <mergeCell ref="N991:N992"/>
-    <mergeCell ref="R997:S997"/>
-    <mergeCell ref="R999:S999"/>
-    <mergeCell ref="Q1001:R1001"/>
-    <mergeCell ref="A1005:A1006"/>
-    <mergeCell ref="B1005:B1006"/>
-    <mergeCell ref="C1005:C1006"/>
-    <mergeCell ref="D1005:D1006"/>
-    <mergeCell ref="F1005:F1006"/>
-    <mergeCell ref="G1005:G1006"/>
-    <mergeCell ref="H1005:H1006"/>
-    <mergeCell ref="T993:U993"/>
-    <mergeCell ref="V993:V994"/>
-    <mergeCell ref="W993:W994"/>
-    <mergeCell ref="X993:X994"/>
-    <mergeCell ref="Y993:Y994"/>
-    <mergeCell ref="Z993:Z994"/>
-    <mergeCell ref="N993:N994"/>
-    <mergeCell ref="O993:O994"/>
-    <mergeCell ref="P993:P994"/>
-    <mergeCell ref="Q993:Q994"/>
-    <mergeCell ref="R993:R994"/>
-    <mergeCell ref="S993:S994"/>
-    <mergeCell ref="H993:H994"/>
-    <mergeCell ref="I993:I994"/>
-    <mergeCell ref="J993:J994"/>
-    <mergeCell ref="K993:K994"/>
-    <mergeCell ref="L993:L994"/>
-    <mergeCell ref="M993:M994"/>
-    <mergeCell ref="A993:A994"/>
-    <mergeCell ref="B993:B994"/>
-    <mergeCell ref="C993:C994"/>
-    <mergeCell ref="D993:D994"/>
-    <mergeCell ref="R1014:S1014"/>
-    <mergeCell ref="A1015:A1016"/>
-    <mergeCell ref="B1015:B1016"/>
-    <mergeCell ref="C1015:C1016"/>
-    <mergeCell ref="D1015:D1016"/>
-    <mergeCell ref="F1015:F1016"/>
-    <mergeCell ref="G1015:G1016"/>
-    <mergeCell ref="H1015:H1016"/>
-    <mergeCell ref="I1015:I1016"/>
-    <mergeCell ref="J1015:J1016"/>
-    <mergeCell ref="V1005:V1006"/>
-    <mergeCell ref="W1005:W1006"/>
-    <mergeCell ref="X1005:X1006"/>
-    <mergeCell ref="Y1005:Y1006"/>
-    <mergeCell ref="Z1005:Z1006"/>
-    <mergeCell ref="S1008:T1008"/>
-    <mergeCell ref="O1005:O1006"/>
-    <mergeCell ref="P1005:P1006"/>
-    <mergeCell ref="Q1005:Q1006"/>
-    <mergeCell ref="R1005:S1005"/>
-    <mergeCell ref="T1005:T1006"/>
-    <mergeCell ref="U1005:U1006"/>
-    <mergeCell ref="I1005:I1006"/>
-    <mergeCell ref="J1005:J1006"/>
-    <mergeCell ref="K1005:K1006"/>
-    <mergeCell ref="L1005:L1006"/>
-    <mergeCell ref="M1005:M1006"/>
-    <mergeCell ref="N1005:N1006"/>
-    <mergeCell ref="F1037:F1038"/>
-    <mergeCell ref="G1037:G1038"/>
-    <mergeCell ref="R1019:S1019"/>
-    <mergeCell ref="R1023:S1023"/>
-    <mergeCell ref="R1024:S1024"/>
-    <mergeCell ref="Q1026:R1026"/>
-    <mergeCell ref="Q1027:R1027"/>
-    <mergeCell ref="Q1030:R1030"/>
-    <mergeCell ref="W1015:W1016"/>
-    <mergeCell ref="X1015:X1016"/>
-    <mergeCell ref="Y1015:Y1016"/>
-    <mergeCell ref="Z1015:Z1016"/>
-    <mergeCell ref="Q1017:R1017"/>
-    <mergeCell ref="Y1018:Z1018"/>
-    <mergeCell ref="Q1015:Q1016"/>
-    <mergeCell ref="R1015:R1016"/>
-    <mergeCell ref="S1015:S1016"/>
-    <mergeCell ref="T1015:T1016"/>
-    <mergeCell ref="U1015:U1016"/>
-    <mergeCell ref="V1015:V1016"/>
-    <mergeCell ref="K1015:K1016"/>
-    <mergeCell ref="L1015:L1016"/>
-    <mergeCell ref="M1015:M1016"/>
-    <mergeCell ref="N1015:N1016"/>
-    <mergeCell ref="O1015:O1016"/>
-    <mergeCell ref="P1015:P1016"/>
-    <mergeCell ref="Z1037:Z1038"/>
-    <mergeCell ref="Q1040:R1040"/>
-    <mergeCell ref="A1041:A1042"/>
-    <mergeCell ref="B1041:B1042"/>
-    <mergeCell ref="C1041:C1042"/>
-    <mergeCell ref="D1041:D1042"/>
-    <mergeCell ref="F1041:F1042"/>
-    <mergeCell ref="G1041:G1042"/>
-    <mergeCell ref="H1041:H1042"/>
-    <mergeCell ref="I1041:I1042"/>
-    <mergeCell ref="T1037:T1038"/>
-    <mergeCell ref="U1037:U1038"/>
-    <mergeCell ref="V1037:V1038"/>
-    <mergeCell ref="W1037:W1038"/>
-    <mergeCell ref="X1037:X1038"/>
-    <mergeCell ref="Y1037:Y1038"/>
-    <mergeCell ref="N1037:N1038"/>
-    <mergeCell ref="O1037:O1038"/>
-    <mergeCell ref="P1037:P1038"/>
-    <mergeCell ref="Q1037:Q1038"/>
-    <mergeCell ref="R1037:R1038"/>
-    <mergeCell ref="S1037:S1038"/>
-    <mergeCell ref="H1037:H1038"/>
-    <mergeCell ref="I1037:I1038"/>
-    <mergeCell ref="J1037:J1038"/>
-    <mergeCell ref="K1037:K1038"/>
-    <mergeCell ref="L1037:L1038"/>
-    <mergeCell ref="M1037:M1038"/>
-    <mergeCell ref="A1037:A1038"/>
-    <mergeCell ref="B1037:B1038"/>
-    <mergeCell ref="C1037:C1038"/>
-    <mergeCell ref="D1037:D1038"/>
-    <mergeCell ref="K1045:K1046"/>
-    <mergeCell ref="L1045:L1046"/>
-    <mergeCell ref="V1041:V1042"/>
-    <mergeCell ref="W1041:W1042"/>
-    <mergeCell ref="X1041:X1042"/>
-    <mergeCell ref="Y1041:Y1042"/>
-    <mergeCell ref="Z1041:Z1042"/>
-    <mergeCell ref="A1045:A1046"/>
-    <mergeCell ref="B1045:B1046"/>
-    <mergeCell ref="C1045:C1046"/>
-    <mergeCell ref="D1045:D1046"/>
-    <mergeCell ref="F1045:F1046"/>
-    <mergeCell ref="P1041:P1042"/>
-    <mergeCell ref="Q1041:Q1042"/>
-    <mergeCell ref="R1041:R1042"/>
-    <mergeCell ref="S1041:S1042"/>
-    <mergeCell ref="T1041:T1042"/>
-    <mergeCell ref="U1041:U1042"/>
-    <mergeCell ref="J1041:J1042"/>
-    <mergeCell ref="K1041:K1042"/>
-    <mergeCell ref="L1041:L1042"/>
-    <mergeCell ref="M1041:M1042"/>
-    <mergeCell ref="N1041:N1042"/>
-    <mergeCell ref="O1041:O1042"/>
-    <mergeCell ref="J1048:J1049"/>
-    <mergeCell ref="K1048:K1049"/>
-    <mergeCell ref="L1048:L1049"/>
-    <mergeCell ref="M1048:M1049"/>
-    <mergeCell ref="N1048:N1049"/>
-    <mergeCell ref="O1048:O1049"/>
-    <mergeCell ref="Y1045:Y1046"/>
-    <mergeCell ref="Z1045:Z1046"/>
-    <mergeCell ref="A1048:A1049"/>
-    <mergeCell ref="B1048:B1049"/>
-    <mergeCell ref="C1048:C1049"/>
-    <mergeCell ref="D1048:D1049"/>
-    <mergeCell ref="F1048:F1049"/>
-    <mergeCell ref="G1048:G1049"/>
-    <mergeCell ref="H1048:H1049"/>
-    <mergeCell ref="I1048:I1049"/>
-    <mergeCell ref="S1045:S1046"/>
-    <mergeCell ref="T1045:T1046"/>
-    <mergeCell ref="U1045:U1046"/>
-    <mergeCell ref="V1045:V1046"/>
-    <mergeCell ref="W1045:W1046"/>
-    <mergeCell ref="X1045:X1046"/>
-    <mergeCell ref="M1045:M1046"/>
-    <mergeCell ref="N1045:N1046"/>
-    <mergeCell ref="O1045:O1046"/>
-    <mergeCell ref="P1045:P1046"/>
-    <mergeCell ref="Q1045:Q1046"/>
-    <mergeCell ref="R1045:R1046"/>
-    <mergeCell ref="G1045:G1046"/>
-    <mergeCell ref="H1045:H1046"/>
-    <mergeCell ref="I1045:I1046"/>
-    <mergeCell ref="J1045:J1046"/>
-    <mergeCell ref="Q1052:R1052"/>
-    <mergeCell ref="R1053:S1053"/>
-    <mergeCell ref="R1055:S1055"/>
-    <mergeCell ref="R1056:S1056"/>
-    <mergeCell ref="R1059:S1059"/>
-    <mergeCell ref="R1060:S1060"/>
-    <mergeCell ref="V1048:V1049"/>
-    <mergeCell ref="W1048:W1049"/>
-    <mergeCell ref="X1048:X1049"/>
-    <mergeCell ref="Y1048:Y1049"/>
-    <mergeCell ref="Z1048:Z1049"/>
-    <mergeCell ref="S1050:T1050"/>
-    <mergeCell ref="P1048:P1049"/>
-    <mergeCell ref="Q1048:Q1049"/>
-    <mergeCell ref="R1048:R1049"/>
-    <mergeCell ref="S1048:S1049"/>
-    <mergeCell ref="T1048:T1049"/>
-    <mergeCell ref="U1048:U1049"/>
-    <mergeCell ref="A1063:A1064"/>
-    <mergeCell ref="B1063:B1064"/>
-    <mergeCell ref="C1063:C1064"/>
-    <mergeCell ref="D1063:D1064"/>
-    <mergeCell ref="F1063:F1064"/>
-    <mergeCell ref="G1063:G1064"/>
-    <mergeCell ref="U1061:U1062"/>
-    <mergeCell ref="V1061:V1062"/>
-    <mergeCell ref="W1061:W1062"/>
-    <mergeCell ref="X1061:X1062"/>
-    <mergeCell ref="Y1061:Y1062"/>
-    <mergeCell ref="Z1061:Z1062"/>
-    <mergeCell ref="N1061:N1062"/>
-    <mergeCell ref="O1061:O1062"/>
-    <mergeCell ref="P1061:P1062"/>
-    <mergeCell ref="Q1061:Q1062"/>
-    <mergeCell ref="R1061:R1062"/>
-    <mergeCell ref="S1061:T1061"/>
-    <mergeCell ref="H1061:H1062"/>
-    <mergeCell ref="I1061:I1062"/>
-    <mergeCell ref="J1061:J1062"/>
-    <mergeCell ref="K1061:K1062"/>
-    <mergeCell ref="L1061:L1062"/>
-    <mergeCell ref="M1061:M1062"/>
-    <mergeCell ref="A1061:A1062"/>
-    <mergeCell ref="B1061:B1062"/>
-    <mergeCell ref="C1061:C1062"/>
-    <mergeCell ref="D1061:D1062"/>
-    <mergeCell ref="F1061:F1062"/>
-    <mergeCell ref="G1061:G1062"/>
-    <mergeCell ref="C1069:C1070"/>
-    <mergeCell ref="D1069:D1070"/>
-    <mergeCell ref="F1069:F1070"/>
-    <mergeCell ref="G1069:G1070"/>
-    <mergeCell ref="U1063:U1064"/>
-    <mergeCell ref="V1063:V1064"/>
-    <mergeCell ref="W1063:W1064"/>
-    <mergeCell ref="X1063:X1064"/>
-    <mergeCell ref="Y1063:Y1064"/>
-    <mergeCell ref="Z1063:Z1064"/>
-    <mergeCell ref="N1063:N1064"/>
-    <mergeCell ref="O1063:O1064"/>
-    <mergeCell ref="P1063:P1064"/>
-    <mergeCell ref="Q1063:R1063"/>
-    <mergeCell ref="S1063:S1064"/>
-    <mergeCell ref="T1063:T1064"/>
-    <mergeCell ref="H1063:H1064"/>
-    <mergeCell ref="I1063:I1064"/>
-    <mergeCell ref="J1063:J1064"/>
-    <mergeCell ref="K1063:K1064"/>
-    <mergeCell ref="L1063:L1064"/>
-    <mergeCell ref="M1063:M1064"/>
-    <mergeCell ref="K1082:K1083"/>
-    <mergeCell ref="L1082:L1083"/>
-    <mergeCell ref="Z1069:Z1070"/>
-    <mergeCell ref="R1078:S1078"/>
-    <mergeCell ref="Q1079:R1079"/>
-    <mergeCell ref="S1080:T1080"/>
-    <mergeCell ref="Q1081:R1081"/>
-    <mergeCell ref="A1082:A1083"/>
-    <mergeCell ref="B1082:B1083"/>
-    <mergeCell ref="C1082:C1083"/>
-    <mergeCell ref="D1082:D1083"/>
-    <mergeCell ref="F1082:F1083"/>
-    <mergeCell ref="T1069:T1070"/>
-    <mergeCell ref="U1069:U1070"/>
-    <mergeCell ref="V1069:V1070"/>
-    <mergeCell ref="W1069:W1070"/>
-    <mergeCell ref="X1069:X1070"/>
-    <mergeCell ref="Y1069:Y1070"/>
-    <mergeCell ref="N1069:N1070"/>
-    <mergeCell ref="O1069:O1070"/>
-    <mergeCell ref="P1069:P1070"/>
-    <mergeCell ref="Q1069:Q1070"/>
-    <mergeCell ref="R1069:R1070"/>
-    <mergeCell ref="S1069:S1070"/>
-    <mergeCell ref="H1069:H1070"/>
-    <mergeCell ref="I1069:I1070"/>
-    <mergeCell ref="J1069:J1070"/>
-    <mergeCell ref="K1069:K1070"/>
-    <mergeCell ref="L1069:L1070"/>
-    <mergeCell ref="M1069:M1070"/>
-    <mergeCell ref="A1069:A1070"/>
-    <mergeCell ref="B1069:B1070"/>
-    <mergeCell ref="Q1091:R1091"/>
-    <mergeCell ref="R1097:S1097"/>
-    <mergeCell ref="A1100:A1101"/>
-    <mergeCell ref="B1100:B1101"/>
-    <mergeCell ref="C1100:C1101"/>
-    <mergeCell ref="D1100:D1101"/>
-    <mergeCell ref="F1100:F1101"/>
-    <mergeCell ref="G1100:G1101"/>
-    <mergeCell ref="H1100:H1101"/>
-    <mergeCell ref="I1100:I1101"/>
-    <mergeCell ref="Y1082:Y1083"/>
-    <mergeCell ref="Z1082:Z1083"/>
-    <mergeCell ref="R1084:S1084"/>
-    <mergeCell ref="S1087:T1087"/>
-    <mergeCell ref="S1089:T1089"/>
-    <mergeCell ref="R1090:S1090"/>
-    <mergeCell ref="S1082:S1083"/>
-    <mergeCell ref="T1082:T1083"/>
-    <mergeCell ref="U1082:U1083"/>
-    <mergeCell ref="V1082:V1083"/>
-    <mergeCell ref="W1082:W1083"/>
-    <mergeCell ref="X1082:X1083"/>
-    <mergeCell ref="M1082:M1083"/>
-    <mergeCell ref="N1082:N1083"/>
-    <mergeCell ref="O1082:O1083"/>
-    <mergeCell ref="P1082:P1083"/>
-    <mergeCell ref="Q1082:Q1083"/>
-    <mergeCell ref="R1082:R1083"/>
-    <mergeCell ref="G1082:G1083"/>
-    <mergeCell ref="H1082:H1083"/>
-    <mergeCell ref="I1082:I1083"/>
-    <mergeCell ref="J1082:J1083"/>
-    <mergeCell ref="X1100:X1101"/>
-    <mergeCell ref="Y1100:Y1101"/>
-    <mergeCell ref="Z1100:Z1101"/>
-    <mergeCell ref="Q1102:R1102"/>
-    <mergeCell ref="R1103:S1103"/>
-    <mergeCell ref="P1100:P1101"/>
-    <mergeCell ref="Q1100:Q1101"/>
-    <mergeCell ref="R1100:S1100"/>
-    <mergeCell ref="T1100:T1101"/>
-    <mergeCell ref="U1100:U1101"/>
-    <mergeCell ref="V1100:V1101"/>
-    <mergeCell ref="J1100:J1101"/>
-    <mergeCell ref="K1100:K1101"/>
-    <mergeCell ref="L1100:L1101"/>
-    <mergeCell ref="M1100:M1101"/>
-    <mergeCell ref="N1100:N1101"/>
-    <mergeCell ref="O1100:O1101"/>
-    <mergeCell ref="R1126:S1126"/>
-    <mergeCell ref="R1128:S1128"/>
-    <mergeCell ref="U1131:V1131"/>
-    <mergeCell ref="A1132:A1133"/>
-    <mergeCell ref="B1132:B1133"/>
-    <mergeCell ref="C1132:C1133"/>
-    <mergeCell ref="D1132:D1133"/>
-    <mergeCell ref="F1132:F1133"/>
-    <mergeCell ref="G1132:G1133"/>
-    <mergeCell ref="H1132:H1133"/>
-    <mergeCell ref="Q1104:R1104"/>
-    <mergeCell ref="Q1107:R1107"/>
-    <mergeCell ref="V1115:W1115"/>
-    <mergeCell ref="Q1116:R1116"/>
-    <mergeCell ref="Q1123:R1123"/>
-    <mergeCell ref="Q1125:R1125"/>
-    <mergeCell ref="W1100:W1101"/>
-    <mergeCell ref="G1151:G1153"/>
-    <mergeCell ref="U1132:U1133"/>
-    <mergeCell ref="V1132:V1133"/>
-    <mergeCell ref="W1132:W1133"/>
-    <mergeCell ref="X1132:X1133"/>
-    <mergeCell ref="Y1132:Y1133"/>
-    <mergeCell ref="Z1132:Z1133"/>
-    <mergeCell ref="O1132:O1133"/>
-    <mergeCell ref="P1132:P1133"/>
-    <mergeCell ref="Q1132:Q1133"/>
-    <mergeCell ref="R1132:R1133"/>
-    <mergeCell ref="S1132:S1133"/>
-    <mergeCell ref="T1132:T1133"/>
-    <mergeCell ref="I1132:I1133"/>
-    <mergeCell ref="J1132:J1133"/>
-    <mergeCell ref="K1132:K1133"/>
-    <mergeCell ref="L1132:L1133"/>
-    <mergeCell ref="M1132:M1133"/>
-    <mergeCell ref="N1132:N1133"/>
-    <mergeCell ref="A1156:A1157"/>
-    <mergeCell ref="B1156:B1157"/>
-    <mergeCell ref="C1156:C1157"/>
-    <mergeCell ref="D1156:D1157"/>
-    <mergeCell ref="F1156:F1157"/>
-    <mergeCell ref="G1156:G1157"/>
-    <mergeCell ref="H1156:H1157"/>
-    <mergeCell ref="I1156:I1157"/>
-    <mergeCell ref="J1156:J1157"/>
-    <mergeCell ref="T1151:T1153"/>
-    <mergeCell ref="U1151:U1153"/>
-    <mergeCell ref="V1151:V1153"/>
-    <mergeCell ref="W1151:W1153"/>
-    <mergeCell ref="X1151:X1153"/>
-    <mergeCell ref="Y1151:Y1153"/>
-    <mergeCell ref="N1151:N1153"/>
-    <mergeCell ref="O1151:O1153"/>
-    <mergeCell ref="P1151:P1153"/>
-    <mergeCell ref="Q1151:Q1153"/>
-    <mergeCell ref="R1151:R1153"/>
-    <mergeCell ref="S1151:S1153"/>
-    <mergeCell ref="H1151:H1153"/>
-    <mergeCell ref="I1151:I1153"/>
-    <mergeCell ref="J1151:J1153"/>
-    <mergeCell ref="K1151:K1153"/>
-    <mergeCell ref="L1151:L1153"/>
-    <mergeCell ref="M1151:M1153"/>
-    <mergeCell ref="A1151:A1153"/>
-    <mergeCell ref="B1151:B1153"/>
-    <mergeCell ref="C1151:C1153"/>
-    <mergeCell ref="D1151:D1153"/>
-    <mergeCell ref="F1151:F1153"/>
-    <mergeCell ref="W1156:W1157"/>
-    <mergeCell ref="X1156:X1157"/>
-    <mergeCell ref="Y1156:Y1157"/>
-    <mergeCell ref="Z1156:Z1157"/>
-    <mergeCell ref="Q1156:Q1157"/>
-    <mergeCell ref="R1156:R1157"/>
-    <mergeCell ref="S1156:S1157"/>
-    <mergeCell ref="T1156:T1157"/>
-    <mergeCell ref="U1156:U1157"/>
-    <mergeCell ref="V1156:V1157"/>
-    <mergeCell ref="K1156:K1157"/>
-    <mergeCell ref="L1156:L1157"/>
-    <mergeCell ref="M1156:M1157"/>
-    <mergeCell ref="N1156:N1157"/>
-    <mergeCell ref="O1156:O1157"/>
-    <mergeCell ref="P1156:P1157"/>
-    <mergeCell ref="Z1151:Z1153"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q14:R14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -79490,13 +79077,463 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="A1:E30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>36404</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>36161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>37257</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>37438</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>37773</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>38078</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>38139</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>38231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>39022</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>39173</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>39234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>39387</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>39630</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>39722</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>39753</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>39995</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>40422</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>40695</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>40695</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>40695</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>40756</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>41030</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>41183</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>41306</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>41334</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>41456</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>41671</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>41974</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>42461</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
